--- a/data/monitoring_phenology/2024_senescence.xlsx
+++ b/data/monitoring_phenology/2024_senescence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B9E248-9DB9-BD41-AD76-7AF54195F284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FACA26-E636-2D40-BCEF-79C7DC24A89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6457" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6461" uniqueCount="765">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2865,14 +2865,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3751,10 +3749,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A522" zoomScale="191" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A343" zoomScale="207" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
       <selection activeCell="A493" sqref="A493"/>
-      <selection pane="topRight" activeCell="F524" sqref="F524"/>
+      <selection pane="topRight" activeCell="AP361" sqref="AP361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3881,16 +3879,16 @@
       <c r="AL1" t="s">
         <v>735</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" t="s">
         <v>749</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" t="s">
         <v>750</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" t="s">
         <v>751</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="2" t="s">
         <v>752</v>
       </c>
     </row>
@@ -4009,10 +4007,6 @@
       <c r="AL2">
         <v>0</v>
       </c>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -4129,10 +4123,6 @@
       <c r="AL3">
         <v>0</v>
       </c>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4249,10 +4239,6 @@
       <c r="AL4">
         <v>0</v>
       </c>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4369,10 +4355,6 @@
       <c r="AL5">
         <v>0</v>
       </c>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4489,10 +4471,6 @@
       <c r="AL6">
         <v>0</v>
       </c>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4609,10 +4587,6 @@
       <c r="AL7">
         <v>0</v>
       </c>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -4729,10 +4703,6 @@
       <c r="AL8">
         <v>0</v>
       </c>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -4849,10 +4819,6 @@
       <c r="AL9">
         <v>0</v>
       </c>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -4969,10 +4935,6 @@
       <c r="AL10">
         <v>0</v>
       </c>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -5089,10 +5051,6 @@
       <c r="AL11">
         <v>0</v>
       </c>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -5209,10 +5167,6 @@
       <c r="AL12">
         <v>0</v>
       </c>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -5329,10 +5283,6 @@
       <c r="AL13">
         <v>0</v>
       </c>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -5449,10 +5399,6 @@
       <c r="AL14">
         <v>0</v>
       </c>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -5569,10 +5515,6 @@
       <c r="AL15">
         <v>0</v>
       </c>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -5689,10 +5631,6 @@
       <c r="AL16">
         <v>0</v>
       </c>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -5809,10 +5747,6 @@
       <c r="AL17">
         <v>0</v>
       </c>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -5929,10 +5863,6 @@
       <c r="AL18">
         <v>0</v>
       </c>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -6049,10 +5979,6 @@
       <c r="AL19">
         <v>0</v>
       </c>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -6169,10 +6095,6 @@
       <c r="AL20">
         <v>0</v>
       </c>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -6289,10 +6211,6 @@
       <c r="AL21">
         <v>0</v>
       </c>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -6409,10 +6327,6 @@
       <c r="AL22">
         <v>0</v>
       </c>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -6529,10 +6443,6 @@
       <c r="AL23">
         <v>0</v>
       </c>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -6649,10 +6559,6 @@
       <c r="AL24">
         <v>0</v>
       </c>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -6769,10 +6675,6 @@
       <c r="AL25">
         <v>0</v>
       </c>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -6889,10 +6791,6 @@
       <c r="AL26">
         <v>0</v>
       </c>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -7009,10 +6907,6 @@
       <c r="AL27">
         <v>0</v>
       </c>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -7129,10 +7023,6 @@
       <c r="AL28">
         <v>0</v>
       </c>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -7249,10 +7139,6 @@
       <c r="AL29">
         <v>0</v>
       </c>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -7369,10 +7255,6 @@
       <c r="AL30">
         <v>0</v>
       </c>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -7489,10 +7371,6 @@
       <c r="AL31">
         <v>0</v>
       </c>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -7609,16 +7487,16 @@
       <c r="AL32">
         <v>5</v>
       </c>
-      <c r="AM32" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AN32" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AO32" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AP32" s="5">
+      <c r="AM32" t="s">
+        <v>660</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>660</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>660</v>
+      </c>
+      <c r="AP32">
         <v>0</v>
       </c>
     </row>
@@ -7737,16 +7615,16 @@
       <c r="AL33">
         <v>5</v>
       </c>
-      <c r="AM33" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AN33" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AO33" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AP33" s="5">
+      <c r="AM33" t="s">
+        <v>660</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>660</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>660</v>
+      </c>
+      <c r="AP33">
         <v>5</v>
       </c>
     </row>
@@ -7862,16 +7740,16 @@
       <c r="AL34">
         <v>20</v>
       </c>
-      <c r="AM34" s="5">
+      <c r="AM34">
         <v>8.9</v>
       </c>
-      <c r="AN34" s="5">
+      <c r="AN34">
         <v>7.4</v>
       </c>
-      <c r="AO34" s="5">
+      <c r="AO34">
         <v>5.3</v>
       </c>
-      <c r="AP34" s="5">
+      <c r="AP34">
         <v>10</v>
       </c>
     </row>
@@ -7990,10 +7868,6 @@
       <c r="AL35">
         <v>0</v>
       </c>
-      <c r="AM35" s="5"/>
-      <c r="AN35" s="5"/>
-      <c r="AO35" s="5"/>
-      <c r="AP35" s="5"/>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -8110,10 +7984,6 @@
       <c r="AL36">
         <v>0</v>
       </c>
-      <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
-      <c r="AO36" s="5"/>
-      <c r="AP36" s="5"/>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -8230,10 +8100,6 @@
       <c r="AL37">
         <v>0</v>
       </c>
-      <c r="AM37" s="5"/>
-      <c r="AN37" s="5"/>
-      <c r="AO37" s="5"/>
-      <c r="AP37" s="5"/>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -8350,10 +8216,6 @@
       <c r="AL38">
         <v>0</v>
       </c>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
-      <c r="AP38" s="5"/>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -8470,10 +8332,6 @@
       <c r="AL39">
         <v>0</v>
       </c>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -8590,10 +8448,6 @@
       <c r="AL40">
         <v>0</v>
       </c>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -8710,10 +8564,6 @@
       <c r="AL41">
         <v>0</v>
       </c>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -8830,10 +8680,6 @@
       <c r="AL42">
         <v>0</v>
       </c>
-      <c r="AM42" s="5"/>
-      <c r="AN42" s="5"/>
-      <c r="AO42" s="5"/>
-      <c r="AP42" s="5"/>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -8950,10 +8796,6 @@
       <c r="AL43">
         <v>0</v>
       </c>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
-      <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -9070,10 +8912,6 @@
       <c r="AL44">
         <v>0</v>
       </c>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -9190,10 +9028,6 @@
       <c r="AL45">
         <v>0</v>
       </c>
-      <c r="AM45" s="5"/>
-      <c r="AN45" s="5"/>
-      <c r="AO45" s="5"/>
-      <c r="AP45" s="5"/>
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -9310,10 +9144,6 @@
       <c r="AL46">
         <v>0</v>
       </c>
-      <c r="AM46" s="5"/>
-      <c r="AN46" s="5"/>
-      <c r="AO46" s="5"/>
-      <c r="AP46" s="5"/>
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -9430,10 +9260,6 @@
       <c r="AL47">
         <v>0</v>
       </c>
-      <c r="AM47" s="5"/>
-      <c r="AN47" s="5"/>
-      <c r="AO47" s="5"/>
-      <c r="AP47" s="5"/>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -9550,10 +9376,6 @@
       <c r="AL48">
         <v>0</v>
       </c>
-      <c r="AM48" s="5"/>
-      <c r="AN48" s="5"/>
-      <c r="AO48" s="5"/>
-      <c r="AP48" s="5"/>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -9670,10 +9492,6 @@
       <c r="AL49">
         <v>0</v>
       </c>
-      <c r="AM49" s="5"/>
-      <c r="AN49" s="5"/>
-      <c r="AO49" s="5"/>
-      <c r="AP49" s="5"/>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -9790,10 +9608,6 @@
       <c r="AL50">
         <v>0</v>
       </c>
-      <c r="AM50" s="5"/>
-      <c r="AN50" s="5"/>
-      <c r="AO50" s="5"/>
-      <c r="AP50" s="5"/>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -9910,10 +9724,6 @@
       <c r="AL51">
         <v>0</v>
       </c>
-      <c r="AM51" s="5"/>
-      <c r="AN51" s="5"/>
-      <c r="AO51" s="5"/>
-      <c r="AP51" s="5"/>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -10030,10 +9840,6 @@
       <c r="AL52">
         <v>0</v>
       </c>
-      <c r="AM52" s="5"/>
-      <c r="AN52" s="5"/>
-      <c r="AO52" s="5"/>
-      <c r="AP52" s="5"/>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -10150,10 +9956,6 @@
       <c r="AL53">
         <v>0</v>
       </c>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-      <c r="AP53" s="5"/>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -10270,10 +10072,6 @@
       <c r="AL54">
         <v>0</v>
       </c>
-      <c r="AM54" s="5"/>
-      <c r="AN54" s="5"/>
-      <c r="AO54" s="5"/>
-      <c r="AP54" s="5"/>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -10390,10 +10188,6 @@
       <c r="AL55">
         <v>0</v>
       </c>
-      <c r="AM55" s="5"/>
-      <c r="AN55" s="5"/>
-      <c r="AO55" s="5"/>
-      <c r="AP55" s="5"/>
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -10510,10 +10304,6 @@
       <c r="AL56">
         <v>0</v>
       </c>
-      <c r="AM56" s="5"/>
-      <c r="AN56" s="5"/>
-      <c r="AO56" s="5"/>
-      <c r="AP56" s="5"/>
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -10630,10 +10420,6 @@
       <c r="AL57">
         <v>0</v>
       </c>
-      <c r="AM57" s="5"/>
-      <c r="AN57" s="5"/>
-      <c r="AO57" s="5"/>
-      <c r="AP57" s="5"/>
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -10750,10 +10536,6 @@
       <c r="AL58">
         <v>0</v>
       </c>
-      <c r="AM58" s="5"/>
-      <c r="AN58" s="5"/>
-      <c r="AO58" s="5"/>
-      <c r="AP58" s="5"/>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -10870,10 +10652,6 @@
       <c r="AL59">
         <v>0</v>
       </c>
-      <c r="AM59" s="5"/>
-      <c r="AN59" s="5"/>
-      <c r="AO59" s="5"/>
-      <c r="AP59" s="5"/>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -10990,10 +10768,6 @@
       <c r="AL60">
         <v>0</v>
       </c>
-      <c r="AM60" s="5"/>
-      <c r="AN60" s="5"/>
-      <c r="AO60" s="5"/>
-      <c r="AP60" s="5"/>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -11110,10 +10884,6 @@
       <c r="AL61">
         <v>0</v>
       </c>
-      <c r="AM61" s="5"/>
-      <c r="AN61" s="5"/>
-      <c r="AO61" s="5"/>
-      <c r="AP61" s="5"/>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -11230,10 +11000,7 @@
       <c r="AL62">
         <v>0</v>
       </c>
-      <c r="AM62" s="5"/>
-      <c r="AN62" s="5"/>
-      <c r="AO62" s="5"/>
-      <c r="AP62" s="5">
+      <c r="AP62">
         <v>0</v>
       </c>
     </row>
@@ -11352,10 +11119,7 @@
       <c r="AL63">
         <v>0</v>
       </c>
-      <c r="AM63" s="5"/>
-      <c r="AN63" s="5"/>
-      <c r="AO63" s="5"/>
-      <c r="AP63" s="5">
+      <c r="AP63">
         <v>0</v>
       </c>
     </row>
@@ -11474,10 +11238,7 @@
       <c r="AL64">
         <v>0</v>
       </c>
-      <c r="AM64" s="5"/>
-      <c r="AN64" s="5"/>
-      <c r="AO64" s="5"/>
-      <c r="AP64" s="5">
+      <c r="AP64">
         <v>0</v>
       </c>
     </row>
@@ -11596,10 +11357,7 @@
       <c r="AL65">
         <v>0</v>
       </c>
-      <c r="AM65" s="5"/>
-      <c r="AN65" s="5"/>
-      <c r="AO65" s="5"/>
-      <c r="AP65" s="5">
+      <c r="AP65">
         <v>0</v>
       </c>
     </row>
@@ -11715,16 +11473,16 @@
       <c r="AL66">
         <v>30</v>
       </c>
-      <c r="AM66" s="5">
+      <c r="AM66">
         <v>15.2</v>
       </c>
-      <c r="AN66" s="5">
+      <c r="AN66">
         <v>15.4</v>
       </c>
-      <c r="AO66" s="5">
+      <c r="AO66">
         <v>13.7</v>
       </c>
-      <c r="AP66" s="5">
+      <c r="AP66">
         <v>20</v>
       </c>
     </row>
@@ -11843,10 +11601,6 @@
       <c r="AL67">
         <v>0</v>
       </c>
-      <c r="AM67" s="5"/>
-      <c r="AN67" s="5"/>
-      <c r="AO67" s="5"/>
-      <c r="AP67" s="5"/>
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -11963,10 +11717,6 @@
       <c r="AL68">
         <v>0</v>
       </c>
-      <c r="AM68" s="5"/>
-      <c r="AN68" s="5"/>
-      <c r="AO68" s="5"/>
-      <c r="AP68" s="5"/>
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
@@ -12083,10 +11833,6 @@
       <c r="AL69">
         <v>0</v>
       </c>
-      <c r="AM69" s="5"/>
-      <c r="AN69" s="5"/>
-      <c r="AO69" s="5"/>
-      <c r="AP69" s="5"/>
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -12203,10 +11949,6 @@
       <c r="AL70">
         <v>0</v>
       </c>
-      <c r="AM70" s="5"/>
-      <c r="AN70" s="5"/>
-      <c r="AO70" s="5"/>
-      <c r="AP70" s="5"/>
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -12323,10 +12065,6 @@
       <c r="AL71">
         <v>0</v>
       </c>
-      <c r="AM71" s="5"/>
-      <c r="AN71" s="5"/>
-      <c r="AO71" s="5"/>
-      <c r="AP71" s="5"/>
     </row>
     <row r="72" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -12443,10 +12181,6 @@
       <c r="AL72">
         <v>0</v>
       </c>
-      <c r="AM72" s="5"/>
-      <c r="AN72" s="5"/>
-      <c r="AO72" s="5"/>
-      <c r="AP72" s="5"/>
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -12563,10 +12297,6 @@
       <c r="AL73">
         <v>0</v>
       </c>
-      <c r="AM73" s="5"/>
-      <c r="AN73" s="5"/>
-      <c r="AO73" s="5"/>
-      <c r="AP73" s="5"/>
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -12683,10 +12413,6 @@
       <c r="AL74">
         <v>0</v>
       </c>
-      <c r="AM74" s="5"/>
-      <c r="AN74" s="5"/>
-      <c r="AO74" s="5"/>
-      <c r="AP74" s="5"/>
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -12803,10 +12529,6 @@
       <c r="AL75">
         <v>0</v>
       </c>
-      <c r="AM75" s="5"/>
-      <c r="AN75" s="5"/>
-      <c r="AO75" s="5"/>
-      <c r="AP75" s="5"/>
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -12923,10 +12645,6 @@
       <c r="AL76">
         <v>5</v>
       </c>
-      <c r="AM76" s="5"/>
-      <c r="AN76" s="5"/>
-      <c r="AO76" s="5"/>
-      <c r="AP76" s="5"/>
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -13043,10 +12761,6 @@
       <c r="AL77">
         <v>0</v>
       </c>
-      <c r="AM77" s="5"/>
-      <c r="AN77" s="5"/>
-      <c r="AO77" s="5"/>
-      <c r="AP77" s="5"/>
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -13163,10 +12877,6 @@
       <c r="AL78">
         <v>0</v>
       </c>
-      <c r="AM78" s="5"/>
-      <c r="AN78" s="5"/>
-      <c r="AO78" s="5"/>
-      <c r="AP78" s="5"/>
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -13283,10 +12993,6 @@
       <c r="AL79">
         <v>0</v>
       </c>
-      <c r="AM79" s="5"/>
-      <c r="AN79" s="5"/>
-      <c r="AO79" s="5"/>
-      <c r="AP79" s="5"/>
     </row>
     <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -13403,10 +13109,6 @@
       <c r="AL80">
         <v>5</v>
       </c>
-      <c r="AM80" s="5"/>
-      <c r="AN80" s="5"/>
-      <c r="AO80" s="5"/>
-      <c r="AP80" s="5"/>
     </row>
     <row r="81" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -13523,10 +13225,6 @@
       <c r="AL81">
         <v>0</v>
       </c>
-      <c r="AM81" s="5"/>
-      <c r="AN81" s="5"/>
-      <c r="AO81" s="5"/>
-      <c r="AP81" s="5"/>
     </row>
     <row r="82" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -13643,10 +13341,6 @@
       <c r="AL82">
         <v>5</v>
       </c>
-      <c r="AM82" s="5"/>
-      <c r="AN82" s="5"/>
-      <c r="AO82" s="5"/>
-      <c r="AP82" s="5"/>
     </row>
     <row r="83" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -13763,10 +13457,6 @@
       <c r="AL83">
         <v>0</v>
       </c>
-      <c r="AM83" s="5"/>
-      <c r="AN83" s="5"/>
-      <c r="AO83" s="5"/>
-      <c r="AP83" s="5"/>
     </row>
     <row r="84" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -13883,10 +13573,6 @@
       <c r="AL84">
         <v>0</v>
       </c>
-      <c r="AM84" s="5"/>
-      <c r="AN84" s="5"/>
-      <c r="AO84" s="5"/>
-      <c r="AP84" s="5"/>
     </row>
     <row r="85" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -14003,10 +13689,6 @@
       <c r="AL85">
         <v>0</v>
       </c>
-      <c r="AM85" s="5"/>
-      <c r="AN85" s="5"/>
-      <c r="AO85" s="5"/>
-      <c r="AP85" s="5"/>
     </row>
     <row r="86" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -14123,10 +13805,6 @@
       <c r="AL86">
         <v>0</v>
       </c>
-      <c r="AM86" s="5"/>
-      <c r="AN86" s="5"/>
-      <c r="AO86" s="5"/>
-      <c r="AP86" s="5"/>
     </row>
     <row r="87" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -14243,10 +13921,6 @@
       <c r="AL87">
         <v>0</v>
       </c>
-      <c r="AM87" s="5"/>
-      <c r="AN87" s="5"/>
-      <c r="AO87" s="5"/>
-      <c r="AP87" s="5"/>
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -14363,10 +14037,6 @@
       <c r="AL88">
         <v>0</v>
       </c>
-      <c r="AM88" s="5"/>
-      <c r="AN88" s="5"/>
-      <c r="AO88" s="5"/>
-      <c r="AP88" s="5"/>
     </row>
     <row r="89" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -14483,10 +14153,6 @@
       <c r="AL89">
         <v>0</v>
       </c>
-      <c r="AM89" s="5"/>
-      <c r="AN89" s="5"/>
-      <c r="AO89" s="5"/>
-      <c r="AP89" s="5"/>
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -14603,10 +14269,6 @@
       <c r="AL90">
         <v>0</v>
       </c>
-      <c r="AM90" s="5"/>
-      <c r="AN90" s="5"/>
-      <c r="AO90" s="5"/>
-      <c r="AP90" s="5"/>
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -14723,10 +14385,6 @@
       <c r="AL91">
         <v>5</v>
       </c>
-      <c r="AM91" s="5"/>
-      <c r="AN91" s="5"/>
-      <c r="AO91" s="5"/>
-      <c r="AP91" s="5"/>
     </row>
     <row r="92" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -14843,10 +14501,7 @@
       <c r="AL92">
         <v>0</v>
       </c>
-      <c r="AM92" s="5"/>
-      <c r="AN92" s="5"/>
-      <c r="AO92" s="5"/>
-      <c r="AP92" s="5">
+      <c r="AP92">
         <v>0</v>
       </c>
     </row>
@@ -14965,10 +14620,7 @@
       <c r="AL93">
         <v>0</v>
       </c>
-      <c r="AM93" s="5"/>
-      <c r="AN93" s="5"/>
-      <c r="AO93" s="5"/>
-      <c r="AP93" s="5">
+      <c r="AP93">
         <v>0</v>
       </c>
     </row>
@@ -15087,10 +14739,7 @@
       <c r="AL94">
         <v>5</v>
       </c>
-      <c r="AM94" s="5"/>
-      <c r="AN94" s="5"/>
-      <c r="AO94" s="5"/>
-      <c r="AP94" s="5">
+      <c r="AP94">
         <v>0</v>
       </c>
     </row>
@@ -15206,16 +14855,16 @@
       <c r="AL95">
         <v>50</v>
       </c>
-      <c r="AM95" s="5">
+      <c r="AM95">
         <v>29.9</v>
       </c>
-      <c r="AN95" s="5">
+      <c r="AN95">
         <v>1.4</v>
       </c>
-      <c r="AO95" s="5">
+      <c r="AO95">
         <v>14.1</v>
       </c>
-      <c r="AP95" s="5">
+      <c r="AP95">
         <v>30</v>
       </c>
     </row>
@@ -15334,10 +14983,7 @@
       <c r="AL96">
         <v>0</v>
       </c>
-      <c r="AM96" s="5"/>
-      <c r="AN96" s="5"/>
-      <c r="AO96" s="5"/>
-      <c r="AP96" s="5">
+      <c r="AP96">
         <v>0</v>
       </c>
     </row>
@@ -15456,10 +15102,7 @@
       <c r="AL97">
         <v>0</v>
       </c>
-      <c r="AM97" s="5"/>
-      <c r="AN97" s="5"/>
-      <c r="AO97" s="5"/>
-      <c r="AP97" s="5">
+      <c r="AP97">
         <v>0</v>
       </c>
     </row>
@@ -15578,10 +15221,7 @@
       <c r="AL98">
         <v>0</v>
       </c>
-      <c r="AM98" s="5"/>
-      <c r="AN98" s="5"/>
-      <c r="AO98" s="5"/>
-      <c r="AP98" s="5">
+      <c r="AP98">
         <v>0</v>
       </c>
     </row>
@@ -15700,10 +15340,7 @@
       <c r="AL99">
         <v>0</v>
       </c>
-      <c r="AM99" s="5"/>
-      <c r="AN99" s="5"/>
-      <c r="AO99" s="5"/>
-      <c r="AP99" s="5">
+      <c r="AP99">
         <v>0</v>
       </c>
     </row>
@@ -15822,10 +15459,7 @@
       <c r="AL100">
         <v>0</v>
       </c>
-      <c r="AM100" s="5"/>
-      <c r="AN100" s="5"/>
-      <c r="AO100" s="5"/>
-      <c r="AP100" s="5">
+      <c r="AP100">
         <v>0</v>
       </c>
     </row>
@@ -15944,10 +15578,7 @@
       <c r="AL101">
         <v>0</v>
       </c>
-      <c r="AM101" s="5"/>
-      <c r="AN101" s="5"/>
-      <c r="AO101" s="5"/>
-      <c r="AP101" s="5">
+      <c r="AP101">
         <v>0</v>
       </c>
     </row>
@@ -16066,10 +15697,6 @@
       <c r="AL102">
         <v>0</v>
       </c>
-      <c r="AM102" s="5"/>
-      <c r="AN102" s="5"/>
-      <c r="AO102" s="5"/>
-      <c r="AP102" s="5"/>
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
@@ -16183,10 +15810,6 @@
       <c r="AL103">
         <v>10</v>
       </c>
-      <c r="AM103" s="5"/>
-      <c r="AN103" s="5"/>
-      <c r="AO103" s="5"/>
-      <c r="AP103" s="5"/>
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -16303,10 +15926,6 @@
       <c r="AL104">
         <v>5</v>
       </c>
-      <c r="AM104" s="5"/>
-      <c r="AN104" s="5"/>
-      <c r="AO104" s="5"/>
-      <c r="AP104" s="5"/>
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -16423,10 +16042,6 @@
       <c r="AL105">
         <v>0</v>
       </c>
-      <c r="AM105" s="5"/>
-      <c r="AN105" s="5"/>
-      <c r="AO105" s="5"/>
-      <c r="AP105" s="5"/>
     </row>
     <row r="106" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -16543,10 +16158,6 @@
       <c r="AL106">
         <v>0</v>
       </c>
-      <c r="AM106" s="5"/>
-      <c r="AN106" s="5"/>
-      <c r="AO106" s="5"/>
-      <c r="AP106" s="5"/>
     </row>
     <row r="107" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -16663,10 +16274,7 @@
       <c r="AL107">
         <v>0</v>
       </c>
-      <c r="AM107" s="5"/>
-      <c r="AN107" s="5"/>
-      <c r="AO107" s="5"/>
-      <c r="AP107" s="5">
+      <c r="AP107">
         <v>0</v>
       </c>
     </row>
@@ -16785,10 +16393,7 @@
       <c r="AL108">
         <v>0</v>
       </c>
-      <c r="AM108" s="5"/>
-      <c r="AN108" s="5"/>
-      <c r="AO108" s="5"/>
-      <c r="AP108" s="5">
+      <c r="AP108">
         <v>0</v>
       </c>
     </row>
@@ -16907,10 +16512,7 @@
       <c r="AL109">
         <v>0</v>
       </c>
-      <c r="AM109" s="5"/>
-      <c r="AN109" s="5"/>
-      <c r="AO109" s="5"/>
-      <c r="AP109" s="5">
+      <c r="AP109">
         <v>0</v>
       </c>
     </row>
@@ -17029,10 +16631,7 @@
       <c r="AL110">
         <v>10</v>
       </c>
-      <c r="AM110" s="5"/>
-      <c r="AN110" s="5"/>
-      <c r="AO110" s="5"/>
-      <c r="AP110" s="5">
+      <c r="AP110">
         <v>0</v>
       </c>
     </row>
@@ -17151,10 +16750,7 @@
       <c r="AL111">
         <v>0</v>
       </c>
-      <c r="AM111" s="5"/>
-      <c r="AN111" s="5"/>
-      <c r="AO111" s="5"/>
-      <c r="AP111" s="5">
+      <c r="AP111">
         <v>0</v>
       </c>
     </row>
@@ -17273,10 +16869,7 @@
       <c r="AL112">
         <v>0</v>
       </c>
-      <c r="AM112" s="5"/>
-      <c r="AN112" s="5"/>
-      <c r="AO112" s="5"/>
-      <c r="AP112" s="5">
+      <c r="AP112">
         <v>0</v>
       </c>
     </row>
@@ -17395,10 +16988,7 @@
       <c r="AL113">
         <v>20</v>
       </c>
-      <c r="AM113" s="5"/>
-      <c r="AN113" s="5"/>
-      <c r="AO113" s="5"/>
-      <c r="AP113" s="5">
+      <c r="AP113">
         <v>0</v>
       </c>
     </row>
@@ -17517,10 +17107,7 @@
       <c r="AL114">
         <v>0</v>
       </c>
-      <c r="AM114" s="5"/>
-      <c r="AN114" s="5"/>
-      <c r="AO114" s="5"/>
-      <c r="AP114" s="5">
+      <c r="AP114">
         <v>0</v>
       </c>
     </row>
@@ -17639,10 +17226,7 @@
       <c r="AL115">
         <v>0</v>
       </c>
-      <c r="AM115" s="5"/>
-      <c r="AN115" s="5"/>
-      <c r="AO115" s="5"/>
-      <c r="AP115" s="5">
+      <c r="AP115">
         <v>0</v>
       </c>
     </row>
@@ -17761,10 +17345,7 @@
       <c r="AL116">
         <v>10</v>
       </c>
-      <c r="AM116" s="5"/>
-      <c r="AN116" s="5"/>
-      <c r="AO116" s="5"/>
-      <c r="AP116" s="5">
+      <c r="AP116">
         <v>0</v>
       </c>
     </row>
@@ -17883,10 +17464,6 @@
       <c r="AL117">
         <v>0</v>
       </c>
-      <c r="AM117" s="5"/>
-      <c r="AN117" s="5"/>
-      <c r="AO117" s="5"/>
-      <c r="AP117" s="5"/>
     </row>
     <row r="118" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -18003,10 +17580,6 @@
       <c r="AL118">
         <v>5</v>
       </c>
-      <c r="AM118" s="5"/>
-      <c r="AN118" s="5"/>
-      <c r="AO118" s="5"/>
-      <c r="AP118" s="5"/>
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -18123,10 +17696,6 @@
       <c r="AL119">
         <v>0</v>
       </c>
-      <c r="AM119" s="5"/>
-      <c r="AN119" s="5"/>
-      <c r="AO119" s="5"/>
-      <c r="AP119" s="5"/>
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -18243,10 +17812,6 @@
       <c r="AL120">
         <v>0</v>
       </c>
-      <c r="AM120" s="5"/>
-      <c r="AN120" s="5"/>
-      <c r="AO120" s="5"/>
-      <c r="AP120" s="5"/>
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
@@ -18363,10 +17928,6 @@
       <c r="AL121">
         <v>0</v>
       </c>
-      <c r="AM121" s="5"/>
-      <c r="AN121" s="5"/>
-      <c r="AO121" s="5"/>
-      <c r="AP121" s="5"/>
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -18480,16 +18041,16 @@
       <c r="AL122">
         <v>20</v>
       </c>
-      <c r="AM122" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN122" s="5">
+      <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
         <v>3.1</v>
       </c>
-      <c r="AO122" s="5">
+      <c r="AO122">
         <v>0.5</v>
       </c>
-      <c r="AP122" s="5">
+      <c r="AP122">
         <v>5</v>
       </c>
     </row>
@@ -18605,16 +18166,16 @@
       <c r="AL123">
         <v>20</v>
       </c>
-      <c r="AM123" s="5">
+      <c r="AM123">
         <v>1.4</v>
       </c>
-      <c r="AN123" s="5">
+      <c r="AN123">
         <v>2.6</v>
       </c>
-      <c r="AO123" s="5">
+      <c r="AO123">
         <v>1</v>
       </c>
-      <c r="AP123" s="5">
+      <c r="AP123">
         <v>5</v>
       </c>
     </row>
@@ -18730,16 +18291,16 @@
       <c r="AL124">
         <v>20</v>
       </c>
-      <c r="AM124" s="5">
+      <c r="AM124">
         <v>0.9</v>
       </c>
-      <c r="AN124" s="5">
+      <c r="AN124">
         <v>4.5</v>
       </c>
-      <c r="AO124" s="5">
+      <c r="AO124">
         <v>1.6</v>
       </c>
-      <c r="AP124" s="5">
+      <c r="AP124">
         <v>5</v>
       </c>
     </row>
@@ -18855,16 +18416,16 @@
       <c r="AL125">
         <v>20</v>
       </c>
-      <c r="AM125" s="5">
+      <c r="AM125">
         <v>4.3</v>
       </c>
-      <c r="AN125" s="5">
+      <c r="AN125">
         <v>2.8</v>
       </c>
-      <c r="AO125" s="5">
+      <c r="AO125">
         <v>0.3</v>
       </c>
-      <c r="AP125" s="5">
+      <c r="AP125">
         <v>10</v>
       </c>
     </row>
@@ -18980,16 +18541,16 @@
       <c r="AL126">
         <v>10</v>
       </c>
-      <c r="AM126" s="5">
+      <c r="AM126">
         <v>0.9</v>
       </c>
-      <c r="AN126" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO126" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP126" s="5">
+      <c r="AN126">
+        <v>0</v>
+      </c>
+      <c r="AO126">
+        <v>0</v>
+      </c>
+      <c r="AP126">
         <v>5</v>
       </c>
     </row>
@@ -19108,10 +18669,7 @@
       <c r="AL127">
         <v>5</v>
       </c>
-      <c r="AM127" s="5"/>
-      <c r="AN127" s="5"/>
-      <c r="AO127" s="5"/>
-      <c r="AP127" s="5">
+      <c r="AP127">
         <v>0</v>
       </c>
     </row>
@@ -19227,16 +18785,16 @@
       <c r="AL128">
         <v>30</v>
       </c>
-      <c r="AM128" s="5">
+      <c r="AM128">
         <v>1.4</v>
       </c>
-      <c r="AN128" s="5">
+      <c r="AN128">
         <v>4.8</v>
       </c>
-      <c r="AO128" s="5">
+      <c r="AO128">
         <v>0.1</v>
       </c>
-      <c r="AP128" s="5">
+      <c r="AP128">
         <v>5</v>
       </c>
     </row>
@@ -19355,12 +18913,10 @@
       <c r="AL129">
         <v>0</v>
       </c>
-      <c r="AM129" s="5" t="s">
+      <c r="AM129" t="s">
         <v>759</v>
       </c>
-      <c r="AN129" s="5"/>
-      <c r="AO129" s="5"/>
-      <c r="AP129" s="5">
+      <c r="AP129">
         <v>0</v>
       </c>
     </row>
@@ -19479,10 +19035,7 @@
       <c r="AL130">
         <v>10</v>
       </c>
-      <c r="AM130" s="5"/>
-      <c r="AN130" s="5"/>
-      <c r="AO130" s="5"/>
-      <c r="AP130" s="5">
+      <c r="AP130">
         <v>0</v>
       </c>
     </row>
@@ -19598,16 +19151,16 @@
       <c r="AL131">
         <v>20</v>
       </c>
-      <c r="AM131" s="5">
+      <c r="AM131">
         <v>4</v>
       </c>
-      <c r="AN131" s="5">
+      <c r="AN131">
         <v>5.6</v>
       </c>
-      <c r="AO131" s="5">
+      <c r="AO131">
         <v>0.4</v>
       </c>
-      <c r="AP131" s="5">
+      <c r="AP131">
         <v>10</v>
       </c>
     </row>
@@ -19726,10 +19279,7 @@
       <c r="AL132">
         <v>10</v>
       </c>
-      <c r="AM132" s="5"/>
-      <c r="AN132" s="5"/>
-      <c r="AO132" s="5"/>
-      <c r="AP132" s="5">
+      <c r="AP132">
         <v>0</v>
       </c>
     </row>
@@ -19848,10 +19398,7 @@
       <c r="AL133">
         <v>10</v>
       </c>
-      <c r="AM133" s="5"/>
-      <c r="AN133" s="5"/>
-      <c r="AO133" s="5"/>
-      <c r="AP133" s="5">
+      <c r="AP133">
         <v>0</v>
       </c>
     </row>
@@ -19967,10 +19514,7 @@
       <c r="AL134">
         <v>5</v>
       </c>
-      <c r="AM134" s="5"/>
-      <c r="AN134" s="5"/>
-      <c r="AO134" s="5"/>
-      <c r="AP134" s="5">
+      <c r="AP134">
         <v>0</v>
       </c>
     </row>
@@ -20086,16 +19630,16 @@
       <c r="AL135">
         <v>20</v>
       </c>
-      <c r="AM135" s="5">
+      <c r="AM135">
         <v>3</v>
       </c>
-      <c r="AN135" s="5">
+      <c r="AN135">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AO135" s="5">
+      <c r="AO135">
         <v>1.8</v>
       </c>
-      <c r="AP135" s="5">
+      <c r="AP135">
         <v>5</v>
       </c>
     </row>
@@ -20211,10 +19755,7 @@
       <c r="AL136">
         <v>10</v>
       </c>
-      <c r="AM136" s="5"/>
-      <c r="AN136" s="5"/>
-      <c r="AO136" s="5"/>
-      <c r="AP136" s="5">
+      <c r="AP136">
         <v>0</v>
       </c>
     </row>
@@ -20333,10 +19874,7 @@
       <c r="AL137">
         <v>10</v>
       </c>
-      <c r="AM137" s="5"/>
-      <c r="AN137" s="5"/>
-      <c r="AO137" s="5"/>
-      <c r="AP137" s="5">
+      <c r="AP137">
         <v>0</v>
       </c>
     </row>
@@ -20455,10 +19993,7 @@
       <c r="AL138">
         <v>0</v>
       </c>
-      <c r="AM138" s="5"/>
-      <c r="AN138" s="5"/>
-      <c r="AO138" s="5"/>
-      <c r="AP138" s="5">
+      <c r="AP138">
         <v>0</v>
       </c>
     </row>
@@ -20577,10 +20112,7 @@
       <c r="AL139">
         <v>0</v>
       </c>
-      <c r="AM139" s="5"/>
-      <c r="AN139" s="5"/>
-      <c r="AO139" s="5"/>
-      <c r="AP139" s="5">
+      <c r="AP139">
         <v>0</v>
       </c>
     </row>
@@ -20699,10 +20231,7 @@
       <c r="AL140">
         <v>0</v>
       </c>
-      <c r="AM140" s="5"/>
-      <c r="AN140" s="5"/>
-      <c r="AO140" s="5"/>
-      <c r="AP140" s="5">
+      <c r="AP140">
         <v>0</v>
       </c>
     </row>
@@ -20821,10 +20350,7 @@
       <c r="AL141">
         <v>0</v>
       </c>
-      <c r="AM141" s="5"/>
-      <c r="AN141" s="5"/>
-      <c r="AO141" s="5"/>
-      <c r="AP141" s="5">
+      <c r="AP141">
         <v>0</v>
       </c>
     </row>
@@ -20943,10 +20469,7 @@
       <c r="AL142">
         <v>0</v>
       </c>
-      <c r="AM142" s="5"/>
-      <c r="AN142" s="5"/>
-      <c r="AO142" s="5"/>
-      <c r="AP142" s="5">
+      <c r="AP142">
         <v>0</v>
       </c>
     </row>
@@ -21065,10 +20588,7 @@
       <c r="AL143">
         <v>0</v>
       </c>
-      <c r="AM143" s="5"/>
-      <c r="AN143" s="5"/>
-      <c r="AO143" s="5"/>
-      <c r="AP143" s="5">
+      <c r="AP143">
         <v>0</v>
       </c>
     </row>
@@ -21187,10 +20707,7 @@
       <c r="AL144">
         <v>0</v>
       </c>
-      <c r="AM144" s="5"/>
-      <c r="AN144" s="5"/>
-      <c r="AO144" s="5"/>
-      <c r="AP144" s="5">
+      <c r="AP144">
         <v>0</v>
       </c>
     </row>
@@ -21309,10 +20826,7 @@
       <c r="AL145">
         <v>0</v>
       </c>
-      <c r="AM145" s="5"/>
-      <c r="AN145" s="5"/>
-      <c r="AO145" s="5"/>
-      <c r="AP145" s="5">
+      <c r="AP145">
         <v>0</v>
       </c>
     </row>
@@ -21431,10 +20945,7 @@
       <c r="AL146">
         <v>0</v>
       </c>
-      <c r="AM146" s="5"/>
-      <c r="AN146" s="5"/>
-      <c r="AO146" s="5"/>
-      <c r="AP146" s="5">
+      <c r="AP146">
         <v>0</v>
       </c>
     </row>
@@ -21553,10 +21064,6 @@
       <c r="AL147">
         <v>0</v>
       </c>
-      <c r="AM147" s="5"/>
-      <c r="AN147" s="5"/>
-      <c r="AO147" s="5"/>
-      <c r="AP147" s="5"/>
     </row>
     <row r="148" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
@@ -21673,10 +21180,6 @@
       <c r="AL148">
         <v>0</v>
       </c>
-      <c r="AM148" s="5"/>
-      <c r="AN148" s="5"/>
-      <c r="AO148" s="5"/>
-      <c r="AP148" s="5"/>
     </row>
     <row r="149" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
@@ -21793,10 +21296,6 @@
       <c r="AL149">
         <v>0</v>
       </c>
-      <c r="AM149" s="5"/>
-      <c r="AN149" s="5"/>
-      <c r="AO149" s="5"/>
-      <c r="AP149" s="5"/>
     </row>
     <row r="150" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
@@ -21913,10 +21412,6 @@
       <c r="AL150">
         <v>0</v>
       </c>
-      <c r="AM150" s="5"/>
-      <c r="AN150" s="5"/>
-      <c r="AO150" s="5"/>
-      <c r="AP150" s="5"/>
     </row>
     <row r="151" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
@@ -22033,10 +21528,6 @@
       <c r="AL151">
         <v>0</v>
       </c>
-      <c r="AM151" s="5"/>
-      <c r="AN151" s="5"/>
-      <c r="AO151" s="5"/>
-      <c r="AP151" s="5"/>
     </row>
     <row r="152" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
@@ -22153,16 +21644,16 @@
       <c r="AL152">
         <v>10</v>
       </c>
-      <c r="AM152" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AN152" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AO152" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AP152" s="5">
+      <c r="AM152" t="s">
+        <v>660</v>
+      </c>
+      <c r="AN152" t="s">
+        <v>660</v>
+      </c>
+      <c r="AO152" t="s">
+        <v>660</v>
+      </c>
+      <c r="AP152">
         <v>0</v>
       </c>
     </row>
@@ -22278,16 +21769,16 @@
       <c r="AL153">
         <v>30</v>
       </c>
-      <c r="AM153" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN153" s="5">
+      <c r="AM153">
+        <v>0</v>
+      </c>
+      <c r="AN153">
         <v>0.6</v>
       </c>
-      <c r="AO153" s="5">
+      <c r="AO153">
         <v>2</v>
       </c>
-      <c r="AP153" s="5">
+      <c r="AP153">
         <v>5</v>
       </c>
     </row>
@@ -22403,16 +21894,16 @@
       <c r="AL154">
         <v>30</v>
       </c>
-      <c r="AM154" s="5">
+      <c r="AM154">
         <v>14.2</v>
       </c>
-      <c r="AN154" s="5">
+      <c r="AN154">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AO154" s="5">
+      <c r="AO154">
         <v>11</v>
       </c>
-      <c r="AP154" s="5">
+      <c r="AP154">
         <v>20</v>
       </c>
     </row>
@@ -22528,16 +22019,16 @@
       <c r="AL155">
         <v>5</v>
       </c>
-      <c r="AM155" s="5">
+      <c r="AM155">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AN155" s="5">
+      <c r="AN155">
         <v>5.5</v>
       </c>
-      <c r="AO155" s="5">
+      <c r="AO155">
         <v>9.6</v>
       </c>
-      <c r="AP155" s="5">
+      <c r="AP155">
         <v>5</v>
       </c>
     </row>
@@ -22656,16 +22147,16 @@
       <c r="AL156">
         <v>0</v>
       </c>
-      <c r="AM156" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AN156" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AO156" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AP156" s="5">
+      <c r="AM156" t="s">
+        <v>660</v>
+      </c>
+      <c r="AN156" t="s">
+        <v>660</v>
+      </c>
+      <c r="AO156" t="s">
+        <v>660</v>
+      </c>
+      <c r="AP156">
         <v>0</v>
       </c>
     </row>
@@ -22784,10 +22275,7 @@
       <c r="AL157">
         <v>5</v>
       </c>
-      <c r="AM157" s="5"/>
-      <c r="AN157" s="5"/>
-      <c r="AO157" s="5"/>
-      <c r="AP157" s="5">
+      <c r="AP157">
         <v>0</v>
       </c>
     </row>
@@ -22906,10 +22394,7 @@
       <c r="AL158">
         <v>10</v>
       </c>
-      <c r="AM158" s="5"/>
-      <c r="AN158" s="5"/>
-      <c r="AO158" s="5"/>
-      <c r="AP158" s="5">
+      <c r="AP158">
         <v>0</v>
       </c>
     </row>
@@ -23028,10 +22513,7 @@
       <c r="AL159">
         <v>10</v>
       </c>
-      <c r="AM159" s="5"/>
-      <c r="AN159" s="5"/>
-      <c r="AO159" s="5"/>
-      <c r="AP159" s="5">
+      <c r="AP159">
         <v>0</v>
       </c>
     </row>
@@ -23147,16 +22629,16 @@
       <c r="AL160">
         <v>10</v>
       </c>
-      <c r="AM160" s="5">
+      <c r="AM160">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AN160" s="5">
+      <c r="AN160">
         <v>5.5</v>
       </c>
-      <c r="AO160" s="5">
+      <c r="AO160">
         <v>7</v>
       </c>
-      <c r="AP160" s="5">
+      <c r="AP160">
         <v>5</v>
       </c>
     </row>
@@ -23275,10 +22757,7 @@
       <c r="AL161">
         <v>5</v>
       </c>
-      <c r="AM161" s="5"/>
-      <c r="AN161" s="5"/>
-      <c r="AO161" s="5"/>
-      <c r="AP161" s="5">
+      <c r="AP161">
         <v>0</v>
       </c>
     </row>
@@ -23394,10 +22873,6 @@
       <c r="AL162">
         <v>50</v>
       </c>
-      <c r="AM162" s="5"/>
-      <c r="AN162" s="5"/>
-      <c r="AO162" s="5"/>
-      <c r="AP162" s="5"/>
     </row>
     <row r="163" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
@@ -23511,10 +22986,6 @@
       <c r="AL163">
         <v>20</v>
       </c>
-      <c r="AM163" s="5"/>
-      <c r="AN163" s="5"/>
-      <c r="AO163" s="5"/>
-      <c r="AP163" s="5"/>
     </row>
     <row r="164" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
@@ -23628,10 +23099,6 @@
       <c r="AL164">
         <v>50</v>
       </c>
-      <c r="AM164" s="5"/>
-      <c r="AN164" s="5"/>
-      <c r="AO164" s="5"/>
-      <c r="AP164" s="5"/>
     </row>
     <row r="165" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
@@ -23745,10 +23212,6 @@
       <c r="AL165">
         <v>40</v>
       </c>
-      <c r="AM165" s="5"/>
-      <c r="AN165" s="5"/>
-      <c r="AO165" s="5"/>
-      <c r="AP165" s="5"/>
     </row>
     <row r="166" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
@@ -23862,10 +23325,6 @@
       <c r="AL166">
         <v>40</v>
       </c>
-      <c r="AM166" s="5"/>
-      <c r="AN166" s="5"/>
-      <c r="AO166" s="5"/>
-      <c r="AP166" s="5"/>
     </row>
     <row r="167" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
@@ -23979,16 +23438,16 @@
       <c r="AL167">
         <v>30</v>
       </c>
-      <c r="AM167" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN167" s="5">
+      <c r="AM167">
+        <v>0</v>
+      </c>
+      <c r="AN167">
         <v>3.5</v>
       </c>
-      <c r="AO167" s="5">
+      <c r="AO167">
         <v>3.7</v>
       </c>
-      <c r="AP167" s="5">
+      <c r="AP167">
         <v>10</v>
       </c>
     </row>
@@ -24104,16 +23563,16 @@
       <c r="AL168">
         <v>40</v>
       </c>
-      <c r="AM168" s="5">
+      <c r="AM168">
         <v>2.9</v>
       </c>
-      <c r="AN168" s="5">
+      <c r="AN168">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AO168" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP168" s="5">
+      <c r="AO168">
+        <v>0</v>
+      </c>
+      <c r="AP168">
         <v>5</v>
       </c>
     </row>
@@ -24229,16 +23688,16 @@
       <c r="AL169">
         <v>5</v>
       </c>
-      <c r="AM169" s="5">
+      <c r="AM169">
         <v>2</v>
       </c>
-      <c r="AN169" s="5">
+      <c r="AN169">
         <v>1.4</v>
       </c>
-      <c r="AO169" s="5">
+      <c r="AO169">
         <v>1.8</v>
       </c>
-      <c r="AP169" s="5">
+      <c r="AP169">
         <v>5</v>
       </c>
     </row>
@@ -24354,16 +23813,16 @@
       <c r="AL170">
         <v>40</v>
       </c>
-      <c r="AM170" s="5">
+      <c r="AM170">
         <v>3.8</v>
       </c>
-      <c r="AN170" s="5">
+      <c r="AN170">
         <v>0.7</v>
       </c>
-      <c r="AO170" s="5">
+      <c r="AO170">
         <v>9.9</v>
       </c>
-      <c r="AP170" s="5">
+      <c r="AP170">
         <v>10</v>
       </c>
     </row>
@@ -24479,16 +23938,16 @@
       <c r="AL171">
         <v>40</v>
       </c>
-      <c r="AM171" s="5">
+      <c r="AM171">
         <v>0.3</v>
       </c>
-      <c r="AN171" s="5">
+      <c r="AN171">
         <v>1.6</v>
       </c>
-      <c r="AO171" s="5">
+      <c r="AO171">
         <v>3.9</v>
       </c>
-      <c r="AP171" s="5">
+      <c r="AP171">
         <v>5</v>
       </c>
     </row>
@@ -24604,16 +24063,16 @@
       <c r="AL172">
         <v>50</v>
       </c>
-      <c r="AM172" s="5">
+      <c r="AM172">
         <v>6.9</v>
       </c>
-      <c r="AN172" s="5">
+      <c r="AN172">
         <v>10.9</v>
       </c>
-      <c r="AO172" s="5">
+      <c r="AO172">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP172" s="5">
+      <c r="AP172">
         <v>30</v>
       </c>
     </row>
@@ -24732,16 +24191,16 @@
       <c r="AL173">
         <v>10</v>
       </c>
-      <c r="AM173" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AN173" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AO173" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AP173" s="5">
+      <c r="AM173" t="s">
+        <v>660</v>
+      </c>
+      <c r="AN173" t="s">
+        <v>660</v>
+      </c>
+      <c r="AO173" t="s">
+        <v>660</v>
+      </c>
+      <c r="AP173">
         <v>0</v>
       </c>
     </row>
@@ -24860,10 +24319,7 @@
       <c r="AL174">
         <v>5</v>
       </c>
-      <c r="AM174" s="5"/>
-      <c r="AN174" s="5"/>
-      <c r="AO174" s="5"/>
-      <c r="AP174" s="5">
+      <c r="AP174">
         <v>0</v>
       </c>
     </row>
@@ -24982,10 +24438,7 @@
       <c r="AL175">
         <v>0</v>
       </c>
-      <c r="AM175" s="5"/>
-      <c r="AN175" s="5"/>
-      <c r="AO175" s="5"/>
-      <c r="AP175" s="5">
+      <c r="AP175">
         <v>0</v>
       </c>
     </row>
@@ -25101,20 +24554,20 @@
       <c r="AL176">
         <v>40</v>
       </c>
-      <c r="AM176" s="5">
+      <c r="AM176">
         <v>2.6</v>
       </c>
-      <c r="AN176" s="5">
+      <c r="AN176">
         <v>6.6</v>
       </c>
-      <c r="AO176" s="5">
+      <c r="AO176">
         <v>2.4</v>
       </c>
-      <c r="AP176" s="5">
+      <c r="AP176">
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -25226,12 +24679,8 @@
       <c r="AL177">
         <v>20</v>
       </c>
-      <c r="AM177" s="5"/>
-      <c r="AN177" s="5"/>
-      <c r="AO177" s="5"/>
-      <c r="AP177" s="5"/>
-    </row>
-    <row r="178" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -25343,12 +24792,8 @@
       <c r="AL178">
         <v>10</v>
       </c>
-      <c r="AM178" s="5"/>
-      <c r="AN178" s="5"/>
-      <c r="AO178" s="5"/>
-      <c r="AP178" s="5"/>
-    </row>
-    <row r="179" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -25460,12 +24905,8 @@
       <c r="AL179">
         <v>20</v>
       </c>
-      <c r="AM179" s="5"/>
-      <c r="AN179" s="5"/>
-      <c r="AO179" s="5"/>
-      <c r="AP179" s="5"/>
-    </row>
-    <row r="180" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -25577,12 +25018,8 @@
       <c r="AL180">
         <v>30</v>
       </c>
-      <c r="AM180" s="5"/>
-      <c r="AN180" s="5"/>
-      <c r="AO180" s="5"/>
-      <c r="AP180" s="5"/>
-    </row>
-    <row r="181" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -25697,12 +25134,8 @@
       <c r="AL181">
         <v>0</v>
       </c>
-      <c r="AM181" s="5"/>
-      <c r="AN181" s="5"/>
-      <c r="AO181" s="5"/>
-      <c r="AP181" s="5"/>
-    </row>
-    <row r="182" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -25718,12 +25151,8 @@
       <c r="E182" t="s">
         <v>198</v>
       </c>
-      <c r="AM182" s="5"/>
-      <c r="AN182" s="5"/>
-      <c r="AO182" s="5"/>
-      <c r="AP182" s="5"/>
-    </row>
-    <row r="183" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -25739,12 +25168,8 @@
       <c r="E183" t="s">
         <v>198</v>
       </c>
-      <c r="AM183" s="5"/>
-      <c r="AN183" s="5"/>
-      <c r="AO183" s="5"/>
-      <c r="AP183" s="5"/>
-    </row>
-    <row r="184" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -25763,12 +25188,8 @@
       <c r="F184" t="s">
         <v>722</v>
       </c>
-      <c r="AM184" s="5"/>
-      <c r="AN184" s="5"/>
-      <c r="AO184" s="5"/>
-      <c r="AP184" s="5"/>
-    </row>
-    <row r="185" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -25784,12 +25205,8 @@
       <c r="E185" t="s">
         <v>198</v>
       </c>
-      <c r="AM185" s="5"/>
-      <c r="AN185" s="5"/>
-      <c r="AO185" s="5"/>
-      <c r="AP185" s="5"/>
-    </row>
-    <row r="186" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -25805,12 +25222,8 @@
       <c r="E186" t="s">
         <v>198</v>
       </c>
-      <c r="AM186" s="5"/>
-      <c r="AN186" s="5"/>
-      <c r="AO186" s="5"/>
-      <c r="AP186" s="5"/>
-    </row>
-    <row r="187" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -25826,12 +25239,8 @@
       <c r="E187" t="s">
         <v>198</v>
       </c>
-      <c r="AM187" s="5"/>
-      <c r="AN187" s="5"/>
-      <c r="AO187" s="5"/>
-      <c r="AP187" s="5"/>
-    </row>
-    <row r="188" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -25847,12 +25256,8 @@
       <c r="E188" t="s">
         <v>198</v>
       </c>
-      <c r="AM188" s="5"/>
-      <c r="AN188" s="5"/>
-      <c r="AO188" s="5"/>
-      <c r="AP188" s="5"/>
-    </row>
-    <row r="189" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -25868,12 +25273,8 @@
       <c r="E189" t="s">
         <v>198</v>
       </c>
-      <c r="AM189" s="5"/>
-      <c r="AN189" s="5"/>
-      <c r="AO189" s="5"/>
-      <c r="AP189" s="5"/>
-    </row>
-    <row r="190" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -25889,12 +25290,8 @@
       <c r="E190" t="s">
         <v>198</v>
       </c>
-      <c r="AM190" s="5"/>
-      <c r="AN190" s="5"/>
-      <c r="AO190" s="5"/>
-      <c r="AP190" s="5"/>
-    </row>
-    <row r="191" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -25910,12 +25307,8 @@
       <c r="E191" t="s">
         <v>198</v>
       </c>
-      <c r="AM191" s="5"/>
-      <c r="AN191" s="5"/>
-      <c r="AO191" s="5"/>
-      <c r="AP191" s="5"/>
-    </row>
-    <row r="192" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -25931,12 +25324,8 @@
       <c r="E192" t="s">
         <v>198</v>
       </c>
-      <c r="AM192" s="5"/>
-      <c r="AN192" s="5"/>
-      <c r="AO192" s="5"/>
-      <c r="AP192" s="5"/>
-    </row>
-    <row r="193" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -25952,12 +25341,8 @@
       <c r="E193" t="s">
         <v>198</v>
       </c>
-      <c r="AM193" s="5"/>
-      <c r="AN193" s="5"/>
-      <c r="AO193" s="5"/>
-      <c r="AP193" s="5"/>
-    </row>
-    <row r="194" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -25973,12 +25358,8 @@
       <c r="E194" t="s">
         <v>198</v>
       </c>
-      <c r="AM194" s="5"/>
-      <c r="AN194" s="5"/>
-      <c r="AO194" s="5"/>
-      <c r="AP194" s="5"/>
-    </row>
-    <row r="195" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -25994,12 +25375,8 @@
       <c r="E195" t="s">
         <v>198</v>
       </c>
-      <c r="AM195" s="5"/>
-      <c r="AN195" s="5"/>
-      <c r="AO195" s="5"/>
-      <c r="AP195" s="5"/>
-    </row>
-    <row r="196" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -26015,12 +25392,8 @@
       <c r="E196" t="s">
         <v>198</v>
       </c>
-      <c r="AM196" s="5"/>
-      <c r="AN196" s="5"/>
-      <c r="AO196" s="5"/>
-      <c r="AP196" s="5"/>
-    </row>
-    <row r="197" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -26036,12 +25409,8 @@
       <c r="E197" t="s">
         <v>198</v>
       </c>
-      <c r="AM197" s="5"/>
-      <c r="AN197" s="5"/>
-      <c r="AO197" s="5"/>
-      <c r="AP197" s="5"/>
-    </row>
-    <row r="198" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -26057,12 +25426,8 @@
       <c r="E198" t="s">
         <v>198</v>
       </c>
-      <c r="AM198" s="5"/>
-      <c r="AN198" s="5"/>
-      <c r="AO198" s="5"/>
-      <c r="AP198" s="5"/>
-    </row>
-    <row r="199" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -26078,12 +25443,8 @@
       <c r="E199" t="s">
         <v>198</v>
       </c>
-      <c r="AM199" s="5"/>
-      <c r="AN199" s="5"/>
-      <c r="AO199" s="5"/>
-      <c r="AP199" s="5"/>
-    </row>
-    <row r="200" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -26099,12 +25460,8 @@
       <c r="E200" t="s">
         <v>198</v>
       </c>
-      <c r="AM200" s="5"/>
-      <c r="AN200" s="5"/>
-      <c r="AO200" s="5"/>
-      <c r="AP200" s="5"/>
-    </row>
-    <row r="201" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -26120,12 +25477,8 @@
       <c r="E201" t="s">
         <v>198</v>
       </c>
-      <c r="AM201" s="5"/>
-      <c r="AN201" s="5"/>
-      <c r="AO201" s="5"/>
-      <c r="AP201" s="5"/>
-    </row>
-    <row r="202" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -26141,12 +25494,8 @@
       <c r="E202" t="s">
         <v>198</v>
       </c>
-      <c r="AM202" s="5"/>
-      <c r="AN202" s="5"/>
-      <c r="AO202" s="5"/>
-      <c r="AP202" s="5"/>
-    </row>
-    <row r="203" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -26162,12 +25511,8 @@
       <c r="E203" t="s">
         <v>198</v>
       </c>
-      <c r="AM203" s="5"/>
-      <c r="AN203" s="5"/>
-      <c r="AO203" s="5"/>
-      <c r="AP203" s="5"/>
-    </row>
-    <row r="204" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -26183,12 +25528,8 @@
       <c r="E204" t="s">
         <v>198</v>
       </c>
-      <c r="AM204" s="5"/>
-      <c r="AN204" s="5"/>
-      <c r="AO204" s="5"/>
-      <c r="AP204" s="5"/>
-    </row>
-    <row r="205" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -26204,12 +25545,8 @@
       <c r="E205" t="s">
         <v>198</v>
       </c>
-      <c r="AM205" s="5"/>
-      <c r="AN205" s="5"/>
-      <c r="AO205" s="5"/>
-      <c r="AP205" s="5"/>
-    </row>
-    <row r="206" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -26225,12 +25562,8 @@
       <c r="E206" t="s">
         <v>198</v>
       </c>
-      <c r="AM206" s="5"/>
-      <c r="AN206" s="5"/>
-      <c r="AO206" s="5"/>
-      <c r="AP206" s="5"/>
-    </row>
-    <row r="207" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -26246,12 +25579,8 @@
       <c r="E207" t="s">
         <v>198</v>
       </c>
-      <c r="AM207" s="5"/>
-      <c r="AN207" s="5"/>
-      <c r="AO207" s="5"/>
-      <c r="AP207" s="5"/>
-    </row>
-    <row r="208" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -26267,12 +25596,8 @@
       <c r="E208" t="s">
         <v>198</v>
       </c>
-      <c r="AM208" s="5"/>
-      <c r="AN208" s="5"/>
-      <c r="AO208" s="5"/>
-      <c r="AP208" s="5"/>
-    </row>
-    <row r="209" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -26288,12 +25613,8 @@
       <c r="E209" t="s">
         <v>198</v>
       </c>
-      <c r="AM209" s="5"/>
-      <c r="AN209" s="5"/>
-      <c r="AO209" s="5"/>
-      <c r="AP209" s="5"/>
-    </row>
-    <row r="210" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -26309,12 +25630,8 @@
       <c r="E210" t="s">
         <v>198</v>
       </c>
-      <c r="AM210" s="5"/>
-      <c r="AN210" s="5"/>
-      <c r="AO210" s="5"/>
-      <c r="AP210" s="5"/>
-    </row>
-    <row r="211" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -26330,12 +25647,8 @@
       <c r="E211" t="s">
         <v>198</v>
       </c>
-      <c r="AM211" s="5"/>
-      <c r="AN211" s="5"/>
-      <c r="AO211" s="5"/>
-      <c r="AP211" s="5"/>
-    </row>
-    <row r="212" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -26351,12 +25664,8 @@
       <c r="E212" t="s">
         <v>198</v>
       </c>
-      <c r="AM212" s="5"/>
-      <c r="AN212" s="5"/>
-      <c r="AO212" s="5"/>
-      <c r="AP212" s="5"/>
-    </row>
-    <row r="213" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -26372,12 +25681,8 @@
       <c r="E213" t="s">
         <v>198</v>
       </c>
-      <c r="AM213" s="5"/>
-      <c r="AN213" s="5"/>
-      <c r="AO213" s="5"/>
-      <c r="AP213" s="5"/>
-    </row>
-    <row r="214" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -26393,12 +25698,8 @@
       <c r="E214" t="s">
         <v>198</v>
       </c>
-      <c r="AM214" s="5"/>
-      <c r="AN214" s="5"/>
-      <c r="AO214" s="5"/>
-      <c r="AP214" s="5"/>
-    </row>
-    <row r="215" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -26414,12 +25715,8 @@
       <c r="E215" t="s">
         <v>198</v>
       </c>
-      <c r="AM215" s="5"/>
-      <c r="AN215" s="5"/>
-      <c r="AO215" s="5"/>
-      <c r="AP215" s="5"/>
-    </row>
-    <row r="216" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -26435,12 +25732,8 @@
       <c r="E216" t="s">
         <v>198</v>
       </c>
-      <c r="AM216" s="5"/>
-      <c r="AN216" s="5"/>
-      <c r="AO216" s="5"/>
-      <c r="AP216" s="5"/>
-    </row>
-    <row r="217" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -26456,12 +25749,8 @@
       <c r="E217" t="s">
         <v>198</v>
       </c>
-      <c r="AM217" s="5"/>
-      <c r="AN217" s="5"/>
-      <c r="AO217" s="5"/>
-      <c r="AP217" s="5"/>
-    </row>
-    <row r="218" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -26477,12 +25766,8 @@
       <c r="E218" t="s">
         <v>198</v>
       </c>
-      <c r="AM218" s="5"/>
-      <c r="AN218" s="5"/>
-      <c r="AO218" s="5"/>
-      <c r="AP218" s="5"/>
-    </row>
-    <row r="219" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -26498,12 +25783,8 @@
       <c r="E219" t="s">
         <v>198</v>
       </c>
-      <c r="AM219" s="5"/>
-      <c r="AN219" s="5"/>
-      <c r="AO219" s="5"/>
-      <c r="AP219" s="5"/>
-    </row>
-    <row r="220" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -26519,12 +25800,8 @@
       <c r="E220" t="s">
         <v>198</v>
       </c>
-      <c r="AM220" s="5"/>
-      <c r="AN220" s="5"/>
-      <c r="AO220" s="5"/>
-      <c r="AP220" s="5"/>
-    </row>
-    <row r="221" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -26540,12 +25817,8 @@
       <c r="E221" t="s">
         <v>198</v>
       </c>
-      <c r="AM221" s="5"/>
-      <c r="AN221" s="5"/>
-      <c r="AO221" s="5"/>
-      <c r="AP221" s="5"/>
-    </row>
-    <row r="222" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -26561,12 +25834,8 @@
       <c r="E222" t="s">
         <v>198</v>
       </c>
-      <c r="AM222" s="5"/>
-      <c r="AN222" s="5"/>
-      <c r="AO222" s="5"/>
-      <c r="AP222" s="5"/>
-    </row>
-    <row r="223" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -26582,12 +25851,8 @@
       <c r="E223" t="s">
         <v>198</v>
       </c>
-      <c r="AM223" s="5"/>
-      <c r="AN223" s="5"/>
-      <c r="AO223" s="5"/>
-      <c r="AP223" s="5"/>
-    </row>
-    <row r="224" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -26603,12 +25868,8 @@
       <c r="E224" t="s">
         <v>198</v>
       </c>
-      <c r="AM224" s="5"/>
-      <c r="AN224" s="5"/>
-      <c r="AO224" s="5"/>
-      <c r="AP224" s="5"/>
-    </row>
-    <row r="225" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -26624,12 +25885,8 @@
       <c r="E225" t="s">
         <v>198</v>
       </c>
-      <c r="AM225" s="5"/>
-      <c r="AN225" s="5"/>
-      <c r="AO225" s="5"/>
-      <c r="AP225" s="5"/>
-    </row>
-    <row r="226" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -26645,12 +25902,8 @@
       <c r="E226" t="s">
         <v>198</v>
       </c>
-      <c r="AM226" s="5"/>
-      <c r="AN226" s="5"/>
-      <c r="AO226" s="5"/>
-      <c r="AP226" s="5"/>
-    </row>
-    <row r="227" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -26666,12 +25919,8 @@
       <c r="E227" t="s">
         <v>198</v>
       </c>
-      <c r="AM227" s="5"/>
-      <c r="AN227" s="5"/>
-      <c r="AO227" s="5"/>
-      <c r="AP227" s="5"/>
-    </row>
-    <row r="228" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -26687,12 +25936,8 @@
       <c r="E228" t="s">
         <v>198</v>
       </c>
-      <c r="AM228" s="5"/>
-      <c r="AN228" s="5"/>
-      <c r="AO228" s="5"/>
-      <c r="AP228" s="5"/>
-    </row>
-    <row r="229" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -26708,12 +25953,8 @@
       <c r="E229" t="s">
         <v>198</v>
       </c>
-      <c r="AM229" s="5"/>
-      <c r="AN229" s="5"/>
-      <c r="AO229" s="5"/>
-      <c r="AP229" s="5"/>
-    </row>
-    <row r="230" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -26729,12 +25970,8 @@
       <c r="E230" t="s">
         <v>198</v>
       </c>
-      <c r="AM230" s="5"/>
-      <c r="AN230" s="5"/>
-      <c r="AO230" s="5"/>
-      <c r="AP230" s="5"/>
-    </row>
-    <row r="231" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -26750,12 +25987,8 @@
       <c r="E231" t="s">
         <v>198</v>
       </c>
-      <c r="AM231" s="5"/>
-      <c r="AN231" s="5"/>
-      <c r="AO231" s="5"/>
-      <c r="AP231" s="5"/>
-    </row>
-    <row r="232" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -26771,12 +26004,8 @@
       <c r="E232" t="s">
         <v>198</v>
       </c>
-      <c r="AM232" s="5"/>
-      <c r="AN232" s="5"/>
-      <c r="AO232" s="5"/>
-      <c r="AP232" s="5"/>
-    </row>
-    <row r="233" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -26792,12 +26021,8 @@
       <c r="E233" t="s">
         <v>198</v>
       </c>
-      <c r="AM233" s="5"/>
-      <c r="AN233" s="5"/>
-      <c r="AO233" s="5"/>
-      <c r="AP233" s="5"/>
-    </row>
-    <row r="234" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -26813,12 +26038,8 @@
       <c r="E234" t="s">
         <v>198</v>
       </c>
-      <c r="AM234" s="5"/>
-      <c r="AN234" s="5"/>
-      <c r="AO234" s="5"/>
-      <c r="AP234" s="5"/>
-    </row>
-    <row r="235" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -26834,12 +26055,8 @@
       <c r="E235" t="s">
         <v>198</v>
       </c>
-      <c r="AM235" s="5"/>
-      <c r="AN235" s="5"/>
-      <c r="AO235" s="5"/>
-      <c r="AP235" s="5"/>
-    </row>
-    <row r="236" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -26855,12 +26072,8 @@
       <c r="E236" t="s">
         <v>198</v>
       </c>
-      <c r="AM236" s="5"/>
-      <c r="AN236" s="5"/>
-      <c r="AO236" s="5"/>
-      <c r="AP236" s="5"/>
-    </row>
-    <row r="237" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -26876,12 +26089,8 @@
       <c r="E237" t="s">
         <v>198</v>
       </c>
-      <c r="AM237" s="5"/>
-      <c r="AN237" s="5"/>
-      <c r="AO237" s="5"/>
-      <c r="AP237" s="5"/>
-    </row>
-    <row r="238" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -26897,12 +26106,8 @@
       <c r="E238" t="s">
         <v>198</v>
       </c>
-      <c r="AM238" s="5"/>
-      <c r="AN238" s="5"/>
-      <c r="AO238" s="5"/>
-      <c r="AP238" s="5"/>
-    </row>
-    <row r="239" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -26918,12 +26123,8 @@
       <c r="E239" t="s">
         <v>198</v>
       </c>
-      <c r="AM239" s="5"/>
-      <c r="AN239" s="5"/>
-      <c r="AO239" s="5"/>
-      <c r="AP239" s="5"/>
-    </row>
-    <row r="240" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -26939,12 +26140,8 @@
       <c r="E240" t="s">
         <v>198</v>
       </c>
-      <c r="AM240" s="5"/>
-      <c r="AN240" s="5"/>
-      <c r="AO240" s="5"/>
-      <c r="AP240" s="5"/>
-    </row>
-    <row r="241" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -26960,12 +26157,8 @@
       <c r="E241" t="s">
         <v>198</v>
       </c>
-      <c r="AM241" s="5"/>
-      <c r="AN241" s="5"/>
-      <c r="AO241" s="5"/>
-      <c r="AP241" s="5"/>
-    </row>
-    <row r="242" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -26981,12 +26174,8 @@
       <c r="E242" t="s">
         <v>198</v>
       </c>
-      <c r="AM242" s="5"/>
-      <c r="AN242" s="5"/>
-      <c r="AO242" s="5"/>
-      <c r="AP242" s="5"/>
-    </row>
-    <row r="243" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -27002,12 +26191,8 @@
       <c r="E243" t="s">
         <v>198</v>
       </c>
-      <c r="AM243" s="5"/>
-      <c r="AN243" s="5"/>
-      <c r="AO243" s="5"/>
-      <c r="AP243" s="5"/>
-    </row>
-    <row r="244" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -27023,12 +26208,8 @@
       <c r="E244" t="s">
         <v>198</v>
       </c>
-      <c r="AM244" s="5"/>
-      <c r="AN244" s="5"/>
-      <c r="AO244" s="5"/>
-      <c r="AP244" s="5"/>
-    </row>
-    <row r="245" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -27044,12 +26225,8 @@
       <c r="E245" t="s">
         <v>198</v>
       </c>
-      <c r="AM245" s="5"/>
-      <c r="AN245" s="5"/>
-      <c r="AO245" s="5"/>
-      <c r="AP245" s="5"/>
-    </row>
-    <row r="246" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -27065,12 +26242,8 @@
       <c r="E246" t="s">
         <v>198</v>
       </c>
-      <c r="AM246" s="5"/>
-      <c r="AN246" s="5"/>
-      <c r="AO246" s="5"/>
-      <c r="AP246" s="5"/>
-    </row>
-    <row r="247" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -27086,12 +26259,8 @@
       <c r="E247" t="s">
         <v>198</v>
       </c>
-      <c r="AM247" s="5"/>
-      <c r="AN247" s="5"/>
-      <c r="AO247" s="5"/>
-      <c r="AP247" s="5"/>
-    </row>
-    <row r="248" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -27107,12 +26276,8 @@
       <c r="E248" t="s">
         <v>198</v>
       </c>
-      <c r="AM248" s="5"/>
-      <c r="AN248" s="5"/>
-      <c r="AO248" s="5"/>
-      <c r="AP248" s="5"/>
-    </row>
-    <row r="249" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -27128,12 +26293,8 @@
       <c r="E249" t="s">
         <v>198</v>
       </c>
-      <c r="AM249" s="5"/>
-      <c r="AN249" s="5"/>
-      <c r="AO249" s="5"/>
-      <c r="AP249" s="5"/>
-    </row>
-    <row r="250" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -27149,12 +26310,8 @@
       <c r="E250" t="s">
         <v>198</v>
       </c>
-      <c r="AM250" s="5"/>
-      <c r="AN250" s="5"/>
-      <c r="AO250" s="5"/>
-      <c r="AP250" s="5"/>
-    </row>
-    <row r="251" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -27170,12 +26327,8 @@
       <c r="E251" t="s">
         <v>198</v>
       </c>
-      <c r="AM251" s="5"/>
-      <c r="AN251" s="5"/>
-      <c r="AO251" s="5"/>
-      <c r="AP251" s="5"/>
-    </row>
-    <row r="252" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -27191,12 +26344,8 @@
       <c r="E252" t="s">
         <v>198</v>
       </c>
-      <c r="AM252" s="5"/>
-      <c r="AN252" s="5"/>
-      <c r="AO252" s="5"/>
-      <c r="AP252" s="5"/>
-    </row>
-    <row r="253" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -27212,12 +26361,8 @@
       <c r="E253" t="s">
         <v>198</v>
       </c>
-      <c r="AM253" s="5"/>
-      <c r="AN253" s="5"/>
-      <c r="AO253" s="5"/>
-      <c r="AP253" s="5"/>
-    </row>
-    <row r="254" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -27233,12 +26378,8 @@
       <c r="E254" t="s">
         <v>198</v>
       </c>
-      <c r="AM254" s="5"/>
-      <c r="AN254" s="5"/>
-      <c r="AO254" s="5"/>
-      <c r="AP254" s="5"/>
-    </row>
-    <row r="255" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -27254,12 +26395,8 @@
       <c r="E255" t="s">
         <v>198</v>
       </c>
-      <c r="AM255" s="5"/>
-      <c r="AN255" s="5"/>
-      <c r="AO255" s="5"/>
-      <c r="AP255" s="5"/>
-    </row>
-    <row r="256" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -27275,10 +26412,6 @@
       <c r="E256" t="s">
         <v>198</v>
       </c>
-      <c r="AM256" s="5"/>
-      <c r="AN256" s="5"/>
-      <c r="AO256" s="5"/>
-      <c r="AP256" s="5"/>
     </row>
     <row r="257" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
@@ -27296,10 +26429,6 @@
       <c r="E257" t="s">
         <v>198</v>
       </c>
-      <c r="AM257" s="5"/>
-      <c r="AN257" s="5"/>
-      <c r="AO257" s="5"/>
-      <c r="AP257" s="5"/>
     </row>
     <row r="258" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
@@ -27317,10 +26446,6 @@
       <c r="E258" t="s">
         <v>198</v>
       </c>
-      <c r="AM258" s="5"/>
-      <c r="AN258" s="5"/>
-      <c r="AO258" s="5"/>
-      <c r="AP258" s="5"/>
     </row>
     <row r="259" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
@@ -27338,10 +26463,6 @@
       <c r="E259" t="s">
         <v>198</v>
       </c>
-      <c r="AM259" s="5"/>
-      <c r="AN259" s="5"/>
-      <c r="AO259" s="5"/>
-      <c r="AP259" s="5"/>
     </row>
     <row r="260" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
@@ -27359,10 +26480,6 @@
       <c r="E260" t="s">
         <v>198</v>
       </c>
-      <c r="AM260" s="5"/>
-      <c r="AN260" s="5"/>
-      <c r="AO260" s="5"/>
-      <c r="AP260" s="5"/>
     </row>
     <row r="261" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
@@ -27380,10 +26497,6 @@
       <c r="E261" t="s">
         <v>198</v>
       </c>
-      <c r="AM261" s="5"/>
-      <c r="AN261" s="5"/>
-      <c r="AO261" s="5"/>
-      <c r="AP261" s="5"/>
     </row>
     <row r="262" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
@@ -27401,10 +26514,6 @@
       <c r="E262" t="s">
         <v>198</v>
       </c>
-      <c r="AM262" s="5"/>
-      <c r="AN262" s="5"/>
-      <c r="AO262" s="5"/>
-      <c r="AP262" s="5"/>
     </row>
     <row r="263" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
@@ -27422,10 +26531,6 @@
       <c r="E263" t="s">
         <v>198</v>
       </c>
-      <c r="AM263" s="5"/>
-      <c r="AN263" s="5"/>
-      <c r="AO263" s="5"/>
-      <c r="AP263" s="5"/>
     </row>
     <row r="264" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
@@ -27443,10 +26548,6 @@
       <c r="E264" t="s">
         <v>198</v>
       </c>
-      <c r="AM264" s="5"/>
-      <c r="AN264" s="5"/>
-      <c r="AO264" s="5"/>
-      <c r="AP264" s="5"/>
     </row>
     <row r="265" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
@@ -27464,10 +26565,6 @@
       <c r="E265" t="s">
         <v>198</v>
       </c>
-      <c r="AM265" s="5"/>
-      <c r="AN265" s="5"/>
-      <c r="AO265" s="5"/>
-      <c r="AP265" s="5"/>
     </row>
     <row r="266" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
@@ -27485,10 +26582,6 @@
       <c r="E266" t="s">
         <v>198</v>
       </c>
-      <c r="AM266" s="5"/>
-      <c r="AN266" s="5"/>
-      <c r="AO266" s="5"/>
-      <c r="AP266" s="5"/>
     </row>
     <row r="267" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
@@ -27506,10 +26599,6 @@
       <c r="E267" t="s">
         <v>198</v>
       </c>
-      <c r="AM267" s="5"/>
-      <c r="AN267" s="5"/>
-      <c r="AO267" s="5"/>
-      <c r="AP267" s="5"/>
     </row>
     <row r="268" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
@@ -27527,10 +26616,6 @@
       <c r="E268" t="s">
         <v>198</v>
       </c>
-      <c r="AM268" s="5"/>
-      <c r="AN268" s="5"/>
-      <c r="AO268" s="5"/>
-      <c r="AP268" s="5"/>
     </row>
     <row r="269" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
@@ -27548,10 +26633,6 @@
       <c r="E269" t="s">
         <v>198</v>
       </c>
-      <c r="AM269" s="5"/>
-      <c r="AN269" s="5"/>
-      <c r="AO269" s="5"/>
-      <c r="AP269" s="5"/>
     </row>
     <row r="270" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
@@ -27569,10 +26650,6 @@
       <c r="E270" t="s">
         <v>198</v>
       </c>
-      <c r="AM270" s="5"/>
-      <c r="AN270" s="5"/>
-      <c r="AO270" s="5"/>
-      <c r="AP270" s="5"/>
     </row>
     <row r="271" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
@@ -27590,10 +26667,6 @@
       <c r="E271" t="s">
         <v>198</v>
       </c>
-      <c r="AM271" s="5"/>
-      <c r="AN271" s="5"/>
-      <c r="AO271" s="5"/>
-      <c r="AP271" s="5"/>
     </row>
     <row r="272" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
@@ -27710,16 +26783,16 @@
       <c r="AL272">
         <v>30</v>
       </c>
-      <c r="AM272" s="5">
+      <c r="AM272">
         <v>14.5</v>
       </c>
-      <c r="AN272" s="5">
+      <c r="AN272">
         <v>5.5</v>
       </c>
-      <c r="AO272" s="5">
+      <c r="AO272">
         <v>14.2</v>
       </c>
-      <c r="AP272" s="5">
+      <c r="AP272">
         <v>20</v>
       </c>
     </row>
@@ -27835,16 +26908,16 @@
       <c r="AL273">
         <v>30</v>
       </c>
-      <c r="AM273" s="5">
+      <c r="AM273">
         <v>10.4</v>
       </c>
-      <c r="AN273" s="5">
+      <c r="AN273">
         <v>3.5</v>
       </c>
-      <c r="AO273" s="5">
+      <c r="AO273">
         <v>2.8</v>
       </c>
-      <c r="AP273" s="5">
+      <c r="AP273">
         <v>20</v>
       </c>
     </row>
@@ -27960,16 +27033,16 @@
       <c r="AL274">
         <v>60</v>
       </c>
-      <c r="AM274" s="5">
+      <c r="AM274">
         <v>14.7</v>
       </c>
-      <c r="AN274" s="5">
+      <c r="AN274">
         <v>9.1</v>
       </c>
-      <c r="AO274" s="5">
+      <c r="AO274">
         <v>0.4</v>
       </c>
-      <c r="AP274" s="5">
+      <c r="AP274">
         <v>40</v>
       </c>
     </row>
@@ -28088,16 +27161,16 @@
       <c r="AL275">
         <v>30</v>
       </c>
-      <c r="AM275" s="5">
+      <c r="AM275">
         <v>23.1</v>
       </c>
-      <c r="AN275" s="5">
+      <c r="AN275">
         <v>18.100000000000001</v>
       </c>
-      <c r="AO275" s="5">
+      <c r="AO275">
         <v>8</v>
       </c>
-      <c r="AP275" s="5">
+      <c r="AP275">
         <v>30</v>
       </c>
     </row>
@@ -28216,16 +27289,16 @@
       <c r="AL276">
         <v>30</v>
       </c>
-      <c r="AM276" s="5">
+      <c r="AM276">
         <v>8.5</v>
       </c>
-      <c r="AN276" s="5">
+      <c r="AN276">
         <v>19.2</v>
       </c>
-      <c r="AO276" s="5">
+      <c r="AO276">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AP276" s="5">
+      <c r="AP276">
         <v>30</v>
       </c>
     </row>
@@ -28341,16 +27414,16 @@
       <c r="AL277">
         <v>30</v>
       </c>
-      <c r="AM277" s="5">
+      <c r="AM277">
         <v>19.600000000000001</v>
       </c>
-      <c r="AN277" s="5">
+      <c r="AN277">
         <v>4.7</v>
       </c>
-      <c r="AO277" s="5">
+      <c r="AO277">
         <v>14.2</v>
       </c>
-      <c r="AP277" s="5">
+      <c r="AP277">
         <v>10</v>
       </c>
     </row>
@@ -28466,16 +27539,16 @@
       <c r="AL278">
         <v>50</v>
       </c>
-      <c r="AM278" s="5">
+      <c r="AM278">
         <v>20.8</v>
       </c>
-      <c r="AN278" s="5">
+      <c r="AN278">
         <v>16.899999999999999</v>
       </c>
-      <c r="AO278" s="5">
+      <c r="AO278">
         <v>16.399999999999999</v>
       </c>
-      <c r="AP278" s="5">
+      <c r="AP278">
         <v>40</v>
       </c>
     </row>
@@ -28591,16 +27664,16 @@
       <c r="AL279">
         <v>40</v>
       </c>
-      <c r="AM279" s="5">
+      <c r="AM279">
         <v>20.3</v>
       </c>
-      <c r="AN279" s="5">
+      <c r="AN279">
         <v>8.4</v>
       </c>
-      <c r="AO279" s="5">
+      <c r="AO279">
         <v>0.5</v>
       </c>
-      <c r="AP279" s="5">
+      <c r="AP279">
         <v>30</v>
       </c>
     </row>
@@ -28716,16 +27789,16 @@
       <c r="AL280">
         <v>50</v>
       </c>
-      <c r="AM280" s="5">
+      <c r="AM280">
         <v>20.8</v>
       </c>
-      <c r="AN280" s="5">
+      <c r="AN280">
         <v>17.7</v>
       </c>
-      <c r="AO280" s="5">
+      <c r="AO280">
         <v>3.5</v>
       </c>
-      <c r="AP280" s="5">
+      <c r="AP280">
         <v>50</v>
       </c>
     </row>
@@ -28841,16 +27914,16 @@
       <c r="AL281">
         <v>30</v>
       </c>
-      <c r="AM281" s="5">
+      <c r="AM281">
         <v>17.3</v>
       </c>
-      <c r="AN281" s="5">
+      <c r="AN281">
         <v>10.8</v>
       </c>
-      <c r="AO281" s="5">
+      <c r="AO281">
         <v>4.7</v>
       </c>
-      <c r="AP281" s="5">
+      <c r="AP281">
         <v>20</v>
       </c>
     </row>
@@ -28969,10 +28042,6 @@
       <c r="AL282">
         <v>70</v>
       </c>
-      <c r="AM282" s="5"/>
-      <c r="AN282" s="5"/>
-      <c r="AO282" s="5"/>
-      <c r="AP282" s="5"/>
     </row>
     <row r="283" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
@@ -29089,10 +28158,6 @@
       <c r="AL283" t="s">
         <v>660</v>
       </c>
-      <c r="AM283" s="5"/>
-      <c r="AN283" s="5"/>
-      <c r="AO283" s="5"/>
-      <c r="AP283" s="5"/>
     </row>
     <row r="284" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
@@ -29206,10 +28271,6 @@
       <c r="AL284">
         <v>40</v>
       </c>
-      <c r="AM284" s="5"/>
-      <c r="AN284" s="5"/>
-      <c r="AO284" s="5"/>
-      <c r="AP284" s="5"/>
     </row>
     <row r="285" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
@@ -29323,10 +28384,6 @@
       <c r="AL285">
         <v>40</v>
       </c>
-      <c r="AM285" s="5"/>
-      <c r="AN285" s="5"/>
-      <c r="AO285" s="5"/>
-      <c r="AP285" s="5"/>
     </row>
     <row r="286" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
@@ -29440,10 +28497,6 @@
       <c r="AL286">
         <v>50</v>
       </c>
-      <c r="AM286" s="5"/>
-      <c r="AN286" s="5"/>
-      <c r="AO286" s="5"/>
-      <c r="AP286" s="5"/>
     </row>
     <row r="287" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
@@ -29557,16 +28610,16 @@
       <c r="AL287">
         <v>60</v>
       </c>
-      <c r="AM287" s="5">
+      <c r="AM287">
         <v>18.600000000000001</v>
       </c>
-      <c r="AN287" s="5">
+      <c r="AN287">
         <v>6</v>
       </c>
-      <c r="AO287" s="5">
+      <c r="AO287">
         <v>16.8</v>
       </c>
-      <c r="AP287" s="5">
+      <c r="AP287">
         <v>50</v>
       </c>
     </row>
@@ -29682,16 +28735,16 @@
       <c r="AL288">
         <v>40</v>
       </c>
-      <c r="AM288" s="5">
+      <c r="AM288">
         <v>22.8</v>
       </c>
-      <c r="AN288" s="5">
+      <c r="AN288">
         <v>11.4</v>
       </c>
-      <c r="AO288" s="5">
+      <c r="AO288">
         <v>8.5</v>
       </c>
-      <c r="AP288" s="5">
+      <c r="AP288">
         <v>20</v>
       </c>
     </row>
@@ -29807,16 +28860,16 @@
       <c r="AL289">
         <v>40</v>
       </c>
-      <c r="AM289" s="5">
+      <c r="AM289">
         <v>31.8</v>
       </c>
-      <c r="AN289" s="5">
+      <c r="AN289">
         <v>11.4</v>
       </c>
-      <c r="AO289" s="5">
+      <c r="AO289">
         <v>7.8</v>
       </c>
-      <c r="AP289" s="5">
+      <c r="AP289">
         <v>20</v>
       </c>
     </row>
@@ -29932,16 +28985,16 @@
       <c r="AL290">
         <v>30</v>
       </c>
-      <c r="AM290" s="5">
+      <c r="AM290">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AN290" s="5">
+      <c r="AN290">
         <v>1.5</v>
       </c>
-      <c r="AO290" s="5">
+      <c r="AO290">
         <v>2.7</v>
       </c>
-      <c r="AP290" s="5">
+      <c r="AP290">
         <v>10</v>
       </c>
     </row>
@@ -30057,16 +29110,16 @@
       <c r="AL291">
         <v>40</v>
       </c>
-      <c r="AM291" s="5">
+      <c r="AM291">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AN291" s="5">
+      <c r="AN291">
         <v>24.8</v>
       </c>
-      <c r="AO291" s="5">
+      <c r="AO291">
         <v>5.3</v>
       </c>
-      <c r="AP291" s="5">
+      <c r="AP291">
         <v>20</v>
       </c>
     </row>
@@ -30182,16 +29235,16 @@
       <c r="AL292">
         <v>30</v>
       </c>
-      <c r="AM292" s="5">
+      <c r="AM292">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AN292" s="5">
+      <c r="AN292">
         <v>6.2</v>
       </c>
-      <c r="AO292" s="5">
+      <c r="AO292">
         <v>15.9</v>
       </c>
-      <c r="AP292" s="5">
+      <c r="AP292">
         <v>20</v>
       </c>
     </row>
@@ -30307,16 +29360,16 @@
       <c r="AL293">
         <v>70</v>
       </c>
-      <c r="AM293" s="5">
+      <c r="AM293">
         <v>21.8</v>
       </c>
-      <c r="AN293" s="5">
+      <c r="AN293">
         <v>15</v>
       </c>
-      <c r="AO293" s="5">
+      <c r="AO293">
         <v>16</v>
       </c>
-      <c r="AP293" s="5">
+      <c r="AP293">
         <v>50</v>
       </c>
     </row>
@@ -30432,16 +29485,16 @@
       <c r="AL294">
         <v>50</v>
       </c>
-      <c r="AM294" s="5">
+      <c r="AM294">
         <v>19.100000000000001</v>
       </c>
-      <c r="AN294" s="5">
+      <c r="AN294">
         <v>10.6</v>
       </c>
-      <c r="AO294" s="5">
+      <c r="AO294">
         <v>3.9</v>
       </c>
-      <c r="AP294" s="5">
+      <c r="AP294">
         <v>30</v>
       </c>
     </row>
@@ -30557,16 +29610,16 @@
       <c r="AL295">
         <v>70</v>
       </c>
-      <c r="AM295" s="5">
+      <c r="AM295">
         <v>30.2</v>
       </c>
-      <c r="AN295" s="5">
+      <c r="AN295">
         <v>2</v>
       </c>
-      <c r="AO295" s="5">
+      <c r="AO295">
         <v>18.899999999999999</v>
       </c>
-      <c r="AP295" s="5">
+      <c r="AP295">
         <v>50</v>
       </c>
     </row>
@@ -30682,16 +29735,16 @@
       <c r="AL296">
         <v>60</v>
       </c>
-      <c r="AM296" s="5">
+      <c r="AM296">
         <v>34.299999999999997</v>
       </c>
-      <c r="AN296" s="5">
+      <c r="AN296">
         <v>16.2</v>
       </c>
-      <c r="AO296" s="5">
+      <c r="AO296">
         <v>13.2</v>
       </c>
-      <c r="AP296" s="5">
+      <c r="AP296">
         <v>50</v>
       </c>
     </row>
@@ -30807,10 +29860,6 @@
       <c r="AL297">
         <v>30</v>
       </c>
-      <c r="AM297" s="5"/>
-      <c r="AN297" s="5"/>
-      <c r="AO297" s="5"/>
-      <c r="AP297" s="5"/>
     </row>
     <row r="298" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
@@ -30924,10 +29973,6 @@
       <c r="AL298">
         <v>70</v>
       </c>
-      <c r="AM298" s="5"/>
-      <c r="AN298" s="5"/>
-      <c r="AO298" s="5"/>
-      <c r="AP298" s="5"/>
     </row>
     <row r="299" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
@@ -31041,10 +30086,6 @@
       <c r="AL299">
         <v>50</v>
       </c>
-      <c r="AM299" s="5"/>
-      <c r="AN299" s="5"/>
-      <c r="AO299" s="5"/>
-      <c r="AP299" s="5"/>
     </row>
     <row r="300" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
@@ -31158,10 +30199,6 @@
       <c r="AL300">
         <v>20</v>
       </c>
-      <c r="AM300" s="5"/>
-      <c r="AN300" s="5"/>
-      <c r="AO300" s="5"/>
-      <c r="AP300" s="5"/>
     </row>
     <row r="301" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
@@ -31275,10 +30312,6 @@
       <c r="AL301">
         <v>30</v>
       </c>
-      <c r="AM301" s="5"/>
-      <c r="AN301" s="5"/>
-      <c r="AO301" s="5"/>
-      <c r="AP301" s="5"/>
     </row>
     <row r="302" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
@@ -31392,10 +30425,18 @@
       <c r="AL302">
         <v>50</v>
       </c>
-      <c r="AM302" s="5"/>
-      <c r="AN302" s="5"/>
-      <c r="AO302" s="5"/>
-      <c r="AP302" s="5"/>
+      <c r="AM302">
+        <v>22.2</v>
+      </c>
+      <c r="AN302">
+        <v>7.8</v>
+      </c>
+      <c r="AO302">
+        <v>6.4</v>
+      </c>
+      <c r="AP302">
+        <v>30</v>
+      </c>
     </row>
     <row r="303" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
@@ -31509,10 +30550,18 @@
       <c r="AL303">
         <v>40</v>
       </c>
-      <c r="AM303" s="5"/>
-      <c r="AN303" s="5"/>
-      <c r="AO303" s="5"/>
-      <c r="AP303" s="5"/>
+      <c r="AM303">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AN303">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO303">
+        <v>0.6</v>
+      </c>
+      <c r="AP303">
+        <v>20</v>
+      </c>
     </row>
     <row r="304" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
@@ -31626,10 +30675,18 @@
       <c r="AL304">
         <v>70</v>
       </c>
-      <c r="AM304" s="5"/>
-      <c r="AN304" s="5"/>
-      <c r="AO304" s="5"/>
-      <c r="AP304" s="5"/>
+      <c r="AM304">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AN304">
+        <v>14.8</v>
+      </c>
+      <c r="AO304">
+        <v>8.6</v>
+      </c>
+      <c r="AP304">
+        <v>50</v>
+      </c>
     </row>
     <row r="305" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
@@ -31743,10 +30800,18 @@
       <c r="AL305">
         <v>50</v>
       </c>
-      <c r="AM305" s="5"/>
-      <c r="AN305" s="5"/>
-      <c r="AO305" s="5"/>
-      <c r="AP305" s="5"/>
+      <c r="AM305">
+        <v>26</v>
+      </c>
+      <c r="AN305">
+        <v>7.4</v>
+      </c>
+      <c r="AO305">
+        <v>0.3</v>
+      </c>
+      <c r="AP305">
+        <v>40</v>
+      </c>
     </row>
     <row r="306" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
@@ -31860,10 +30925,18 @@
       <c r="AL306">
         <v>50</v>
       </c>
-      <c r="AM306" s="5"/>
-      <c r="AN306" s="5"/>
-      <c r="AO306" s="5"/>
-      <c r="AP306" s="5"/>
+      <c r="AM306">
+        <v>22.4</v>
+      </c>
+      <c r="AN306">
+        <v>6.4</v>
+      </c>
+      <c r="AO306">
+        <v>3.6</v>
+      </c>
+      <c r="AP306">
+        <v>30</v>
+      </c>
     </row>
     <row r="307" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
@@ -31977,10 +31050,18 @@
       <c r="AL307">
         <v>30</v>
       </c>
-      <c r="AM307" s="5"/>
-      <c r="AN307" s="5"/>
-      <c r="AO307" s="5"/>
-      <c r="AP307" s="5"/>
+      <c r="AM307">
+        <v>26.4</v>
+      </c>
+      <c r="AN307">
+        <v>16.3</v>
+      </c>
+      <c r="AO307">
+        <v>21.1</v>
+      </c>
+      <c r="AP307">
+        <v>20</v>
+      </c>
     </row>
     <row r="308" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
@@ -32094,10 +31175,18 @@
       <c r="AL308">
         <v>50</v>
       </c>
-      <c r="AM308" s="5"/>
-      <c r="AN308" s="5"/>
-      <c r="AO308" s="5"/>
-      <c r="AP308" s="5"/>
+      <c r="AM308">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AN308">
+        <v>1.9</v>
+      </c>
+      <c r="AO308">
+        <v>18</v>
+      </c>
+      <c r="AP308">
+        <v>40</v>
+      </c>
     </row>
     <row r="309" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
@@ -32211,10 +31300,18 @@
       <c r="AL309">
         <v>50</v>
       </c>
-      <c r="AM309" s="5"/>
-      <c r="AN309" s="5"/>
-      <c r="AO309" s="5"/>
-      <c r="AP309" s="5"/>
+      <c r="AM309">
+        <v>6.7</v>
+      </c>
+      <c r="AN309">
+        <v>3.5</v>
+      </c>
+      <c r="AO309">
+        <v>10.7</v>
+      </c>
+      <c r="AP309">
+        <v>30</v>
+      </c>
     </row>
     <row r="310" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
@@ -32328,10 +31425,18 @@
       <c r="AL310">
         <v>50</v>
       </c>
-      <c r="AM310" s="5"/>
-      <c r="AN310" s="5"/>
-      <c r="AO310" s="5"/>
-      <c r="AP310" s="5"/>
+      <c r="AM310">
+        <v>10.6</v>
+      </c>
+      <c r="AN310">
+        <v>10.3</v>
+      </c>
+      <c r="AO310">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AP310">
+        <v>50</v>
+      </c>
     </row>
     <row r="311" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
@@ -32445,10 +31550,18 @@
       <c r="AL311">
         <v>30</v>
       </c>
-      <c r="AM311" s="5"/>
-      <c r="AN311" s="5"/>
-      <c r="AO311" s="5"/>
-      <c r="AP311" s="5"/>
+      <c r="AM311">
+        <v>17.7</v>
+      </c>
+      <c r="AN311">
+        <v>11.3</v>
+      </c>
+      <c r="AO311">
+        <v>12.7</v>
+      </c>
+      <c r="AP311">
+        <v>20</v>
+      </c>
     </row>
     <row r="312" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
@@ -32562,10 +31675,18 @@
       <c r="AL312">
         <v>30</v>
       </c>
-      <c r="AM312" s="5"/>
-      <c r="AN312" s="5"/>
-      <c r="AO312" s="5"/>
-      <c r="AP312" s="5"/>
+      <c r="AM312">
+        <v>22.5</v>
+      </c>
+      <c r="AN312">
+        <v>15.6</v>
+      </c>
+      <c r="AO312">
+        <v>6</v>
+      </c>
+      <c r="AP312">
+        <v>20</v>
+      </c>
     </row>
     <row r="313" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
@@ -32679,10 +31800,18 @@
       <c r="AL313">
         <v>30</v>
       </c>
-      <c r="AM313" s="5"/>
-      <c r="AN313" s="5"/>
-      <c r="AO313" s="5"/>
-      <c r="AP313" s="5"/>
+      <c r="AM313">
+        <v>19.5</v>
+      </c>
+      <c r="AN313">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AO313">
+        <v>4</v>
+      </c>
+      <c r="AP313">
+        <v>20</v>
+      </c>
     </row>
     <row r="314" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
@@ -32796,10 +31925,18 @@
       <c r="AL314">
         <v>20</v>
       </c>
-      <c r="AM314" s="5"/>
-      <c r="AN314" s="5"/>
-      <c r="AO314" s="5"/>
-      <c r="AP314" s="5"/>
+      <c r="AM314">
+        <v>22.3</v>
+      </c>
+      <c r="AN314">
+        <v>2.4</v>
+      </c>
+      <c r="AO314">
+        <v>2</v>
+      </c>
+      <c r="AP314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
@@ -32913,10 +32050,18 @@
       <c r="AL315">
         <v>50</v>
       </c>
-      <c r="AM315" s="5"/>
-      <c r="AN315" s="5"/>
-      <c r="AO315" s="5"/>
-      <c r="AP315" s="5"/>
+      <c r="AM315">
+        <v>14</v>
+      </c>
+      <c r="AN315">
+        <v>6.5</v>
+      </c>
+      <c r="AO315">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AP315">
+        <v>20</v>
+      </c>
     </row>
     <row r="316" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
@@ -33030,10 +32175,18 @@
       <c r="AL316">
         <v>40</v>
       </c>
-      <c r="AM316" s="5"/>
-      <c r="AN316" s="5"/>
-      <c r="AO316" s="5"/>
-      <c r="AP316" s="5"/>
+      <c r="AM316">
+        <v>25.6</v>
+      </c>
+      <c r="AN316">
+        <v>16.3</v>
+      </c>
+      <c r="AO316">
+        <v>9.6</v>
+      </c>
+      <c r="AP316">
+        <v>30</v>
+      </c>
     </row>
     <row r="317" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
@@ -33147,16 +32300,16 @@
       <c r="AL317">
         <v>40</v>
       </c>
-      <c r="AM317" s="5">
+      <c r="AM317">
         <v>14.4</v>
       </c>
-      <c r="AN317" s="5">
+      <c r="AN317">
         <v>15.3</v>
       </c>
-      <c r="AO317" s="5">
+      <c r="AO317">
         <v>1.8</v>
       </c>
-      <c r="AP317" s="5">
+      <c r="AP317">
         <v>30</v>
       </c>
     </row>
@@ -33272,16 +32425,16 @@
       <c r="AL318">
         <v>40</v>
       </c>
-      <c r="AM318" s="5">
+      <c r="AM318">
         <v>1.9</v>
       </c>
-      <c r="AN318" s="5">
+      <c r="AN318">
         <v>12.6</v>
       </c>
-      <c r="AO318" s="5">
+      <c r="AO318">
         <v>13.6</v>
       </c>
-      <c r="AP318" s="5">
+      <c r="AP318">
         <v>20</v>
       </c>
     </row>
@@ -33397,16 +32550,16 @@
       <c r="AL319">
         <v>50</v>
       </c>
-      <c r="AM319" s="5">
+      <c r="AM319">
         <v>9.6</v>
       </c>
-      <c r="AN319" s="5">
+      <c r="AN319">
         <v>5.2</v>
       </c>
-      <c r="AO319" s="5">
+      <c r="AO319">
         <v>12.8</v>
       </c>
-      <c r="AP319" s="5">
+      <c r="AP319">
         <v>30</v>
       </c>
     </row>
@@ -33522,16 +32675,16 @@
       <c r="AL320">
         <v>50</v>
       </c>
-      <c r="AM320" s="5">
+      <c r="AM320">
         <v>11</v>
       </c>
-      <c r="AN320" s="5">
+      <c r="AN320">
         <v>6.4</v>
       </c>
-      <c r="AO320" s="5">
+      <c r="AO320">
         <v>15.2</v>
       </c>
-      <c r="AP320" s="5">
+      <c r="AP320">
         <v>40</v>
       </c>
     </row>
@@ -33647,16 +32800,16 @@
       <c r="AL321">
         <v>60</v>
       </c>
-      <c r="AM321" s="5">
+      <c r="AM321">
         <v>26.3</v>
       </c>
-      <c r="AN321" s="5">
+      <c r="AN321">
         <v>12.5</v>
       </c>
-      <c r="AO321" s="5">
+      <c r="AO321">
         <v>14.4</v>
       </c>
-      <c r="AP321" s="5">
+      <c r="AP321">
         <v>40</v>
       </c>
     </row>
@@ -33772,16 +32925,16 @@
       <c r="AL322" t="s">
         <v>660</v>
       </c>
-      <c r="AM322" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AN322" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AO322" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AP322" s="5" t="s">
+      <c r="AM322" t="s">
+        <v>660</v>
+      </c>
+      <c r="AN322" t="s">
+        <v>660</v>
+      </c>
+      <c r="AO322" t="s">
+        <v>660</v>
+      </c>
+      <c r="AP322" t="s">
         <v>660</v>
       </c>
     </row>
@@ -33897,16 +33050,16 @@
       <c r="AL323">
         <v>50</v>
       </c>
-      <c r="AM323" s="5">
+      <c r="AM323">
         <v>20.7</v>
       </c>
-      <c r="AN323" s="5">
+      <c r="AN323">
         <v>7.3</v>
       </c>
-      <c r="AO323" s="5">
+      <c r="AO323">
         <v>3</v>
       </c>
-      <c r="AP323" s="5">
+      <c r="AP323">
         <v>30</v>
       </c>
     </row>
@@ -34022,16 +33175,16 @@
       <c r="AL324" t="s">
         <v>660</v>
       </c>
-      <c r="AM324" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AN324" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AO324" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AP324" s="5" t="s">
+      <c r="AM324" t="s">
+        <v>660</v>
+      </c>
+      <c r="AN324" t="s">
+        <v>660</v>
+      </c>
+      <c r="AO324" t="s">
+        <v>660</v>
+      </c>
+      <c r="AP324" t="s">
         <v>660</v>
       </c>
     </row>
@@ -34147,16 +33300,16 @@
       <c r="AL325">
         <v>30</v>
       </c>
-      <c r="AM325" s="5">
+      <c r="AM325">
         <v>7.4</v>
       </c>
-      <c r="AN325" s="5">
+      <c r="AN325">
         <v>1.8</v>
       </c>
-      <c r="AO325" s="5">
+      <c r="AO325">
         <v>2.6</v>
       </c>
-      <c r="AP325" s="5">
+      <c r="AP325">
         <v>10</v>
       </c>
     </row>
@@ -34272,16 +33425,16 @@
       <c r="AL326">
         <v>50</v>
       </c>
-      <c r="AM326" s="5">
+      <c r="AM326">
         <v>34.1</v>
       </c>
-      <c r="AN326" s="5">
+      <c r="AN326">
         <v>14.7</v>
       </c>
-      <c r="AO326" s="5">
+      <c r="AO326">
         <v>19.3</v>
       </c>
-      <c r="AP326" s="5">
+      <c r="AP326">
         <v>50</v>
       </c>
     </row>
@@ -34400,10 +33553,6 @@
       <c r="AL327">
         <v>0</v>
       </c>
-      <c r="AM327" s="5"/>
-      <c r="AN327" s="5"/>
-      <c r="AO327" s="5"/>
-      <c r="AP327" s="5"/>
     </row>
     <row r="328" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
@@ -34517,10 +33666,6 @@
       <c r="AL328">
         <v>20</v>
       </c>
-      <c r="AM328" s="5"/>
-      <c r="AN328" s="5"/>
-      <c r="AO328" s="5"/>
-      <c r="AP328" s="5"/>
     </row>
     <row r="329" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
@@ -34634,10 +33779,6 @@
       <c r="AL329">
         <v>50</v>
       </c>
-      <c r="AM329" s="5"/>
-      <c r="AN329" s="5"/>
-      <c r="AO329" s="5"/>
-      <c r="AP329" s="5"/>
     </row>
     <row r="330" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
@@ -34751,10 +33892,6 @@
       <c r="AL330">
         <v>50</v>
       </c>
-      <c r="AM330" s="5"/>
-      <c r="AN330" s="5"/>
-      <c r="AO330" s="5"/>
-      <c r="AP330" s="5"/>
     </row>
     <row r="331" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
@@ -34871,10 +34008,6 @@
       <c r="AL331">
         <v>20</v>
       </c>
-      <c r="AM331" s="5"/>
-      <c r="AN331" s="5"/>
-      <c r="AO331" s="5"/>
-      <c r="AP331" s="5"/>
     </row>
     <row r="332" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
@@ -34988,10 +34121,18 @@
       <c r="AL332">
         <v>40</v>
       </c>
-      <c r="AM332" s="5"/>
-      <c r="AN332" s="5"/>
-      <c r="AO332" s="5"/>
-      <c r="AP332" s="5"/>
+      <c r="AM332">
+        <v>12.2</v>
+      </c>
+      <c r="AN332">
+        <v>6.2</v>
+      </c>
+      <c r="AO332">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AP332">
+        <v>20</v>
+      </c>
     </row>
     <row r="333" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
@@ -35105,10 +34246,18 @@
       <c r="AL333">
         <v>60</v>
       </c>
-      <c r="AM333" s="5"/>
-      <c r="AN333" s="5"/>
-      <c r="AO333" s="5"/>
-      <c r="AP333" s="5"/>
+      <c r="AM333">
+        <v>8.5</v>
+      </c>
+      <c r="AN333">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AO333">
+        <v>12.9</v>
+      </c>
+      <c r="AP333">
+        <v>50</v>
+      </c>
     </row>
     <row r="334" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
@@ -35222,10 +34371,18 @@
       <c r="AL334">
         <v>50</v>
       </c>
-      <c r="AM334" s="5"/>
-      <c r="AN334" s="5"/>
-      <c r="AO334" s="5"/>
-      <c r="AP334" s="5"/>
+      <c r="AM334">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AN334">
+        <v>13.5</v>
+      </c>
+      <c r="AO334">
+        <v>4.2</v>
+      </c>
+      <c r="AP334">
+        <v>40</v>
+      </c>
     </row>
     <row r="335" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
@@ -35339,10 +34496,18 @@
       <c r="AL335">
         <v>60</v>
       </c>
-      <c r="AM335" s="5"/>
-      <c r="AN335" s="5"/>
-      <c r="AO335" s="5"/>
-      <c r="AP335" s="5"/>
+      <c r="AM335">
+        <v>0.4</v>
+      </c>
+      <c r="AN335">
+        <v>21.2</v>
+      </c>
+      <c r="AO335">
+        <v>5.3</v>
+      </c>
+      <c r="AP335">
+        <v>40</v>
+      </c>
     </row>
     <row r="336" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
@@ -35456,10 +34621,18 @@
       <c r="AL336">
         <v>40</v>
       </c>
-      <c r="AM336" s="5"/>
-      <c r="AN336" s="5"/>
-      <c r="AO336" s="5"/>
-      <c r="AP336" s="5"/>
+      <c r="AM336">
+        <v>10.9</v>
+      </c>
+      <c r="AN336">
+        <v>12</v>
+      </c>
+      <c r="AO336">
+        <v>18.7</v>
+      </c>
+      <c r="AP336">
+        <v>30</v>
+      </c>
     </row>
     <row r="337" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
@@ -35573,10 +34746,18 @@
       <c r="AL337">
         <v>30</v>
       </c>
-      <c r="AM337" s="5"/>
-      <c r="AN337" s="5"/>
-      <c r="AO337" s="5"/>
-      <c r="AP337" s="5"/>
+      <c r="AM337">
+        <v>4.7</v>
+      </c>
+      <c r="AN337">
+        <v>10.3</v>
+      </c>
+      <c r="AO337">
+        <v>0.8</v>
+      </c>
+      <c r="AP337">
+        <v>20</v>
+      </c>
     </row>
     <row r="338" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
@@ -35690,10 +34871,18 @@
       <c r="AL338">
         <v>70</v>
       </c>
-      <c r="AM338" s="5"/>
-      <c r="AN338" s="5"/>
-      <c r="AO338" s="5"/>
-      <c r="AP338" s="5"/>
+      <c r="AM338">
+        <v>27.1</v>
+      </c>
+      <c r="AN338">
+        <v>14.7</v>
+      </c>
+      <c r="AO338">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AP338">
+        <v>70</v>
+      </c>
     </row>
     <row r="339" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
@@ -35807,10 +34996,18 @@
       <c r="AL339">
         <v>50</v>
       </c>
-      <c r="AM339" s="5"/>
-      <c r="AN339" s="5"/>
-      <c r="AO339" s="5"/>
-      <c r="AP339" s="5"/>
+      <c r="AM339">
+        <v>22.8</v>
+      </c>
+      <c r="AN339">
+        <v>11.3</v>
+      </c>
+      <c r="AO339">
+        <v>3.4</v>
+      </c>
+      <c r="AP339">
+        <v>30</v>
+      </c>
     </row>
     <row r="340" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
@@ -35924,10 +35121,18 @@
       <c r="AL340">
         <v>10</v>
       </c>
-      <c r="AM340" s="5"/>
-      <c r="AN340" s="5"/>
-      <c r="AO340" s="5"/>
-      <c r="AP340" s="5"/>
+      <c r="AM340">
+        <v>21.8</v>
+      </c>
+      <c r="AN340">
+        <v>20</v>
+      </c>
+      <c r="AO340">
+        <v>16.7</v>
+      </c>
+      <c r="AP340">
+        <v>10</v>
+      </c>
     </row>
     <row r="341" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
@@ -36041,10 +35246,18 @@
       <c r="AL341">
         <v>40</v>
       </c>
-      <c r="AM341" s="5"/>
-      <c r="AN341" s="5"/>
-      <c r="AO341" s="5"/>
-      <c r="AP341" s="5"/>
+      <c r="AM341">
+        <v>14.7</v>
+      </c>
+      <c r="AN341">
+        <v>3.2</v>
+      </c>
+      <c r="AO341">
+        <v>4.3</v>
+      </c>
+      <c r="AP341">
+        <v>20</v>
+      </c>
     </row>
     <row r="342" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
@@ -36158,10 +35371,18 @@
       <c r="AL342">
         <v>60</v>
       </c>
-      <c r="AM342" s="5"/>
-      <c r="AN342" s="5"/>
-      <c r="AO342" s="5"/>
-      <c r="AP342" s="5"/>
+      <c r="AM342">
+        <v>24.5</v>
+      </c>
+      <c r="AN342">
+        <v>21.5</v>
+      </c>
+      <c r="AO342">
+        <v>20.8</v>
+      </c>
+      <c r="AP342">
+        <v>50</v>
+      </c>
     </row>
     <row r="343" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
@@ -36278,10 +35499,18 @@
       <c r="AL343">
         <v>5</v>
       </c>
-      <c r="AM343" s="5"/>
-      <c r="AN343" s="5"/>
-      <c r="AO343" s="5"/>
-      <c r="AP343" s="5"/>
+      <c r="AM343">
+        <v>14.4</v>
+      </c>
+      <c r="AN343">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AO343">
+        <v>12.4</v>
+      </c>
+      <c r="AP343">
+        <v>5</v>
+      </c>
     </row>
     <row r="344" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
@@ -36395,10 +35624,18 @@
       <c r="AL344">
         <v>20</v>
       </c>
-      <c r="AM344" s="5"/>
-      <c r="AN344" s="5"/>
-      <c r="AO344" s="5"/>
-      <c r="AP344" s="5"/>
+      <c r="AM344">
+        <v>14.9</v>
+      </c>
+      <c r="AN344">
+        <v>11.1</v>
+      </c>
+      <c r="AO344">
+        <v>1.4</v>
+      </c>
+      <c r="AP344">
+        <v>10</v>
+      </c>
     </row>
     <row r="345" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
@@ -36512,10 +35749,18 @@
       <c r="AL345">
         <v>30</v>
       </c>
-      <c r="AM345" s="5"/>
-      <c r="AN345" s="5"/>
-      <c r="AO345" s="5"/>
-      <c r="AP345" s="5"/>
+      <c r="AM345">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AN345">
+        <v>1.3</v>
+      </c>
+      <c r="AO345">
+        <v>22.8</v>
+      </c>
+      <c r="AP345">
+        <v>30</v>
+      </c>
     </row>
     <row r="346" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
@@ -36629,10 +35874,18 @@
       <c r="AL346">
         <v>50</v>
       </c>
-      <c r="AM346" s="5"/>
-      <c r="AN346" s="5"/>
-      <c r="AO346" s="5"/>
-      <c r="AP346" s="5"/>
+      <c r="AM346">
+        <v>13.4</v>
+      </c>
+      <c r="AN346">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AO346">
+        <v>3</v>
+      </c>
+      <c r="AP346">
+        <v>30</v>
+      </c>
     </row>
     <row r="347" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
@@ -36746,10 +35999,18 @@
       <c r="AL347">
         <v>50</v>
       </c>
-      <c r="AM347" s="5"/>
-      <c r="AN347" s="5"/>
-      <c r="AO347" s="5"/>
-      <c r="AP347" s="5"/>
+      <c r="AM347">
+        <v>3.3</v>
+      </c>
+      <c r="AN347">
+        <v>21.3</v>
+      </c>
+      <c r="AO347">
+        <v>12.3</v>
+      </c>
+      <c r="AP347">
+        <v>50</v>
+      </c>
     </row>
     <row r="348" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
@@ -36863,10 +36124,18 @@
       <c r="AL348">
         <v>60</v>
       </c>
-      <c r="AM348" s="5"/>
-      <c r="AN348" s="5"/>
-      <c r="AO348" s="5"/>
-      <c r="AP348" s="5"/>
+      <c r="AM348">
+        <v>19.2</v>
+      </c>
+      <c r="AN348">
+        <v>14.8</v>
+      </c>
+      <c r="AO348">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AP348">
+        <v>60</v>
+      </c>
     </row>
     <row r="349" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
@@ -36980,10 +36249,18 @@
       <c r="AL349">
         <v>30</v>
       </c>
-      <c r="AM349" s="5"/>
-      <c r="AN349" s="5"/>
-      <c r="AO349" s="5"/>
-      <c r="AP349" s="5"/>
+      <c r="AM349">
+        <v>1.2</v>
+      </c>
+      <c r="AN349">
+        <v>17.8</v>
+      </c>
+      <c r="AO349">
+        <v>5.2</v>
+      </c>
+      <c r="AP349">
+        <v>30</v>
+      </c>
     </row>
     <row r="350" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
@@ -37097,10 +36374,18 @@
       <c r="AL350">
         <v>50</v>
       </c>
-      <c r="AM350" s="5"/>
-      <c r="AN350" s="5"/>
-      <c r="AO350" s="5"/>
-      <c r="AP350" s="5"/>
+      <c r="AM350">
+        <v>34.1</v>
+      </c>
+      <c r="AN350">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AO350">
+        <v>27.3</v>
+      </c>
+      <c r="AP350">
+        <v>50</v>
+      </c>
     </row>
     <row r="351" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
@@ -37214,10 +36499,18 @@
       <c r="AL351">
         <v>40</v>
       </c>
-      <c r="AM351" s="5"/>
-      <c r="AN351" s="5"/>
-      <c r="AO351" s="5"/>
-      <c r="AP351" s="5"/>
+      <c r="AM351">
+        <v>22.1</v>
+      </c>
+      <c r="AN351">
+        <v>19.8</v>
+      </c>
+      <c r="AO351">
+        <v>6.9</v>
+      </c>
+      <c r="AP351">
+        <v>40</v>
+      </c>
     </row>
     <row r="352" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
@@ -37331,10 +36624,18 @@
       <c r="AL352">
         <v>60</v>
       </c>
-      <c r="AM352" s="5"/>
-      <c r="AN352" s="5"/>
-      <c r="AO352" s="5"/>
-      <c r="AP352" s="5"/>
+      <c r="AM352">
+        <v>23.5</v>
+      </c>
+      <c r="AN352">
+        <v>13.4</v>
+      </c>
+      <c r="AO352">
+        <v>20.8</v>
+      </c>
+      <c r="AP352">
+        <v>60</v>
+      </c>
     </row>
     <row r="353" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
@@ -37448,10 +36749,18 @@
       <c r="AL353">
         <v>50</v>
       </c>
-      <c r="AM353" s="5"/>
-      <c r="AN353" s="5"/>
-      <c r="AO353" s="5"/>
-      <c r="AP353" s="5"/>
+      <c r="AM353">
+        <v>16.3</v>
+      </c>
+      <c r="AN353">
+        <v>6.1</v>
+      </c>
+      <c r="AO353">
+        <v>3.1</v>
+      </c>
+      <c r="AP353">
+        <v>40</v>
+      </c>
     </row>
     <row r="354" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
@@ -37565,10 +36874,18 @@
       <c r="AL354">
         <v>60</v>
       </c>
-      <c r="AM354" s="5"/>
-      <c r="AN354" s="5"/>
-      <c r="AO354" s="5"/>
-      <c r="AP354" s="5"/>
+      <c r="AM354">
+        <v>12.3</v>
+      </c>
+      <c r="AN354">
+        <v>14</v>
+      </c>
+      <c r="AO354">
+        <v>13.7</v>
+      </c>
+      <c r="AP354">
+        <v>40</v>
+      </c>
     </row>
     <row r="355" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
@@ -37682,10 +36999,18 @@
       <c r="AL355" t="s">
         <v>660</v>
       </c>
-      <c r="AM355" s="5"/>
-      <c r="AN355" s="5"/>
-      <c r="AO355" s="5"/>
-      <c r="AP355" s="5"/>
+      <c r="AM355" t="s">
+        <v>660</v>
+      </c>
+      <c r="AN355" t="s">
+        <v>660</v>
+      </c>
+      <c r="AO355" t="s">
+        <v>660</v>
+      </c>
+      <c r="AP355" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="356" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
@@ -37799,10 +37124,18 @@
       <c r="AL356">
         <v>30</v>
       </c>
-      <c r="AM356" s="5"/>
-      <c r="AN356" s="5"/>
-      <c r="AO356" s="5"/>
-      <c r="AP356" s="5"/>
+      <c r="AM356">
+        <v>20.9</v>
+      </c>
+      <c r="AN356">
+        <v>8.1</v>
+      </c>
+      <c r="AO356">
+        <v>0.6</v>
+      </c>
+      <c r="AP356">
+        <v>20</v>
+      </c>
     </row>
     <row r="357" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
@@ -37916,10 +37249,18 @@
       <c r="AL357">
         <v>70</v>
       </c>
-      <c r="AM357" s="5"/>
-      <c r="AN357" s="5"/>
-      <c r="AO357" s="5"/>
-      <c r="AP357" s="5"/>
+      <c r="AM357">
+        <v>26.9</v>
+      </c>
+      <c r="AN357">
+        <v>19.2</v>
+      </c>
+      <c r="AO357">
+        <v>2.5</v>
+      </c>
+      <c r="AP357">
+        <v>70</v>
+      </c>
     </row>
     <row r="358" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
@@ -38033,10 +37374,18 @@
       <c r="AL358">
         <v>40</v>
       </c>
-      <c r="AM358" s="5"/>
-      <c r="AN358" s="5"/>
-      <c r="AO358" s="5"/>
-      <c r="AP358" s="5"/>
+      <c r="AM358">
+        <v>2.1</v>
+      </c>
+      <c r="AN358">
+        <v>21.9</v>
+      </c>
+      <c r="AO358">
+        <v>6.6</v>
+      </c>
+      <c r="AP358">
+        <v>40</v>
+      </c>
     </row>
     <row r="359" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
@@ -38150,10 +37499,18 @@
       <c r="AL359">
         <v>40</v>
       </c>
-      <c r="AM359" s="5"/>
-      <c r="AN359" s="5"/>
-      <c r="AO359" s="5"/>
-      <c r="AP359" s="5"/>
+      <c r="AM359">
+        <v>19.5</v>
+      </c>
+      <c r="AN359">
+        <v>21.3</v>
+      </c>
+      <c r="AO359">
+        <v>18.5</v>
+      </c>
+      <c r="AP359">
+        <v>40</v>
+      </c>
     </row>
     <row r="360" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
@@ -38267,10 +37624,18 @@
       <c r="AL360">
         <v>20</v>
       </c>
-      <c r="AM360" s="5"/>
-      <c r="AN360" s="5"/>
-      <c r="AO360" s="5"/>
-      <c r="AP360" s="5"/>
+      <c r="AM360">
+        <v>19.7</v>
+      </c>
+      <c r="AN360">
+        <v>20.3</v>
+      </c>
+      <c r="AO360">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AP360">
+        <v>29</v>
+      </c>
     </row>
     <row r="361" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
@@ -38384,10 +37749,18 @@
       <c r="AL361">
         <v>10</v>
       </c>
-      <c r="AM361" s="5"/>
-      <c r="AN361" s="5"/>
-      <c r="AO361" s="5"/>
-      <c r="AP361" s="5"/>
+      <c r="AM361">
+        <v>24.2</v>
+      </c>
+      <c r="AN361">
+        <v>18.7</v>
+      </c>
+      <c r="AO361">
+        <v>0.3</v>
+      </c>
+      <c r="AP361">
+        <v>10</v>
+      </c>
     </row>
     <row r="362" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
@@ -38504,9 +37877,6 @@
       <c r="AL362">
         <v>0</v>
       </c>
-      <c r="AM362" s="5"/>
-      <c r="AN362" s="5"/>
-      <c r="AO362" s="5"/>
       <c r="AP362">
         <v>0</v>
       </c>
@@ -38626,9 +37996,6 @@
       <c r="AL363">
         <v>0</v>
       </c>
-      <c r="AM363" s="5"/>
-      <c r="AN363" s="5"/>
-      <c r="AO363" s="5"/>
       <c r="AP363">
         <v>0</v>
       </c>
@@ -38748,9 +38115,6 @@
       <c r="AL364">
         <v>0</v>
       </c>
-      <c r="AM364" s="5"/>
-      <c r="AN364" s="5"/>
-      <c r="AO364" s="5"/>
       <c r="AP364">
         <v>0</v>
       </c>
@@ -38870,9 +38234,6 @@
       <c r="AL365">
         <v>0</v>
       </c>
-      <c r="AM365" s="5"/>
-      <c r="AN365" s="5"/>
-      <c r="AO365" s="5"/>
       <c r="AP365">
         <v>0</v>
       </c>
@@ -38992,9 +38353,6 @@
       <c r="AL366">
         <v>0</v>
       </c>
-      <c r="AM366" s="5"/>
-      <c r="AN366" s="5"/>
-      <c r="AO366" s="5"/>
       <c r="AP366">
         <v>0</v>
       </c>
@@ -39114,9 +38472,6 @@
       <c r="AL367">
         <v>0</v>
       </c>
-      <c r="AM367" s="5"/>
-      <c r="AN367" s="5"/>
-      <c r="AO367" s="5"/>
       <c r="AP367">
         <v>0</v>
       </c>
@@ -39236,9 +38591,6 @@
       <c r="AL368">
         <v>0</v>
       </c>
-      <c r="AM368" s="5"/>
-      <c r="AN368" s="5"/>
-      <c r="AO368" s="5"/>
       <c r="AP368">
         <v>0</v>
       </c>
@@ -39358,9 +38710,6 @@
       <c r="AL369">
         <v>0</v>
       </c>
-      <c r="AM369" s="5"/>
-      <c r="AN369" s="5"/>
-      <c r="AO369" s="5"/>
       <c r="AP369">
         <v>0</v>
       </c>
@@ -39480,9 +38829,6 @@
       <c r="AL370">
         <v>0</v>
       </c>
-      <c r="AM370" s="5"/>
-      <c r="AN370" s="5"/>
-      <c r="AO370" s="5"/>
       <c r="AP370">
         <v>0</v>
       </c>
@@ -39602,9 +38948,6 @@
       <c r="AL371">
         <v>0</v>
       </c>
-      <c r="AM371" s="5"/>
-      <c r="AN371" s="5"/>
-      <c r="AO371" s="5"/>
       <c r="AP371">
         <v>0</v>
       </c>
@@ -39724,9 +39067,6 @@
       <c r="AL372">
         <v>0</v>
       </c>
-      <c r="AM372" s="5"/>
-      <c r="AN372" s="5"/>
-      <c r="AO372" s="5"/>
       <c r="AP372">
         <v>0</v>
       </c>
@@ -39846,9 +39186,6 @@
       <c r="AL373">
         <v>0</v>
       </c>
-      <c r="AM373" s="5"/>
-      <c r="AN373" s="5"/>
-      <c r="AO373" s="5"/>
       <c r="AP373">
         <v>0</v>
       </c>
@@ -39968,9 +39305,6 @@
       <c r="AL374">
         <v>0</v>
       </c>
-      <c r="AM374" s="5"/>
-      <c r="AN374" s="5"/>
-      <c r="AO374" s="5"/>
       <c r="AP374">
         <v>0</v>
       </c>
@@ -40090,9 +39424,6 @@
       <c r="AL375">
         <v>0</v>
       </c>
-      <c r="AM375" s="5"/>
-      <c r="AN375" s="5"/>
-      <c r="AO375" s="5"/>
       <c r="AP375">
         <v>0</v>
       </c>
@@ -40212,9 +39543,6 @@
       <c r="AL376">
         <v>0</v>
       </c>
-      <c r="AM376" s="5"/>
-      <c r="AN376" s="5"/>
-      <c r="AO376" s="5"/>
       <c r="AP376">
         <v>0</v>
       </c>
@@ -40334,9 +39662,6 @@
       <c r="AL377">
         <v>0</v>
       </c>
-      <c r="AM377" s="5"/>
-      <c r="AN377" s="5"/>
-      <c r="AO377" s="5"/>
       <c r="AP377">
         <v>0</v>
       </c>
@@ -40456,9 +39781,6 @@
       <c r="AL378">
         <v>0</v>
       </c>
-      <c r="AM378" s="5"/>
-      <c r="AN378" s="5"/>
-      <c r="AO378" s="5"/>
       <c r="AP378">
         <v>0</v>
       </c>
@@ -40578,9 +39900,6 @@
       <c r="AL379">
         <v>0</v>
       </c>
-      <c r="AM379" s="5"/>
-      <c r="AN379" s="5"/>
-      <c r="AO379" s="5"/>
       <c r="AP379">
         <v>0</v>
       </c>
@@ -40700,9 +40019,6 @@
       <c r="AL380">
         <v>0</v>
       </c>
-      <c r="AM380" s="5"/>
-      <c r="AN380" s="5"/>
-      <c r="AO380" s="5"/>
       <c r="AP380">
         <v>0</v>
       </c>
@@ -40822,9 +40138,6 @@
       <c r="AL381">
         <v>0</v>
       </c>
-      <c r="AM381" s="5"/>
-      <c r="AN381" s="5"/>
-      <c r="AO381" s="5"/>
       <c r="AP381">
         <v>0</v>
       </c>
@@ -40944,9 +40257,6 @@
       <c r="AL382">
         <v>0</v>
       </c>
-      <c r="AM382" s="5"/>
-      <c r="AN382" s="5"/>
-      <c r="AO382" s="5"/>
       <c r="AP382">
         <v>0</v>
       </c>
@@ -41066,9 +40376,6 @@
       <c r="AL383">
         <v>0</v>
       </c>
-      <c r="AM383" s="5"/>
-      <c r="AN383" s="5"/>
-      <c r="AO383" s="5"/>
       <c r="AP383">
         <v>0</v>
       </c>
@@ -41188,9 +40495,6 @@
       <c r="AL384">
         <v>0</v>
       </c>
-      <c r="AM384" s="5"/>
-      <c r="AN384" s="5"/>
-      <c r="AO384" s="5"/>
       <c r="AP384">
         <v>0</v>
       </c>
@@ -41310,9 +40614,6 @@
       <c r="AL385">
         <v>0</v>
       </c>
-      <c r="AM385" s="5"/>
-      <c r="AN385" s="5"/>
-      <c r="AO385" s="5"/>
       <c r="AP385">
         <v>0</v>
       </c>
@@ -41432,9 +40733,6 @@
       <c r="AL386">
         <v>0</v>
       </c>
-      <c r="AM386" s="5"/>
-      <c r="AN386" s="5"/>
-      <c r="AO386" s="5"/>
       <c r="AP386">
         <v>0</v>
       </c>
@@ -41554,9 +40852,6 @@
       <c r="AL387">
         <v>0</v>
       </c>
-      <c r="AM387" s="5"/>
-      <c r="AN387" s="5"/>
-      <c r="AO387" s="5"/>
       <c r="AP387">
         <v>0</v>
       </c>
@@ -41676,9 +40971,6 @@
       <c r="AL388">
         <v>0</v>
       </c>
-      <c r="AM388" s="5"/>
-      <c r="AN388" s="5"/>
-      <c r="AO388" s="5"/>
       <c r="AP388">
         <v>0</v>
       </c>
@@ -41798,9 +41090,6 @@
       <c r="AL389">
         <v>0</v>
       </c>
-      <c r="AM389" s="5"/>
-      <c r="AN389" s="5"/>
-      <c r="AO389" s="5"/>
       <c r="AP389">
         <v>0</v>
       </c>
@@ -41920,9 +41209,6 @@
       <c r="AL390">
         <v>0</v>
       </c>
-      <c r="AM390" s="5"/>
-      <c r="AN390" s="5"/>
-      <c r="AO390" s="5"/>
       <c r="AP390">
         <v>0</v>
       </c>
@@ -42042,9 +41328,6 @@
       <c r="AL391">
         <v>0</v>
       </c>
-      <c r="AM391" s="5"/>
-      <c r="AN391" s="5"/>
-      <c r="AO391" s="5"/>
       <c r="AP391">
         <v>0</v>
       </c>
@@ -42164,10 +41447,7 @@
       <c r="AL392">
         <v>5</v>
       </c>
-      <c r="AM392" s="5"/>
-      <c r="AN392" s="5"/>
-      <c r="AO392" s="5"/>
-      <c r="AP392" s="5">
+      <c r="AP392">
         <v>0</v>
       </c>
     </row>
@@ -42283,16 +41563,16 @@
       <c r="AL393">
         <v>5</v>
       </c>
-      <c r="AM393" s="5">
+      <c r="AM393">
         <v>3.9</v>
       </c>
-      <c r="AN393" s="5">
+      <c r="AN393">
         <v>3</v>
       </c>
-      <c r="AO393" s="5">
+      <c r="AO393">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AP393" s="5">
+      <c r="AP393">
         <v>5</v>
       </c>
     </row>
@@ -42408,16 +41688,16 @@
       <c r="AL394">
         <v>5</v>
       </c>
-      <c r="AM394" s="5">
+      <c r="AM394">
         <v>6</v>
       </c>
-      <c r="AN394" s="5">
+      <c r="AN394">
         <v>13.7</v>
       </c>
-      <c r="AO394" s="5">
+      <c r="AO394">
         <v>10.8</v>
       </c>
-      <c r="AP394" s="5">
+      <c r="AP394">
         <v>5</v>
       </c>
     </row>
@@ -42533,16 +41813,16 @@
       <c r="AL395">
         <v>10</v>
       </c>
-      <c r="AM395" s="5">
+      <c r="AM395">
         <v>1.8</v>
       </c>
-      <c r="AN395" s="5">
+      <c r="AN395">
         <v>3.6</v>
       </c>
-      <c r="AO395" s="5">
+      <c r="AO395">
         <v>0.9</v>
       </c>
-      <c r="AP395" s="5">
+      <c r="AP395">
         <v>10</v>
       </c>
     </row>
@@ -42658,16 +41938,16 @@
       <c r="AL396">
         <v>5</v>
       </c>
-      <c r="AM396" s="5">
+      <c r="AM396">
         <v>11.4</v>
       </c>
-      <c r="AN396" s="5">
+      <c r="AN396">
         <v>19.7</v>
       </c>
-      <c r="AO396" s="5">
+      <c r="AO396">
         <v>8.1</v>
       </c>
-      <c r="AP396" s="5">
+      <c r="AP396">
         <v>5</v>
       </c>
     </row>
@@ -42786,9 +42066,6 @@
       <c r="AL397">
         <v>0</v>
       </c>
-      <c r="AM397" s="5"/>
-      <c r="AN397" s="5"/>
-      <c r="AO397" s="5"/>
       <c r="AP397">
         <v>0</v>
       </c>
@@ -42908,9 +42185,6 @@
       <c r="AL398">
         <v>0</v>
       </c>
-      <c r="AM398" s="5"/>
-      <c r="AN398" s="5"/>
-      <c r="AO398" s="5"/>
       <c r="AP398">
         <v>0</v>
       </c>
@@ -43030,9 +42304,6 @@
       <c r="AL399">
         <v>0</v>
       </c>
-      <c r="AM399" s="5"/>
-      <c r="AN399" s="5"/>
-      <c r="AO399" s="5"/>
       <c r="AP399">
         <v>0</v>
       </c>
@@ -43152,9 +42423,6 @@
       <c r="AL400">
         <v>0</v>
       </c>
-      <c r="AM400" s="5"/>
-      <c r="AN400" s="5"/>
-      <c r="AO400" s="5"/>
       <c r="AP400">
         <v>0</v>
       </c>
@@ -43274,9 +42542,6 @@
       <c r="AL401">
         <v>0</v>
       </c>
-      <c r="AM401" s="5"/>
-      <c r="AN401" s="5"/>
-      <c r="AO401" s="5"/>
       <c r="AP401">
         <v>0</v>
       </c>
@@ -43396,9 +42661,6 @@
       <c r="AL402">
         <v>0</v>
       </c>
-      <c r="AM402" s="5"/>
-      <c r="AN402" s="5"/>
-      <c r="AO402" s="5"/>
       <c r="AP402">
         <v>0</v>
       </c>
@@ -43518,9 +42780,6 @@
       <c r="AL403">
         <v>0</v>
       </c>
-      <c r="AM403" s="5"/>
-      <c r="AN403" s="5"/>
-      <c r="AO403" s="5"/>
       <c r="AP403">
         <v>0</v>
       </c>
@@ -43640,9 +42899,6 @@
       <c r="AL404">
         <v>5</v>
       </c>
-      <c r="AM404" s="5"/>
-      <c r="AN404" s="5"/>
-      <c r="AO404" s="5"/>
       <c r="AP404">
         <v>0</v>
       </c>
@@ -43762,9 +43018,6 @@
       <c r="AL405">
         <v>0</v>
       </c>
-      <c r="AM405" s="5"/>
-      <c r="AN405" s="5"/>
-      <c r="AO405" s="5"/>
       <c r="AP405">
         <v>0</v>
       </c>
@@ -43884,9 +43137,6 @@
       <c r="AL406">
         <v>0</v>
       </c>
-      <c r="AM406" s="5"/>
-      <c r="AN406" s="5"/>
-      <c r="AO406" s="5"/>
       <c r="AP406">
         <v>0</v>
       </c>
@@ -44006,9 +43256,6 @@
       <c r="AL407">
         <v>0</v>
       </c>
-      <c r="AM407" s="5"/>
-      <c r="AN407" s="5"/>
-      <c r="AO407" s="5"/>
       <c r="AP407">
         <v>0</v>
       </c>
@@ -44128,9 +43375,6 @@
       <c r="AL408">
         <v>0</v>
       </c>
-      <c r="AM408" s="5"/>
-      <c r="AN408" s="5"/>
-      <c r="AO408" s="5"/>
       <c r="AP408">
         <v>0</v>
       </c>
@@ -44250,9 +43494,6 @@
       <c r="AL409">
         <v>0</v>
       </c>
-      <c r="AM409" s="5"/>
-      <c r="AN409" s="5"/>
-      <c r="AO409" s="5"/>
       <c r="AP409">
         <v>0</v>
       </c>
@@ -44372,9 +43613,6 @@
       <c r="AL410">
         <v>0</v>
       </c>
-      <c r="AM410" s="5"/>
-      <c r="AN410" s="5"/>
-      <c r="AO410" s="5"/>
       <c r="AP410">
         <v>0</v>
       </c>
@@ -44494,9 +43732,6 @@
       <c r="AL411">
         <v>0</v>
       </c>
-      <c r="AM411" s="5"/>
-      <c r="AN411" s="5"/>
-      <c r="AO411" s="5"/>
       <c r="AP411">
         <v>0</v>
       </c>
@@ -44616,9 +43851,6 @@
       <c r="AL412">
         <v>0</v>
       </c>
-      <c r="AM412" s="5"/>
-      <c r="AN412" s="5"/>
-      <c r="AO412" s="5"/>
       <c r="AP412">
         <v>0</v>
       </c>
@@ -44738,9 +43970,6 @@
       <c r="AL413">
         <v>0</v>
       </c>
-      <c r="AM413" s="5"/>
-      <c r="AN413" s="5"/>
-      <c r="AO413" s="5"/>
       <c r="AP413">
         <v>0</v>
       </c>
@@ -44860,9 +44089,6 @@
       <c r="AL414">
         <v>0</v>
       </c>
-      <c r="AM414" s="5"/>
-      <c r="AN414" s="5"/>
-      <c r="AO414" s="5"/>
       <c r="AP414">
         <v>0</v>
       </c>
@@ -44982,9 +44208,6 @@
       <c r="AL415">
         <v>0</v>
       </c>
-      <c r="AM415" s="5"/>
-      <c r="AN415" s="5"/>
-      <c r="AO415" s="5"/>
       <c r="AP415">
         <v>0</v>
       </c>
@@ -45104,9 +44327,6 @@
       <c r="AL416">
         <v>0</v>
       </c>
-      <c r="AM416" s="5"/>
-      <c r="AN416" s="5"/>
-      <c r="AO416" s="5"/>
       <c r="AP416">
         <v>0</v>
       </c>
@@ -45226,9 +44446,6 @@
       <c r="AL417">
         <v>0</v>
       </c>
-      <c r="AM417" s="5"/>
-      <c r="AN417" s="5"/>
-      <c r="AO417" s="5"/>
       <c r="AP417">
         <v>0</v>
       </c>
@@ -45348,10 +44565,7 @@
       <c r="AL418">
         <v>20</v>
       </c>
-      <c r="AM418" s="5"/>
-      <c r="AN418" s="5"/>
-      <c r="AO418" s="5"/>
-      <c r="AP418" s="5">
+      <c r="AP418">
         <v>0</v>
       </c>
     </row>
@@ -45470,10 +44684,7 @@
       <c r="AL419">
         <v>0</v>
       </c>
-      <c r="AM419" s="5"/>
-      <c r="AN419" s="5"/>
-      <c r="AO419" s="5"/>
-      <c r="AP419" s="5">
+      <c r="AP419">
         <v>0</v>
       </c>
     </row>
@@ -45592,10 +44803,7 @@
       <c r="AL420">
         <v>0</v>
       </c>
-      <c r="AM420" s="5"/>
-      <c r="AN420" s="5"/>
-      <c r="AO420" s="5"/>
-      <c r="AP420" s="5">
+      <c r="AP420">
         <v>0</v>
       </c>
     </row>
@@ -45714,10 +44922,7 @@
       <c r="AL421">
         <v>0</v>
       </c>
-      <c r="AM421" s="5"/>
-      <c r="AN421" s="5"/>
-      <c r="AO421" s="5"/>
-      <c r="AP421" s="5">
+      <c r="AP421">
         <v>0</v>
       </c>
     </row>
@@ -45836,9 +45041,6 @@
       <c r="AL422">
         <v>0</v>
       </c>
-      <c r="AM422" s="5"/>
-      <c r="AN422" s="5"/>
-      <c r="AO422" s="5"/>
       <c r="AP422">
         <v>0</v>
       </c>
@@ -45958,9 +45160,6 @@
       <c r="AL423">
         <v>0</v>
       </c>
-      <c r="AM423" s="5"/>
-      <c r="AN423" s="5"/>
-      <c r="AO423" s="5"/>
       <c r="AP423">
         <v>0</v>
       </c>
@@ -46080,9 +45279,6 @@
       <c r="AL424">
         <v>0</v>
       </c>
-      <c r="AM424" s="5"/>
-      <c r="AN424" s="5"/>
-      <c r="AO424" s="5"/>
       <c r="AP424">
         <v>0</v>
       </c>
@@ -46202,9 +45398,6 @@
       <c r="AL425">
         <v>0</v>
       </c>
-      <c r="AM425" s="5"/>
-      <c r="AN425" s="5"/>
-      <c r="AO425" s="5"/>
       <c r="AP425">
         <v>0</v>
       </c>
@@ -46324,9 +45517,6 @@
       <c r="AL426">
         <v>0</v>
       </c>
-      <c r="AM426" s="5"/>
-      <c r="AN426" s="5"/>
-      <c r="AO426" s="5"/>
       <c r="AP426">
         <v>0</v>
       </c>
@@ -46446,9 +45636,6 @@
       <c r="AL427">
         <v>0</v>
       </c>
-      <c r="AM427" s="5"/>
-      <c r="AN427" s="5"/>
-      <c r="AO427" s="5"/>
       <c r="AP427">
         <v>0</v>
       </c>
@@ -46568,9 +45755,6 @@
       <c r="AL428">
         <v>0</v>
       </c>
-      <c r="AM428" s="5"/>
-      <c r="AN428" s="5"/>
-      <c r="AO428" s="5"/>
       <c r="AP428">
         <v>0</v>
       </c>
@@ -46690,9 +45874,6 @@
       <c r="AL429">
         <v>0</v>
       </c>
-      <c r="AM429" s="5"/>
-      <c r="AN429" s="5"/>
-      <c r="AO429" s="5"/>
       <c r="AP429">
         <v>0</v>
       </c>
@@ -46812,9 +45993,6 @@
       <c r="AL430">
         <v>0</v>
       </c>
-      <c r="AM430" s="5"/>
-      <c r="AN430" s="5"/>
-      <c r="AO430" s="5"/>
       <c r="AP430">
         <v>0</v>
       </c>
@@ -46934,9 +46112,6 @@
       <c r="AL431">
         <v>0</v>
       </c>
-      <c r="AM431" s="5"/>
-      <c r="AN431" s="5"/>
-      <c r="AO431" s="5"/>
       <c r="AP431">
         <v>0</v>
       </c>
@@ -47056,9 +46231,6 @@
       <c r="AL432">
         <v>0</v>
       </c>
-      <c r="AM432" s="5"/>
-      <c r="AN432" s="5"/>
-      <c r="AO432" s="5"/>
       <c r="AP432">
         <v>0</v>
       </c>
@@ -47178,9 +46350,6 @@
       <c r="AL433">
         <v>0</v>
       </c>
-      <c r="AM433" s="5"/>
-      <c r="AN433" s="5"/>
-      <c r="AO433" s="5"/>
       <c r="AP433">
         <v>0</v>
       </c>
@@ -47300,9 +46469,6 @@
       <c r="AL434">
         <v>0</v>
       </c>
-      <c r="AM434" s="5"/>
-      <c r="AN434" s="5"/>
-      <c r="AO434" s="5"/>
       <c r="AP434">
         <v>0</v>
       </c>
@@ -47422,9 +46588,6 @@
       <c r="AL435">
         <v>0</v>
       </c>
-      <c r="AM435" s="5"/>
-      <c r="AN435" s="5"/>
-      <c r="AO435" s="5"/>
       <c r="AP435">
         <v>0</v>
       </c>
@@ -47544,9 +46707,6 @@
       <c r="AL436">
         <v>0</v>
       </c>
-      <c r="AM436" s="5"/>
-      <c r="AN436" s="5"/>
-      <c r="AO436" s="5"/>
       <c r="AP436">
         <v>0</v>
       </c>
@@ -47666,10 +46826,7 @@
       <c r="AL437">
         <v>5</v>
       </c>
-      <c r="AM437" s="5"/>
-      <c r="AN437" s="5"/>
-      <c r="AO437" s="5"/>
-      <c r="AP437" s="5">
+      <c r="AP437">
         <v>0</v>
       </c>
     </row>
@@ -47785,16 +46942,16 @@
       <c r="AL438">
         <v>5</v>
       </c>
-      <c r="AM438" s="5">
+      <c r="AM438">
         <v>22</v>
       </c>
-      <c r="AN438" s="5">
+      <c r="AN438">
         <v>20.8</v>
       </c>
-      <c r="AO438" s="5">
+      <c r="AO438">
         <v>14</v>
       </c>
-      <c r="AP438" s="5">
+      <c r="AP438">
         <v>5</v>
       </c>
     </row>
@@ -47913,10 +47070,7 @@
       <c r="AL439">
         <v>5</v>
       </c>
-      <c r="AM439" s="5"/>
-      <c r="AN439" s="5"/>
-      <c r="AO439" s="5"/>
-      <c r="AP439" s="5">
+      <c r="AP439">
         <v>0</v>
       </c>
     </row>
@@ -48032,16 +47186,16 @@
       <c r="AL440">
         <v>5</v>
       </c>
-      <c r="AM440" s="5">
+      <c r="AM440">
         <v>8.9</v>
       </c>
-      <c r="AN440" s="5">
+      <c r="AN440">
         <v>1.3</v>
       </c>
-      <c r="AO440" s="5">
+      <c r="AO440">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AP440" s="5">
+      <c r="AP440">
         <v>5</v>
       </c>
     </row>
@@ -48160,10 +47314,7 @@
       <c r="AL441">
         <v>0</v>
       </c>
-      <c r="AM441" s="5"/>
-      <c r="AN441" s="5"/>
-      <c r="AO441" s="5"/>
-      <c r="AP441" s="5">
+      <c r="AP441">
         <v>0</v>
       </c>
     </row>
@@ -48279,16 +47430,16 @@
       <c r="AL442">
         <v>5</v>
       </c>
-      <c r="AM442" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AN442" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AO442" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AP442" s="5">
+      <c r="AM442" t="s">
+        <v>660</v>
+      </c>
+      <c r="AN442" t="s">
+        <v>660</v>
+      </c>
+      <c r="AO442" t="s">
+        <v>660</v>
+      </c>
+      <c r="AP442">
         <v>5</v>
       </c>
     </row>
@@ -48407,10 +47558,7 @@
       <c r="AL443">
         <v>0</v>
       </c>
-      <c r="AM443" s="5"/>
-      <c r="AN443" s="5"/>
-      <c r="AO443" s="5"/>
-      <c r="AP443" s="5">
+      <c r="AP443">
         <v>0</v>
       </c>
     </row>
@@ -48529,10 +47677,7 @@
       <c r="AL444">
         <v>0</v>
       </c>
-      <c r="AM444" s="5"/>
-      <c r="AN444" s="5"/>
-      <c r="AO444" s="5"/>
-      <c r="AP444" s="5">
+      <c r="AP444">
         <v>0</v>
       </c>
     </row>
@@ -48651,10 +47796,7 @@
       <c r="AL445">
         <v>0</v>
       </c>
-      <c r="AM445" s="5"/>
-      <c r="AN445" s="5"/>
-      <c r="AO445" s="5"/>
-      <c r="AP445" s="5">
+      <c r="AP445">
         <v>0</v>
       </c>
     </row>
@@ -48773,10 +47915,7 @@
       <c r="AL446">
         <v>0</v>
       </c>
-      <c r="AM446" s="5"/>
-      <c r="AN446" s="5"/>
-      <c r="AO446" s="5"/>
-      <c r="AP446" s="5">
+      <c r="AP446">
         <v>0</v>
       </c>
     </row>
@@ -48895,10 +48034,7 @@
       <c r="AL447">
         <v>0</v>
       </c>
-      <c r="AM447" s="5"/>
-      <c r="AN447" s="5"/>
-      <c r="AO447" s="5"/>
-      <c r="AP447" s="5">
+      <c r="AP447">
         <v>0</v>
       </c>
     </row>
@@ -49017,10 +48153,7 @@
       <c r="AL448">
         <v>0</v>
       </c>
-      <c r="AM448" s="5"/>
-      <c r="AN448" s="5"/>
-      <c r="AO448" s="5"/>
-      <c r="AP448" s="5">
+      <c r="AP448">
         <v>0</v>
       </c>
     </row>
@@ -49139,10 +48272,7 @@
       <c r="AL449">
         <v>0</v>
       </c>
-      <c r="AM449" s="5"/>
-      <c r="AN449" s="5"/>
-      <c r="AO449" s="5"/>
-      <c r="AP449" s="5">
+      <c r="AP449">
         <v>0</v>
       </c>
     </row>
@@ -49261,10 +48391,7 @@
       <c r="AL450">
         <v>0</v>
       </c>
-      <c r="AM450" s="5"/>
-      <c r="AN450" s="5"/>
-      <c r="AO450" s="5"/>
-      <c r="AP450" s="5">
+      <c r="AP450">
         <v>0</v>
       </c>
     </row>
@@ -49383,10 +48510,7 @@
       <c r="AL451">
         <v>0</v>
       </c>
-      <c r="AM451" s="5"/>
-      <c r="AN451" s="5"/>
-      <c r="AO451" s="5"/>
-      <c r="AP451" s="5">
+      <c r="AP451">
         <v>0</v>
       </c>
     </row>
@@ -49505,10 +48629,6 @@
       <c r="AL452">
         <v>0</v>
       </c>
-      <c r="AM452" s="5"/>
-      <c r="AN452" s="5"/>
-      <c r="AO452" s="5"/>
-      <c r="AP452" s="5"/>
     </row>
     <row r="453" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
@@ -49625,10 +48745,6 @@
       <c r="AL453">
         <v>0</v>
       </c>
-      <c r="AM453" s="5"/>
-      <c r="AN453" s="5"/>
-      <c r="AO453" s="5"/>
-      <c r="AP453" s="5"/>
     </row>
     <row r="454" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
@@ -49745,10 +48861,6 @@
       <c r="AL454">
         <v>0</v>
       </c>
-      <c r="AM454" s="5"/>
-      <c r="AN454" s="5"/>
-      <c r="AO454" s="5"/>
-      <c r="AP454" s="5"/>
     </row>
     <row r="455" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
@@ -49865,10 +48977,6 @@
       <c r="AL455">
         <v>0</v>
       </c>
-      <c r="AM455" s="5"/>
-      <c r="AN455" s="5"/>
-      <c r="AO455" s="5"/>
-      <c r="AP455" s="5"/>
     </row>
     <row r="456" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
@@ -49985,10 +49093,6 @@
       <c r="AL456">
         <v>0</v>
       </c>
-      <c r="AM456" s="5"/>
-      <c r="AN456" s="5"/>
-      <c r="AO456" s="5"/>
-      <c r="AP456" s="5"/>
     </row>
     <row r="457" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
@@ -50105,10 +49209,6 @@
       <c r="AL457">
         <v>0</v>
       </c>
-      <c r="AM457" s="5"/>
-      <c r="AN457" s="5"/>
-      <c r="AO457" s="5"/>
-      <c r="AP457" s="5"/>
     </row>
     <row r="458" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
@@ -50225,10 +49325,6 @@
       <c r="AL458">
         <v>0</v>
       </c>
-      <c r="AM458" s="5"/>
-      <c r="AN458" s="5"/>
-      <c r="AO458" s="5"/>
-      <c r="AP458" s="5"/>
     </row>
     <row r="459" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
@@ -50345,10 +49441,6 @@
       <c r="AL459">
         <v>0</v>
       </c>
-      <c r="AM459" s="5"/>
-      <c r="AN459" s="5"/>
-      <c r="AO459" s="5"/>
-      <c r="AP459" s="5"/>
     </row>
     <row r="460" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
@@ -50465,10 +49557,6 @@
       <c r="AL460">
         <v>0</v>
       </c>
-      <c r="AM460" s="5"/>
-      <c r="AN460" s="5"/>
-      <c r="AO460" s="5"/>
-      <c r="AP460" s="5"/>
     </row>
     <row r="461" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
@@ -50585,10 +49673,6 @@
       <c r="AL461">
         <v>0</v>
       </c>
-      <c r="AM461" s="5"/>
-      <c r="AN461" s="5"/>
-      <c r="AO461" s="5"/>
-      <c r="AP461" s="5"/>
     </row>
     <row r="462" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
@@ -50705,10 +49789,6 @@
       <c r="AL462">
         <v>0</v>
       </c>
-      <c r="AM462" s="5"/>
-      <c r="AN462" s="5"/>
-      <c r="AO462" s="5"/>
-      <c r="AP462" s="5"/>
     </row>
     <row r="463" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
@@ -50825,10 +49905,6 @@
       <c r="AL463">
         <v>0</v>
       </c>
-      <c r="AM463" s="5"/>
-      <c r="AN463" s="5"/>
-      <c r="AO463" s="5"/>
-      <c r="AP463" s="5"/>
     </row>
     <row r="464" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
@@ -50945,12 +50021,8 @@
       <c r="AL464">
         <v>0</v>
       </c>
-      <c r="AM464" s="5"/>
-      <c r="AN464" s="5"/>
-      <c r="AO464" s="5"/>
-      <c r="AP464" s="5"/>
-    </row>
-    <row r="465" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="465" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>487</v>
       </c>
@@ -51065,12 +50137,8 @@
       <c r="AL465">
         <v>0</v>
       </c>
-      <c r="AM465" s="5"/>
-      <c r="AN465" s="5"/>
-      <c r="AO465" s="5"/>
-      <c r="AP465" s="5"/>
-    </row>
-    <row r="466" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="466" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>488</v>
       </c>
@@ -51185,12 +50253,8 @@
       <c r="AL466">
         <v>0</v>
       </c>
-      <c r="AM466" s="5"/>
-      <c r="AN466" s="5"/>
-      <c r="AO466" s="5"/>
-      <c r="AP466" s="5"/>
-    </row>
-    <row r="467" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="467" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>489</v>
       </c>
@@ -51305,12 +50369,8 @@
       <c r="AL467">
         <v>0</v>
       </c>
-      <c r="AM467" s="5"/>
-      <c r="AN467" s="5"/>
-      <c r="AO467" s="5"/>
-      <c r="AP467" s="5"/>
-    </row>
-    <row r="468" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="468" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>490</v>
       </c>
@@ -51425,12 +50485,8 @@
       <c r="AL468">
         <v>0</v>
       </c>
-      <c r="AM468" s="5"/>
-      <c r="AN468" s="5"/>
-      <c r="AO468" s="5"/>
-      <c r="AP468" s="5"/>
-    </row>
-    <row r="469" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="469" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>491</v>
       </c>
@@ -51545,12 +50601,8 @@
       <c r="AL469">
         <v>0</v>
       </c>
-      <c r="AM469" s="5"/>
-      <c r="AN469" s="5"/>
-      <c r="AO469" s="5"/>
-      <c r="AP469" s="5"/>
-    </row>
-    <row r="470" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="470" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>492</v>
       </c>
@@ -51665,12 +50717,8 @@
       <c r="AL470">
         <v>0</v>
       </c>
-      <c r="AM470" s="5"/>
-      <c r="AN470" s="5"/>
-      <c r="AO470" s="5"/>
-      <c r="AP470" s="5"/>
-    </row>
-    <row r="471" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="471" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>493</v>
       </c>
@@ -51785,12 +50833,8 @@
       <c r="AL471">
         <v>0</v>
       </c>
-      <c r="AM471" s="5"/>
-      <c r="AN471" s="5"/>
-      <c r="AO471" s="5"/>
-      <c r="AP471" s="5"/>
-    </row>
-    <row r="472" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="472" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>494</v>
       </c>
@@ -51905,12 +50949,8 @@
       <c r="AL472">
         <v>0</v>
       </c>
-      <c r="AM472" s="5"/>
-      <c r="AN472" s="5"/>
-      <c r="AO472" s="5"/>
-      <c r="AP472" s="5"/>
-    </row>
-    <row r="473" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="473" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>495</v>
       </c>
@@ -52025,12 +51065,8 @@
       <c r="AL473">
         <v>0</v>
       </c>
-      <c r="AM473" s="5"/>
-      <c r="AN473" s="5"/>
-      <c r="AO473" s="5"/>
-      <c r="AP473" s="5"/>
-    </row>
-    <row r="474" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="474" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>496</v>
       </c>
@@ -52145,12 +51181,8 @@
       <c r="AL474">
         <v>0</v>
       </c>
-      <c r="AM474" s="5"/>
-      <c r="AN474" s="5"/>
-      <c r="AO474" s="5"/>
-      <c r="AP474" s="5"/>
-    </row>
-    <row r="475" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="475" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>497</v>
       </c>
@@ -52265,12 +51297,8 @@
       <c r="AL475">
         <v>0</v>
       </c>
-      <c r="AM475" s="5"/>
-      <c r="AN475" s="5"/>
-      <c r="AO475" s="5"/>
-      <c r="AP475" s="5"/>
-    </row>
-    <row r="476" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="476" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>498</v>
       </c>
@@ -52385,12 +51413,8 @@
       <c r="AL476">
         <v>0</v>
       </c>
-      <c r="AM476" s="5"/>
-      <c r="AN476" s="5"/>
-      <c r="AO476" s="5"/>
-      <c r="AP476" s="5"/>
-    </row>
-    <row r="477" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="477" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>499</v>
       </c>
@@ -52505,12 +51529,8 @@
       <c r="AL477">
         <v>0</v>
       </c>
-      <c r="AM477" s="5"/>
-      <c r="AN477" s="5"/>
-      <c r="AO477" s="5"/>
-      <c r="AP477" s="5"/>
-    </row>
-    <row r="478" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="478" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>500</v>
       </c>
@@ -52625,12 +51645,8 @@
       <c r="AL478">
         <v>0</v>
       </c>
-      <c r="AM478" s="5"/>
-      <c r="AN478" s="5"/>
-      <c r="AO478" s="5"/>
-      <c r="AP478" s="5"/>
-    </row>
-    <row r="479" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="479" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>501</v>
       </c>
@@ -52745,12 +51761,8 @@
       <c r="AL479">
         <v>0</v>
       </c>
-      <c r="AM479" s="5"/>
-      <c r="AN479" s="5"/>
-      <c r="AO479" s="5"/>
-      <c r="AP479" s="5"/>
-    </row>
-    <row r="480" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="480" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>502</v>
       </c>
@@ -52865,10 +51877,6 @@
       <c r="AL480">
         <v>0</v>
       </c>
-      <c r="AM480" s="5"/>
-      <c r="AN480" s="5"/>
-      <c r="AO480" s="5"/>
-      <c r="AP480" s="5"/>
     </row>
     <row r="481" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
@@ -52985,10 +51993,6 @@
       <c r="AL481">
         <v>0</v>
       </c>
-      <c r="AM481" s="5"/>
-      <c r="AN481" s="5"/>
-      <c r="AO481" s="5"/>
-      <c r="AP481" s="5"/>
     </row>
     <row r="482" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
@@ -53105,10 +52109,7 @@
       <c r="AL482">
         <v>5</v>
       </c>
-      <c r="AM482" s="5"/>
-      <c r="AN482" s="5"/>
-      <c r="AO482" s="5"/>
-      <c r="AP482" s="5">
+      <c r="AP482">
         <v>0</v>
       </c>
     </row>
@@ -53227,10 +52228,6 @@
       <c r="AL483">
         <v>0</v>
       </c>
-      <c r="AM483" s="5"/>
-      <c r="AN483" s="5"/>
-      <c r="AO483" s="5"/>
-      <c r="AP483" s="5"/>
     </row>
     <row r="484" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
@@ -53347,10 +52344,6 @@
       <c r="AL484">
         <v>0</v>
       </c>
-      <c r="AM484" s="5"/>
-      <c r="AN484" s="5"/>
-      <c r="AO484" s="5"/>
-      <c r="AP484" s="5"/>
     </row>
     <row r="485" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
@@ -53467,10 +52460,6 @@
       <c r="AL485">
         <v>0</v>
       </c>
-      <c r="AM485" s="5"/>
-      <c r="AN485" s="5"/>
-      <c r="AO485" s="5"/>
-      <c r="AP485" s="5"/>
     </row>
     <row r="486" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
@@ -53587,10 +52576,6 @@
       <c r="AL486">
         <v>0</v>
       </c>
-      <c r="AM486" s="5"/>
-      <c r="AN486" s="5"/>
-      <c r="AO486" s="5"/>
-      <c r="AP486" s="5"/>
     </row>
     <row r="487" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
@@ -53707,10 +52692,6 @@
       <c r="AL487">
         <v>0</v>
       </c>
-      <c r="AM487" s="5"/>
-      <c r="AN487" s="5"/>
-      <c r="AO487" s="5"/>
-      <c r="AP487" s="5"/>
     </row>
     <row r="488" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
@@ -53827,10 +52808,6 @@
       <c r="AL488">
         <v>0</v>
       </c>
-      <c r="AM488" s="5"/>
-      <c r="AN488" s="5"/>
-      <c r="AO488" s="5"/>
-      <c r="AP488" s="5"/>
     </row>
     <row r="489" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
@@ -53947,10 +52924,6 @@
       <c r="AL489">
         <v>0</v>
       </c>
-      <c r="AM489" s="5"/>
-      <c r="AN489" s="5"/>
-      <c r="AO489" s="5"/>
-      <c r="AP489" s="5"/>
     </row>
     <row r="490" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
@@ -54067,10 +53040,6 @@
       <c r="AL490">
         <v>0</v>
       </c>
-      <c r="AM490" s="5"/>
-      <c r="AN490" s="5"/>
-      <c r="AO490" s="5"/>
-      <c r="AP490" s="5"/>
     </row>
     <row r="491" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
@@ -54187,10 +53156,6 @@
       <c r="AL491">
         <v>0</v>
       </c>
-      <c r="AM491" s="5"/>
-      <c r="AN491" s="5"/>
-      <c r="AO491" s="5"/>
-      <c r="AP491" s="5"/>
     </row>
     <row r="492" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
@@ -54307,10 +53272,6 @@
       <c r="AL492">
         <v>0</v>
       </c>
-      <c r="AM492" s="5"/>
-      <c r="AN492" s="5"/>
-      <c r="AO492" s="5"/>
-      <c r="AP492" s="5"/>
     </row>
     <row r="493" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
@@ -54427,10 +53388,6 @@
       <c r="AL493">
         <v>0</v>
       </c>
-      <c r="AM493" s="5"/>
-      <c r="AN493" s="5"/>
-      <c r="AO493" s="5"/>
-      <c r="AP493" s="5"/>
     </row>
     <row r="494" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
@@ -54547,10 +53504,6 @@
       <c r="AL494">
         <v>0</v>
       </c>
-      <c r="AM494" s="5"/>
-      <c r="AN494" s="5"/>
-      <c r="AO494" s="5"/>
-      <c r="AP494" s="5"/>
     </row>
     <row r="495" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
@@ -54667,10 +53620,6 @@
       <c r="AL495" t="s">
         <v>660</v>
       </c>
-      <c r="AM495" s="5"/>
-      <c r="AN495" s="5"/>
-      <c r="AO495" s="5"/>
-      <c r="AP495" s="5"/>
     </row>
     <row r="496" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
@@ -54787,12 +53736,8 @@
       <c r="AL496">
         <v>0</v>
       </c>
-      <c r="AM496" s="5"/>
-      <c r="AN496" s="5"/>
-      <c r="AO496" s="5"/>
-      <c r="AP496" s="5"/>
-    </row>
-    <row r="497" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="497" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>519</v>
       </c>
@@ -54907,12 +53852,8 @@
       <c r="AL497">
         <v>0</v>
       </c>
-      <c r="AM497" s="5"/>
-      <c r="AN497" s="5"/>
-      <c r="AO497" s="5"/>
-      <c r="AP497" s="5"/>
-    </row>
-    <row r="498" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="498" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>520</v>
       </c>
@@ -55027,12 +53968,8 @@
       <c r="AL498">
         <v>0</v>
       </c>
-      <c r="AM498" s="5"/>
-      <c r="AN498" s="5"/>
-      <c r="AO498" s="5"/>
-      <c r="AP498" s="5"/>
-    </row>
-    <row r="499" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="499" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>521</v>
       </c>
@@ -55147,12 +54084,8 @@
       <c r="AL499">
         <v>0</v>
       </c>
-      <c r="AM499" s="5"/>
-      <c r="AN499" s="5"/>
-      <c r="AO499" s="5"/>
-      <c r="AP499" s="5"/>
-    </row>
-    <row r="500" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="500" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>522</v>
       </c>
@@ -55267,12 +54200,8 @@
       <c r="AL500">
         <v>0</v>
       </c>
-      <c r="AM500" s="5"/>
-      <c r="AN500" s="5"/>
-      <c r="AO500" s="5"/>
-      <c r="AP500" s="5"/>
-    </row>
-    <row r="501" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="501" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>523</v>
       </c>
@@ -55387,12 +54316,8 @@
       <c r="AL501">
         <v>0</v>
       </c>
-      <c r="AM501" s="5"/>
-      <c r="AN501" s="5"/>
-      <c r="AO501" s="5"/>
-      <c r="AP501" s="5"/>
-    </row>
-    <row r="502" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="502" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>524</v>
       </c>
@@ -55507,12 +54432,8 @@
       <c r="AL502">
         <v>0</v>
       </c>
-      <c r="AM502" s="5"/>
-      <c r="AN502" s="5"/>
-      <c r="AO502" s="5"/>
-      <c r="AP502" s="5"/>
-    </row>
-    <row r="503" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="503" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>525</v>
       </c>
@@ -55627,12 +54548,8 @@
       <c r="AL503">
         <v>0</v>
       </c>
-      <c r="AM503" s="5"/>
-      <c r="AN503" s="5"/>
-      <c r="AO503" s="5"/>
-      <c r="AP503" s="5"/>
-    </row>
-    <row r="504" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="504" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>526</v>
       </c>
@@ -55747,12 +54664,8 @@
       <c r="AL504">
         <v>0</v>
       </c>
-      <c r="AM504" s="5"/>
-      <c r="AN504" s="5"/>
-      <c r="AO504" s="5"/>
-      <c r="AP504" s="5"/>
-    </row>
-    <row r="505" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="505" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>527</v>
       </c>
@@ -55867,12 +54780,8 @@
       <c r="AL505">
         <v>0</v>
       </c>
-      <c r="AM505" s="5"/>
-      <c r="AN505" s="5"/>
-      <c r="AO505" s="5"/>
-      <c r="AP505" s="5"/>
-    </row>
-    <row r="506" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="506" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>528</v>
       </c>
@@ -55987,12 +54896,8 @@
       <c r="AL506">
         <v>0</v>
       </c>
-      <c r="AM506" s="5"/>
-      <c r="AN506" s="5"/>
-      <c r="AO506" s="5"/>
-      <c r="AP506" s="5"/>
-    </row>
-    <row r="507" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="507" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>529</v>
       </c>
@@ -56107,12 +55012,8 @@
       <c r="AL507">
         <v>0</v>
       </c>
-      <c r="AM507" s="5"/>
-      <c r="AN507" s="5"/>
-      <c r="AO507" s="5"/>
-      <c r="AP507" s="5"/>
-    </row>
-    <row r="508" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="508" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>530</v>
       </c>
@@ -56227,12 +55128,8 @@
       <c r="AL508">
         <v>0</v>
       </c>
-      <c r="AM508" s="5"/>
-      <c r="AN508" s="5"/>
-      <c r="AO508" s="5"/>
-      <c r="AP508" s="5"/>
-    </row>
-    <row r="509" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="509" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>531</v>
       </c>
@@ -56347,12 +55244,8 @@
       <c r="AL509">
         <v>0</v>
       </c>
-      <c r="AM509" s="5"/>
-      <c r="AN509" s="5"/>
-      <c r="AO509" s="5"/>
-      <c r="AP509" s="5"/>
-    </row>
-    <row r="510" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="510" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>532</v>
       </c>
@@ -56467,12 +55360,8 @@
       <c r="AL510">
         <v>0</v>
       </c>
-      <c r="AM510" s="5"/>
-      <c r="AN510" s="5"/>
-      <c r="AO510" s="5"/>
-      <c r="AP510" s="5"/>
-    </row>
-    <row r="511" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="511" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>533</v>
       </c>
@@ -56587,12 +55476,8 @@
       <c r="AL511">
         <v>0</v>
       </c>
-      <c r="AM511" s="5"/>
-      <c r="AN511" s="5"/>
-      <c r="AO511" s="5"/>
-      <c r="AP511" s="5"/>
-    </row>
-    <row r="512" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="512" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>534</v>
       </c>
@@ -56707,10 +55592,6 @@
       <c r="AL512">
         <v>0</v>
       </c>
-      <c r="AM512" s="5"/>
-      <c r="AN512" s="5"/>
-      <c r="AO512" s="5"/>
-      <c r="AP512" s="5"/>
     </row>
     <row r="513" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
@@ -56827,10 +55708,6 @@
       <c r="AL513">
         <v>0</v>
       </c>
-      <c r="AM513" s="5"/>
-      <c r="AN513" s="5"/>
-      <c r="AO513" s="5"/>
-      <c r="AP513" s="5"/>
     </row>
     <row r="514" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
@@ -56947,10 +55824,6 @@
       <c r="AL514">
         <v>0</v>
       </c>
-      <c r="AM514" s="5"/>
-      <c r="AN514" s="5"/>
-      <c r="AO514" s="5"/>
-      <c r="AP514" s="5"/>
     </row>
     <row r="515" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
@@ -57067,10 +55940,6 @@
       <c r="AL515">
         <v>0</v>
       </c>
-      <c r="AM515" s="5"/>
-      <c r="AN515" s="5"/>
-      <c r="AO515" s="5"/>
-      <c r="AP515" s="5"/>
     </row>
     <row r="516" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
@@ -57187,10 +56056,6 @@
       <c r="AL516">
         <v>0</v>
       </c>
-      <c r="AM516" s="5"/>
-      <c r="AN516" s="5"/>
-      <c r="AO516" s="5"/>
-      <c r="AP516" s="5"/>
     </row>
     <row r="517" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
@@ -57295,10 +56160,6 @@
       <c r="AL517">
         <v>0</v>
       </c>
-      <c r="AM517" s="5"/>
-      <c r="AN517" s="5"/>
-      <c r="AO517" s="5"/>
-      <c r="AP517" s="5"/>
     </row>
     <row r="518" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
@@ -57415,16 +56276,16 @@
       <c r="AL518">
         <v>40</v>
       </c>
-      <c r="AM518" s="5">
+      <c r="AM518">
         <v>25.1</v>
       </c>
-      <c r="AN518" s="5">
+      <c r="AN518">
         <v>23</v>
       </c>
-      <c r="AO518" s="5">
+      <c r="AO518">
         <v>8</v>
       </c>
-      <c r="AP518" s="5">
+      <c r="AP518">
         <v>30</v>
       </c>
     </row>
@@ -57543,10 +56404,6 @@
       <c r="AL519">
         <v>0</v>
       </c>
-      <c r="AM519" s="5"/>
-      <c r="AN519" s="5"/>
-      <c r="AO519" s="5"/>
-      <c r="AP519" s="5"/>
     </row>
     <row r="520" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
@@ -57663,10 +56520,6 @@
       <c r="AL520">
         <v>0</v>
       </c>
-      <c r="AM520" s="5"/>
-      <c r="AN520" s="5"/>
-      <c r="AO520" s="5"/>
-      <c r="AP520" s="5"/>
     </row>
     <row r="521" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
@@ -57783,10 +56636,6 @@
       <c r="AL521">
         <v>0</v>
       </c>
-      <c r="AM521" s="5"/>
-      <c r="AN521" s="5"/>
-      <c r="AO521" s="5"/>
-      <c r="AP521" s="5"/>
     </row>
     <row r="522" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
@@ -57903,10 +56752,6 @@
       <c r="AL522">
         <v>0</v>
       </c>
-      <c r="AM522" s="5"/>
-      <c r="AN522" s="5"/>
-      <c r="AO522" s="5"/>
-      <c r="AP522" s="5"/>
     </row>
     <row r="523" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
@@ -58023,10 +56868,6 @@
       <c r="AL523">
         <v>0</v>
       </c>
-      <c r="AM523" s="5"/>
-      <c r="AN523" s="5"/>
-      <c r="AO523" s="5"/>
-      <c r="AP523" s="5"/>
     </row>
     <row r="524" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
@@ -58143,10 +56984,6 @@
       <c r="AL524">
         <v>0</v>
       </c>
-      <c r="AM524" s="5"/>
-      <c r="AN524" s="5"/>
-      <c r="AO524" s="5"/>
-      <c r="AP524" s="5"/>
     </row>
     <row r="525" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
@@ -58263,10 +57100,6 @@
       <c r="AL525">
         <v>0</v>
       </c>
-      <c r="AM525" s="5"/>
-      <c r="AN525" s="5"/>
-      <c r="AO525" s="5"/>
-      <c r="AP525" s="5"/>
     </row>
     <row r="526" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
@@ -58383,10 +57216,6 @@
       <c r="AL526">
         <v>0</v>
       </c>
-      <c r="AM526" s="5"/>
-      <c r="AN526" s="5"/>
-      <c r="AO526" s="5"/>
-      <c r="AP526" s="5"/>
     </row>
     <row r="527" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
@@ -58503,10 +57332,6 @@
       <c r="AL527">
         <v>0</v>
       </c>
-      <c r="AM527" s="5"/>
-      <c r="AN527" s="5"/>
-      <c r="AO527" s="5"/>
-      <c r="AP527" s="5"/>
     </row>
     <row r="528" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
@@ -58623,12 +57448,8 @@
       <c r="AL528">
         <v>0</v>
       </c>
-      <c r="AM528" s="5"/>
-      <c r="AN528" s="5"/>
-      <c r="AO528" s="5"/>
-      <c r="AP528" s="5"/>
-    </row>
-    <row r="529" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="529" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>551</v>
       </c>
@@ -58743,12 +57564,8 @@
       <c r="AL529">
         <v>0</v>
       </c>
-      <c r="AM529" s="5"/>
-      <c r="AN529" s="5"/>
-      <c r="AO529" s="5"/>
-      <c r="AP529" s="5"/>
-    </row>
-    <row r="530" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="530" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>552</v>
       </c>
@@ -58863,12 +57680,8 @@
       <c r="AL530">
         <v>0</v>
       </c>
-      <c r="AM530" s="5"/>
-      <c r="AN530" s="5"/>
-      <c r="AO530" s="5"/>
-      <c r="AP530" s="5"/>
-    </row>
-    <row r="531" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="531" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>553</v>
       </c>
@@ -58983,12 +57796,8 @@
       <c r="AL531">
         <v>0</v>
       </c>
-      <c r="AM531" s="5"/>
-      <c r="AN531" s="5"/>
-      <c r="AO531" s="5"/>
-      <c r="AP531" s="5"/>
-    </row>
-    <row r="532" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="532" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>554</v>
       </c>
@@ -59103,12 +57912,8 @@
       <c r="AL532">
         <v>20</v>
       </c>
-      <c r="AM532" s="5"/>
-      <c r="AN532" s="5"/>
-      <c r="AO532" s="5"/>
-      <c r="AP532" s="5"/>
-    </row>
-    <row r="533" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="533" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>555</v>
       </c>
@@ -59223,12 +58028,8 @@
       <c r="AL533">
         <v>0</v>
       </c>
-      <c r="AM533" s="5"/>
-      <c r="AN533" s="5"/>
-      <c r="AO533" s="5"/>
-      <c r="AP533" s="5"/>
-    </row>
-    <row r="534" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="534" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>556</v>
       </c>
@@ -59343,12 +58144,8 @@
       <c r="AL534">
         <v>0</v>
       </c>
-      <c r="AM534" s="5"/>
-      <c r="AN534" s="5"/>
-      <c r="AO534" s="5"/>
-      <c r="AP534" s="5"/>
-    </row>
-    <row r="535" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="535" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>557</v>
       </c>
@@ -59463,12 +58260,8 @@
       <c r="AL535">
         <v>0</v>
       </c>
-      <c r="AM535" s="5"/>
-      <c r="AN535" s="5"/>
-      <c r="AO535" s="5"/>
-      <c r="AP535" s="5"/>
-    </row>
-    <row r="536" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="536" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>558</v>
       </c>
@@ -59583,12 +58376,8 @@
       <c r="AL536">
         <v>0</v>
       </c>
-      <c r="AM536" s="5"/>
-      <c r="AN536" s="5"/>
-      <c r="AO536" s="5"/>
-      <c r="AP536" s="5"/>
-    </row>
-    <row r="537" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="537" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>559</v>
       </c>
@@ -59703,12 +58492,8 @@
       <c r="AL537">
         <v>0</v>
       </c>
-      <c r="AM537" s="5"/>
-      <c r="AN537" s="5"/>
-      <c r="AO537" s="5"/>
-      <c r="AP537" s="5"/>
-    </row>
-    <row r="538" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="538" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>560</v>
       </c>
@@ -59823,12 +58608,8 @@
       <c r="AL538">
         <v>5</v>
       </c>
-      <c r="AM538" s="5"/>
-      <c r="AN538" s="5"/>
-      <c r="AO538" s="5"/>
-      <c r="AP538" s="5"/>
-    </row>
-    <row r="539" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="539" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>561</v>
       </c>
@@ -59943,12 +58724,8 @@
       <c r="AL539">
         <v>0</v>
       </c>
-      <c r="AM539" s="5"/>
-      <c r="AN539" s="5"/>
-      <c r="AO539" s="5"/>
-      <c r="AP539" s="5"/>
-    </row>
-    <row r="540" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="540" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>562</v>
       </c>
@@ -60063,12 +58840,8 @@
       <c r="AL540">
         <v>0</v>
       </c>
-      <c r="AM540" s="5"/>
-      <c r="AN540" s="5"/>
-      <c r="AO540" s="5"/>
-      <c r="AP540" s="5"/>
-    </row>
-    <row r="541" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="541" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>563</v>
       </c>
@@ -60183,12 +58956,8 @@
       <c r="AL541">
         <v>0</v>
       </c>
-      <c r="AM541" s="5"/>
-      <c r="AN541" s="5"/>
-      <c r="AO541" s="5"/>
-      <c r="AP541" s="5"/>
-    </row>
-    <row r="542" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="542" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>564</v>
       </c>
@@ -60204,12 +58973,8 @@
       <c r="E542" t="s">
         <v>566</v>
       </c>
-      <c r="AM542" s="5"/>
-      <c r="AN542" s="5"/>
-      <c r="AO542" s="5"/>
-      <c r="AP542" s="5"/>
-    </row>
-    <row r="543" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="543" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>567</v>
       </c>
@@ -60225,12 +58990,8 @@
       <c r="E543" t="s">
         <v>566</v>
       </c>
-      <c r="AM543" s="5"/>
-      <c r="AN543" s="5"/>
-      <c r="AO543" s="5"/>
-      <c r="AP543" s="5"/>
-    </row>
-    <row r="544" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="544" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>568</v>
       </c>
@@ -60246,12 +59007,8 @@
       <c r="E544" t="s">
         <v>566</v>
       </c>
-      <c r="AM544" s="5"/>
-      <c r="AN544" s="5"/>
-      <c r="AO544" s="5"/>
-      <c r="AP544" s="5"/>
-    </row>
-    <row r="545" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>569</v>
       </c>
@@ -60267,12 +59024,8 @@
       <c r="E545" t="s">
         <v>566</v>
       </c>
-      <c r="AM545" s="5"/>
-      <c r="AN545" s="5"/>
-      <c r="AO545" s="5"/>
-      <c r="AP545" s="5"/>
-    </row>
-    <row r="546" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>570</v>
       </c>
@@ -60288,12 +59041,8 @@
       <c r="E546" t="s">
         <v>566</v>
       </c>
-      <c r="AM546" s="5"/>
-      <c r="AN546" s="5"/>
-      <c r="AO546" s="5"/>
-      <c r="AP546" s="5"/>
-    </row>
-    <row r="547" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>571</v>
       </c>
@@ -60309,12 +59058,8 @@
       <c r="E547" t="s">
         <v>566</v>
       </c>
-      <c r="AM547" s="5"/>
-      <c r="AN547" s="5"/>
-      <c r="AO547" s="5"/>
-      <c r="AP547" s="5"/>
-    </row>
-    <row r="548" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>572</v>
       </c>
@@ -60330,12 +59075,8 @@
       <c r="E548" t="s">
         <v>566</v>
       </c>
-      <c r="AM548" s="5"/>
-      <c r="AN548" s="5"/>
-      <c r="AO548" s="5"/>
-      <c r="AP548" s="5"/>
-    </row>
-    <row r="549" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>573</v>
       </c>
@@ -60351,12 +59092,8 @@
       <c r="E549" t="s">
         <v>566</v>
       </c>
-      <c r="AM549" s="5"/>
-      <c r="AN549" s="5"/>
-      <c r="AO549" s="5"/>
-      <c r="AP549" s="5"/>
-    </row>
-    <row r="550" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>574</v>
       </c>
@@ -60372,12 +59109,8 @@
       <c r="E550" t="s">
         <v>566</v>
       </c>
-      <c r="AM550" s="5"/>
-      <c r="AN550" s="5"/>
-      <c r="AO550" s="5"/>
-      <c r="AP550" s="5"/>
-    </row>
-    <row r="551" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>575</v>
       </c>
@@ -60393,12 +59126,8 @@
       <c r="E551" t="s">
         <v>566</v>
       </c>
-      <c r="AM551" s="5"/>
-      <c r="AN551" s="5"/>
-      <c r="AO551" s="5"/>
-      <c r="AP551" s="5"/>
-    </row>
-    <row r="552" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>576</v>
       </c>
@@ -60414,12 +59143,8 @@
       <c r="E552" t="s">
         <v>566</v>
       </c>
-      <c r="AM552" s="5"/>
-      <c r="AN552" s="5"/>
-      <c r="AO552" s="5"/>
-      <c r="AP552" s="5"/>
-    </row>
-    <row r="553" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>577</v>
       </c>
@@ -60435,12 +59160,8 @@
       <c r="E553" t="s">
         <v>566</v>
       </c>
-      <c r="AM553" s="5"/>
-      <c r="AN553" s="5"/>
-      <c r="AO553" s="5"/>
-      <c r="AP553" s="5"/>
-    </row>
-    <row r="554" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>578</v>
       </c>
@@ -60456,12 +59177,8 @@
       <c r="E554" t="s">
         <v>566</v>
       </c>
-      <c r="AM554" s="5"/>
-      <c r="AN554" s="5"/>
-      <c r="AO554" s="5"/>
-      <c r="AP554" s="5"/>
-    </row>
-    <row r="555" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>579</v>
       </c>
@@ -60477,12 +59194,8 @@
       <c r="E555" t="s">
         <v>566</v>
       </c>
-      <c r="AM555" s="5"/>
-      <c r="AN555" s="5"/>
-      <c r="AO555" s="5"/>
-      <c r="AP555" s="5"/>
-    </row>
-    <row r="556" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>580</v>
       </c>
@@ -60498,12 +59211,8 @@
       <c r="E556" t="s">
         <v>566</v>
       </c>
-      <c r="AM556" s="5"/>
-      <c r="AN556" s="5"/>
-      <c r="AO556" s="5"/>
-      <c r="AP556" s="5"/>
-    </row>
-    <row r="557" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>581</v>
       </c>
@@ -60519,12 +59228,8 @@
       <c r="E557" t="s">
         <v>566</v>
       </c>
-      <c r="AM557" s="5"/>
-      <c r="AN557" s="5"/>
-      <c r="AO557" s="5"/>
-      <c r="AP557" s="5"/>
-    </row>
-    <row r="558" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>582</v>
       </c>
@@ -60540,12 +59245,8 @@
       <c r="E558" t="s">
         <v>566</v>
       </c>
-      <c r="AM558" s="5"/>
-      <c r="AN558" s="5"/>
-      <c r="AO558" s="5"/>
-      <c r="AP558" s="5"/>
-    </row>
-    <row r="559" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>583</v>
       </c>
@@ -60561,12 +59262,8 @@
       <c r="E559" t="s">
         <v>566</v>
       </c>
-      <c r="AM559" s="5"/>
-      <c r="AN559" s="5"/>
-      <c r="AO559" s="5"/>
-      <c r="AP559" s="5"/>
-    </row>
-    <row r="560" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>584</v>
       </c>
@@ -60582,12 +59279,8 @@
       <c r="E560" t="s">
         <v>566</v>
       </c>
-      <c r="AM560" s="5"/>
-      <c r="AN560" s="5"/>
-      <c r="AO560" s="5"/>
-      <c r="AP560" s="5"/>
-    </row>
-    <row r="561" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>585</v>
       </c>
@@ -60603,12 +59296,8 @@
       <c r="E561" t="s">
         <v>566</v>
       </c>
-      <c r="AM561" s="5"/>
-      <c r="AN561" s="5"/>
-      <c r="AO561" s="5"/>
-      <c r="AP561" s="5"/>
-    </row>
-    <row r="562" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>586</v>
       </c>
@@ -60624,12 +59313,8 @@
       <c r="E562" t="s">
         <v>566</v>
       </c>
-      <c r="AM562" s="5"/>
-      <c r="AN562" s="5"/>
-      <c r="AO562" s="5"/>
-      <c r="AP562" s="5"/>
-    </row>
-    <row r="563" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>587</v>
       </c>
@@ -60645,12 +59330,8 @@
       <c r="E563" t="s">
         <v>566</v>
       </c>
-      <c r="AM563" s="5"/>
-      <c r="AN563" s="5"/>
-      <c r="AO563" s="5"/>
-      <c r="AP563" s="5"/>
-    </row>
-    <row r="564" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>588</v>
       </c>
@@ -60666,12 +59347,8 @@
       <c r="E564" t="s">
         <v>566</v>
       </c>
-      <c r="AM564" s="5"/>
-      <c r="AN564" s="5"/>
-      <c r="AO564" s="5"/>
-      <c r="AP564" s="5"/>
-    </row>
-    <row r="565" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>589</v>
       </c>
@@ -60687,12 +59364,8 @@
       <c r="E565" t="s">
         <v>566</v>
       </c>
-      <c r="AM565" s="5"/>
-      <c r="AN565" s="5"/>
-      <c r="AO565" s="5"/>
-      <c r="AP565" s="5"/>
-    </row>
-    <row r="566" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>590</v>
       </c>
@@ -60708,12 +59381,8 @@
       <c r="E566" t="s">
         <v>566</v>
       </c>
-      <c r="AM566" s="5"/>
-      <c r="AN566" s="5"/>
-      <c r="AO566" s="5"/>
-      <c r="AP566" s="5"/>
-    </row>
-    <row r="567" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>591</v>
       </c>
@@ -60729,12 +59398,8 @@
       <c r="E567" t="s">
         <v>566</v>
       </c>
-      <c r="AM567" s="5"/>
-      <c r="AN567" s="5"/>
-      <c r="AO567" s="5"/>
-      <c r="AP567" s="5"/>
-    </row>
-    <row r="568" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>592</v>
       </c>
@@ -60750,12 +59415,8 @@
       <c r="E568" t="s">
         <v>566</v>
       </c>
-      <c r="AM568" s="5"/>
-      <c r="AN568" s="5"/>
-      <c r="AO568" s="5"/>
-      <c r="AP568" s="5"/>
-    </row>
-    <row r="569" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>593</v>
       </c>
@@ -60771,12 +59432,8 @@
       <c r="E569" t="s">
         <v>566</v>
       </c>
-      <c r="AM569" s="5"/>
-      <c r="AN569" s="5"/>
-      <c r="AO569" s="5"/>
-      <c r="AP569" s="5"/>
-    </row>
-    <row r="570" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>594</v>
       </c>
@@ -60792,12 +59449,8 @@
       <c r="E570" t="s">
         <v>566</v>
       </c>
-      <c r="AM570" s="5"/>
-      <c r="AN570" s="5"/>
-      <c r="AO570" s="5"/>
-      <c r="AP570" s="5"/>
-    </row>
-    <row r="571" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>595</v>
       </c>
@@ -60813,12 +59466,8 @@
       <c r="E571" t="s">
         <v>566</v>
       </c>
-      <c r="AM571" s="5"/>
-      <c r="AN571" s="5"/>
-      <c r="AO571" s="5"/>
-      <c r="AP571" s="5"/>
-    </row>
-    <row r="572" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>596</v>
       </c>
@@ -60834,12 +59483,8 @@
       <c r="E572" t="s">
         <v>566</v>
       </c>
-      <c r="AM572" s="5"/>
-      <c r="AN572" s="5"/>
-      <c r="AO572" s="5"/>
-      <c r="AP572" s="5"/>
-    </row>
-    <row r="573" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>597</v>
       </c>
@@ -60855,12 +59500,8 @@
       <c r="E573" t="s">
         <v>566</v>
       </c>
-      <c r="AM573" s="5"/>
-      <c r="AN573" s="5"/>
-      <c r="AO573" s="5"/>
-      <c r="AP573" s="5"/>
-    </row>
-    <row r="574" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>598</v>
       </c>
@@ -60876,12 +59517,8 @@
       <c r="E574" t="s">
         <v>566</v>
       </c>
-      <c r="AM574" s="5"/>
-      <c r="AN574" s="5"/>
-      <c r="AO574" s="5"/>
-      <c r="AP574" s="5"/>
-    </row>
-    <row r="575" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>599</v>
       </c>
@@ -60897,12 +59534,8 @@
       <c r="E575" t="s">
         <v>566</v>
       </c>
-      <c r="AM575" s="5"/>
-      <c r="AN575" s="5"/>
-      <c r="AO575" s="5"/>
-      <c r="AP575" s="5"/>
-    </row>
-    <row r="576" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>600</v>
       </c>
@@ -60918,12 +59551,8 @@
       <c r="E576" t="s">
         <v>566</v>
       </c>
-      <c r="AM576" s="5"/>
-      <c r="AN576" s="5"/>
-      <c r="AO576" s="5"/>
-      <c r="AP576" s="5"/>
-    </row>
-    <row r="577" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>601</v>
       </c>
@@ -60939,12 +59568,8 @@
       <c r="E577" t="s">
         <v>566</v>
       </c>
-      <c r="AM577" s="5"/>
-      <c r="AN577" s="5"/>
-      <c r="AO577" s="5"/>
-      <c r="AP577" s="5"/>
-    </row>
-    <row r="578" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>602</v>
       </c>
@@ -60960,12 +59585,8 @@
       <c r="E578" t="s">
         <v>566</v>
       </c>
-      <c r="AM578" s="5"/>
-      <c r="AN578" s="5"/>
-      <c r="AO578" s="5"/>
-      <c r="AP578" s="5"/>
-    </row>
-    <row r="579" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>603</v>
       </c>
@@ -60981,12 +59602,8 @@
       <c r="E579" t="s">
         <v>566</v>
       </c>
-      <c r="AM579" s="5"/>
-      <c r="AN579" s="5"/>
-      <c r="AO579" s="5"/>
-      <c r="AP579" s="5"/>
-    </row>
-    <row r="580" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>604</v>
       </c>
@@ -61002,12 +59619,8 @@
       <c r="E580" t="s">
         <v>566</v>
       </c>
-      <c r="AM580" s="5"/>
-      <c r="AN580" s="5"/>
-      <c r="AO580" s="5"/>
-      <c r="AP580" s="5"/>
-    </row>
-    <row r="581" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>605</v>
       </c>
@@ -61023,12 +59636,8 @@
       <c r="E581" t="s">
         <v>566</v>
       </c>
-      <c r="AM581" s="5"/>
-      <c r="AN581" s="5"/>
-      <c r="AO581" s="5"/>
-      <c r="AP581" s="5"/>
-    </row>
-    <row r="582" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>606</v>
       </c>
@@ -61044,12 +59653,8 @@
       <c r="E582" t="s">
         <v>566</v>
       </c>
-      <c r="AM582" s="5"/>
-      <c r="AN582" s="5"/>
-      <c r="AO582" s="5"/>
-      <c r="AP582" s="5"/>
-    </row>
-    <row r="583" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>607</v>
       </c>
@@ -61065,12 +59670,8 @@
       <c r="E583" t="s">
         <v>566</v>
       </c>
-      <c r="AM583" s="5"/>
-      <c r="AN583" s="5"/>
-      <c r="AO583" s="5"/>
-      <c r="AP583" s="5"/>
-    </row>
-    <row r="584" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>608</v>
       </c>
@@ -61086,12 +59687,8 @@
       <c r="E584" t="s">
         <v>566</v>
       </c>
-      <c r="AM584" s="5"/>
-      <c r="AN584" s="5"/>
-      <c r="AO584" s="5"/>
-      <c r="AP584" s="5"/>
-    </row>
-    <row r="585" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>609</v>
       </c>
@@ -61107,12 +59704,8 @@
       <c r="E585" t="s">
         <v>566</v>
       </c>
-      <c r="AM585" s="5"/>
-      <c r="AN585" s="5"/>
-      <c r="AO585" s="5"/>
-      <c r="AP585" s="5"/>
-    </row>
-    <row r="586" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>610</v>
       </c>
@@ -61128,12 +59721,8 @@
       <c r="E586" t="s">
         <v>566</v>
       </c>
-      <c r="AM586" s="5"/>
-      <c r="AN586" s="5"/>
-      <c r="AO586" s="5"/>
-      <c r="AP586" s="5"/>
-    </row>
-    <row r="587" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>611</v>
       </c>
@@ -61149,12 +59738,8 @@
       <c r="E587" t="s">
         <v>566</v>
       </c>
-      <c r="AM587" s="5"/>
-      <c r="AN587" s="5"/>
-      <c r="AO587" s="5"/>
-      <c r="AP587" s="5"/>
-    </row>
-    <row r="588" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>612</v>
       </c>
@@ -61170,12 +59755,8 @@
       <c r="E588" t="s">
         <v>566</v>
       </c>
-      <c r="AM588" s="5"/>
-      <c r="AN588" s="5"/>
-      <c r="AO588" s="5"/>
-      <c r="AP588" s="5"/>
-    </row>
-    <row r="589" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>613</v>
       </c>
@@ -61191,12 +59772,8 @@
       <c r="E589" t="s">
         <v>566</v>
       </c>
-      <c r="AM589" s="5"/>
-      <c r="AN589" s="5"/>
-      <c r="AO589" s="5"/>
-      <c r="AP589" s="5"/>
-    </row>
-    <row r="590" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>614</v>
       </c>
@@ -61212,12 +59789,8 @@
       <c r="E590" t="s">
         <v>566</v>
       </c>
-      <c r="AM590" s="5"/>
-      <c r="AN590" s="5"/>
-      <c r="AO590" s="5"/>
-      <c r="AP590" s="5"/>
-    </row>
-    <row r="591" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>615</v>
       </c>
@@ -61233,12 +59806,8 @@
       <c r="E591" t="s">
         <v>566</v>
       </c>
-      <c r="AM591" s="5"/>
-      <c r="AN591" s="5"/>
-      <c r="AO591" s="5"/>
-      <c r="AP591" s="5"/>
-    </row>
-    <row r="592" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>616</v>
       </c>
@@ -61254,12 +59823,8 @@
       <c r="E592" t="s">
         <v>566</v>
       </c>
-      <c r="AM592" s="5"/>
-      <c r="AN592" s="5"/>
-      <c r="AO592" s="5"/>
-      <c r="AP592" s="5"/>
-    </row>
-    <row r="593" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>617</v>
       </c>
@@ -61275,12 +59840,8 @@
       <c r="E593" t="s">
         <v>566</v>
       </c>
-      <c r="AM593" s="5"/>
-      <c r="AN593" s="5"/>
-      <c r="AO593" s="5"/>
-      <c r="AP593" s="5"/>
-    </row>
-    <row r="594" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>618</v>
       </c>
@@ -61296,12 +59857,8 @@
       <c r="E594" t="s">
         <v>566</v>
       </c>
-      <c r="AM594" s="5"/>
-      <c r="AN594" s="5"/>
-      <c r="AO594" s="5"/>
-      <c r="AP594" s="5"/>
-    </row>
-    <row r="595" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>619</v>
       </c>
@@ -61317,12 +59874,8 @@
       <c r="E595" t="s">
         <v>566</v>
       </c>
-      <c r="AM595" s="5"/>
-      <c r="AN595" s="5"/>
-      <c r="AO595" s="5"/>
-      <c r="AP595" s="5"/>
-    </row>
-    <row r="596" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>620</v>
       </c>
@@ -61338,12 +59891,8 @@
       <c r="E596" t="s">
         <v>566</v>
       </c>
-      <c r="AM596" s="5"/>
-      <c r="AN596" s="5"/>
-      <c r="AO596" s="5"/>
-      <c r="AP596" s="5"/>
-    </row>
-    <row r="597" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>621</v>
       </c>
@@ -61359,12 +59908,8 @@
       <c r="E597" t="s">
         <v>566</v>
       </c>
-      <c r="AM597" s="5"/>
-      <c r="AN597" s="5"/>
-      <c r="AO597" s="5"/>
-      <c r="AP597" s="5"/>
-    </row>
-    <row r="598" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>622</v>
       </c>
@@ -61380,12 +59925,8 @@
       <c r="E598" t="s">
         <v>566</v>
       </c>
-      <c r="AM598" s="5"/>
-      <c r="AN598" s="5"/>
-      <c r="AO598" s="5"/>
-      <c r="AP598" s="5"/>
-    </row>
-    <row r="599" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>623</v>
       </c>
@@ -61401,12 +59942,8 @@
       <c r="E599" t="s">
         <v>566</v>
       </c>
-      <c r="AM599" s="5"/>
-      <c r="AN599" s="5"/>
-      <c r="AO599" s="5"/>
-      <c r="AP599" s="5"/>
-    </row>
-    <row r="600" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>624</v>
       </c>
@@ -61422,12 +59959,8 @@
       <c r="E600" t="s">
         <v>566</v>
       </c>
-      <c r="AM600" s="5"/>
-      <c r="AN600" s="5"/>
-      <c r="AO600" s="5"/>
-      <c r="AP600" s="5"/>
-    </row>
-    <row r="601" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>625</v>
       </c>
@@ -61443,12 +59976,8 @@
       <c r="E601" t="s">
         <v>566</v>
       </c>
-      <c r="AM601" s="5"/>
-      <c r="AN601" s="5"/>
-      <c r="AO601" s="5"/>
-      <c r="AP601" s="5"/>
-    </row>
-    <row r="602" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>626</v>
       </c>
@@ -61464,12 +59993,8 @@
       <c r="E602" t="s">
         <v>566</v>
       </c>
-      <c r="AM602" s="5"/>
-      <c r="AN602" s="5"/>
-      <c r="AO602" s="5"/>
-      <c r="AP602" s="5"/>
-    </row>
-    <row r="603" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>627</v>
       </c>
@@ -61485,12 +60010,8 @@
       <c r="E603" t="s">
         <v>566</v>
       </c>
-      <c r="AM603" s="5"/>
-      <c r="AN603" s="5"/>
-      <c r="AO603" s="5"/>
-      <c r="AP603" s="5"/>
-    </row>
-    <row r="604" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>628</v>
       </c>
@@ -61506,12 +60027,8 @@
       <c r="E604" t="s">
         <v>566</v>
       </c>
-      <c r="AM604" s="5"/>
-      <c r="AN604" s="5"/>
-      <c r="AO604" s="5"/>
-      <c r="AP604" s="5"/>
-    </row>
-    <row r="605" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>629</v>
       </c>
@@ -61527,12 +60044,8 @@
       <c r="E605" t="s">
         <v>566</v>
       </c>
-      <c r="AM605" s="5"/>
-      <c r="AN605" s="5"/>
-      <c r="AO605" s="5"/>
-      <c r="AP605" s="5"/>
-    </row>
-    <row r="606" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>630</v>
       </c>
@@ -61548,12 +60061,8 @@
       <c r="E606" t="s">
         <v>566</v>
       </c>
-      <c r="AM606" s="5"/>
-      <c r="AN606" s="5"/>
-      <c r="AO606" s="5"/>
-      <c r="AP606" s="5"/>
-    </row>
-    <row r="607" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>631</v>
       </c>
@@ -61569,12 +60078,8 @@
       <c r="E607" t="s">
         <v>566</v>
       </c>
-      <c r="AM607" s="5"/>
-      <c r="AN607" s="5"/>
-      <c r="AO607" s="5"/>
-      <c r="AP607" s="5"/>
-    </row>
-    <row r="608" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>632</v>
       </c>
@@ -61590,12 +60095,8 @@
       <c r="E608" t="s">
         <v>566</v>
       </c>
-      <c r="AM608" s="5"/>
-      <c r="AN608" s="5"/>
-      <c r="AO608" s="5"/>
-      <c r="AP608" s="5"/>
-    </row>
-    <row r="609" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>633</v>
       </c>
@@ -61611,12 +60112,8 @@
       <c r="E609" t="s">
         <v>566</v>
       </c>
-      <c r="AM609" s="5"/>
-      <c r="AN609" s="5"/>
-      <c r="AO609" s="5"/>
-      <c r="AP609" s="5"/>
-    </row>
-    <row r="610" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>634</v>
       </c>
@@ -61632,12 +60129,8 @@
       <c r="E610" t="s">
         <v>566</v>
       </c>
-      <c r="AM610" s="5"/>
-      <c r="AN610" s="5"/>
-      <c r="AO610" s="5"/>
-      <c r="AP610" s="5"/>
-    </row>
-    <row r="611" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>635</v>
       </c>
@@ -61653,12 +60146,8 @@
       <c r="E611" t="s">
         <v>566</v>
       </c>
-      <c r="AM611" s="5"/>
-      <c r="AN611" s="5"/>
-      <c r="AO611" s="5"/>
-      <c r="AP611" s="5"/>
-    </row>
-    <row r="612" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>636</v>
       </c>
@@ -61674,12 +60163,8 @@
       <c r="E612" t="s">
         <v>566</v>
       </c>
-      <c r="AM612" s="5"/>
-      <c r="AN612" s="5"/>
-      <c r="AO612" s="5"/>
-      <c r="AP612" s="5"/>
-    </row>
-    <row r="613" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>637</v>
       </c>
@@ -61695,12 +60180,8 @@
       <c r="E613" t="s">
         <v>566</v>
       </c>
-      <c r="AM613" s="5"/>
-      <c r="AN613" s="5"/>
-      <c r="AO613" s="5"/>
-      <c r="AP613" s="5"/>
-    </row>
-    <row r="614" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>638</v>
       </c>
@@ -61716,12 +60197,8 @@
       <c r="E614" t="s">
         <v>566</v>
       </c>
-      <c r="AM614" s="5"/>
-      <c r="AN614" s="5"/>
-      <c r="AO614" s="5"/>
-      <c r="AP614" s="5"/>
-    </row>
-    <row r="615" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>639</v>
       </c>
@@ -61737,12 +60214,8 @@
       <c r="E615" t="s">
         <v>566</v>
       </c>
-      <c r="AM615" s="5"/>
-      <c r="AN615" s="5"/>
-      <c r="AO615" s="5"/>
-      <c r="AP615" s="5"/>
-    </row>
-    <row r="616" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>640</v>
       </c>
@@ -61758,12 +60231,8 @@
       <c r="E616" t="s">
         <v>566</v>
       </c>
-      <c r="AM616" s="5"/>
-      <c r="AN616" s="5"/>
-      <c r="AO616" s="5"/>
-      <c r="AP616" s="5"/>
-    </row>
-    <row r="617" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>641</v>
       </c>
@@ -61779,12 +60248,8 @@
       <c r="E617" t="s">
         <v>566</v>
       </c>
-      <c r="AM617" s="5"/>
-      <c r="AN617" s="5"/>
-      <c r="AO617" s="5"/>
-      <c r="AP617" s="5"/>
-    </row>
-    <row r="618" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>642</v>
       </c>
@@ -61800,12 +60265,8 @@
       <c r="E618" t="s">
         <v>566</v>
       </c>
-      <c r="AM618" s="5"/>
-      <c r="AN618" s="5"/>
-      <c r="AO618" s="5"/>
-      <c r="AP618" s="5"/>
-    </row>
-    <row r="619" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>643</v>
       </c>
@@ -61821,12 +60282,8 @@
       <c r="E619" t="s">
         <v>566</v>
       </c>
-      <c r="AM619" s="5"/>
-      <c r="AN619" s="5"/>
-      <c r="AO619" s="5"/>
-      <c r="AP619" s="5"/>
-    </row>
-    <row r="620" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>644</v>
       </c>
@@ -61842,12 +60299,8 @@
       <c r="E620" t="s">
         <v>566</v>
       </c>
-      <c r="AM620" s="5"/>
-      <c r="AN620" s="5"/>
-      <c r="AO620" s="5"/>
-      <c r="AP620" s="5"/>
-    </row>
-    <row r="621" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>645</v>
       </c>
@@ -61863,12 +60316,8 @@
       <c r="E621" t="s">
         <v>566</v>
       </c>
-      <c r="AM621" s="5"/>
-      <c r="AN621" s="5"/>
-      <c r="AO621" s="5"/>
-      <c r="AP621" s="5"/>
-    </row>
-    <row r="622" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>646</v>
       </c>
@@ -61884,12 +60333,8 @@
       <c r="E622" t="s">
         <v>566</v>
       </c>
-      <c r="AM622" s="5"/>
-      <c r="AN622" s="5"/>
-      <c r="AO622" s="5"/>
-      <c r="AP622" s="5"/>
-    </row>
-    <row r="623" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>647</v>
       </c>
@@ -61905,12 +60350,8 @@
       <c r="E623" t="s">
         <v>566</v>
       </c>
-      <c r="AM623" s="5"/>
-      <c r="AN623" s="5"/>
-      <c r="AO623" s="5"/>
-      <c r="AP623" s="5"/>
-    </row>
-    <row r="624" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>648</v>
       </c>
@@ -61926,12 +60367,8 @@
       <c r="E624" t="s">
         <v>566</v>
       </c>
-      <c r="AM624" s="5"/>
-      <c r="AN624" s="5"/>
-      <c r="AO624" s="5"/>
-      <c r="AP624" s="5"/>
-    </row>
-    <row r="625" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>649</v>
       </c>
@@ -61947,12 +60384,8 @@
       <c r="E625" t="s">
         <v>566</v>
       </c>
-      <c r="AM625" s="5"/>
-      <c r="AN625" s="5"/>
-      <c r="AO625" s="5"/>
-      <c r="AP625" s="5"/>
-    </row>
-    <row r="626" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>650</v>
       </c>
@@ -61968,12 +60401,8 @@
       <c r="E626" t="s">
         <v>566</v>
       </c>
-      <c r="AM626" s="5"/>
-      <c r="AN626" s="5"/>
-      <c r="AO626" s="5"/>
-      <c r="AP626" s="5"/>
-    </row>
-    <row r="627" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>651</v>
       </c>
@@ -61989,12 +60418,8 @@
       <c r="E627" t="s">
         <v>566</v>
       </c>
-      <c r="AM627" s="5"/>
-      <c r="AN627" s="5"/>
-      <c r="AO627" s="5"/>
-      <c r="AP627" s="5"/>
-    </row>
-    <row r="628" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>652</v>
       </c>
@@ -62010,12 +60435,8 @@
       <c r="E628" t="s">
         <v>566</v>
       </c>
-      <c r="AM628" s="5"/>
-      <c r="AN628" s="5"/>
-      <c r="AO628" s="5"/>
-      <c r="AP628" s="5"/>
-    </row>
-    <row r="629" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>653</v>
       </c>
@@ -62031,12 +60452,8 @@
       <c r="E629" t="s">
         <v>566</v>
       </c>
-      <c r="AM629" s="5"/>
-      <c r="AN629" s="5"/>
-      <c r="AO629" s="5"/>
-      <c r="AP629" s="5"/>
-    </row>
-    <row r="630" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>654</v>
       </c>
@@ -62052,12 +60469,8 @@
       <c r="E630" t="s">
         <v>566</v>
       </c>
-      <c r="AM630" s="5"/>
-      <c r="AN630" s="5"/>
-      <c r="AO630" s="5"/>
-      <c r="AP630" s="5"/>
-    </row>
-    <row r="631" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>655</v>
       </c>
@@ -62073,10 +60486,6 @@
       <c r="E631" t="s">
         <v>566</v>
       </c>
-      <c r="AM631" s="5"/>
-      <c r="AN631" s="5"/>
-      <c r="AO631" s="5"/>
-      <c r="AP631" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/data/monitoring_phenology/2024_senescence.xlsx
+++ b/data/monitoring_phenology/2024_senescence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9292590B-DD42-8D48-932A-F71D1303699B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C2E1C2-F547-A94A-BD37-0BFF7EAFBAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-1980" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8566" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8629" uniqueCount="783">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2919,14 +2919,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3877,10 +3875,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" zoomScale="207" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A336" zoomScale="207" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A493" sqref="A493"/>
-      <selection pane="topRight" activeCell="AU347" sqref="AU347"/>
+      <selection pane="topRight" activeCell="F346" sqref="F346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4031,16 +4029,16 @@
       <c r="AT1" t="s">
         <v>755</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AU1" t="s">
         <v>771</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AV1" t="s">
         <v>772</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AW1" t="s">
         <v>773</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AX1" t="s">
         <v>774</v>
       </c>
     </row>
@@ -4183,10 +4181,6 @@
       <c r="AT2">
         <v>0</v>
       </c>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -4327,10 +4321,6 @@
       <c r="AT3">
         <v>0</v>
       </c>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4471,10 +4461,6 @@
       <c r="AT4">
         <v>0</v>
       </c>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4615,10 +4601,6 @@
       <c r="AT5">
         <v>0</v>
       </c>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4759,10 +4741,6 @@
       <c r="AT6">
         <v>0</v>
       </c>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4903,10 +4881,6 @@
       <c r="AT7">
         <v>0</v>
       </c>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -5047,10 +5021,6 @@
       <c r="AT8">
         <v>0</v>
       </c>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -5191,10 +5161,6 @@
       <c r="AT9">
         <v>0</v>
       </c>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="5"/>
-      <c r="AW9" s="5"/>
-      <c r="AX9" s="5"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -5335,10 +5301,6 @@
       <c r="AT10">
         <v>0</v>
       </c>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="5"/>
-      <c r="AW10" s="5"/>
-      <c r="AX10" s="5"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -5479,10 +5441,6 @@
       <c r="AT11">
         <v>0</v>
       </c>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="5"/>
-      <c r="AX11" s="5"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -5623,10 +5581,6 @@
       <c r="AT12">
         <v>0</v>
       </c>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -5767,10 +5721,6 @@
       <c r="AT13">
         <v>0</v>
       </c>
-      <c r="AU13" s="5"/>
-      <c r="AV13" s="5"/>
-      <c r="AW13" s="5"/>
-      <c r="AX13" s="5"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -5911,10 +5861,6 @@
       <c r="AT14">
         <v>0</v>
       </c>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="5"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="5"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -6055,10 +6001,6 @@
       <c r="AT15">
         <v>0</v>
       </c>
-      <c r="AU15" s="5"/>
-      <c r="AV15" s="5"/>
-      <c r="AW15" s="5"/>
-      <c r="AX15" s="5"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -6199,12 +6141,8 @@
       <c r="AT16">
         <v>0</v>
       </c>
-      <c r="AU16" s="5"/>
-      <c r="AV16" s="5"/>
-      <c r="AW16" s="5"/>
-      <c r="AX16" s="5"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -6343,12 +6281,8 @@
       <c r="AT17">
         <v>0</v>
       </c>
-      <c r="AU17" s="5"/>
-      <c r="AV17" s="5"/>
-      <c r="AW17" s="5"/>
-      <c r="AX17" s="5"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -6487,12 +6421,8 @@
       <c r="AT18">
         <v>0</v>
       </c>
-      <c r="AU18" s="5"/>
-      <c r="AV18" s="5"/>
-      <c r="AW18" s="5"/>
-      <c r="AX18" s="5"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -6631,12 +6561,8 @@
       <c r="AT19">
         <v>0</v>
       </c>
-      <c r="AU19" s="5"/>
-      <c r="AV19" s="5"/>
-      <c r="AW19" s="5"/>
-      <c r="AX19" s="5"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -6775,12 +6701,8 @@
       <c r="AT20">
         <v>0</v>
       </c>
-      <c r="AU20" s="5"/>
-      <c r="AV20" s="5"/>
-      <c r="AW20" s="5"/>
-      <c r="AX20" s="5"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -6919,12 +6841,8 @@
       <c r="AT21">
         <v>0</v>
       </c>
-      <c r="AU21" s="5"/>
-      <c r="AV21" s="5"/>
-      <c r="AW21" s="5"/>
-      <c r="AX21" s="5"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -7063,12 +6981,8 @@
       <c r="AT22">
         <v>0</v>
       </c>
-      <c r="AU22" s="5"/>
-      <c r="AV22" s="5"/>
-      <c r="AW22" s="5"/>
-      <c r="AX22" s="5"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -7207,12 +7121,8 @@
       <c r="AT23">
         <v>0</v>
       </c>
-      <c r="AU23" s="5"/>
-      <c r="AV23" s="5"/>
-      <c r="AW23" s="5"/>
-      <c r="AX23" s="5"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -7351,12 +7261,8 @@
       <c r="AT24">
         <v>0</v>
       </c>
-      <c r="AU24" s="5"/>
-      <c r="AV24" s="5"/>
-      <c r="AW24" s="5"/>
-      <c r="AX24" s="5"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -7495,12 +7401,8 @@
       <c r="AT25">
         <v>0</v>
       </c>
-      <c r="AU25" s="5"/>
-      <c r="AV25" s="5"/>
-      <c r="AW25" s="5"/>
-      <c r="AX25" s="5"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -7639,12 +7541,8 @@
       <c r="AT26">
         <v>0</v>
       </c>
-      <c r="AU26" s="5"/>
-      <c r="AV26" s="5"/>
-      <c r="AW26" s="5"/>
-      <c r="AX26" s="5"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -7783,12 +7681,8 @@
       <c r="AT27">
         <v>0</v>
       </c>
-      <c r="AU27" s="5"/>
-      <c r="AV27" s="5"/>
-      <c r="AW27" s="5"/>
-      <c r="AX27" s="5"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -7927,12 +7821,8 @@
       <c r="AT28">
         <v>0</v>
       </c>
-      <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
-      <c r="AW28" s="5"/>
-      <c r="AX28" s="5"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -8071,12 +7961,8 @@
       <c r="AT29">
         <v>0</v>
       </c>
-      <c r="AU29" s="5"/>
-      <c r="AV29" s="5"/>
-      <c r="AW29" s="5"/>
-      <c r="AX29" s="5"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -8215,12 +8101,8 @@
       <c r="AT30">
         <v>0</v>
       </c>
-      <c r="AU30" s="5"/>
-      <c r="AV30" s="5"/>
-      <c r="AW30" s="5"/>
-      <c r="AX30" s="5"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -8359,12 +8241,8 @@
       <c r="AT31">
         <v>0</v>
       </c>
-      <c r="AU31" s="5"/>
-      <c r="AV31" s="5"/>
-      <c r="AW31" s="5"/>
-      <c r="AX31" s="5"/>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -8503,12 +8381,8 @@
       <c r="AT32">
         <v>0</v>
       </c>
-      <c r="AU32" s="5"/>
-      <c r="AV32" s="5"/>
-      <c r="AW32" s="5"/>
-      <c r="AX32" s="5"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -8647,12 +8521,8 @@
       <c r="AT33">
         <v>0</v>
       </c>
-      <c r="AU33" s="5"/>
-      <c r="AV33" s="5"/>
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="5"/>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -8791,12 +8661,8 @@
       <c r="AT34">
         <v>0</v>
       </c>
-      <c r="AU34" s="5"/>
-      <c r="AV34" s="5"/>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -8935,12 +8801,8 @@
       <c r="AT35">
         <v>0</v>
       </c>
-      <c r="AU35" s="5"/>
-      <c r="AV35" s="5"/>
-      <c r="AW35" s="5"/>
-      <c r="AX35" s="5"/>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -9079,12 +8941,8 @@
       <c r="AT36">
         <v>0</v>
       </c>
-      <c r="AU36" s="5"/>
-      <c r="AV36" s="5"/>
-      <c r="AW36" s="5"/>
-      <c r="AX36" s="5"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -9223,12 +9081,8 @@
       <c r="AT37">
         <v>0</v>
       </c>
-      <c r="AU37" s="5"/>
-      <c r="AV37" s="5"/>
-      <c r="AW37" s="5"/>
-      <c r="AX37" s="5"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -9367,12 +9221,8 @@
       <c r="AT38">
         <v>0</v>
       </c>
-      <c r="AU38" s="5"/>
-      <c r="AV38" s="5"/>
-      <c r="AW38" s="5"/>
-      <c r="AX38" s="5"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -9511,12 +9361,8 @@
       <c r="AT39">
         <v>0</v>
       </c>
-      <c r="AU39" s="5"/>
-      <c r="AV39" s="5"/>
-      <c r="AW39" s="5"/>
-      <c r="AX39" s="5"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -9655,12 +9501,8 @@
       <c r="AT40">
         <v>0</v>
       </c>
-      <c r="AU40" s="5"/>
-      <c r="AV40" s="5"/>
-      <c r="AW40" s="5"/>
-      <c r="AX40" s="5"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -9799,12 +9641,8 @@
       <c r="AT41">
         <v>0</v>
       </c>
-      <c r="AU41" s="5"/>
-      <c r="AV41" s="5"/>
-      <c r="AW41" s="5"/>
-      <c r="AX41" s="5"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -9943,12 +9781,8 @@
       <c r="AT42">
         <v>0</v>
       </c>
-      <c r="AU42" s="5"/>
-      <c r="AV42" s="5"/>
-      <c r="AW42" s="5"/>
-      <c r="AX42" s="5"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -10087,12 +9921,8 @@
       <c r="AT43">
         <v>0</v>
       </c>
-      <c r="AU43" s="5"/>
-      <c r="AV43" s="5"/>
-      <c r="AW43" s="5"/>
-      <c r="AX43" s="5"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -10231,12 +10061,8 @@
       <c r="AT44">
         <v>0</v>
       </c>
-      <c r="AU44" s="5"/>
-      <c r="AV44" s="5"/>
-      <c r="AW44" s="5"/>
-      <c r="AX44" s="5"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -10375,12 +10201,8 @@
       <c r="AT45">
         <v>0</v>
       </c>
-      <c r="AU45" s="5"/>
-      <c r="AV45" s="5"/>
-      <c r="AW45" s="5"/>
-      <c r="AX45" s="5"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -10519,12 +10341,8 @@
       <c r="AT46">
         <v>0</v>
       </c>
-      <c r="AU46" s="5"/>
-      <c r="AV46" s="5"/>
-      <c r="AW46" s="5"/>
-      <c r="AX46" s="5"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -10663,12 +10481,8 @@
       <c r="AT47">
         <v>0</v>
       </c>
-      <c r="AU47" s="5"/>
-      <c r="AV47" s="5"/>
-      <c r="AW47" s="5"/>
-      <c r="AX47" s="5"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -10807,12 +10621,8 @@
       <c r="AT48">
         <v>0</v>
       </c>
-      <c r="AU48" s="5"/>
-      <c r="AV48" s="5"/>
-      <c r="AW48" s="5"/>
-      <c r="AX48" s="5"/>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -10951,12 +10761,8 @@
       <c r="AT49">
         <v>0</v>
       </c>
-      <c r="AU49" s="5"/>
-      <c r="AV49" s="5"/>
-      <c r="AW49" s="5"/>
-      <c r="AX49" s="5"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -11095,12 +10901,8 @@
       <c r="AT50">
         <v>0</v>
       </c>
-      <c r="AU50" s="5"/>
-      <c r="AV50" s="5"/>
-      <c r="AW50" s="5"/>
-      <c r="AX50" s="5"/>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -11239,12 +11041,8 @@
       <c r="AT51">
         <v>0</v>
       </c>
-      <c r="AU51" s="5"/>
-      <c r="AV51" s="5"/>
-      <c r="AW51" s="5"/>
-      <c r="AX51" s="5"/>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -11383,12 +11181,8 @@
       <c r="AT52">
         <v>0</v>
       </c>
-      <c r="AU52" s="5"/>
-      <c r="AV52" s="5"/>
-      <c r="AW52" s="5"/>
-      <c r="AX52" s="5"/>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -11527,12 +11321,8 @@
       <c r="AT53">
         <v>0</v>
       </c>
-      <c r="AU53" s="5"/>
-      <c r="AV53" s="5"/>
-      <c r="AW53" s="5"/>
-      <c r="AX53" s="5"/>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -11671,12 +11461,8 @@
       <c r="AT54">
         <v>0</v>
       </c>
-      <c r="AU54" s="5"/>
-      <c r="AV54" s="5"/>
-      <c r="AW54" s="5"/>
-      <c r="AX54" s="5"/>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -11815,12 +11601,8 @@
       <c r="AT55">
         <v>0</v>
       </c>
-      <c r="AU55" s="5"/>
-      <c r="AV55" s="5"/>
-      <c r="AW55" s="5"/>
-      <c r="AX55" s="5"/>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -11959,12 +11741,8 @@
       <c r="AT56">
         <v>0</v>
       </c>
-      <c r="AU56" s="5"/>
-      <c r="AV56" s="5"/>
-      <c r="AW56" s="5"/>
-      <c r="AX56" s="5"/>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -12103,12 +11881,8 @@
       <c r="AT57">
         <v>0</v>
       </c>
-      <c r="AU57" s="5"/>
-      <c r="AV57" s="5"/>
-      <c r="AW57" s="5"/>
-      <c r="AX57" s="5"/>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -12247,12 +12021,8 @@
       <c r="AT58">
         <v>0</v>
       </c>
-      <c r="AU58" s="5"/>
-      <c r="AV58" s="5"/>
-      <c r="AW58" s="5"/>
-      <c r="AX58" s="5"/>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -12391,12 +12161,8 @@
       <c r="AT59">
         <v>0</v>
       </c>
-      <c r="AU59" s="5"/>
-      <c r="AV59" s="5"/>
-      <c r="AW59" s="5"/>
-      <c r="AX59" s="5"/>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -12535,12 +12301,8 @@
       <c r="AT60">
         <v>0</v>
       </c>
-      <c r="AU60" s="5"/>
-      <c r="AV60" s="5"/>
-      <c r="AW60" s="5"/>
-      <c r="AX60" s="5"/>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -12679,12 +12441,8 @@
       <c r="AT61">
         <v>0</v>
       </c>
-      <c r="AU61" s="5"/>
-      <c r="AV61" s="5"/>
-      <c r="AW61" s="5"/>
-      <c r="AX61" s="5"/>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -12823,12 +12581,8 @@
       <c r="AT62">
         <v>0</v>
       </c>
-      <c r="AU62" s="5"/>
-      <c r="AV62" s="5"/>
-      <c r="AW62" s="5"/>
-      <c r="AX62" s="5"/>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -12967,12 +12721,8 @@
       <c r="AT63">
         <v>0</v>
       </c>
-      <c r="AU63" s="5"/>
-      <c r="AV63" s="5"/>
-      <c r="AW63" s="5"/>
-      <c r="AX63" s="5"/>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -13111,10 +12861,6 @@
       <c r="AT64">
         <v>0</v>
       </c>
-      <c r="AU64" s="5"/>
-      <c r="AV64" s="5"/>
-      <c r="AW64" s="5"/>
-      <c r="AX64" s="5"/>
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -13255,10 +13001,6 @@
       <c r="AT65">
         <v>0</v>
       </c>
-      <c r="AU65" s="5"/>
-      <c r="AV65" s="5"/>
-      <c r="AW65" s="5"/>
-      <c r="AX65" s="5"/>
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -13396,16 +13138,16 @@
       <c r="AT66">
         <v>10</v>
       </c>
-      <c r="AU66" s="5">
+      <c r="AU66">
         <v>8.9</v>
       </c>
-      <c r="AV66" s="5">
+      <c r="AV66">
         <v>10.7</v>
       </c>
-      <c r="AW66" s="5">
+      <c r="AW66">
         <v>12.9</v>
       </c>
-      <c r="AX66" s="5">
+      <c r="AX66">
         <v>5</v>
       </c>
     </row>
@@ -13548,10 +13290,6 @@
       <c r="AT67">
         <v>0</v>
       </c>
-      <c r="AU67" s="5"/>
-      <c r="AV67" s="5"/>
-      <c r="AW67" s="5"/>
-      <c r="AX67" s="5"/>
     </row>
     <row r="68" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -13692,10 +13430,6 @@
       <c r="AT68">
         <v>0</v>
       </c>
-      <c r="AU68" s="5"/>
-      <c r="AV68" s="5"/>
-      <c r="AW68" s="5"/>
-      <c r="AX68" s="5"/>
     </row>
     <row r="69" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
@@ -13836,10 +13570,6 @@
       <c r="AT69">
         <v>0</v>
       </c>
-      <c r="AU69" s="5"/>
-      <c r="AV69" s="5"/>
-      <c r="AW69" s="5"/>
-      <c r="AX69" s="5"/>
     </row>
     <row r="70" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -13980,10 +13710,6 @@
       <c r="AT70">
         <v>0</v>
       </c>
-      <c r="AU70" s="5"/>
-      <c r="AV70" s="5"/>
-      <c r="AW70" s="5"/>
-      <c r="AX70" s="5"/>
     </row>
     <row r="71" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -14124,10 +13850,6 @@
       <c r="AT71">
         <v>0</v>
       </c>
-      <c r="AU71" s="5"/>
-      <c r="AV71" s="5"/>
-      <c r="AW71" s="5"/>
-      <c r="AX71" s="5"/>
     </row>
     <row r="72" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -14268,10 +13990,6 @@
       <c r="AT72">
         <v>0</v>
       </c>
-      <c r="AU72" s="5"/>
-      <c r="AV72" s="5"/>
-      <c r="AW72" s="5"/>
-      <c r="AX72" s="5"/>
     </row>
     <row r="73" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -14412,10 +14130,6 @@
       <c r="AT73">
         <v>0</v>
       </c>
-      <c r="AU73" s="5"/>
-      <c r="AV73" s="5"/>
-      <c r="AW73" s="5"/>
-      <c r="AX73" s="5"/>
     </row>
     <row r="74" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -14556,10 +14270,6 @@
       <c r="AT74">
         <v>0</v>
       </c>
-      <c r="AU74" s="5"/>
-      <c r="AV74" s="5"/>
-      <c r="AW74" s="5"/>
-      <c r="AX74" s="5"/>
     </row>
     <row r="75" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -14700,10 +14410,6 @@
       <c r="AT75">
         <v>0</v>
       </c>
-      <c r="AU75" s="5"/>
-      <c r="AV75" s="5"/>
-      <c r="AW75" s="5"/>
-      <c r="AX75" s="5"/>
     </row>
     <row r="76" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -14844,10 +14550,6 @@
       <c r="AT76">
         <v>0</v>
       </c>
-      <c r="AU76" s="5"/>
-      <c r="AV76" s="5"/>
-      <c r="AW76" s="5"/>
-      <c r="AX76" s="5"/>
     </row>
     <row r="77" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -14988,10 +14690,6 @@
       <c r="AT77">
         <v>0</v>
       </c>
-      <c r="AU77" s="5"/>
-      <c r="AV77" s="5"/>
-      <c r="AW77" s="5"/>
-      <c r="AX77" s="5"/>
     </row>
     <row r="78" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -15132,10 +14830,6 @@
       <c r="AT78">
         <v>0</v>
       </c>
-      <c r="AU78" s="5"/>
-      <c r="AV78" s="5"/>
-      <c r="AW78" s="5"/>
-      <c r="AX78" s="5"/>
     </row>
     <row r="79" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -15276,10 +14970,6 @@
       <c r="AT79">
         <v>0</v>
       </c>
-      <c r="AU79" s="5"/>
-      <c r="AV79" s="5"/>
-      <c r="AW79" s="5"/>
-      <c r="AX79" s="5"/>
     </row>
     <row r="80" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -15420,12 +15110,8 @@
       <c r="AT80">
         <v>0</v>
       </c>
-      <c r="AU80" s="5"/>
-      <c r="AV80" s="5"/>
-      <c r="AW80" s="5"/>
-      <c r="AX80" s="5"/>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -15564,12 +15250,8 @@
       <c r="AT81">
         <v>0</v>
       </c>
-      <c r="AU81" s="5"/>
-      <c r="AV81" s="5"/>
-      <c r="AW81" s="5"/>
-      <c r="AX81" s="5"/>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -15708,12 +15390,8 @@
       <c r="AT82">
         <v>0</v>
       </c>
-      <c r="AU82" s="5"/>
-      <c r="AV82" s="5"/>
-      <c r="AW82" s="5"/>
-      <c r="AX82" s="5"/>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -15852,12 +15530,8 @@
       <c r="AT83">
         <v>0</v>
       </c>
-      <c r="AU83" s="5"/>
-      <c r="AV83" s="5"/>
-      <c r="AW83" s="5"/>
-      <c r="AX83" s="5"/>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -15996,12 +15670,8 @@
       <c r="AT84">
         <v>0</v>
       </c>
-      <c r="AU84" s="5"/>
-      <c r="AV84" s="5"/>
-      <c r="AW84" s="5"/>
-      <c r="AX84" s="5"/>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -16140,12 +15810,8 @@
       <c r="AT85">
         <v>0</v>
       </c>
-      <c r="AU85" s="5"/>
-      <c r="AV85" s="5"/>
-      <c r="AW85" s="5"/>
-      <c r="AX85" s="5"/>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -16284,12 +15950,8 @@
       <c r="AT86">
         <v>0</v>
       </c>
-      <c r="AU86" s="5"/>
-      <c r="AV86" s="5"/>
-      <c r="AW86" s="5"/>
-      <c r="AX86" s="5"/>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -16428,12 +16090,8 @@
       <c r="AT87">
         <v>0</v>
       </c>
-      <c r="AU87" s="5"/>
-      <c r="AV87" s="5"/>
-      <c r="AW87" s="5"/>
-      <c r="AX87" s="5"/>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -16572,12 +16230,8 @@
       <c r="AT88">
         <v>0</v>
       </c>
-      <c r="AU88" s="5"/>
-      <c r="AV88" s="5"/>
-      <c r="AW88" s="5"/>
-      <c r="AX88" s="5"/>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -16716,12 +16370,8 @@
       <c r="AT89">
         <v>0</v>
       </c>
-      <c r="AU89" s="5"/>
-      <c r="AV89" s="5"/>
-      <c r="AW89" s="5"/>
-      <c r="AX89" s="5"/>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -16860,12 +16510,8 @@
       <c r="AT90">
         <v>0</v>
       </c>
-      <c r="AU90" s="5"/>
-      <c r="AV90" s="5"/>
-      <c r="AW90" s="5"/>
-      <c r="AX90" s="5"/>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -17004,12 +16650,8 @@
       <c r="AT91">
         <v>0</v>
       </c>
-      <c r="AU91" s="5"/>
-      <c r="AV91" s="5"/>
-      <c r="AW91" s="5"/>
-      <c r="AX91" s="5"/>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -17148,12 +16790,8 @@
       <c r="AT92">
         <v>0</v>
       </c>
-      <c r="AU92" s="5"/>
-      <c r="AV92" s="5"/>
-      <c r="AW92" s="5"/>
-      <c r="AX92" s="5"/>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -17292,12 +16930,8 @@
       <c r="AT93">
         <v>0</v>
       </c>
-      <c r="AU93" s="5"/>
-      <c r="AV93" s="5"/>
-      <c r="AW93" s="5"/>
-      <c r="AX93" s="5"/>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -17436,12 +17070,8 @@
       <c r="AT94">
         <v>0</v>
       </c>
-      <c r="AU94" s="5"/>
-      <c r="AV94" s="5"/>
-      <c r="AW94" s="5"/>
-      <c r="AX94" s="5"/>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -17580,12 +17210,8 @@
       <c r="AT95">
         <v>10</v>
       </c>
-      <c r="AU95" s="5"/>
-      <c r="AV95" s="5"/>
-      <c r="AW95" s="5"/>
-      <c r="AX95" s="5"/>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -17724,12 +17350,8 @@
       <c r="AT96">
         <v>0</v>
       </c>
-      <c r="AU96" s="5"/>
-      <c r="AV96" s="5"/>
-      <c r="AW96" s="5"/>
-      <c r="AX96" s="5"/>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -17868,12 +17490,8 @@
       <c r="AT97">
         <v>0</v>
       </c>
-      <c r="AU97" s="5"/>
-      <c r="AV97" s="5"/>
-      <c r="AW97" s="5"/>
-      <c r="AX97" s="5"/>
     </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -18012,12 +17630,8 @@
       <c r="AT98">
         <v>0</v>
       </c>
-      <c r="AU98" s="5"/>
-      <c r="AV98" s="5"/>
-      <c r="AW98" s="5"/>
-      <c r="AX98" s="5"/>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -18156,12 +17770,8 @@
       <c r="AT99">
         <v>0</v>
       </c>
-      <c r="AU99" s="5"/>
-      <c r="AV99" s="5"/>
-      <c r="AW99" s="5"/>
-      <c r="AX99" s="5"/>
     </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -18300,12 +17910,8 @@
       <c r="AT100">
         <v>0</v>
       </c>
-      <c r="AU100" s="5"/>
-      <c r="AV100" s="5"/>
-      <c r="AW100" s="5"/>
-      <c r="AX100" s="5"/>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -18444,12 +18050,8 @@
       <c r="AT101">
         <v>0</v>
       </c>
-      <c r="AU101" s="5"/>
-      <c r="AV101" s="5"/>
-      <c r="AW101" s="5"/>
-      <c r="AX101" s="5"/>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -18588,12 +18190,8 @@
       <c r="AT102">
         <v>0</v>
       </c>
-      <c r="AU102" s="5"/>
-      <c r="AV102" s="5"/>
-      <c r="AW102" s="5"/>
-      <c r="AX102" s="5"/>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -18732,12 +18330,8 @@
       <c r="AT103">
         <v>0</v>
       </c>
-      <c r="AU103" s="5"/>
-      <c r="AV103" s="5"/>
-      <c r="AW103" s="5"/>
-      <c r="AX103" s="5"/>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -18876,12 +18470,8 @@
       <c r="AT104">
         <v>0</v>
       </c>
-      <c r="AU104" s="5"/>
-      <c r="AV104" s="5"/>
-      <c r="AW104" s="5"/>
-      <c r="AX104" s="5"/>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -19020,12 +18610,8 @@
       <c r="AT105">
         <v>0</v>
       </c>
-      <c r="AU105" s="5"/>
-      <c r="AV105" s="5"/>
-      <c r="AW105" s="5"/>
-      <c r="AX105" s="5"/>
     </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -19164,12 +18750,8 @@
       <c r="AT106">
         <v>0</v>
       </c>
-      <c r="AU106" s="5"/>
-      <c r="AV106" s="5"/>
-      <c r="AW106" s="5"/>
-      <c r="AX106" s="5"/>
     </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -19308,12 +18890,8 @@
       <c r="AT107">
         <v>0</v>
       </c>
-      <c r="AU107" s="5"/>
-      <c r="AV107" s="5"/>
-      <c r="AW107" s="5"/>
-      <c r="AX107" s="5"/>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -19452,12 +19030,8 @@
       <c r="AT108">
         <v>0</v>
       </c>
-      <c r="AU108" s="5"/>
-      <c r="AV108" s="5"/>
-      <c r="AW108" s="5"/>
-      <c r="AX108" s="5"/>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -19596,12 +19170,8 @@
       <c r="AT109">
         <v>0</v>
       </c>
-      <c r="AU109" s="5"/>
-      <c r="AV109" s="5"/>
-      <c r="AW109" s="5"/>
-      <c r="AX109" s="5"/>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -19740,12 +19310,8 @@
       <c r="AT110">
         <v>0</v>
       </c>
-      <c r="AU110" s="5"/>
-      <c r="AV110" s="5"/>
-      <c r="AW110" s="5"/>
-      <c r="AX110" s="5"/>
     </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -19884,12 +19450,8 @@
       <c r="AT111">
         <v>0</v>
       </c>
-      <c r="AU111" s="5"/>
-      <c r="AV111" s="5"/>
-      <c r="AW111" s="5"/>
-      <c r="AX111" s="5"/>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -20028,12 +19590,8 @@
       <c r="AT112">
         <v>0</v>
       </c>
-      <c r="AU112" s="5"/>
-      <c r="AV112" s="5"/>
-      <c r="AW112" s="5"/>
-      <c r="AX112" s="5"/>
     </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -20172,12 +19730,8 @@
       <c r="AT113">
         <v>0</v>
       </c>
-      <c r="AU113" s="5"/>
-      <c r="AV113" s="5"/>
-      <c r="AW113" s="5"/>
-      <c r="AX113" s="5"/>
     </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -20316,12 +19870,8 @@
       <c r="AT114">
         <v>0</v>
       </c>
-      <c r="AU114" s="5"/>
-      <c r="AV114" s="5"/>
-      <c r="AW114" s="5"/>
-      <c r="AX114" s="5"/>
     </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -20460,12 +20010,8 @@
       <c r="AT115">
         <v>0</v>
       </c>
-      <c r="AU115" s="5"/>
-      <c r="AV115" s="5"/>
-      <c r="AW115" s="5"/>
-      <c r="AX115" s="5"/>
     </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -20604,12 +20150,8 @@
       <c r="AT116">
         <v>0</v>
       </c>
-      <c r="AU116" s="5"/>
-      <c r="AV116" s="5"/>
-      <c r="AW116" s="5"/>
-      <c r="AX116" s="5"/>
     </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -20748,12 +20290,8 @@
       <c r="AT117">
         <v>0</v>
       </c>
-      <c r="AU117" s="5"/>
-      <c r="AV117" s="5"/>
-      <c r="AW117" s="5"/>
-      <c r="AX117" s="5"/>
     </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -20892,12 +20430,8 @@
       <c r="AT118">
         <v>0</v>
       </c>
-      <c r="AU118" s="5"/>
-      <c r="AV118" s="5"/>
-      <c r="AW118" s="5"/>
-      <c r="AX118" s="5"/>
     </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -21036,12 +20570,8 @@
       <c r="AT119">
         <v>0</v>
       </c>
-      <c r="AU119" s="5"/>
-      <c r="AV119" s="5"/>
-      <c r="AW119" s="5"/>
-      <c r="AX119" s="5"/>
     </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -21180,12 +20710,8 @@
       <c r="AT120">
         <v>0</v>
       </c>
-      <c r="AU120" s="5"/>
-      <c r="AV120" s="5"/>
-      <c r="AW120" s="5"/>
-      <c r="AX120" s="5"/>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -21324,12 +20850,8 @@
       <c r="AT121">
         <v>0</v>
       </c>
-      <c r="AU121" s="5"/>
-      <c r="AV121" s="5"/>
-      <c r="AW121" s="5"/>
-      <c r="AX121" s="5"/>
     </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -21468,12 +20990,8 @@
       <c r="AT122">
         <v>0</v>
       </c>
-      <c r="AU122" s="5"/>
-      <c r="AV122" s="5"/>
-      <c r="AW122" s="5"/>
-      <c r="AX122" s="5"/>
     </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -21612,12 +21130,8 @@
       <c r="AT123">
         <v>0</v>
       </c>
-      <c r="AU123" s="5"/>
-      <c r="AV123" s="5"/>
-      <c r="AW123" s="5"/>
-      <c r="AX123" s="5"/>
     </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -21756,12 +21270,8 @@
       <c r="AT124">
         <v>0</v>
       </c>
-      <c r="AU124" s="5"/>
-      <c r="AV124" s="5"/>
-      <c r="AW124" s="5"/>
-      <c r="AX124" s="5"/>
     </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -21900,12 +21410,8 @@
       <c r="AT125">
         <v>0</v>
       </c>
-      <c r="AU125" s="5"/>
-      <c r="AV125" s="5"/>
-      <c r="AW125" s="5"/>
-      <c r="AX125" s="5"/>
     </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -22044,12 +21550,8 @@
       <c r="AT126">
         <v>0</v>
       </c>
-      <c r="AU126" s="5"/>
-      <c r="AV126" s="5"/>
-      <c r="AW126" s="5"/>
-      <c r="AX126" s="5"/>
     </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -22188,12 +21690,8 @@
       <c r="AT127">
         <v>0</v>
       </c>
-      <c r="AU127" s="5"/>
-      <c r="AV127" s="5"/>
-      <c r="AW127" s="5"/>
-      <c r="AX127" s="5"/>
     </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -22332,12 +21830,8 @@
       <c r="AT128">
         <v>0</v>
       </c>
-      <c r="AU128" s="5"/>
-      <c r="AV128" s="5"/>
-      <c r="AW128" s="5"/>
-      <c r="AX128" s="5"/>
     </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -22476,12 +21970,8 @@
       <c r="AT129">
         <v>0</v>
       </c>
-      <c r="AU129" s="5"/>
-      <c r="AV129" s="5"/>
-      <c r="AW129" s="5"/>
-      <c r="AX129" s="5"/>
     </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -22620,12 +22110,8 @@
       <c r="AT130">
         <v>0</v>
       </c>
-      <c r="AU130" s="5"/>
-      <c r="AV130" s="5"/>
-      <c r="AW130" s="5"/>
-      <c r="AX130" s="5"/>
     </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -22764,12 +22250,8 @@
       <c r="AT131">
         <v>0</v>
       </c>
-      <c r="AU131" s="5"/>
-      <c r="AV131" s="5"/>
-      <c r="AW131" s="5"/>
-      <c r="AX131" s="5"/>
     </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -22908,12 +22390,8 @@
       <c r="AT132">
         <v>0</v>
       </c>
-      <c r="AU132" s="5"/>
-      <c r="AV132" s="5"/>
-      <c r="AW132" s="5"/>
-      <c r="AX132" s="5"/>
     </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -23052,12 +22530,8 @@
       <c r="AT133">
         <v>0</v>
       </c>
-      <c r="AU133" s="5"/>
-      <c r="AV133" s="5"/>
-      <c r="AW133" s="5"/>
-      <c r="AX133" s="5"/>
     </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -23196,12 +22670,8 @@
       <c r="AT134">
         <v>0</v>
       </c>
-      <c r="AU134" s="5"/>
-      <c r="AV134" s="5"/>
-      <c r="AW134" s="5"/>
-      <c r="AX134" s="5"/>
     </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -23340,12 +22810,8 @@
       <c r="AT135">
         <v>0</v>
       </c>
-      <c r="AU135" s="5"/>
-      <c r="AV135" s="5"/>
-      <c r="AW135" s="5"/>
-      <c r="AX135" s="5"/>
     </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -23484,12 +22950,8 @@
       <c r="AT136">
         <v>0</v>
       </c>
-      <c r="AU136" s="5"/>
-      <c r="AV136" s="5"/>
-      <c r="AW136" s="5"/>
-      <c r="AX136" s="5"/>
     </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -23628,12 +23090,8 @@
       <c r="AT137">
         <v>0</v>
       </c>
-      <c r="AU137" s="5"/>
-      <c r="AV137" s="5"/>
-      <c r="AW137" s="5"/>
-      <c r="AX137" s="5"/>
     </row>
-    <row r="138" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -23772,12 +23230,8 @@
       <c r="AT138">
         <v>0</v>
       </c>
-      <c r="AU138" s="5"/>
-      <c r="AV138" s="5"/>
-      <c r="AW138" s="5"/>
-      <c r="AX138" s="5"/>
     </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -23916,12 +23370,8 @@
       <c r="AT139">
         <v>0</v>
       </c>
-      <c r="AU139" s="5"/>
-      <c r="AV139" s="5"/>
-      <c r="AW139" s="5"/>
-      <c r="AX139" s="5"/>
     </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -24060,12 +23510,8 @@
       <c r="AT140">
         <v>0</v>
       </c>
-      <c r="AU140" s="5"/>
-      <c r="AV140" s="5"/>
-      <c r="AW140" s="5"/>
-      <c r="AX140" s="5"/>
     </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -24204,12 +23650,8 @@
       <c r="AT141">
         <v>0</v>
       </c>
-      <c r="AU141" s="5"/>
-      <c r="AV141" s="5"/>
-      <c r="AW141" s="5"/>
-      <c r="AX141" s="5"/>
     </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -24348,12 +23790,8 @@
       <c r="AT142">
         <v>0</v>
       </c>
-      <c r="AU142" s="5"/>
-      <c r="AV142" s="5"/>
-      <c r="AW142" s="5"/>
-      <c r="AX142" s="5"/>
     </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -24492,12 +23930,8 @@
       <c r="AT143">
         <v>0</v>
       </c>
-      <c r="AU143" s="5"/>
-      <c r="AV143" s="5"/>
-      <c r="AW143" s="5"/>
-      <c r="AX143" s="5"/>
     </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -24636,12 +24070,8 @@
       <c r="AT144">
         <v>0</v>
       </c>
-      <c r="AU144" s="5"/>
-      <c r="AV144" s="5"/>
-      <c r="AW144" s="5"/>
-      <c r="AX144" s="5"/>
     </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -24780,12 +24210,8 @@
       <c r="AT145">
         <v>0</v>
       </c>
-      <c r="AU145" s="5"/>
-      <c r="AV145" s="5"/>
-      <c r="AW145" s="5"/>
-      <c r="AX145" s="5"/>
     </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -24924,12 +24350,8 @@
       <c r="AT146">
         <v>0</v>
       </c>
-      <c r="AU146" s="5"/>
-      <c r="AV146" s="5"/>
-      <c r="AW146" s="5"/>
-      <c r="AX146" s="5"/>
     </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -25068,12 +24490,8 @@
       <c r="AT147">
         <v>0</v>
       </c>
-      <c r="AU147" s="5"/>
-      <c r="AV147" s="5"/>
-      <c r="AW147" s="5"/>
-      <c r="AX147" s="5"/>
     </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -25212,12 +24630,8 @@
       <c r="AT148">
         <v>0</v>
       </c>
-      <c r="AU148" s="5"/>
-      <c r="AV148" s="5"/>
-      <c r="AW148" s="5"/>
-      <c r="AX148" s="5"/>
     </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -25356,12 +24770,8 @@
       <c r="AT149">
         <v>0</v>
       </c>
-      <c r="AU149" s="5"/>
-      <c r="AV149" s="5"/>
-      <c r="AW149" s="5"/>
-      <c r="AX149" s="5"/>
     </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -25500,12 +24910,8 @@
       <c r="AT150">
         <v>0</v>
       </c>
-      <c r="AU150" s="5"/>
-      <c r="AV150" s="5"/>
-      <c r="AW150" s="5"/>
-      <c r="AX150" s="5"/>
     </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -25644,12 +25050,8 @@
       <c r="AT151">
         <v>0</v>
       </c>
-      <c r="AU151" s="5"/>
-      <c r="AV151" s="5"/>
-      <c r="AW151" s="5"/>
-      <c r="AX151" s="5"/>
     </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -25788,12 +25190,8 @@
       <c r="AT152">
         <v>0</v>
       </c>
-      <c r="AU152" s="5"/>
-      <c r="AV152" s="5"/>
-      <c r="AW152" s="5"/>
-      <c r="AX152" s="5"/>
     </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -25932,12 +25330,8 @@
       <c r="AT153">
         <v>0</v>
       </c>
-      <c r="AU153" s="5"/>
-      <c r="AV153" s="5"/>
-      <c r="AW153" s="5"/>
-      <c r="AX153" s="5"/>
     </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -26076,12 +25470,8 @@
       <c r="AT154">
         <v>0</v>
       </c>
-      <c r="AU154" s="5"/>
-      <c r="AV154" s="5"/>
-      <c r="AW154" s="5"/>
-      <c r="AX154" s="5"/>
     </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -26220,12 +25610,8 @@
       <c r="AT155">
         <v>0</v>
       </c>
-      <c r="AU155" s="5"/>
-      <c r="AV155" s="5"/>
-      <c r="AW155" s="5"/>
-      <c r="AX155" s="5"/>
     </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -26364,12 +25750,8 @@
       <c r="AT156">
         <v>0</v>
       </c>
-      <c r="AU156" s="5"/>
-      <c r="AV156" s="5"/>
-      <c r="AW156" s="5"/>
-      <c r="AX156" s="5"/>
     </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -26508,12 +25890,8 @@
       <c r="AT157">
         <v>0</v>
       </c>
-      <c r="AU157" s="5"/>
-      <c r="AV157" s="5"/>
-      <c r="AW157" s="5"/>
-      <c r="AX157" s="5"/>
     </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -26652,12 +26030,8 @@
       <c r="AT158">
         <v>0</v>
       </c>
-      <c r="AU158" s="5"/>
-      <c r="AV158" s="5"/>
-      <c r="AW158" s="5"/>
-      <c r="AX158" s="5"/>
     </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -26796,12 +26170,8 @@
       <c r="AT159">
         <v>0</v>
       </c>
-      <c r="AU159" s="5"/>
-      <c r="AV159" s="5"/>
-      <c r="AW159" s="5"/>
-      <c r="AX159" s="5"/>
     </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -26940,10 +26310,6 @@
       <c r="AT160">
         <v>0</v>
       </c>
-      <c r="AU160" s="5"/>
-      <c r="AV160" s="5"/>
-      <c r="AW160" s="5"/>
-      <c r="AX160" s="5"/>
     </row>
     <row r="161" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
@@ -27075,10 +26441,6 @@
       <c r="AT161">
         <v>0</v>
       </c>
-      <c r="AU161" s="5"/>
-      <c r="AV161" s="5"/>
-      <c r="AW161" s="5"/>
-      <c r="AX161" s="5"/>
     </row>
     <row r="162" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
@@ -27228,7 +26590,7 @@
       <c r="AW162" t="s">
         <v>660</v>
       </c>
-      <c r="AX162" s="5">
+      <c r="AX162">
         <v>0</v>
       </c>
     </row>
@@ -27380,7 +26742,7 @@
       <c r="AW163" t="s">
         <v>660</v>
       </c>
-      <c r="AX163" s="5">
+      <c r="AX163">
         <v>0</v>
       </c>
     </row>
@@ -27520,16 +26882,16 @@
       <c r="AT164">
         <v>40</v>
       </c>
-      <c r="AU164" s="5">
+      <c r="AU164">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AV164" s="5">
+      <c r="AV164">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AW164" s="5">
+      <c r="AW164">
         <v>6.4</v>
       </c>
-      <c r="AX164" s="5">
+      <c r="AX164">
         <v>20</v>
       </c>
     </row>
@@ -27681,7 +27043,7 @@
       <c r="AW165" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="AX165" s="5">
+      <c r="AX165">
         <v>0</v>
       </c>
     </row>
@@ -27833,7 +27195,7 @@
       <c r="AW166" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="AX166" s="5">
+      <c r="AX166">
         <v>0</v>
       </c>
     </row>
@@ -27976,10 +27338,6 @@
       <c r="AT167">
         <v>0</v>
       </c>
-      <c r="AU167" s="5"/>
-      <c r="AV167" s="5"/>
-      <c r="AW167" s="5"/>
-      <c r="AX167" s="5"/>
     </row>
     <row r="168" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
@@ -28120,10 +27478,6 @@
       <c r="AT168">
         <v>0</v>
       </c>
-      <c r="AU168" s="5"/>
-      <c r="AV168" s="5"/>
-      <c r="AW168" s="5"/>
-      <c r="AX168" s="5"/>
     </row>
     <row r="169" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
@@ -28264,10 +27618,6 @@
       <c r="AT169">
         <v>0</v>
       </c>
-      <c r="AU169" s="5"/>
-      <c r="AV169" s="5"/>
-      <c r="AW169" s="5"/>
-      <c r="AX169" s="5"/>
     </row>
     <row r="170" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
@@ -28408,10 +27758,6 @@
       <c r="AT170">
         <v>0</v>
       </c>
-      <c r="AU170" s="5"/>
-      <c r="AV170" s="5"/>
-      <c r="AW170" s="5"/>
-      <c r="AX170" s="5"/>
     </row>
     <row r="171" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
@@ -28552,10 +27898,6 @@
       <c r="AT171">
         <v>0</v>
       </c>
-      <c r="AU171" s="5"/>
-      <c r="AV171" s="5"/>
-      <c r="AW171" s="5"/>
-      <c r="AX171" s="5"/>
     </row>
     <row r="172" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
@@ -28696,10 +28038,6 @@
       <c r="AT172">
         <v>0</v>
       </c>
-      <c r="AU172" s="5"/>
-      <c r="AV172" s="5"/>
-      <c r="AW172" s="5"/>
-      <c r="AX172" s="5"/>
     </row>
     <row r="173" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
@@ -28840,10 +28178,6 @@
       <c r="AT173">
         <v>0</v>
       </c>
-      <c r="AU173" s="5"/>
-      <c r="AV173" s="5"/>
-      <c r="AW173" s="5"/>
-      <c r="AX173" s="5"/>
     </row>
     <row r="174" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
@@ -28984,10 +28318,6 @@
       <c r="AT174">
         <v>0</v>
       </c>
-      <c r="AU174" s="5"/>
-      <c r="AV174" s="5"/>
-      <c r="AW174" s="5"/>
-      <c r="AX174" s="5"/>
     </row>
     <row r="175" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
@@ -29128,10 +28458,6 @@
       <c r="AT175">
         <v>0</v>
       </c>
-      <c r="AU175" s="5"/>
-      <c r="AV175" s="5"/>
-      <c r="AW175" s="5"/>
-      <c r="AX175" s="5"/>
     </row>
     <row r="176" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
@@ -29272,12 +28598,8 @@
       <c r="AT176">
         <v>0</v>
       </c>
-      <c r="AU176" s="5"/>
-      <c r="AV176" s="5"/>
-      <c r="AW176" s="5"/>
-      <c r="AX176" s="5"/>
     </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -29416,12 +28738,8 @@
       <c r="AT177">
         <v>0</v>
       </c>
-      <c r="AU177" s="5"/>
-      <c r="AV177" s="5"/>
-      <c r="AW177" s="5"/>
-      <c r="AX177" s="5"/>
     </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -29560,12 +28878,8 @@
       <c r="AT178">
         <v>0</v>
       </c>
-      <c r="AU178" s="5"/>
-      <c r="AV178" s="5"/>
-      <c r="AW178" s="5"/>
-      <c r="AX178" s="5"/>
     </row>
-    <row r="179" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -29704,12 +29018,8 @@
       <c r="AT179">
         <v>0</v>
       </c>
-      <c r="AU179" s="5"/>
-      <c r="AV179" s="5"/>
-      <c r="AW179" s="5"/>
-      <c r="AX179" s="5"/>
     </row>
-    <row r="180" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -29848,12 +29158,8 @@
       <c r="AT180">
         <v>0</v>
       </c>
-      <c r="AU180" s="5"/>
-      <c r="AV180" s="5"/>
-      <c r="AW180" s="5"/>
-      <c r="AX180" s="5"/>
     </row>
-    <row r="181" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -29992,12 +29298,8 @@
       <c r="AT181">
         <v>0</v>
       </c>
-      <c r="AU181" s="5"/>
-      <c r="AV181" s="5"/>
-      <c r="AW181" s="5"/>
-      <c r="AX181" s="5"/>
     </row>
-    <row r="182" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -30013,12 +29315,8 @@
       <c r="E182" t="s">
         <v>198</v>
       </c>
-      <c r="AU182" s="5"/>
-      <c r="AV182" s="5"/>
-      <c r="AW182" s="5"/>
-      <c r="AX182" s="5"/>
     </row>
-    <row r="183" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -30034,12 +29332,8 @@
       <c r="E183" t="s">
         <v>198</v>
       </c>
-      <c r="AU183" s="5"/>
-      <c r="AV183" s="5"/>
-      <c r="AW183" s="5"/>
-      <c r="AX183" s="5"/>
     </row>
-    <row r="184" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -30058,12 +29352,8 @@
       <c r="F184" t="s">
         <v>718</v>
       </c>
-      <c r="AU184" s="5"/>
-      <c r="AV184" s="5"/>
-      <c r="AW184" s="5"/>
-      <c r="AX184" s="5"/>
     </row>
-    <row r="185" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -30079,12 +29369,8 @@
       <c r="E185" t="s">
         <v>198</v>
       </c>
-      <c r="AU185" s="5"/>
-      <c r="AV185" s="5"/>
-      <c r="AW185" s="5"/>
-      <c r="AX185" s="5"/>
     </row>
-    <row r="186" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -30100,12 +29386,8 @@
       <c r="E186" t="s">
         <v>198</v>
       </c>
-      <c r="AU186" s="5"/>
-      <c r="AV186" s="5"/>
-      <c r="AW186" s="5"/>
-      <c r="AX186" s="5"/>
     </row>
-    <row r="187" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -30121,12 +29403,8 @@
       <c r="E187" t="s">
         <v>198</v>
       </c>
-      <c r="AU187" s="5"/>
-      <c r="AV187" s="5"/>
-      <c r="AW187" s="5"/>
-      <c r="AX187" s="5"/>
     </row>
-    <row r="188" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -30142,12 +29420,8 @@
       <c r="E188" t="s">
         <v>198</v>
       </c>
-      <c r="AU188" s="5"/>
-      <c r="AV188" s="5"/>
-      <c r="AW188" s="5"/>
-      <c r="AX188" s="5"/>
     </row>
-    <row r="189" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -30163,12 +29437,8 @@
       <c r="E189" t="s">
         <v>198</v>
       </c>
-      <c r="AU189" s="5"/>
-      <c r="AV189" s="5"/>
-      <c r="AW189" s="5"/>
-      <c r="AX189" s="5"/>
     </row>
-    <row r="190" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -30184,12 +29454,8 @@
       <c r="E190" t="s">
         <v>198</v>
       </c>
-      <c r="AU190" s="5"/>
-      <c r="AV190" s="5"/>
-      <c r="AW190" s="5"/>
-      <c r="AX190" s="5"/>
     </row>
-    <row r="191" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -30205,12 +29471,8 @@
       <c r="E191" t="s">
         <v>198</v>
       </c>
-      <c r="AU191" s="5"/>
-      <c r="AV191" s="5"/>
-      <c r="AW191" s="5"/>
-      <c r="AX191" s="5"/>
     </row>
-    <row r="192" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -30226,12 +29488,8 @@
       <c r="E192" t="s">
         <v>198</v>
       </c>
-      <c r="AU192" s="5"/>
-      <c r="AV192" s="5"/>
-      <c r="AW192" s="5"/>
-      <c r="AX192" s="5"/>
     </row>
-    <row r="193" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -30247,12 +29505,8 @@
       <c r="E193" t="s">
         <v>198</v>
       </c>
-      <c r="AU193" s="5"/>
-      <c r="AV193" s="5"/>
-      <c r="AW193" s="5"/>
-      <c r="AX193" s="5"/>
     </row>
-    <row r="194" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -30268,12 +29522,8 @@
       <c r="E194" t="s">
         <v>198</v>
       </c>
-      <c r="AU194" s="5"/>
-      <c r="AV194" s="5"/>
-      <c r="AW194" s="5"/>
-      <c r="AX194" s="5"/>
     </row>
-    <row r="195" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -30289,12 +29539,8 @@
       <c r="E195" t="s">
         <v>198</v>
       </c>
-      <c r="AU195" s="5"/>
-      <c r="AV195" s="5"/>
-      <c r="AW195" s="5"/>
-      <c r="AX195" s="5"/>
     </row>
-    <row r="196" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -30310,12 +29556,8 @@
       <c r="E196" t="s">
         <v>198</v>
       </c>
-      <c r="AU196" s="5"/>
-      <c r="AV196" s="5"/>
-      <c r="AW196" s="5"/>
-      <c r="AX196" s="5"/>
     </row>
-    <row r="197" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -30331,12 +29573,8 @@
       <c r="E197" t="s">
         <v>198</v>
       </c>
-      <c r="AU197" s="5"/>
-      <c r="AV197" s="5"/>
-      <c r="AW197" s="5"/>
-      <c r="AX197" s="5"/>
     </row>
-    <row r="198" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -30352,12 +29590,8 @@
       <c r="E198" t="s">
         <v>198</v>
       </c>
-      <c r="AU198" s="5"/>
-      <c r="AV198" s="5"/>
-      <c r="AW198" s="5"/>
-      <c r="AX198" s="5"/>
     </row>
-    <row r="199" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -30373,12 +29607,8 @@
       <c r="E199" t="s">
         <v>198</v>
       </c>
-      <c r="AU199" s="5"/>
-      <c r="AV199" s="5"/>
-      <c r="AW199" s="5"/>
-      <c r="AX199" s="5"/>
     </row>
-    <row r="200" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -30394,12 +29624,8 @@
       <c r="E200" t="s">
         <v>198</v>
       </c>
-      <c r="AU200" s="5"/>
-      <c r="AV200" s="5"/>
-      <c r="AW200" s="5"/>
-      <c r="AX200" s="5"/>
     </row>
-    <row r="201" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -30415,12 +29641,8 @@
       <c r="E201" t="s">
         <v>198</v>
       </c>
-      <c r="AU201" s="5"/>
-      <c r="AV201" s="5"/>
-      <c r="AW201" s="5"/>
-      <c r="AX201" s="5"/>
     </row>
-    <row r="202" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -30436,12 +29658,8 @@
       <c r="E202" t="s">
         <v>198</v>
       </c>
-      <c r="AU202" s="5"/>
-      <c r="AV202" s="5"/>
-      <c r="AW202" s="5"/>
-      <c r="AX202" s="5"/>
     </row>
-    <row r="203" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -30457,12 +29675,8 @@
       <c r="E203" t="s">
         <v>198</v>
       </c>
-      <c r="AU203" s="5"/>
-      <c r="AV203" s="5"/>
-      <c r="AW203" s="5"/>
-      <c r="AX203" s="5"/>
     </row>
-    <row r="204" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -30478,12 +29692,8 @@
       <c r="E204" t="s">
         <v>198</v>
       </c>
-      <c r="AU204" s="5"/>
-      <c r="AV204" s="5"/>
-      <c r="AW204" s="5"/>
-      <c r="AX204" s="5"/>
     </row>
-    <row r="205" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -30499,12 +29709,8 @@
       <c r="E205" t="s">
         <v>198</v>
       </c>
-      <c r="AU205" s="5"/>
-      <c r="AV205" s="5"/>
-      <c r="AW205" s="5"/>
-      <c r="AX205" s="5"/>
     </row>
-    <row r="206" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -30520,12 +29726,8 @@
       <c r="E206" t="s">
         <v>198</v>
       </c>
-      <c r="AU206" s="5"/>
-      <c r="AV206" s="5"/>
-      <c r="AW206" s="5"/>
-      <c r="AX206" s="5"/>
     </row>
-    <row r="207" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -30541,12 +29743,8 @@
       <c r="E207" t="s">
         <v>198</v>
       </c>
-      <c r="AU207" s="5"/>
-      <c r="AV207" s="5"/>
-      <c r="AW207" s="5"/>
-      <c r="AX207" s="5"/>
     </row>
-    <row r="208" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -30562,12 +29760,8 @@
       <c r="E208" t="s">
         <v>198</v>
       </c>
-      <c r="AU208" s="5"/>
-      <c r="AV208" s="5"/>
-      <c r="AW208" s="5"/>
-      <c r="AX208" s="5"/>
     </row>
-    <row r="209" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -30583,12 +29777,8 @@
       <c r="E209" t="s">
         <v>198</v>
       </c>
-      <c r="AU209" s="5"/>
-      <c r="AV209" s="5"/>
-      <c r="AW209" s="5"/>
-      <c r="AX209" s="5"/>
     </row>
-    <row r="210" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -30604,12 +29794,8 @@
       <c r="E210" t="s">
         <v>198</v>
       </c>
-      <c r="AU210" s="5"/>
-      <c r="AV210" s="5"/>
-      <c r="AW210" s="5"/>
-      <c r="AX210" s="5"/>
     </row>
-    <row r="211" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -30625,12 +29811,8 @@
       <c r="E211" t="s">
         <v>198</v>
       </c>
-      <c r="AU211" s="5"/>
-      <c r="AV211" s="5"/>
-      <c r="AW211" s="5"/>
-      <c r="AX211" s="5"/>
     </row>
-    <row r="212" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -30646,12 +29828,8 @@
       <c r="E212" t="s">
         <v>198</v>
       </c>
-      <c r="AU212" s="5"/>
-      <c r="AV212" s="5"/>
-      <c r="AW212" s="5"/>
-      <c r="AX212" s="5"/>
     </row>
-    <row r="213" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -30667,12 +29845,8 @@
       <c r="E213" t="s">
         <v>198</v>
       </c>
-      <c r="AU213" s="5"/>
-      <c r="AV213" s="5"/>
-      <c r="AW213" s="5"/>
-      <c r="AX213" s="5"/>
     </row>
-    <row r="214" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -30688,12 +29862,8 @@
       <c r="E214" t="s">
         <v>198</v>
       </c>
-      <c r="AU214" s="5"/>
-      <c r="AV214" s="5"/>
-      <c r="AW214" s="5"/>
-      <c r="AX214" s="5"/>
     </row>
-    <row r="215" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -30709,12 +29879,8 @@
       <c r="E215" t="s">
         <v>198</v>
       </c>
-      <c r="AU215" s="5"/>
-      <c r="AV215" s="5"/>
-      <c r="AW215" s="5"/>
-      <c r="AX215" s="5"/>
     </row>
-    <row r="216" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -30730,12 +29896,8 @@
       <c r="E216" t="s">
         <v>198</v>
       </c>
-      <c r="AU216" s="5"/>
-      <c r="AV216" s="5"/>
-      <c r="AW216" s="5"/>
-      <c r="AX216" s="5"/>
     </row>
-    <row r="217" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -30751,12 +29913,8 @@
       <c r="E217" t="s">
         <v>198</v>
       </c>
-      <c r="AU217" s="5"/>
-      <c r="AV217" s="5"/>
-      <c r="AW217" s="5"/>
-      <c r="AX217" s="5"/>
     </row>
-    <row r="218" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -30772,12 +29930,8 @@
       <c r="E218" t="s">
         <v>198</v>
       </c>
-      <c r="AU218" s="5"/>
-      <c r="AV218" s="5"/>
-      <c r="AW218" s="5"/>
-      <c r="AX218" s="5"/>
     </row>
-    <row r="219" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -30793,12 +29947,8 @@
       <c r="E219" t="s">
         <v>198</v>
       </c>
-      <c r="AU219" s="5"/>
-      <c r="AV219" s="5"/>
-      <c r="AW219" s="5"/>
-      <c r="AX219" s="5"/>
     </row>
-    <row r="220" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -30814,12 +29964,8 @@
       <c r="E220" t="s">
         <v>198</v>
       </c>
-      <c r="AU220" s="5"/>
-      <c r="AV220" s="5"/>
-      <c r="AW220" s="5"/>
-      <c r="AX220" s="5"/>
     </row>
-    <row r="221" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -30835,12 +29981,8 @@
       <c r="E221" t="s">
         <v>198</v>
       </c>
-      <c r="AU221" s="5"/>
-      <c r="AV221" s="5"/>
-      <c r="AW221" s="5"/>
-      <c r="AX221" s="5"/>
     </row>
-    <row r="222" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -30856,12 +29998,8 @@
       <c r="E222" t="s">
         <v>198</v>
       </c>
-      <c r="AU222" s="5"/>
-      <c r="AV222" s="5"/>
-      <c r="AW222" s="5"/>
-      <c r="AX222" s="5"/>
     </row>
-    <row r="223" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -30877,12 +30015,8 @@
       <c r="E223" t="s">
         <v>198</v>
       </c>
-      <c r="AU223" s="5"/>
-      <c r="AV223" s="5"/>
-      <c r="AW223" s="5"/>
-      <c r="AX223" s="5"/>
     </row>
-    <row r="224" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -30898,12 +30032,8 @@
       <c r="E224" t="s">
         <v>198</v>
       </c>
-      <c r="AU224" s="5"/>
-      <c r="AV224" s="5"/>
-      <c r="AW224" s="5"/>
-      <c r="AX224" s="5"/>
     </row>
-    <row r="225" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -30919,12 +30049,8 @@
       <c r="E225" t="s">
         <v>198</v>
       </c>
-      <c r="AU225" s="5"/>
-      <c r="AV225" s="5"/>
-      <c r="AW225" s="5"/>
-      <c r="AX225" s="5"/>
     </row>
-    <row r="226" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -30940,12 +30066,8 @@
       <c r="E226" t="s">
         <v>198</v>
       </c>
-      <c r="AU226" s="5"/>
-      <c r="AV226" s="5"/>
-      <c r="AW226" s="5"/>
-      <c r="AX226" s="5"/>
     </row>
-    <row r="227" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -30961,12 +30083,8 @@
       <c r="E227" t="s">
         <v>198</v>
       </c>
-      <c r="AU227" s="5"/>
-      <c r="AV227" s="5"/>
-      <c r="AW227" s="5"/>
-      <c r="AX227" s="5"/>
     </row>
-    <row r="228" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -30982,12 +30100,8 @@
       <c r="E228" t="s">
         <v>198</v>
       </c>
-      <c r="AU228" s="5"/>
-      <c r="AV228" s="5"/>
-      <c r="AW228" s="5"/>
-      <c r="AX228" s="5"/>
     </row>
-    <row r="229" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -31003,12 +30117,8 @@
       <c r="E229" t="s">
         <v>198</v>
       </c>
-      <c r="AU229" s="5"/>
-      <c r="AV229" s="5"/>
-      <c r="AW229" s="5"/>
-      <c r="AX229" s="5"/>
     </row>
-    <row r="230" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -31024,12 +30134,8 @@
       <c r="E230" t="s">
         <v>198</v>
       </c>
-      <c r="AU230" s="5"/>
-      <c r="AV230" s="5"/>
-      <c r="AW230" s="5"/>
-      <c r="AX230" s="5"/>
     </row>
-    <row r="231" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -31045,12 +30151,8 @@
       <c r="E231" t="s">
         <v>198</v>
       </c>
-      <c r="AU231" s="5"/>
-      <c r="AV231" s="5"/>
-      <c r="AW231" s="5"/>
-      <c r="AX231" s="5"/>
     </row>
-    <row r="232" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -31066,12 +30168,8 @@
       <c r="E232" t="s">
         <v>198</v>
       </c>
-      <c r="AU232" s="5"/>
-      <c r="AV232" s="5"/>
-      <c r="AW232" s="5"/>
-      <c r="AX232" s="5"/>
     </row>
-    <row r="233" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -31087,12 +30185,8 @@
       <c r="E233" t="s">
         <v>198</v>
       </c>
-      <c r="AU233" s="5"/>
-      <c r="AV233" s="5"/>
-      <c r="AW233" s="5"/>
-      <c r="AX233" s="5"/>
     </row>
-    <row r="234" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -31108,12 +30202,8 @@
       <c r="E234" t="s">
         <v>198</v>
       </c>
-      <c r="AU234" s="5"/>
-      <c r="AV234" s="5"/>
-      <c r="AW234" s="5"/>
-      <c r="AX234" s="5"/>
     </row>
-    <row r="235" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -31129,12 +30219,8 @@
       <c r="E235" t="s">
         <v>198</v>
       </c>
-      <c r="AU235" s="5"/>
-      <c r="AV235" s="5"/>
-      <c r="AW235" s="5"/>
-      <c r="AX235" s="5"/>
     </row>
-    <row r="236" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -31150,12 +30236,8 @@
       <c r="E236" t="s">
         <v>198</v>
       </c>
-      <c r="AU236" s="5"/>
-      <c r="AV236" s="5"/>
-      <c r="AW236" s="5"/>
-      <c r="AX236" s="5"/>
     </row>
-    <row r="237" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -31171,12 +30253,8 @@
       <c r="E237" t="s">
         <v>198</v>
       </c>
-      <c r="AU237" s="5"/>
-      <c r="AV237" s="5"/>
-      <c r="AW237" s="5"/>
-      <c r="AX237" s="5"/>
     </row>
-    <row r="238" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -31192,12 +30270,8 @@
       <c r="E238" t="s">
         <v>198</v>
       </c>
-      <c r="AU238" s="5"/>
-      <c r="AV238" s="5"/>
-      <c r="AW238" s="5"/>
-      <c r="AX238" s="5"/>
     </row>
-    <row r="239" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -31213,12 +30287,8 @@
       <c r="E239" t="s">
         <v>198</v>
       </c>
-      <c r="AU239" s="5"/>
-      <c r="AV239" s="5"/>
-      <c r="AW239" s="5"/>
-      <c r="AX239" s="5"/>
     </row>
-    <row r="240" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -31234,12 +30304,8 @@
       <c r="E240" t="s">
         <v>198</v>
       </c>
-      <c r="AU240" s="5"/>
-      <c r="AV240" s="5"/>
-      <c r="AW240" s="5"/>
-      <c r="AX240" s="5"/>
     </row>
-    <row r="241" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -31255,12 +30321,8 @@
       <c r="E241" t="s">
         <v>198</v>
       </c>
-      <c r="AU241" s="5"/>
-      <c r="AV241" s="5"/>
-      <c r="AW241" s="5"/>
-      <c r="AX241" s="5"/>
     </row>
-    <row r="242" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -31276,12 +30338,8 @@
       <c r="E242" t="s">
         <v>198</v>
       </c>
-      <c r="AU242" s="5"/>
-      <c r="AV242" s="5"/>
-      <c r="AW242" s="5"/>
-      <c r="AX242" s="5"/>
     </row>
-    <row r="243" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -31297,12 +30355,8 @@
       <c r="E243" t="s">
         <v>198</v>
       </c>
-      <c r="AU243" s="5"/>
-      <c r="AV243" s="5"/>
-      <c r="AW243" s="5"/>
-      <c r="AX243" s="5"/>
     </row>
-    <row r="244" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -31318,12 +30372,8 @@
       <c r="E244" t="s">
         <v>198</v>
       </c>
-      <c r="AU244" s="5"/>
-      <c r="AV244" s="5"/>
-      <c r="AW244" s="5"/>
-      <c r="AX244" s="5"/>
     </row>
-    <row r="245" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -31339,12 +30389,8 @@
       <c r="E245" t="s">
         <v>198</v>
       </c>
-      <c r="AU245" s="5"/>
-      <c r="AV245" s="5"/>
-      <c r="AW245" s="5"/>
-      <c r="AX245" s="5"/>
     </row>
-    <row r="246" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -31360,12 +30406,8 @@
       <c r="E246" t="s">
         <v>198</v>
       </c>
-      <c r="AU246" s="5"/>
-      <c r="AV246" s="5"/>
-      <c r="AW246" s="5"/>
-      <c r="AX246" s="5"/>
     </row>
-    <row r="247" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -31381,12 +30423,8 @@
       <c r="E247" t="s">
         <v>198</v>
       </c>
-      <c r="AU247" s="5"/>
-      <c r="AV247" s="5"/>
-      <c r="AW247" s="5"/>
-      <c r="AX247" s="5"/>
     </row>
-    <row r="248" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -31402,12 +30440,8 @@
       <c r="E248" t="s">
         <v>198</v>
       </c>
-      <c r="AU248" s="5"/>
-      <c r="AV248" s="5"/>
-      <c r="AW248" s="5"/>
-      <c r="AX248" s="5"/>
     </row>
-    <row r="249" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -31423,12 +30457,8 @@
       <c r="E249" t="s">
         <v>198</v>
       </c>
-      <c r="AU249" s="5"/>
-      <c r="AV249" s="5"/>
-      <c r="AW249" s="5"/>
-      <c r="AX249" s="5"/>
     </row>
-    <row r="250" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -31444,12 +30474,8 @@
       <c r="E250" t="s">
         <v>198</v>
       </c>
-      <c r="AU250" s="5"/>
-      <c r="AV250" s="5"/>
-      <c r="AW250" s="5"/>
-      <c r="AX250" s="5"/>
     </row>
-    <row r="251" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -31465,12 +30491,8 @@
       <c r="E251" t="s">
         <v>198</v>
       </c>
-      <c r="AU251" s="5"/>
-      <c r="AV251" s="5"/>
-      <c r="AW251" s="5"/>
-      <c r="AX251" s="5"/>
     </row>
-    <row r="252" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -31486,12 +30508,8 @@
       <c r="E252" t="s">
         <v>198</v>
       </c>
-      <c r="AU252" s="5"/>
-      <c r="AV252" s="5"/>
-      <c r="AW252" s="5"/>
-      <c r="AX252" s="5"/>
     </row>
-    <row r="253" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -31507,12 +30525,8 @@
       <c r="E253" t="s">
         <v>198</v>
       </c>
-      <c r="AU253" s="5"/>
-      <c r="AV253" s="5"/>
-      <c r="AW253" s="5"/>
-      <c r="AX253" s="5"/>
     </row>
-    <row r="254" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -31528,12 +30542,8 @@
       <c r="E254" t="s">
         <v>198</v>
       </c>
-      <c r="AU254" s="5"/>
-      <c r="AV254" s="5"/>
-      <c r="AW254" s="5"/>
-      <c r="AX254" s="5"/>
     </row>
-    <row r="255" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -31549,12 +30559,8 @@
       <c r="E255" t="s">
         <v>198</v>
       </c>
-      <c r="AU255" s="5"/>
-      <c r="AV255" s="5"/>
-      <c r="AW255" s="5"/>
-      <c r="AX255" s="5"/>
     </row>
-    <row r="256" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -31570,12 +30576,8 @@
       <c r="E256" t="s">
         <v>198</v>
       </c>
-      <c r="AU256" s="5"/>
-      <c r="AV256" s="5"/>
-      <c r="AW256" s="5"/>
-      <c r="AX256" s="5"/>
     </row>
-    <row r="257" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -31591,12 +30593,8 @@
       <c r="E257" t="s">
         <v>198</v>
       </c>
-      <c r="AU257" s="5"/>
-      <c r="AV257" s="5"/>
-      <c r="AW257" s="5"/>
-      <c r="AX257" s="5"/>
     </row>
-    <row r="258" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -31612,12 +30610,8 @@
       <c r="E258" t="s">
         <v>198</v>
       </c>
-      <c r="AU258" s="5"/>
-      <c r="AV258" s="5"/>
-      <c r="AW258" s="5"/>
-      <c r="AX258" s="5"/>
     </row>
-    <row r="259" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -31633,12 +30627,8 @@
       <c r="E259" t="s">
         <v>198</v>
       </c>
-      <c r="AU259" s="5"/>
-      <c r="AV259" s="5"/>
-      <c r="AW259" s="5"/>
-      <c r="AX259" s="5"/>
     </row>
-    <row r="260" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -31654,12 +30644,8 @@
       <c r="E260" t="s">
         <v>198</v>
       </c>
-      <c r="AU260" s="5"/>
-      <c r="AV260" s="5"/>
-      <c r="AW260" s="5"/>
-      <c r="AX260" s="5"/>
     </row>
-    <row r="261" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -31675,12 +30661,8 @@
       <c r="E261" t="s">
         <v>198</v>
       </c>
-      <c r="AU261" s="5"/>
-      <c r="AV261" s="5"/>
-      <c r="AW261" s="5"/>
-      <c r="AX261" s="5"/>
     </row>
-    <row r="262" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -31696,12 +30678,8 @@
       <c r="E262" t="s">
         <v>198</v>
       </c>
-      <c r="AU262" s="5"/>
-      <c r="AV262" s="5"/>
-      <c r="AW262" s="5"/>
-      <c r="AX262" s="5"/>
     </row>
-    <row r="263" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -31717,12 +30695,8 @@
       <c r="E263" t="s">
         <v>198</v>
       </c>
-      <c r="AU263" s="5"/>
-      <c r="AV263" s="5"/>
-      <c r="AW263" s="5"/>
-      <c r="AX263" s="5"/>
     </row>
-    <row r="264" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -31738,12 +30712,8 @@
       <c r="E264" t="s">
         <v>198</v>
       </c>
-      <c r="AU264" s="5"/>
-      <c r="AV264" s="5"/>
-      <c r="AW264" s="5"/>
-      <c r="AX264" s="5"/>
     </row>
-    <row r="265" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -31759,12 +30729,8 @@
       <c r="E265" t="s">
         <v>198</v>
       </c>
-      <c r="AU265" s="5"/>
-      <c r="AV265" s="5"/>
-      <c r="AW265" s="5"/>
-      <c r="AX265" s="5"/>
     </row>
-    <row r="266" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -31780,12 +30746,8 @@
       <c r="E266" t="s">
         <v>198</v>
       </c>
-      <c r="AU266" s="5"/>
-      <c r="AV266" s="5"/>
-      <c r="AW266" s="5"/>
-      <c r="AX266" s="5"/>
     </row>
-    <row r="267" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -31801,12 +30763,8 @@
       <c r="E267" t="s">
         <v>198</v>
       </c>
-      <c r="AU267" s="5"/>
-      <c r="AV267" s="5"/>
-      <c r="AW267" s="5"/>
-      <c r="AX267" s="5"/>
     </row>
-    <row r="268" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -31822,12 +30780,8 @@
       <c r="E268" t="s">
         <v>198</v>
       </c>
-      <c r="AU268" s="5"/>
-      <c r="AV268" s="5"/>
-      <c r="AW268" s="5"/>
-      <c r="AX268" s="5"/>
     </row>
-    <row r="269" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -31843,12 +30797,8 @@
       <c r="E269" t="s">
         <v>198</v>
       </c>
-      <c r="AU269" s="5"/>
-      <c r="AV269" s="5"/>
-      <c r="AW269" s="5"/>
-      <c r="AX269" s="5"/>
     </row>
-    <row r="270" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>286</v>
       </c>
@@ -31864,12 +30814,8 @@
       <c r="E270" t="s">
         <v>198</v>
       </c>
-      <c r="AU270" s="5"/>
-      <c r="AV270" s="5"/>
-      <c r="AW270" s="5"/>
-      <c r="AX270" s="5"/>
     </row>
-    <row r="271" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -31885,12 +30831,8 @@
       <c r="E271" t="s">
         <v>198</v>
       </c>
-      <c r="AU271" s="5"/>
-      <c r="AV271" s="5"/>
-      <c r="AW271" s="5"/>
-      <c r="AX271" s="5"/>
     </row>
-    <row r="272" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>288</v>
       </c>
@@ -32029,10 +30971,6 @@
       <c r="AT272">
         <v>5</v>
       </c>
-      <c r="AU272" s="5"/>
-      <c r="AV272" s="5"/>
-      <c r="AW272" s="5"/>
-      <c r="AX272" s="5"/>
     </row>
     <row r="273" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
@@ -32173,16 +31111,16 @@
       <c r="AT273">
         <v>5</v>
       </c>
-      <c r="AU273" s="5">
+      <c r="AU273">
         <v>13.7</v>
       </c>
-      <c r="AV273" s="5">
+      <c r="AV273">
         <v>5.8</v>
       </c>
-      <c r="AW273" s="5">
+      <c r="AW273">
         <v>4.5</v>
       </c>
-      <c r="AX273" s="5">
+      <c r="AX273">
         <v>0</v>
       </c>
     </row>
@@ -32325,16 +31263,16 @@
       <c r="AT274">
         <v>10</v>
       </c>
-      <c r="AU274" s="5">
+      <c r="AU274">
         <v>1</v>
       </c>
-      <c r="AV274" s="5">
+      <c r="AV274">
         <v>4.2</v>
       </c>
-      <c r="AW274" s="5">
+      <c r="AW274">
         <v>1.6</v>
       </c>
-      <c r="AX274" s="5">
+      <c r="AX274">
         <v>0</v>
       </c>
     </row>
@@ -32477,16 +31415,16 @@
       <c r="AT275">
         <v>10</v>
       </c>
-      <c r="AU275" s="5">
+      <c r="AU275">
         <v>7.8</v>
       </c>
-      <c r="AV275" s="5">
+      <c r="AV275">
         <v>17.3</v>
       </c>
-      <c r="AW275" s="5">
+      <c r="AW275">
         <v>1.9</v>
       </c>
-      <c r="AX275" s="5">
+      <c r="AX275">
         <v>5</v>
       </c>
     </row>
@@ -32629,16 +31567,16 @@
       <c r="AT276">
         <v>20</v>
       </c>
-      <c r="AU276" s="5">
+      <c r="AU276">
         <v>1</v>
       </c>
-      <c r="AV276" s="5">
+      <c r="AV276">
         <v>2.5</v>
       </c>
-      <c r="AW276" s="5">
+      <c r="AW276">
         <v>2.7</v>
       </c>
-      <c r="AX276" s="5">
+      <c r="AX276">
         <v>0</v>
       </c>
     </row>
@@ -32658,6 +31596,9 @@
       <c r="E277" t="s">
         <v>290</v>
       </c>
+      <c r="F277" t="s">
+        <v>778</v>
+      </c>
       <c r="G277">
         <v>7.7</v>
       </c>
@@ -32778,10 +31719,18 @@
       <c r="AT277">
         <v>5</v>
       </c>
-      <c r="AU277" s="5"/>
-      <c r="AV277" s="5"/>
-      <c r="AW277" s="5"/>
-      <c r="AX277" s="5"/>
+      <c r="AU277" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV277" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW277" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
@@ -32919,10 +31868,18 @@
       <c r="AT278">
         <v>20</v>
       </c>
-      <c r="AU278" s="5"/>
-      <c r="AV278" s="5"/>
-      <c r="AW278" s="5"/>
-      <c r="AX278" s="5"/>
+      <c r="AU278">
+        <v>6.9</v>
+      </c>
+      <c r="AV278">
+        <v>5.6</v>
+      </c>
+      <c r="AW278">
+        <v>14.6</v>
+      </c>
+      <c r="AX278">
+        <v>5</v>
+      </c>
     </row>
     <row r="279" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
@@ -33060,10 +32017,18 @@
       <c r="AT279">
         <v>20</v>
       </c>
-      <c r="AU279" s="5"/>
-      <c r="AV279" s="5"/>
-      <c r="AW279" s="5"/>
-      <c r="AX279" s="5"/>
+      <c r="AU279">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AV279">
+        <v>0.5</v>
+      </c>
+      <c r="AW279">
+        <v>0</v>
+      </c>
+      <c r="AX279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
@@ -33201,10 +32166,18 @@
       <c r="AT280">
         <v>30</v>
       </c>
-      <c r="AU280" s="5"/>
-      <c r="AV280" s="5"/>
-      <c r="AW280" s="5"/>
-      <c r="AX280" s="5"/>
+      <c r="AU280">
+        <v>17.7</v>
+      </c>
+      <c r="AV280">
+        <v>17.7</v>
+      </c>
+      <c r="AW280">
+        <v>9.1</v>
+      </c>
+      <c r="AX280">
+        <v>10</v>
+      </c>
     </row>
     <row r="281" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
@@ -33342,10 +32315,18 @@
       <c r="AT281">
         <v>10</v>
       </c>
-      <c r="AU281" s="5"/>
-      <c r="AV281" s="5"/>
-      <c r="AW281" s="5"/>
-      <c r="AX281" s="5"/>
+      <c r="AU281">
+        <v>11.3</v>
+      </c>
+      <c r="AV281">
+        <v>9</v>
+      </c>
+      <c r="AW281">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AX281">
+        <v>5</v>
+      </c>
     </row>
     <row r="282" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
@@ -33486,10 +32467,18 @@
       <c r="AT282">
         <v>20</v>
       </c>
-      <c r="AU282" s="5"/>
-      <c r="AV282" s="5"/>
-      <c r="AW282" s="5"/>
-      <c r="AX282" s="5"/>
+      <c r="AU282">
+        <v>6.1</v>
+      </c>
+      <c r="AV282">
+        <v>23.1</v>
+      </c>
+      <c r="AW282">
+        <v>24.7</v>
+      </c>
+      <c r="AX282">
+        <v>10</v>
+      </c>
     </row>
     <row r="283" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
@@ -33630,10 +32619,18 @@
       <c r="AT283" t="s">
         <v>660</v>
       </c>
-      <c r="AU283" s="5"/>
-      <c r="AV283" s="5"/>
-      <c r="AW283" s="5"/>
-      <c r="AX283" s="5"/>
+      <c r="AU283" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV283" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW283" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX283" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="284" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
@@ -33771,10 +32768,18 @@
       <c r="AT284">
         <v>20</v>
       </c>
-      <c r="AU284" s="5"/>
-      <c r="AV284" s="5"/>
-      <c r="AW284" s="5"/>
-      <c r="AX284" s="5"/>
+      <c r="AU284">
+        <v>5.7</v>
+      </c>
+      <c r="AV284">
+        <v>7.8</v>
+      </c>
+      <c r="AW284">
+        <v>0.5</v>
+      </c>
+      <c r="AX284">
+        <v>10</v>
+      </c>
     </row>
     <row r="285" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
@@ -33912,10 +32917,18 @@
       <c r="AT285">
         <v>10</v>
       </c>
-      <c r="AU285" s="5"/>
-      <c r="AV285" s="5"/>
-      <c r="AW285" s="5"/>
-      <c r="AX285" s="5"/>
+      <c r="AU285">
+        <v>7.7</v>
+      </c>
+      <c r="AV285">
+        <v>3.2</v>
+      </c>
+      <c r="AW285">
+        <v>7.2</v>
+      </c>
+      <c r="AX285">
+        <v>5</v>
+      </c>
     </row>
     <row r="286" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
@@ -33933,6 +32946,9 @@
       <c r="E286" t="s">
         <v>290</v>
       </c>
+      <c r="F286" t="s">
+        <v>778</v>
+      </c>
       <c r="G286">
         <v>10.7</v>
       </c>
@@ -34053,10 +33069,18 @@
       <c r="AT286">
         <v>5</v>
       </c>
-      <c r="AU286" s="5"/>
-      <c r="AV286" s="5"/>
-      <c r="AW286" s="5"/>
-      <c r="AX286" s="5"/>
+      <c r="AU286" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV286" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW286" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
@@ -34194,16 +33218,16 @@
       <c r="AT287">
         <v>20</v>
       </c>
-      <c r="AU287" s="5">
+      <c r="AU287">
         <v>6.5</v>
       </c>
-      <c r="AV287" s="5">
+      <c r="AV287">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AW287" s="5">
+      <c r="AW287">
         <v>3.1</v>
       </c>
-      <c r="AX287" s="5">
+      <c r="AX287">
         <v>5</v>
       </c>
     </row>
@@ -34343,16 +33367,16 @@
       <c r="AT288">
         <v>10</v>
       </c>
-      <c r="AU288" s="5">
+      <c r="AU288">
         <v>0.3</v>
       </c>
-      <c r="AV288" s="5">
+      <c r="AV288">
         <v>15.5</v>
       </c>
-      <c r="AW288" s="5">
+      <c r="AW288">
         <v>4.8</v>
       </c>
-      <c r="AX288" s="5">
+      <c r="AX288">
         <v>5</v>
       </c>
     </row>
@@ -34492,16 +33516,16 @@
       <c r="AT289">
         <v>10</v>
       </c>
-      <c r="AU289" s="5">
+      <c r="AU289">
         <v>3.2</v>
       </c>
-      <c r="AV289" s="5">
+      <c r="AV289">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AW289" s="5">
+      <c r="AW289">
         <v>0.3</v>
       </c>
-      <c r="AX289" s="5">
+      <c r="AX289">
         <v>5</v>
       </c>
     </row>
@@ -34644,16 +33668,16 @@
       <c r="AT290">
         <v>5</v>
       </c>
-      <c r="AU290" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AV290" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AW290" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AX290" s="5">
+      <c r="AU290" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV290" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW290" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX290">
         <v>0</v>
       </c>
     </row>
@@ -34796,16 +33820,16 @@
       <c r="AT291">
         <v>5</v>
       </c>
-      <c r="AU291" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AV291" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AW291" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AX291" s="5">
+      <c r="AU291" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV291" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW291" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX291">
         <v>0</v>
       </c>
     </row>
@@ -34825,6 +33849,9 @@
       <c r="E292" t="s">
         <v>290</v>
       </c>
+      <c r="F292" t="s">
+        <v>778</v>
+      </c>
       <c r="G292">
         <v>11.5</v>
       </c>
@@ -34945,10 +33972,18 @@
       <c r="AT292">
         <v>5</v>
       </c>
-      <c r="AU292" s="5"/>
-      <c r="AV292" s="5"/>
-      <c r="AW292" s="5"/>
-      <c r="AX292" s="5"/>
+      <c r="AU292" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV292" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW292" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX292">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
@@ -34966,6 +34001,9 @@
       <c r="E293" t="s">
         <v>290</v>
       </c>
+      <c r="F293" t="s">
+        <v>776</v>
+      </c>
       <c r="G293">
         <v>10.7</v>
       </c>
@@ -35086,10 +34124,18 @@
       <c r="AT293">
         <v>20</v>
       </c>
-      <c r="AU293" s="5"/>
-      <c r="AV293" s="5"/>
-      <c r="AW293" s="5"/>
-      <c r="AX293" s="5"/>
+      <c r="AU293">
+        <v>7.8</v>
+      </c>
+      <c r="AV293">
+        <v>5.2</v>
+      </c>
+      <c r="AW293">
+        <v>0.6</v>
+      </c>
+      <c r="AX293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
@@ -35227,10 +34273,18 @@
       <c r="AT294">
         <v>10</v>
       </c>
-      <c r="AU294" s="5"/>
-      <c r="AV294" s="5"/>
-      <c r="AW294" s="5"/>
-      <c r="AX294" s="5"/>
+      <c r="AU294">
+        <v>7.7</v>
+      </c>
+      <c r="AV294">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW294">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AX294">
+        <v>5</v>
+      </c>
     </row>
     <row r="295" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
@@ -35368,10 +34422,18 @@
       <c r="AT295">
         <v>30</v>
       </c>
-      <c r="AU295" s="5"/>
-      <c r="AV295" s="5"/>
-      <c r="AW295" s="5"/>
-      <c r="AX295" s="5"/>
+      <c r="AU295">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AV295">
+        <v>2.7</v>
+      </c>
+      <c r="AW295">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AX295">
+        <v>20</v>
+      </c>
     </row>
     <row r="296" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
@@ -35509,10 +34571,18 @@
       <c r="AT296">
         <v>30</v>
       </c>
-      <c r="AU296" s="5"/>
-      <c r="AV296" s="5"/>
-      <c r="AW296" s="5"/>
-      <c r="AX296" s="5"/>
+      <c r="AU296">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AV296">
+        <v>5.3</v>
+      </c>
+      <c r="AW296">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AX296">
+        <v>5</v>
+      </c>
     </row>
     <row r="297" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
@@ -35650,10 +34720,18 @@
       <c r="AT297">
         <v>5</v>
       </c>
-      <c r="AU297" s="5"/>
-      <c r="AV297" s="5"/>
-      <c r="AW297" s="5"/>
-      <c r="AX297" s="5"/>
+      <c r="AU297">
+        <v>0.4</v>
+      </c>
+      <c r="AV297">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AW297">
+        <v>2.6</v>
+      </c>
+      <c r="AX297">
+        <v>5</v>
+      </c>
     </row>
     <row r="298" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
@@ -35791,10 +34869,18 @@
       <c r="AT298">
         <v>50</v>
       </c>
-      <c r="AU298" s="5"/>
-      <c r="AV298" s="5"/>
-      <c r="AW298" s="5"/>
-      <c r="AX298" s="5"/>
+      <c r="AU298">
+        <v>3.9</v>
+      </c>
+      <c r="AV298">
+        <v>14.1</v>
+      </c>
+      <c r="AW298">
+        <v>0.6</v>
+      </c>
+      <c r="AX298">
+        <v>10</v>
+      </c>
     </row>
     <row r="299" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
@@ -35932,10 +35018,18 @@
       <c r="AT299">
         <v>20</v>
       </c>
-      <c r="AU299" s="5"/>
-      <c r="AV299" s="5"/>
-      <c r="AW299" s="5"/>
-      <c r="AX299" s="5"/>
+      <c r="AU299">
+        <v>2.5</v>
+      </c>
+      <c r="AV299">
+        <v>13.8</v>
+      </c>
+      <c r="AW299">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AX299">
+        <v>5</v>
+      </c>
     </row>
     <row r="300" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
@@ -35953,6 +35047,9 @@
       <c r="E300" t="s">
         <v>290</v>
       </c>
+      <c r="F300" t="s">
+        <v>778</v>
+      </c>
       <c r="G300">
         <v>7.7</v>
       </c>
@@ -36073,10 +35170,18 @@
       <c r="AT300">
         <v>5</v>
       </c>
-      <c r="AU300" s="5"/>
-      <c r="AV300" s="5"/>
-      <c r="AW300" s="5"/>
-      <c r="AX300" s="5"/>
+      <c r="AU300" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV300" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW300" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
@@ -36094,6 +35199,9 @@
       <c r="E301" t="s">
         <v>290</v>
       </c>
+      <c r="F301" t="s">
+        <v>778</v>
+      </c>
       <c r="G301">
         <v>6</v>
       </c>
@@ -36214,10 +35322,18 @@
       <c r="AT301">
         <v>5</v>
       </c>
-      <c r="AU301" s="5"/>
-      <c r="AV301" s="5"/>
-      <c r="AW301" s="5"/>
-      <c r="AX301" s="5"/>
+      <c r="AU301" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV301" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW301" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
@@ -36355,16 +35471,16 @@
       <c r="AT302">
         <v>20</v>
       </c>
-      <c r="AU302" s="5">
+      <c r="AU302">
         <v>13.4</v>
       </c>
-      <c r="AV302" s="5">
+      <c r="AV302">
         <v>14.9</v>
       </c>
-      <c r="AW302" s="5">
+      <c r="AW302">
         <v>3.9</v>
       </c>
-      <c r="AX302" s="5">
+      <c r="AX302">
         <v>10</v>
       </c>
     </row>
@@ -36504,16 +35620,16 @@
       <c r="AT303">
         <v>5</v>
       </c>
-      <c r="AU303" s="5">
+      <c r="AU303">
         <v>1.4</v>
       </c>
-      <c r="AV303" s="5">
+      <c r="AV303">
         <v>4.5</v>
       </c>
-      <c r="AW303" s="5">
+      <c r="AW303">
         <v>1.5</v>
       </c>
-      <c r="AX303" s="5">
+      <c r="AX303">
         <v>5</v>
       </c>
     </row>
@@ -36653,16 +35769,16 @@
       <c r="AT304">
         <v>20</v>
       </c>
-      <c r="AU304" s="5">
+      <c r="AU304">
         <v>15.7</v>
       </c>
-      <c r="AV304" s="5">
+      <c r="AV304">
         <v>19.5</v>
       </c>
-      <c r="AW304" s="5">
+      <c r="AW304">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AX304" s="5">
+      <c r="AX304">
         <v>10</v>
       </c>
     </row>
@@ -36802,16 +35918,16 @@
       <c r="AT305">
         <v>10</v>
       </c>
-      <c r="AU305" s="5">
+      <c r="AU305">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AV305" s="5">
+      <c r="AV305">
         <v>2.9</v>
       </c>
-      <c r="AW305" s="5">
+      <c r="AW305">
         <v>3.2</v>
       </c>
-      <c r="AX305" s="5">
+      <c r="AX305">
         <v>5</v>
       </c>
     </row>
@@ -36951,16 +36067,16 @@
       <c r="AT306">
         <v>10</v>
       </c>
-      <c r="AU306" s="5">
+      <c r="AU306">
         <v>11.6</v>
       </c>
-      <c r="AV306" s="5">
+      <c r="AV306">
         <v>0.5</v>
       </c>
-      <c r="AW306" s="5">
+      <c r="AW306">
         <v>1.6</v>
       </c>
-      <c r="AX306" s="5">
+      <c r="AX306">
         <v>5</v>
       </c>
     </row>
@@ -37100,10 +36216,18 @@
       <c r="AT307">
         <v>10</v>
       </c>
-      <c r="AU307" s="5"/>
-      <c r="AV307" s="5"/>
-      <c r="AW307" s="5"/>
-      <c r="AX307" s="5"/>
+      <c r="AU307">
+        <v>2.6</v>
+      </c>
+      <c r="AV307">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AW307">
+        <v>2.1</v>
+      </c>
+      <c r="AX307">
+        <v>10</v>
+      </c>
     </row>
     <row r="308" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
@@ -37241,10 +36365,18 @@
       <c r="AT308">
         <v>20</v>
       </c>
-      <c r="AU308" s="5"/>
-      <c r="AV308" s="5"/>
-      <c r="AW308" s="5"/>
-      <c r="AX308" s="5"/>
+      <c r="AU308">
+        <v>1.2</v>
+      </c>
+      <c r="AV308">
+        <v>1.6</v>
+      </c>
+      <c r="AW308">
+        <v>1.4</v>
+      </c>
+      <c r="AX308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
@@ -37382,10 +36514,18 @@
       <c r="AT309">
         <v>5</v>
       </c>
-      <c r="AU309" s="5"/>
-      <c r="AV309" s="5"/>
-      <c r="AW309" s="5"/>
-      <c r="AX309" s="5"/>
+      <c r="AU309">
+        <v>1.6</v>
+      </c>
+      <c r="AV309">
+        <v>11.9</v>
+      </c>
+      <c r="AW309">
+        <v>6.5</v>
+      </c>
+      <c r="AX309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
@@ -37523,10 +36663,18 @@
       <c r="AT310">
         <v>20</v>
       </c>
-      <c r="AU310" s="5"/>
-      <c r="AV310" s="5"/>
-      <c r="AW310" s="5"/>
-      <c r="AX310" s="5"/>
+      <c r="AU310">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AV310">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AW310">
+        <v>0</v>
+      </c>
+      <c r="AX310">
+        <v>10</v>
+      </c>
     </row>
     <row r="311" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
@@ -37664,10 +36812,18 @@
       <c r="AT311">
         <v>20</v>
       </c>
-      <c r="AU311" s="5"/>
-      <c r="AV311" s="5"/>
-      <c r="AW311" s="5"/>
-      <c r="AX311" s="5"/>
+      <c r="AU311">
+        <v>6.4</v>
+      </c>
+      <c r="AV311">
+        <v>3.4</v>
+      </c>
+      <c r="AW311">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AX311">
+        <v>5</v>
+      </c>
     </row>
     <row r="312" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
@@ -37805,10 +36961,18 @@
       <c r="AT312">
         <v>10</v>
       </c>
-      <c r="AU312" s="5"/>
-      <c r="AV312" s="5"/>
-      <c r="AW312" s="5"/>
-      <c r="AX312" s="5"/>
+      <c r="AU312">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AV312">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AW312">
+        <v>21</v>
+      </c>
+      <c r="AX312">
+        <v>10</v>
+      </c>
     </row>
     <row r="313" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
@@ -37826,6 +36990,9 @@
       <c r="E313" t="s">
         <v>290</v>
       </c>
+      <c r="F313" t="s">
+        <v>776</v>
+      </c>
       <c r="G313">
         <v>5.9</v>
       </c>
@@ -37946,10 +37113,18 @@
       <c r="AT313">
         <v>10</v>
       </c>
-      <c r="AU313" s="5"/>
-      <c r="AV313" s="5"/>
-      <c r="AW313" s="5"/>
-      <c r="AX313" s="5"/>
+      <c r="AU313" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV313" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW313" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
@@ -37967,6 +37142,9 @@
       <c r="E314" t="s">
         <v>290</v>
       </c>
+      <c r="F314" t="s">
+        <v>776</v>
+      </c>
       <c r="G314">
         <v>5.4</v>
       </c>
@@ -38087,10 +37265,18 @@
       <c r="AT314">
         <v>5</v>
       </c>
-      <c r="AU314" s="5"/>
-      <c r="AV314" s="5"/>
-      <c r="AW314" s="5"/>
-      <c r="AX314" s="5"/>
+      <c r="AU314" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV314" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW314" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX314">
+        <v>0</v>
+      </c>
     </row>
     <row r="315" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
@@ -38228,10 +37414,18 @@
       <c r="AT315">
         <v>10</v>
       </c>
-      <c r="AU315" s="5"/>
-      <c r="AV315" s="5"/>
-      <c r="AW315" s="5"/>
-      <c r="AX315" s="5"/>
+      <c r="AU315">
+        <v>0</v>
+      </c>
+      <c r="AV315">
+        <v>0.6</v>
+      </c>
+      <c r="AW315">
+        <v>10.4</v>
+      </c>
+      <c r="AX315">
+        <v>5</v>
+      </c>
     </row>
     <row r="316" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
@@ -38369,10 +37563,18 @@
       <c r="AT316">
         <v>20</v>
       </c>
-      <c r="AU316" s="5"/>
-      <c r="AV316" s="5"/>
-      <c r="AW316" s="5"/>
-      <c r="AX316" s="5"/>
+      <c r="AU316">
+        <v>13.3</v>
+      </c>
+      <c r="AV316">
+        <v>12.7</v>
+      </c>
+      <c r="AW316">
+        <v>7.4</v>
+      </c>
+      <c r="AX316">
+        <v>10</v>
+      </c>
     </row>
     <row r="317" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
@@ -38513,16 +37715,16 @@
       <c r="AT317">
         <v>10</v>
       </c>
-      <c r="AU317" s="5">
+      <c r="AU317">
         <v>4.7</v>
       </c>
-      <c r="AV317" s="5">
+      <c r="AV317">
         <v>5.6</v>
       </c>
-      <c r="AW317" s="5">
+      <c r="AW317">
         <v>0.6</v>
       </c>
-      <c r="AX317" s="5">
+      <c r="AX317">
         <v>0</v>
       </c>
     </row>
@@ -38665,16 +37867,16 @@
       <c r="AT318">
         <v>5</v>
       </c>
-      <c r="AU318" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AV318" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AW318" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AX318" s="5">
+      <c r="AU318" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV318" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW318" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX318">
         <v>0</v>
       </c>
     </row>
@@ -38817,16 +38019,16 @@
       <c r="AT319">
         <v>10</v>
       </c>
-      <c r="AU319" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AV319" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AW319" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AX319" s="5">
+      <c r="AU319" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV319" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW319" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX319">
         <v>0</v>
       </c>
     </row>
@@ -38969,16 +38171,16 @@
       <c r="AT320">
         <v>20</v>
       </c>
-      <c r="AU320" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AV320" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AW320" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AX320" s="5">
+      <c r="AU320" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV320" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW320" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX320">
         <v>0</v>
       </c>
     </row>
@@ -39118,16 +38320,16 @@
       <c r="AT321">
         <v>20</v>
       </c>
-      <c r="AU321" s="5">
+      <c r="AU321">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AV321" s="5">
+      <c r="AV321">
         <v>3.7</v>
       </c>
-      <c r="AW321" s="5">
+      <c r="AW321">
         <v>1.4</v>
       </c>
-      <c r="AX321" s="5">
+      <c r="AX321">
         <v>5</v>
       </c>
     </row>
@@ -39267,10 +38469,18 @@
       <c r="AT322" t="s">
         <v>660</v>
       </c>
-      <c r="AU322" s="5"/>
-      <c r="AV322" s="5"/>
-      <c r="AW322" s="5"/>
-      <c r="AX322" s="5"/>
+      <c r="AU322" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV322" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW322" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX322" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="323" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
@@ -39408,10 +38618,18 @@
       <c r="AT323">
         <v>10</v>
       </c>
-      <c r="AU323" s="5"/>
-      <c r="AV323" s="5"/>
-      <c r="AW323" s="5"/>
-      <c r="AX323" s="5"/>
+      <c r="AU323">
+        <v>1.7</v>
+      </c>
+      <c r="AV323">
+        <v>6.6</v>
+      </c>
+      <c r="AW323">
+        <v>1.8</v>
+      </c>
+      <c r="AX323">
+        <v>5</v>
+      </c>
     </row>
     <row r="324" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
@@ -39549,10 +38767,18 @@
       <c r="AT324" t="s">
         <v>660</v>
       </c>
-      <c r="AU324" s="5"/>
-      <c r="AV324" s="5"/>
-      <c r="AW324" s="5"/>
-      <c r="AX324" s="5"/>
+      <c r="AU324" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV324" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW324" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX324" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="325" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
@@ -39570,6 +38796,9 @@
       <c r="E325" t="s">
         <v>290</v>
       </c>
+      <c r="F325" t="s">
+        <v>776</v>
+      </c>
       <c r="G325">
         <v>7.9</v>
       </c>
@@ -39690,10 +38919,18 @@
       <c r="AT325">
         <v>10</v>
       </c>
-      <c r="AU325" s="5"/>
-      <c r="AV325" s="5"/>
-      <c r="AW325" s="5"/>
-      <c r="AX325" s="5"/>
+      <c r="AU325">
+        <v>1.5</v>
+      </c>
+      <c r="AV325">
+        <v>1.8</v>
+      </c>
+      <c r="AW325">
+        <v>2</v>
+      </c>
+      <c r="AX325">
+        <v>0</v>
+      </c>
     </row>
     <row r="326" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
@@ -39831,10 +39068,18 @@
       <c r="AT326">
         <v>50</v>
       </c>
-      <c r="AU326" s="5"/>
-      <c r="AV326" s="5"/>
-      <c r="AW326" s="5"/>
-      <c r="AX326" s="5"/>
+      <c r="AU326">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AV326">
+        <v>6.9</v>
+      </c>
+      <c r="AW326">
+        <v>11.9</v>
+      </c>
+      <c r="AX326">
+        <v>20</v>
+      </c>
     </row>
     <row r="327" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
@@ -39963,13 +39208,30 @@
       <c r="AP327">
         <v>0</v>
       </c>
+      <c r="AQ327" t="s">
+        <v>660</v>
+      </c>
+      <c r="AR327" t="s">
+        <v>660</v>
+      </c>
+      <c r="AS327" t="s">
+        <v>660</v>
+      </c>
       <c r="AT327">
         <v>0</v>
       </c>
-      <c r="AU327" s="5"/>
-      <c r="AV327" s="5"/>
-      <c r="AW327" s="5"/>
-      <c r="AX327" s="5"/>
+      <c r="AU327" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV327" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW327" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
@@ -40107,10 +39369,18 @@
       <c r="AT328">
         <v>5</v>
       </c>
-      <c r="AU328" s="5"/>
-      <c r="AV328" s="5"/>
-      <c r="AW328" s="5"/>
-      <c r="AX328" s="5"/>
+      <c r="AU328">
+        <v>10.7</v>
+      </c>
+      <c r="AV328">
+        <v>5.9</v>
+      </c>
+      <c r="AW328">
+        <v>11.5</v>
+      </c>
+      <c r="AX328">
+        <v>5</v>
+      </c>
     </row>
     <row r="329" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
@@ -40248,10 +39518,18 @@
       <c r="AT329">
         <v>10</v>
       </c>
-      <c r="AU329" s="5"/>
-      <c r="AV329" s="5"/>
-      <c r="AW329" s="5"/>
-      <c r="AX329" s="5"/>
+      <c r="AU329">
+        <v>0.5</v>
+      </c>
+      <c r="AV329">
+        <v>4.5</v>
+      </c>
+      <c r="AW329">
+        <v>0.5</v>
+      </c>
+      <c r="AX329">
+        <v>5</v>
+      </c>
     </row>
     <row r="330" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
@@ -40389,10 +39667,18 @@
       <c r="AT330">
         <v>5</v>
       </c>
-      <c r="AU330" s="5"/>
-      <c r="AV330" s="5"/>
-      <c r="AW330" s="5"/>
-      <c r="AX330" s="5"/>
+      <c r="AU330">
+        <v>4.3</v>
+      </c>
+      <c r="AV330">
+        <v>1</v>
+      </c>
+      <c r="AW330">
+        <v>0</v>
+      </c>
+      <c r="AX330">
+        <v>5</v>
+      </c>
     </row>
     <row r="331" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
@@ -40533,10 +39819,18 @@
       <c r="AT331">
         <v>20</v>
       </c>
-      <c r="AU331" s="5"/>
-      <c r="AV331" s="5"/>
-      <c r="AW331" s="5"/>
-      <c r="AX331" s="5"/>
+      <c r="AU331">
+        <v>2.6</v>
+      </c>
+      <c r="AV331">
+        <v>23.1</v>
+      </c>
+      <c r="AW331">
+        <v>3.6</v>
+      </c>
+      <c r="AX331">
+        <v>5</v>
+      </c>
     </row>
     <row r="332" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
@@ -40674,16 +39968,16 @@
       <c r="AT332">
         <v>5</v>
       </c>
-      <c r="AU332" s="5">
+      <c r="AU332">
         <v>4.5</v>
       </c>
-      <c r="AV332" s="5">
+      <c r="AV332">
         <v>1.2</v>
       </c>
-      <c r="AW332" s="5">
+      <c r="AW332">
         <v>2.7</v>
       </c>
-      <c r="AX332" s="5">
+      <c r="AX332">
         <v>5</v>
       </c>
     </row>
@@ -40823,16 +40117,16 @@
       <c r="AT333">
         <v>10</v>
       </c>
-      <c r="AU333" s="5">
+      <c r="AU333">
         <v>6</v>
       </c>
-      <c r="AV333" s="5">
+      <c r="AV333">
         <v>0.4</v>
       </c>
-      <c r="AW333" s="5">
+      <c r="AW333">
         <v>0.3</v>
       </c>
-      <c r="AX333" s="5">
+      <c r="AX333">
         <v>5</v>
       </c>
     </row>
@@ -40975,16 +40269,16 @@
       <c r="AT334">
         <v>10</v>
       </c>
-      <c r="AU334" s="5">
+      <c r="AU334">
         <v>0.3</v>
       </c>
-      <c r="AV334" s="5">
+      <c r="AV334">
         <v>0.7</v>
       </c>
-      <c r="AW334" s="5">
+      <c r="AW334">
         <v>1.4</v>
       </c>
-      <c r="AX334" s="5">
+      <c r="AX334">
         <v>0</v>
       </c>
     </row>
@@ -41124,16 +40418,16 @@
       <c r="AT335">
         <v>20</v>
       </c>
-      <c r="AU335" s="5">
+      <c r="AU335">
         <v>1.9</v>
       </c>
-      <c r="AV335" s="5">
+      <c r="AV335">
         <v>7.5</v>
       </c>
-      <c r="AW335" s="5">
+      <c r="AW335">
         <v>6.9</v>
       </c>
-      <c r="AX335" s="5">
+      <c r="AX335">
         <v>5</v>
       </c>
     </row>
@@ -41273,16 +40567,16 @@
       <c r="AT336">
         <v>10</v>
       </c>
-      <c r="AU336" s="5">
+      <c r="AU336">
         <v>7.2</v>
       </c>
-      <c r="AV336" s="5">
+      <c r="AV336">
         <v>7.9</v>
       </c>
-      <c r="AW336" s="5">
+      <c r="AW336">
         <v>0.3</v>
       </c>
-      <c r="AX336" s="5">
+      <c r="AX336">
         <v>5</v>
       </c>
     </row>
@@ -41422,10 +40716,18 @@
       <c r="AT337">
         <v>10</v>
       </c>
-      <c r="AU337" s="5"/>
-      <c r="AV337" s="5"/>
-      <c r="AW337" s="5"/>
-      <c r="AX337" s="5"/>
+      <c r="AU337">
+        <v>12.3</v>
+      </c>
+      <c r="AV337">
+        <v>5.4</v>
+      </c>
+      <c r="AW337">
+        <v>1.6</v>
+      </c>
+      <c r="AX337">
+        <v>5</v>
+      </c>
     </row>
     <row r="338" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
@@ -41563,10 +40865,18 @@
       <c r="AT338">
         <v>50</v>
       </c>
-      <c r="AU338" s="5"/>
-      <c r="AV338" s="5"/>
-      <c r="AW338" s="5"/>
-      <c r="AX338" s="5"/>
+      <c r="AU338">
+        <v>1.4</v>
+      </c>
+      <c r="AV338">
+        <v>2.4</v>
+      </c>
+      <c r="AW338">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AX338" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="339" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
@@ -41584,6 +40894,9 @@
       <c r="E339" t="s">
         <v>290</v>
       </c>
+      <c r="F339" t="s">
+        <v>776</v>
+      </c>
       <c r="G339">
         <v>11.5</v>
       </c>
@@ -41704,10 +41017,18 @@
       <c r="AT339">
         <v>10</v>
       </c>
-      <c r="AU339" s="5"/>
-      <c r="AV339" s="5"/>
-      <c r="AW339" s="5"/>
-      <c r="AX339" s="5"/>
+      <c r="AU339" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV339" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW339" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
@@ -41845,10 +41166,18 @@
       <c r="AT340">
         <v>10</v>
       </c>
-      <c r="AU340" s="5"/>
-      <c r="AV340" s="5"/>
-      <c r="AW340" s="5"/>
-      <c r="AX340" s="5"/>
+      <c r="AU340">
+        <v>12.3</v>
+      </c>
+      <c r="AV340">
+        <v>2</v>
+      </c>
+      <c r="AW340">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AX340">
+        <v>5</v>
+      </c>
     </row>
     <row r="341" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
@@ -41986,10 +41315,18 @@
       <c r="AT341">
         <v>5</v>
       </c>
-      <c r="AU341" s="5"/>
-      <c r="AV341" s="5"/>
-      <c r="AW341" s="5"/>
-      <c r="AX341" s="5"/>
+      <c r="AU341">
+        <v>1.9</v>
+      </c>
+      <c r="AV341">
+        <v>3.5</v>
+      </c>
+      <c r="AW341">
+        <v>1.5</v>
+      </c>
+      <c r="AX341">
+        <v>5</v>
+      </c>
     </row>
     <row r="342" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
@@ -42127,10 +41464,18 @@
       <c r="AT342">
         <v>30</v>
       </c>
-      <c r="AU342" s="5"/>
-      <c r="AV342" s="5"/>
-      <c r="AW342" s="5"/>
-      <c r="AX342" s="5"/>
+      <c r="AU342">
+        <v>6.4</v>
+      </c>
+      <c r="AV342">
+        <v>12.8</v>
+      </c>
+      <c r="AW342">
+        <v>8</v>
+      </c>
+      <c r="AX342">
+        <v>20</v>
+      </c>
     </row>
     <row r="343" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
@@ -42271,10 +41616,18 @@
       <c r="AT343">
         <v>5</v>
       </c>
-      <c r="AU343" s="5"/>
-      <c r="AV343" s="5"/>
-      <c r="AW343" s="5"/>
-      <c r="AX343" s="5"/>
+      <c r="AU343">
+        <v>12.3</v>
+      </c>
+      <c r="AV343">
+        <v>19</v>
+      </c>
+      <c r="AW343">
+        <v>0.4</v>
+      </c>
+      <c r="AX343">
+        <v>5</v>
+      </c>
     </row>
     <row r="344" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
@@ -42412,10 +41765,18 @@
       <c r="AT344">
         <v>5</v>
       </c>
-      <c r="AU344" s="5"/>
-      <c r="AV344" s="5"/>
-      <c r="AW344" s="5"/>
-      <c r="AX344" s="5"/>
+      <c r="AU344">
+        <v>2.9</v>
+      </c>
+      <c r="AV344">
+        <v>6.2</v>
+      </c>
+      <c r="AW344">
+        <v>23.1</v>
+      </c>
+      <c r="AX344">
+        <v>5</v>
+      </c>
     </row>
     <row r="345" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
@@ -42433,6 +41794,9 @@
       <c r="E345" t="s">
         <v>290</v>
       </c>
+      <c r="F345" t="s">
+        <v>776</v>
+      </c>
       <c r="G345">
         <v>9.4</v>
       </c>
@@ -42553,10 +41917,18 @@
       <c r="AT345">
         <v>5</v>
       </c>
-      <c r="AU345" s="5"/>
-      <c r="AV345" s="5"/>
-      <c r="AW345" s="5"/>
-      <c r="AX345" s="5"/>
+      <c r="AU345">
+        <v>2.9</v>
+      </c>
+      <c r="AV345">
+        <v>3</v>
+      </c>
+      <c r="AW345">
+        <v>2.5</v>
+      </c>
+      <c r="AX345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
@@ -42694,10 +42066,18 @@
       <c r="AT346">
         <v>30</v>
       </c>
-      <c r="AU346" s="5"/>
-      <c r="AV346" s="5"/>
-      <c r="AW346" s="5"/>
-      <c r="AX346" s="5"/>
+      <c r="AU346">
+        <v>2.1</v>
+      </c>
+      <c r="AV346">
+        <v>2.8</v>
+      </c>
+      <c r="AW346">
+        <v>2.9</v>
+      </c>
+      <c r="AX346">
+        <v>10</v>
+      </c>
     </row>
     <row r="347" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
@@ -42835,16 +42215,16 @@
       <c r="AT347">
         <v>10</v>
       </c>
-      <c r="AU347" s="5">
+      <c r="AU347">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AV347" s="5">
+      <c r="AV347">
         <v>15.6</v>
       </c>
-      <c r="AW347" s="5">
+      <c r="AW347">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AX347" s="5">
+      <c r="AX347">
         <v>5</v>
       </c>
     </row>
@@ -42984,16 +42364,16 @@
       <c r="AT348">
         <v>30</v>
       </c>
-      <c r="AU348" s="5">
+      <c r="AU348">
         <v>12.1</v>
       </c>
-      <c r="AV348" s="5">
+      <c r="AV348">
         <v>20.100000000000001</v>
       </c>
-      <c r="AW348" s="5">
+      <c r="AW348">
         <v>13.1</v>
       </c>
-      <c r="AX348" s="5">
+      <c r="AX348">
         <v>20</v>
       </c>
     </row>
@@ -43133,16 +42513,16 @@
       <c r="AT349">
         <v>10</v>
       </c>
-      <c r="AU349" s="5">
+      <c r="AU349">
         <v>1.6</v>
       </c>
-      <c r="AV349" s="5">
+      <c r="AV349">
         <v>19.2</v>
       </c>
-      <c r="AW349" s="5">
+      <c r="AW349">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AX349" s="5">
+      <c r="AX349">
         <v>5</v>
       </c>
     </row>
@@ -43282,16 +42662,16 @@
       <c r="AT350">
         <v>40</v>
       </c>
-      <c r="AU350" s="5">
+      <c r="AU350">
         <v>7.5</v>
       </c>
-      <c r="AV350" s="5">
+      <c r="AV350">
         <v>23.5</v>
       </c>
-      <c r="AW350" s="5">
+      <c r="AW350">
         <v>23.1</v>
       </c>
-      <c r="AX350" s="5">
+      <c r="AX350">
         <v>20</v>
       </c>
     </row>
@@ -43431,16 +42811,16 @@
       <c r="AT351">
         <v>20</v>
       </c>
-      <c r="AU351" s="5">
+      <c r="AU351">
         <v>10</v>
       </c>
-      <c r="AV351" s="5">
+      <c r="AV351">
         <v>14.3</v>
       </c>
-      <c r="AW351" s="5">
+      <c r="AW351">
         <v>3.9</v>
       </c>
-      <c r="AX351" s="5">
+      <c r="AX351">
         <v>10</v>
       </c>
     </row>
@@ -43580,10 +42960,18 @@
       <c r="AT352">
         <v>30</v>
       </c>
-      <c r="AU352" s="5"/>
-      <c r="AV352" s="5"/>
-      <c r="AW352" s="5"/>
-      <c r="AX352" s="5"/>
+      <c r="AU352">
+        <v>11.4</v>
+      </c>
+      <c r="AV352">
+        <v>12.9</v>
+      </c>
+      <c r="AW352">
+        <v>2.7</v>
+      </c>
+      <c r="AX352">
+        <v>10</v>
+      </c>
     </row>
     <row r="353" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
@@ -43721,10 +43109,18 @@
       <c r="AT353">
         <v>20</v>
       </c>
-      <c r="AU353" s="5"/>
-      <c r="AV353" s="5"/>
-      <c r="AW353" s="5"/>
-      <c r="AX353" s="5"/>
+      <c r="AU353">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AV353">
+        <v>6.8</v>
+      </c>
+      <c r="AW353">
+        <v>13.7</v>
+      </c>
+      <c r="AX353">
+        <v>10</v>
+      </c>
     </row>
     <row r="354" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
@@ -43742,6 +43138,9 @@
       <c r="E354" t="s">
         <v>290</v>
       </c>
+      <c r="F354" t="s">
+        <v>776</v>
+      </c>
       <c r="G354">
         <v>10.199999999999999</v>
       </c>
@@ -43862,10 +43261,18 @@
       <c r="AT354">
         <v>10</v>
       </c>
-      <c r="AU354" s="5"/>
-      <c r="AV354" s="5"/>
-      <c r="AW354" s="5"/>
-      <c r="AX354" s="5"/>
+      <c r="AU354" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV354" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW354" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX354">
+        <v>0</v>
+      </c>
     </row>
     <row r="355" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
@@ -44003,10 +43410,18 @@
       <c r="AT355" t="s">
         <v>660</v>
       </c>
-      <c r="AU355" s="5"/>
-      <c r="AV355" s="5"/>
-      <c r="AW355" s="5"/>
-      <c r="AX355" s="5"/>
+      <c r="AU355" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV355" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW355" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX355" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="356" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
@@ -44144,10 +43559,18 @@
       <c r="AT356">
         <v>5</v>
       </c>
-      <c r="AU356" s="5"/>
-      <c r="AV356" s="5"/>
-      <c r="AW356" s="5"/>
-      <c r="AX356" s="5"/>
+      <c r="AU356">
+        <v>3</v>
+      </c>
+      <c r="AV356">
+        <v>2.5</v>
+      </c>
+      <c r="AW356">
+        <v>4</v>
+      </c>
+      <c r="AX356">
+        <v>5</v>
+      </c>
     </row>
     <row r="357" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
@@ -44285,10 +43708,15 @@
       <c r="AT357">
         <v>50</v>
       </c>
-      <c r="AU357" s="5"/>
-      <c r="AV357" s="5"/>
-      <c r="AW357" s="5"/>
-      <c r="AX357" s="5"/>
+      <c r="AU357">
+        <v>1.2</v>
+      </c>
+      <c r="AV357">
+        <v>0.3</v>
+      </c>
+      <c r="AW357">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="358" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
@@ -44426,10 +43854,18 @@
       <c r="AT358">
         <v>20</v>
       </c>
-      <c r="AU358" s="5"/>
-      <c r="AV358" s="5"/>
-      <c r="AW358" s="5"/>
-      <c r="AX358" s="5"/>
+      <c r="AU358">
+        <v>0</v>
+      </c>
+      <c r="AV358">
+        <v>6.9</v>
+      </c>
+      <c r="AW358">
+        <v>0.3</v>
+      </c>
+      <c r="AX358">
+        <v>5</v>
+      </c>
     </row>
     <row r="359" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
@@ -44567,10 +44003,18 @@
       <c r="AT359">
         <v>20</v>
       </c>
-      <c r="AU359" s="5"/>
-      <c r="AV359" s="5"/>
-      <c r="AW359" s="5"/>
-      <c r="AX359" s="5"/>
+      <c r="AU359">
+        <v>1.3</v>
+      </c>
+      <c r="AV359">
+        <v>12.3</v>
+      </c>
+      <c r="AW359">
+        <v>1.7</v>
+      </c>
+      <c r="AX359">
+        <v>5</v>
+      </c>
     </row>
     <row r="360" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
@@ -44588,6 +44032,9 @@
       <c r="E360" t="s">
         <v>290</v>
       </c>
+      <c r="F360" t="s">
+        <v>776</v>
+      </c>
       <c r="G360">
         <v>11.7</v>
       </c>
@@ -44708,10 +44155,18 @@
       <c r="AT360">
         <v>10</v>
       </c>
-      <c r="AU360" s="5"/>
-      <c r="AV360" s="5"/>
-      <c r="AW360" s="5"/>
-      <c r="AX360" s="5"/>
+      <c r="AU360">
+        <v>4.3</v>
+      </c>
+      <c r="AV360">
+        <v>6.4</v>
+      </c>
+      <c r="AW360">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AX360">
+        <v>0</v>
+      </c>
     </row>
     <row r="361" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
@@ -44849,10 +44304,18 @@
       <c r="AT361">
         <v>5</v>
       </c>
-      <c r="AU361" s="5"/>
-      <c r="AV361" s="5"/>
-      <c r="AW361" s="5"/>
-      <c r="AX361" s="5"/>
+      <c r="AU361">
+        <v>0.3</v>
+      </c>
+      <c r="AV361">
+        <v>2.4</v>
+      </c>
+      <c r="AW361">
+        <v>0.5</v>
+      </c>
+      <c r="AX361">
+        <v>5</v>
+      </c>
     </row>
     <row r="362" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
@@ -44993,10 +44456,6 @@
       <c r="AT362">
         <v>0</v>
       </c>
-      <c r="AU362" s="5"/>
-      <c r="AV362" s="5"/>
-      <c r="AW362" s="5"/>
-      <c r="AX362" s="5"/>
     </row>
     <row r="363" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
@@ -45137,10 +44596,6 @@
       <c r="AT363">
         <v>0</v>
       </c>
-      <c r="AU363" s="5"/>
-      <c r="AV363" s="5"/>
-      <c r="AW363" s="5"/>
-      <c r="AX363" s="5"/>
     </row>
     <row r="364" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
@@ -45281,10 +44736,6 @@
       <c r="AT364">
         <v>0</v>
       </c>
-      <c r="AU364" s="5"/>
-      <c r="AV364" s="5"/>
-      <c r="AW364" s="5"/>
-      <c r="AX364" s="5"/>
     </row>
     <row r="365" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
@@ -45425,10 +44876,6 @@
       <c r="AT365">
         <v>0</v>
       </c>
-      <c r="AU365" s="5"/>
-      <c r="AV365" s="5"/>
-      <c r="AW365" s="5"/>
-      <c r="AX365" s="5"/>
     </row>
     <row r="366" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
@@ -45569,10 +45016,6 @@
       <c r="AT366">
         <v>0</v>
       </c>
-      <c r="AU366" s="5"/>
-      <c r="AV366" s="5"/>
-      <c r="AW366" s="5"/>
-      <c r="AX366" s="5"/>
     </row>
     <row r="367" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
@@ -45713,10 +45156,6 @@
       <c r="AT367">
         <v>0</v>
       </c>
-      <c r="AU367" s="5"/>
-      <c r="AV367" s="5"/>
-      <c r="AW367" s="5"/>
-      <c r="AX367" s="5"/>
     </row>
     <row r="368" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
@@ -45857,12 +45296,8 @@
       <c r="AT368">
         <v>0</v>
       </c>
-      <c r="AU368" s="5"/>
-      <c r="AV368" s="5"/>
-      <c r="AW368" s="5"/>
-      <c r="AX368" s="5"/>
     </row>
-    <row r="369" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -46001,12 +45436,8 @@
       <c r="AT369">
         <v>0</v>
       </c>
-      <c r="AU369" s="5"/>
-      <c r="AV369" s="5"/>
-      <c r="AW369" s="5"/>
-      <c r="AX369" s="5"/>
     </row>
-    <row r="370" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -46145,12 +45576,8 @@
       <c r="AT370">
         <v>0</v>
       </c>
-      <c r="AU370" s="5"/>
-      <c r="AV370" s="5"/>
-      <c r="AW370" s="5"/>
-      <c r="AX370" s="5"/>
     </row>
-    <row r="371" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -46289,12 +45716,8 @@
       <c r="AT371">
         <v>0</v>
       </c>
-      <c r="AU371" s="5"/>
-      <c r="AV371" s="5"/>
-      <c r="AW371" s="5"/>
-      <c r="AX371" s="5"/>
     </row>
-    <row r="372" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -46433,12 +45856,8 @@
       <c r="AT372">
         <v>0</v>
       </c>
-      <c r="AU372" s="5"/>
-      <c r="AV372" s="5"/>
-      <c r="AW372" s="5"/>
-      <c r="AX372" s="5"/>
     </row>
-    <row r="373" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -46577,12 +45996,8 @@
       <c r="AT373">
         <v>0</v>
       </c>
-      <c r="AU373" s="5"/>
-      <c r="AV373" s="5"/>
-      <c r="AW373" s="5"/>
-      <c r="AX373" s="5"/>
     </row>
-    <row r="374" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -46721,12 +46136,8 @@
       <c r="AT374">
         <v>0</v>
       </c>
-      <c r="AU374" s="5"/>
-      <c r="AV374" s="5"/>
-      <c r="AW374" s="5"/>
-      <c r="AX374" s="5"/>
     </row>
-    <row r="375" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -46865,12 +46276,8 @@
       <c r="AT375">
         <v>0</v>
       </c>
-      <c r="AU375" s="5"/>
-      <c r="AV375" s="5"/>
-      <c r="AW375" s="5"/>
-      <c r="AX375" s="5"/>
     </row>
-    <row r="376" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -47009,12 +46416,8 @@
       <c r="AT376">
         <v>0</v>
       </c>
-      <c r="AU376" s="5"/>
-      <c r="AV376" s="5"/>
-      <c r="AW376" s="5"/>
-      <c r="AX376" s="5"/>
     </row>
-    <row r="377" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
@@ -47153,12 +46556,8 @@
       <c r="AT377">
         <v>0</v>
       </c>
-      <c r="AU377" s="5"/>
-      <c r="AV377" s="5"/>
-      <c r="AW377" s="5"/>
-      <c r="AX377" s="5"/>
     </row>
-    <row r="378" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
@@ -47297,12 +46696,8 @@
       <c r="AT378">
         <v>0</v>
       </c>
-      <c r="AU378" s="5"/>
-      <c r="AV378" s="5"/>
-      <c r="AW378" s="5"/>
-      <c r="AX378" s="5"/>
     </row>
-    <row r="379" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -47441,12 +46836,8 @@
       <c r="AT379">
         <v>0</v>
       </c>
-      <c r="AU379" s="5"/>
-      <c r="AV379" s="5"/>
-      <c r="AW379" s="5"/>
-      <c r="AX379" s="5"/>
     </row>
-    <row r="380" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -47585,12 +46976,8 @@
       <c r="AT380">
         <v>0</v>
       </c>
-      <c r="AU380" s="5"/>
-      <c r="AV380" s="5"/>
-      <c r="AW380" s="5"/>
-      <c r="AX380" s="5"/>
     </row>
-    <row r="381" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
@@ -47729,12 +47116,8 @@
       <c r="AT381">
         <v>0</v>
       </c>
-      <c r="AU381" s="5"/>
-      <c r="AV381" s="5"/>
-      <c r="AW381" s="5"/>
-      <c r="AX381" s="5"/>
     </row>
-    <row r="382" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
@@ -47873,12 +47256,8 @@
       <c r="AT382">
         <v>0</v>
       </c>
-      <c r="AU382" s="5"/>
-      <c r="AV382" s="5"/>
-      <c r="AW382" s="5"/>
-      <c r="AX382" s="5"/>
     </row>
-    <row r="383" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
@@ -48017,12 +47396,8 @@
       <c r="AT383">
         <v>0</v>
       </c>
-      <c r="AU383" s="5"/>
-      <c r="AV383" s="5"/>
-      <c r="AW383" s="5"/>
-      <c r="AX383" s="5"/>
     </row>
-    <row r="384" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
@@ -48161,12 +47536,8 @@
       <c r="AT384">
         <v>0</v>
       </c>
-      <c r="AU384" s="5"/>
-      <c r="AV384" s="5"/>
-      <c r="AW384" s="5"/>
-      <c r="AX384" s="5"/>
     </row>
-    <row r="385" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
@@ -48305,12 +47676,8 @@
       <c r="AT385">
         <v>0</v>
       </c>
-      <c r="AU385" s="5"/>
-      <c r="AV385" s="5"/>
-      <c r="AW385" s="5"/>
-      <c r="AX385" s="5"/>
     </row>
-    <row r="386" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
@@ -48449,12 +47816,8 @@
       <c r="AT386">
         <v>0</v>
       </c>
-      <c r="AU386" s="5"/>
-      <c r="AV386" s="5"/>
-      <c r="AW386" s="5"/>
-      <c r="AX386" s="5"/>
     </row>
-    <row r="387" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
@@ -48593,12 +47956,8 @@
       <c r="AT387">
         <v>0</v>
       </c>
-      <c r="AU387" s="5"/>
-      <c r="AV387" s="5"/>
-      <c r="AW387" s="5"/>
-      <c r="AX387" s="5"/>
     </row>
-    <row r="388" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>408</v>
       </c>
@@ -48737,12 +48096,8 @@
       <c r="AT388">
         <v>0</v>
       </c>
-      <c r="AU388" s="5"/>
-      <c r="AV388" s="5"/>
-      <c r="AW388" s="5"/>
-      <c r="AX388" s="5"/>
     </row>
-    <row r="389" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>409</v>
       </c>
@@ -48881,12 +48236,8 @@
       <c r="AT389">
         <v>0</v>
       </c>
-      <c r="AU389" s="5"/>
-      <c r="AV389" s="5"/>
-      <c r="AW389" s="5"/>
-      <c r="AX389" s="5"/>
     </row>
-    <row r="390" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>410</v>
       </c>
@@ -49025,12 +48376,8 @@
       <c r="AT390">
         <v>0</v>
       </c>
-      <c r="AU390" s="5"/>
-      <c r="AV390" s="5"/>
-      <c r="AW390" s="5"/>
-      <c r="AX390" s="5"/>
     </row>
-    <row r="391" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>411</v>
       </c>
@@ -49169,12 +48516,8 @@
       <c r="AT391">
         <v>0</v>
       </c>
-      <c r="AU391" s="5"/>
-      <c r="AV391" s="5"/>
-      <c r="AW391" s="5"/>
-      <c r="AX391" s="5"/>
     </row>
-    <row r="392" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>412</v>
       </c>
@@ -49313,12 +48656,8 @@
       <c r="AT392">
         <v>0</v>
       </c>
-      <c r="AU392" s="5"/>
-      <c r="AV392" s="5"/>
-      <c r="AW392" s="5"/>
-      <c r="AX392" s="5"/>
     </row>
-    <row r="393" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
@@ -49457,12 +48796,8 @@
       <c r="AT393">
         <v>0</v>
       </c>
-      <c r="AU393" s="5"/>
-      <c r="AV393" s="5"/>
-      <c r="AW393" s="5"/>
-      <c r="AX393" s="5"/>
     </row>
-    <row r="394" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
@@ -49601,12 +48936,8 @@
       <c r="AT394">
         <v>0</v>
       </c>
-      <c r="AU394" s="5"/>
-      <c r="AV394" s="5"/>
-      <c r="AW394" s="5"/>
-      <c r="AX394" s="5"/>
     </row>
-    <row r="395" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>415</v>
       </c>
@@ -49745,12 +49076,8 @@
       <c r="AT395">
         <v>5</v>
       </c>
-      <c r="AU395" s="5"/>
-      <c r="AV395" s="5"/>
-      <c r="AW395" s="5"/>
-      <c r="AX395" s="5"/>
     </row>
-    <row r="396" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>416</v>
       </c>
@@ -49889,12 +49216,8 @@
       <c r="AT396">
         <v>0</v>
       </c>
-      <c r="AU396" s="5"/>
-      <c r="AV396" s="5"/>
-      <c r="AW396" s="5"/>
-      <c r="AX396" s="5"/>
     </row>
-    <row r="397" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>417</v>
       </c>
@@ -50033,12 +49356,8 @@
       <c r="AT397">
         <v>0</v>
       </c>
-      <c r="AU397" s="5"/>
-      <c r="AV397" s="5"/>
-      <c r="AW397" s="5"/>
-      <c r="AX397" s="5"/>
     </row>
-    <row r="398" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>418</v>
       </c>
@@ -50177,12 +49496,8 @@
       <c r="AT398">
         <v>0</v>
       </c>
-      <c r="AU398" s="5"/>
-      <c r="AV398" s="5"/>
-      <c r="AW398" s="5"/>
-      <c r="AX398" s="5"/>
     </row>
-    <row r="399" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>419</v>
       </c>
@@ -50321,12 +49636,8 @@
       <c r="AT399">
         <v>0</v>
       </c>
-      <c r="AU399" s="5"/>
-      <c r="AV399" s="5"/>
-      <c r="AW399" s="5"/>
-      <c r="AX399" s="5"/>
     </row>
-    <row r="400" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
@@ -50465,12 +49776,8 @@
       <c r="AT400">
         <v>0</v>
       </c>
-      <c r="AU400" s="5"/>
-      <c r="AV400" s="5"/>
-      <c r="AW400" s="5"/>
-      <c r="AX400" s="5"/>
     </row>
-    <row r="401" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
@@ -50609,12 +49916,8 @@
       <c r="AT401">
         <v>0</v>
       </c>
-      <c r="AU401" s="5"/>
-      <c r="AV401" s="5"/>
-      <c r="AW401" s="5"/>
-      <c r="AX401" s="5"/>
     </row>
-    <row r="402" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
@@ -50753,12 +50056,8 @@
       <c r="AT402">
         <v>0</v>
       </c>
-      <c r="AU402" s="5"/>
-      <c r="AV402" s="5"/>
-      <c r="AW402" s="5"/>
-      <c r="AX402" s="5"/>
     </row>
-    <row r="403" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>423</v>
       </c>
@@ -50897,12 +50196,8 @@
       <c r="AT403">
         <v>0</v>
       </c>
-      <c r="AU403" s="5"/>
-      <c r="AV403" s="5"/>
-      <c r="AW403" s="5"/>
-      <c r="AX403" s="5"/>
     </row>
-    <row r="404" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>424</v>
       </c>
@@ -51041,12 +50336,8 @@
       <c r="AT404">
         <v>0</v>
       </c>
-      <c r="AU404" s="5"/>
-      <c r="AV404" s="5"/>
-      <c r="AW404" s="5"/>
-      <c r="AX404" s="5"/>
     </row>
-    <row r="405" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>425</v>
       </c>
@@ -51185,12 +50476,8 @@
       <c r="AT405">
         <v>0</v>
       </c>
-      <c r="AU405" s="5"/>
-      <c r="AV405" s="5"/>
-      <c r="AW405" s="5"/>
-      <c r="AX405" s="5"/>
     </row>
-    <row r="406" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>426</v>
       </c>
@@ -51329,12 +50616,8 @@
       <c r="AT406">
         <v>0</v>
       </c>
-      <c r="AU406" s="5"/>
-      <c r="AV406" s="5"/>
-      <c r="AW406" s="5"/>
-      <c r="AX406" s="5"/>
     </row>
-    <row r="407" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>427</v>
       </c>
@@ -51473,12 +50756,8 @@
       <c r="AT407">
         <v>0</v>
       </c>
-      <c r="AU407" s="5"/>
-      <c r="AV407" s="5"/>
-      <c r="AW407" s="5"/>
-      <c r="AX407" s="5"/>
     </row>
-    <row r="408" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
@@ -51617,12 +50896,8 @@
       <c r="AT408">
         <v>0</v>
       </c>
-      <c r="AU408" s="5"/>
-      <c r="AV408" s="5"/>
-      <c r="AW408" s="5"/>
-      <c r="AX408" s="5"/>
     </row>
-    <row r="409" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>429</v>
       </c>
@@ -51761,12 +51036,8 @@
       <c r="AT409">
         <v>0</v>
       </c>
-      <c r="AU409" s="5"/>
-      <c r="AV409" s="5"/>
-      <c r="AW409" s="5"/>
-      <c r="AX409" s="5"/>
     </row>
-    <row r="410" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>430</v>
       </c>
@@ -51905,12 +51176,8 @@
       <c r="AT410">
         <v>0</v>
       </c>
-      <c r="AU410" s="5"/>
-      <c r="AV410" s="5"/>
-      <c r="AW410" s="5"/>
-      <c r="AX410" s="5"/>
     </row>
-    <row r="411" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
@@ -52049,12 +51316,8 @@
       <c r="AT411">
         <v>0</v>
       </c>
-      <c r="AU411" s="5"/>
-      <c r="AV411" s="5"/>
-      <c r="AW411" s="5"/>
-      <c r="AX411" s="5"/>
     </row>
-    <row r="412" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
@@ -52193,12 +51456,8 @@
       <c r="AT412">
         <v>0</v>
       </c>
-      <c r="AU412" s="5"/>
-      <c r="AV412" s="5"/>
-      <c r="AW412" s="5"/>
-      <c r="AX412" s="5"/>
     </row>
-    <row r="413" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
@@ -52337,12 +51596,8 @@
       <c r="AT413">
         <v>0</v>
       </c>
-      <c r="AU413" s="5"/>
-      <c r="AV413" s="5"/>
-      <c r="AW413" s="5"/>
-      <c r="AX413" s="5"/>
     </row>
-    <row r="414" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
@@ -52481,12 +51736,8 @@
       <c r="AT414">
         <v>0</v>
       </c>
-      <c r="AU414" s="5"/>
-      <c r="AV414" s="5"/>
-      <c r="AW414" s="5"/>
-      <c r="AX414" s="5"/>
     </row>
-    <row r="415" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
@@ -52625,12 +51876,8 @@
       <c r="AT415">
         <v>0</v>
       </c>
-      <c r="AU415" s="5"/>
-      <c r="AV415" s="5"/>
-      <c r="AW415" s="5"/>
-      <c r="AX415" s="5"/>
     </row>
-    <row r="416" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -52769,12 +52016,8 @@
       <c r="AT416">
         <v>0</v>
       </c>
-      <c r="AU416" s="5"/>
-      <c r="AV416" s="5"/>
-      <c r="AW416" s="5"/>
-      <c r="AX416" s="5"/>
     </row>
-    <row r="417" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -52913,12 +52156,8 @@
       <c r="AT417">
         <v>0</v>
       </c>
-      <c r="AU417" s="5"/>
-      <c r="AV417" s="5"/>
-      <c r="AW417" s="5"/>
-      <c r="AX417" s="5"/>
     </row>
-    <row r="418" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>438</v>
       </c>
@@ -53057,12 +52296,8 @@
       <c r="AT418">
         <v>0</v>
       </c>
-      <c r="AU418" s="5"/>
-      <c r="AV418" s="5"/>
-      <c r="AW418" s="5"/>
-      <c r="AX418" s="5"/>
     </row>
-    <row r="419" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>439</v>
       </c>
@@ -53201,12 +52436,8 @@
       <c r="AT419">
         <v>0</v>
       </c>
-      <c r="AU419" s="5"/>
-      <c r="AV419" s="5"/>
-      <c r="AW419" s="5"/>
-      <c r="AX419" s="5"/>
     </row>
-    <row r="420" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>440</v>
       </c>
@@ -53345,12 +52576,8 @@
       <c r="AT420">
         <v>0</v>
       </c>
-      <c r="AU420" s="5"/>
-      <c r="AV420" s="5"/>
-      <c r="AW420" s="5"/>
-      <c r="AX420" s="5"/>
     </row>
-    <row r="421" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>441</v>
       </c>
@@ -53489,12 +52716,8 @@
       <c r="AT421">
         <v>0</v>
       </c>
-      <c r="AU421" s="5"/>
-      <c r="AV421" s="5"/>
-      <c r="AW421" s="5"/>
-      <c r="AX421" s="5"/>
     </row>
-    <row r="422" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>442</v>
       </c>
@@ -53633,12 +52856,8 @@
       <c r="AT422">
         <v>0</v>
       </c>
-      <c r="AU422" s="5"/>
-      <c r="AV422" s="5"/>
-      <c r="AW422" s="5"/>
-      <c r="AX422" s="5"/>
     </row>
-    <row r="423" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>443</v>
       </c>
@@ -53777,12 +52996,8 @@
       <c r="AT423">
         <v>0</v>
       </c>
-      <c r="AU423" s="5"/>
-      <c r="AV423" s="5"/>
-      <c r="AW423" s="5"/>
-      <c r="AX423" s="5"/>
     </row>
-    <row r="424" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>444</v>
       </c>
@@ -53921,12 +53136,8 @@
       <c r="AT424">
         <v>0</v>
       </c>
-      <c r="AU424" s="5"/>
-      <c r="AV424" s="5"/>
-      <c r="AW424" s="5"/>
-      <c r="AX424" s="5"/>
     </row>
-    <row r="425" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>445</v>
       </c>
@@ -54065,12 +53276,8 @@
       <c r="AT425">
         <v>0</v>
       </c>
-      <c r="AU425" s="5"/>
-      <c r="AV425" s="5"/>
-      <c r="AW425" s="5"/>
-      <c r="AX425" s="5"/>
     </row>
-    <row r="426" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>446</v>
       </c>
@@ -54209,12 +53416,8 @@
       <c r="AT426">
         <v>0</v>
       </c>
-      <c r="AU426" s="5"/>
-      <c r="AV426" s="5"/>
-      <c r="AW426" s="5"/>
-      <c r="AX426" s="5"/>
     </row>
-    <row r="427" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>447</v>
       </c>
@@ -54353,12 +53556,8 @@
       <c r="AT427">
         <v>0</v>
       </c>
-      <c r="AU427" s="5"/>
-      <c r="AV427" s="5"/>
-      <c r="AW427" s="5"/>
-      <c r="AX427" s="5"/>
     </row>
-    <row r="428" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>448</v>
       </c>
@@ -54497,12 +53696,8 @@
       <c r="AT428">
         <v>0</v>
       </c>
-      <c r="AU428" s="5"/>
-      <c r="AV428" s="5"/>
-      <c r="AW428" s="5"/>
-      <c r="AX428" s="5"/>
     </row>
-    <row r="429" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>449</v>
       </c>
@@ -54641,12 +53836,8 @@
       <c r="AT429">
         <v>0</v>
       </c>
-      <c r="AU429" s="5"/>
-      <c r="AV429" s="5"/>
-      <c r="AW429" s="5"/>
-      <c r="AX429" s="5"/>
     </row>
-    <row r="430" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>450</v>
       </c>
@@ -54785,12 +53976,8 @@
       <c r="AT430">
         <v>0</v>
       </c>
-      <c r="AU430" s="5"/>
-      <c r="AV430" s="5"/>
-      <c r="AW430" s="5"/>
-      <c r="AX430" s="5"/>
     </row>
-    <row r="431" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>451</v>
       </c>
@@ -54929,12 +54116,8 @@
       <c r="AT431">
         <v>0</v>
       </c>
-      <c r="AU431" s="5"/>
-      <c r="AV431" s="5"/>
-      <c r="AW431" s="5"/>
-      <c r="AX431" s="5"/>
     </row>
-    <row r="432" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>452</v>
       </c>
@@ -55073,12 +54256,8 @@
       <c r="AT432">
         <v>0</v>
       </c>
-      <c r="AU432" s="5"/>
-      <c r="AV432" s="5"/>
-      <c r="AW432" s="5"/>
-      <c r="AX432" s="5"/>
     </row>
-    <row r="433" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>453</v>
       </c>
@@ -55217,12 +54396,8 @@
       <c r="AT433">
         <v>0</v>
       </c>
-      <c r="AU433" s="5"/>
-      <c r="AV433" s="5"/>
-      <c r="AW433" s="5"/>
-      <c r="AX433" s="5"/>
     </row>
-    <row r="434" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>454</v>
       </c>
@@ -55361,12 +54536,8 @@
       <c r="AT434">
         <v>0</v>
       </c>
-      <c r="AU434" s="5"/>
-      <c r="AV434" s="5"/>
-      <c r="AW434" s="5"/>
-      <c r="AX434" s="5"/>
     </row>
-    <row r="435" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>455</v>
       </c>
@@ -55505,12 +54676,8 @@
       <c r="AT435">
         <v>0</v>
       </c>
-      <c r="AU435" s="5"/>
-      <c r="AV435" s="5"/>
-      <c r="AW435" s="5"/>
-      <c r="AX435" s="5"/>
     </row>
-    <row r="436" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>456</v>
       </c>
@@ -55649,12 +54816,8 @@
       <c r="AT436">
         <v>0</v>
       </c>
-      <c r="AU436" s="5"/>
-      <c r="AV436" s="5"/>
-      <c r="AW436" s="5"/>
-      <c r="AX436" s="5"/>
     </row>
-    <row r="437" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>457</v>
       </c>
@@ -55793,12 +54956,8 @@
       <c r="AT437">
         <v>0</v>
       </c>
-      <c r="AU437" s="5"/>
-      <c r="AV437" s="5"/>
-      <c r="AW437" s="5"/>
-      <c r="AX437" s="5"/>
     </row>
-    <row r="438" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>458</v>
       </c>
@@ -55937,12 +55096,8 @@
       <c r="AT438">
         <v>0</v>
       </c>
-      <c r="AU438" s="5"/>
-      <c r="AV438" s="5"/>
-      <c r="AW438" s="5"/>
-      <c r="AX438" s="5"/>
     </row>
-    <row r="439" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>459</v>
       </c>
@@ -56072,12 +55227,8 @@
       <c r="AT439">
         <v>0</v>
       </c>
-      <c r="AU439" s="5"/>
-      <c r="AV439" s="5"/>
-      <c r="AW439" s="5"/>
-      <c r="AX439" s="5"/>
     </row>
-    <row r="440" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>460</v>
       </c>
@@ -56216,12 +55367,8 @@
       <c r="AT440">
         <v>0</v>
       </c>
-      <c r="AU440" s="5"/>
-      <c r="AV440" s="5"/>
-      <c r="AW440" s="5"/>
-      <c r="AX440" s="5"/>
     </row>
-    <row r="441" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>461</v>
       </c>
@@ -56360,12 +55507,8 @@
       <c r="AT441">
         <v>0</v>
       </c>
-      <c r="AU441" s="5"/>
-      <c r="AV441" s="5"/>
-      <c r="AW441" s="5"/>
-      <c r="AX441" s="5"/>
     </row>
-    <row r="442" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>462</v>
       </c>
@@ -56504,12 +55647,8 @@
       <c r="AT442">
         <v>0</v>
       </c>
-      <c r="AU442" s="5"/>
-      <c r="AV442" s="5"/>
-      <c r="AW442" s="5"/>
-      <c r="AX442" s="5"/>
     </row>
-    <row r="443" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>463</v>
       </c>
@@ -56648,12 +55787,8 @@
       <c r="AT443">
         <v>0</v>
       </c>
-      <c r="AU443" s="5"/>
-      <c r="AV443" s="5"/>
-      <c r="AW443" s="5"/>
-      <c r="AX443" s="5"/>
     </row>
-    <row r="444" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>464</v>
       </c>
@@ -56792,12 +55927,8 @@
       <c r="AT444">
         <v>0</v>
       </c>
-      <c r="AU444" s="5"/>
-      <c r="AV444" s="5"/>
-      <c r="AW444" s="5"/>
-      <c r="AX444" s="5"/>
     </row>
-    <row r="445" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>465</v>
       </c>
@@ -56936,12 +56067,8 @@
       <c r="AT445">
         <v>0</v>
       </c>
-      <c r="AU445" s="5"/>
-      <c r="AV445" s="5"/>
-      <c r="AW445" s="5"/>
-      <c r="AX445" s="5"/>
     </row>
-    <row r="446" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>466</v>
       </c>
@@ -57080,12 +56207,8 @@
       <c r="AT446">
         <v>0</v>
       </c>
-      <c r="AU446" s="5"/>
-      <c r="AV446" s="5"/>
-      <c r="AW446" s="5"/>
-      <c r="AX446" s="5"/>
     </row>
-    <row r="447" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>467</v>
       </c>
@@ -57224,12 +56347,8 @@
       <c r="AT447">
         <v>0</v>
       </c>
-      <c r="AU447" s="5"/>
-      <c r="AV447" s="5"/>
-      <c r="AW447" s="5"/>
-      <c r="AX447" s="5"/>
     </row>
-    <row r="448" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>468</v>
       </c>
@@ -57368,12 +56487,8 @@
       <c r="AT448">
         <v>0</v>
       </c>
-      <c r="AU448" s="5"/>
-      <c r="AV448" s="5"/>
-      <c r="AW448" s="5"/>
-      <c r="AX448" s="5"/>
     </row>
-    <row r="449" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>469</v>
       </c>
@@ -57389,7 +56504,7 @@
       <c r="E449" t="s">
         <v>382</v>
       </c>
-      <c r="F449" s="6" t="s">
+      <c r="F449" s="1" t="s">
         <v>733</v>
       </c>
       <c r="G449">
@@ -57512,12 +56627,8 @@
       <c r="AT449">
         <v>0</v>
       </c>
-      <c r="AU449" s="5"/>
-      <c r="AV449" s="5"/>
-      <c r="AW449" s="5"/>
-      <c r="AX449" s="5"/>
     </row>
-    <row r="450" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>470</v>
       </c>
@@ -57656,12 +56767,8 @@
       <c r="AT450">
         <v>0</v>
       </c>
-      <c r="AU450" s="5"/>
-      <c r="AV450" s="5"/>
-      <c r="AW450" s="5"/>
-      <c r="AX450" s="5"/>
     </row>
-    <row r="451" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>471</v>
       </c>
@@ -57800,12 +56907,8 @@
       <c r="AT451">
         <v>0</v>
       </c>
-      <c r="AU451" s="5"/>
-      <c r="AV451" s="5"/>
-      <c r="AW451" s="5"/>
-      <c r="AX451" s="5"/>
     </row>
-    <row r="452" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>472</v>
       </c>
@@ -57944,12 +57047,8 @@
       <c r="AT452">
         <v>0</v>
       </c>
-      <c r="AU452" s="5"/>
-      <c r="AV452" s="5"/>
-      <c r="AW452" s="5"/>
-      <c r="AX452" s="5"/>
     </row>
-    <row r="453" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>475</v>
       </c>
@@ -58088,12 +57187,8 @@
       <c r="AT453">
         <v>0</v>
       </c>
-      <c r="AU453" s="5"/>
-      <c r="AV453" s="5"/>
-      <c r="AW453" s="5"/>
-      <c r="AX453" s="5"/>
     </row>
-    <row r="454" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>476</v>
       </c>
@@ -58232,12 +57327,8 @@
       <c r="AT454">
         <v>0</v>
       </c>
-      <c r="AU454" s="5"/>
-      <c r="AV454" s="5"/>
-      <c r="AW454" s="5"/>
-      <c r="AX454" s="5"/>
     </row>
-    <row r="455" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>477</v>
       </c>
@@ -58376,12 +57467,8 @@
       <c r="AT455">
         <v>0</v>
       </c>
-      <c r="AU455" s="5"/>
-      <c r="AV455" s="5"/>
-      <c r="AW455" s="5"/>
-      <c r="AX455" s="5"/>
     </row>
-    <row r="456" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>478</v>
       </c>
@@ -58520,12 +57607,8 @@
       <c r="AT456">
         <v>0</v>
       </c>
-      <c r="AU456" s="5"/>
-      <c r="AV456" s="5"/>
-      <c r="AW456" s="5"/>
-      <c r="AX456" s="5"/>
     </row>
-    <row r="457" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>479</v>
       </c>
@@ -58664,12 +57747,8 @@
       <c r="AT457">
         <v>0</v>
       </c>
-      <c r="AU457" s="5"/>
-      <c r="AV457" s="5"/>
-      <c r="AW457" s="5"/>
-      <c r="AX457" s="5"/>
     </row>
-    <row r="458" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>480</v>
       </c>
@@ -58808,12 +57887,8 @@
       <c r="AT458">
         <v>0</v>
       </c>
-      <c r="AU458" s="5"/>
-      <c r="AV458" s="5"/>
-      <c r="AW458" s="5"/>
-      <c r="AX458" s="5"/>
     </row>
-    <row r="459" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>481</v>
       </c>
@@ -58952,12 +58027,8 @@
       <c r="AT459">
         <v>0</v>
       </c>
-      <c r="AU459" s="5"/>
-      <c r="AV459" s="5"/>
-      <c r="AW459" s="5"/>
-      <c r="AX459" s="5"/>
     </row>
-    <row r="460" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>482</v>
       </c>
@@ -59096,12 +58167,8 @@
       <c r="AT460">
         <v>0</v>
       </c>
-      <c r="AU460" s="5"/>
-      <c r="AV460" s="5"/>
-      <c r="AW460" s="5"/>
-      <c r="AX460" s="5"/>
     </row>
-    <row r="461" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>483</v>
       </c>
@@ -59240,12 +58307,8 @@
       <c r="AT461">
         <v>0</v>
       </c>
-      <c r="AU461" s="5"/>
-      <c r="AV461" s="5"/>
-      <c r="AW461" s="5"/>
-      <c r="AX461" s="5"/>
     </row>
-    <row r="462" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>484</v>
       </c>
@@ -59384,12 +58447,8 @@
       <c r="AT462">
         <v>0</v>
       </c>
-      <c r="AU462" s="5"/>
-      <c r="AV462" s="5"/>
-      <c r="AW462" s="5"/>
-      <c r="AX462" s="5"/>
     </row>
-    <row r="463" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>485</v>
       </c>
@@ -59528,12 +58587,8 @@
       <c r="AT463">
         <v>0</v>
       </c>
-      <c r="AU463" s="5"/>
-      <c r="AV463" s="5"/>
-      <c r="AW463" s="5"/>
-      <c r="AX463" s="5"/>
     </row>
-    <row r="464" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>486</v>
       </c>
@@ -59672,12 +58727,8 @@
       <c r="AT464">
         <v>0</v>
       </c>
-      <c r="AU464" s="5"/>
-      <c r="AV464" s="5"/>
-      <c r="AW464" s="5"/>
-      <c r="AX464" s="5"/>
     </row>
-    <row r="465" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>487</v>
       </c>
@@ -59816,12 +58867,8 @@
       <c r="AT465">
         <v>0</v>
       </c>
-      <c r="AU465" s="5"/>
-      <c r="AV465" s="5"/>
-      <c r="AW465" s="5"/>
-      <c r="AX465" s="5"/>
     </row>
-    <row r="466" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>488</v>
       </c>
@@ -59960,12 +59007,8 @@
       <c r="AT466">
         <v>0</v>
       </c>
-      <c r="AU466" s="5"/>
-      <c r="AV466" s="5"/>
-      <c r="AW466" s="5"/>
-      <c r="AX466" s="5"/>
     </row>
-    <row r="467" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>489</v>
       </c>
@@ -60104,12 +59147,8 @@
       <c r="AT467">
         <v>0</v>
       </c>
-      <c r="AU467" s="5"/>
-      <c r="AV467" s="5"/>
-      <c r="AW467" s="5"/>
-      <c r="AX467" s="5"/>
     </row>
-    <row r="468" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>490</v>
       </c>
@@ -60248,12 +59287,8 @@
       <c r="AT468">
         <v>0</v>
       </c>
-      <c r="AU468" s="5"/>
-      <c r="AV468" s="5"/>
-      <c r="AW468" s="5"/>
-      <c r="AX468" s="5"/>
     </row>
-    <row r="469" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>491</v>
       </c>
@@ -60392,12 +59427,8 @@
       <c r="AT469">
         <v>0</v>
       </c>
-      <c r="AU469" s="5"/>
-      <c r="AV469" s="5"/>
-      <c r="AW469" s="5"/>
-      <c r="AX469" s="5"/>
     </row>
-    <row r="470" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>492</v>
       </c>
@@ -60536,12 +59567,8 @@
       <c r="AT470">
         <v>0</v>
       </c>
-      <c r="AU470" s="5"/>
-      <c r="AV470" s="5"/>
-      <c r="AW470" s="5"/>
-      <c r="AX470" s="5"/>
     </row>
-    <row r="471" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>493</v>
       </c>
@@ -60680,12 +59707,8 @@
       <c r="AT471">
         <v>0</v>
       </c>
-      <c r="AU471" s="5"/>
-      <c r="AV471" s="5"/>
-      <c r="AW471" s="5"/>
-      <c r="AX471" s="5"/>
     </row>
-    <row r="472" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>494</v>
       </c>
@@ -60824,12 +59847,8 @@
       <c r="AT472">
         <v>0</v>
       </c>
-      <c r="AU472" s="5"/>
-      <c r="AV472" s="5"/>
-      <c r="AW472" s="5"/>
-      <c r="AX472" s="5"/>
     </row>
-    <row r="473" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>495</v>
       </c>
@@ -60968,12 +59987,8 @@
       <c r="AT473">
         <v>0</v>
       </c>
-      <c r="AU473" s="5"/>
-      <c r="AV473" s="5"/>
-      <c r="AW473" s="5"/>
-      <c r="AX473" s="5"/>
     </row>
-    <row r="474" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>496</v>
       </c>
@@ -61112,12 +60127,8 @@
       <c r="AT474">
         <v>0</v>
       </c>
-      <c r="AU474" s="5"/>
-      <c r="AV474" s="5"/>
-      <c r="AW474" s="5"/>
-      <c r="AX474" s="5"/>
     </row>
-    <row r="475" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>497</v>
       </c>
@@ -61256,12 +60267,8 @@
       <c r="AT475">
         <v>0</v>
       </c>
-      <c r="AU475" s="5"/>
-      <c r="AV475" s="5"/>
-      <c r="AW475" s="5"/>
-      <c r="AX475" s="5"/>
     </row>
-    <row r="476" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>498</v>
       </c>
@@ -61400,12 +60407,8 @@
       <c r="AT476">
         <v>0</v>
       </c>
-      <c r="AU476" s="5"/>
-      <c r="AV476" s="5"/>
-      <c r="AW476" s="5"/>
-      <c r="AX476" s="5"/>
     </row>
-    <row r="477" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>499</v>
       </c>
@@ -61544,12 +60547,8 @@
       <c r="AT477">
         <v>0</v>
       </c>
-      <c r="AU477" s="5"/>
-      <c r="AV477" s="5"/>
-      <c r="AW477" s="5"/>
-      <c r="AX477" s="5"/>
     </row>
-    <row r="478" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>500</v>
       </c>
@@ -61688,12 +60687,8 @@
       <c r="AT478">
         <v>0</v>
       </c>
-      <c r="AU478" s="5"/>
-      <c r="AV478" s="5"/>
-      <c r="AW478" s="5"/>
-      <c r="AX478" s="5"/>
     </row>
-    <row r="479" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>501</v>
       </c>
@@ -61832,12 +60827,8 @@
       <c r="AT479">
         <v>0</v>
       </c>
-      <c r="AU479" s="5"/>
-      <c r="AV479" s="5"/>
-      <c r="AW479" s="5"/>
-      <c r="AX479" s="5"/>
     </row>
-    <row r="480" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>502</v>
       </c>
@@ -61976,12 +60967,8 @@
       <c r="AT480">
         <v>0</v>
       </c>
-      <c r="AU480" s="5"/>
-      <c r="AV480" s="5"/>
-      <c r="AW480" s="5"/>
-      <c r="AX480" s="5"/>
     </row>
-    <row r="481" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>503</v>
       </c>
@@ -62120,12 +61107,8 @@
       <c r="AT481">
         <v>0</v>
       </c>
-      <c r="AU481" s="5"/>
-      <c r="AV481" s="5"/>
-      <c r="AW481" s="5"/>
-      <c r="AX481" s="5"/>
     </row>
-    <row r="482" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>504</v>
       </c>
@@ -62264,12 +61247,8 @@
       <c r="AT482">
         <v>0</v>
       </c>
-      <c r="AU482" s="5"/>
-      <c r="AV482" s="5"/>
-      <c r="AW482" s="5"/>
-      <c r="AX482" s="5"/>
     </row>
-    <row r="483" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>505</v>
       </c>
@@ -62408,12 +61387,8 @@
       <c r="AT483">
         <v>0</v>
       </c>
-      <c r="AU483" s="5"/>
-      <c r="AV483" s="5"/>
-      <c r="AW483" s="5"/>
-      <c r="AX483" s="5"/>
     </row>
-    <row r="484" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>506</v>
       </c>
@@ -62552,12 +61527,8 @@
       <c r="AT484">
         <v>0</v>
       </c>
-      <c r="AU484" s="5"/>
-      <c r="AV484" s="5"/>
-      <c r="AW484" s="5"/>
-      <c r="AX484" s="5"/>
     </row>
-    <row r="485" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>507</v>
       </c>
@@ -62696,12 +61667,8 @@
       <c r="AT485">
         <v>0</v>
       </c>
-      <c r="AU485" s="5"/>
-      <c r="AV485" s="5"/>
-      <c r="AW485" s="5"/>
-      <c r="AX485" s="5"/>
     </row>
-    <row r="486" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>508</v>
       </c>
@@ -62840,12 +61807,8 @@
       <c r="AT486">
         <v>0</v>
       </c>
-      <c r="AU486" s="5"/>
-      <c r="AV486" s="5"/>
-      <c r="AW486" s="5"/>
-      <c r="AX486" s="5"/>
     </row>
-    <row r="487" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>509</v>
       </c>
@@ -62984,12 +61947,8 @@
       <c r="AT487">
         <v>0</v>
       </c>
-      <c r="AU487" s="5"/>
-      <c r="AV487" s="5"/>
-      <c r="AW487" s="5"/>
-      <c r="AX487" s="5"/>
     </row>
-    <row r="488" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>510</v>
       </c>
@@ -63128,12 +62087,8 @@
       <c r="AT488">
         <v>0</v>
       </c>
-      <c r="AU488" s="5"/>
-      <c r="AV488" s="5"/>
-      <c r="AW488" s="5"/>
-      <c r="AX488" s="5"/>
     </row>
-    <row r="489" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>511</v>
       </c>
@@ -63272,12 +62227,8 @@
       <c r="AT489">
         <v>0</v>
       </c>
-      <c r="AU489" s="5"/>
-      <c r="AV489" s="5"/>
-      <c r="AW489" s="5"/>
-      <c r="AX489" s="5"/>
     </row>
-    <row r="490" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>512</v>
       </c>
@@ -63416,12 +62367,8 @@
       <c r="AT490">
         <v>0</v>
       </c>
-      <c r="AU490" s="5"/>
-      <c r="AV490" s="5"/>
-      <c r="AW490" s="5"/>
-      <c r="AX490" s="5"/>
     </row>
-    <row r="491" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>513</v>
       </c>
@@ -63560,12 +62507,8 @@
       <c r="AT491">
         <v>0</v>
       </c>
-      <c r="AU491" s="5"/>
-      <c r="AV491" s="5"/>
-      <c r="AW491" s="5"/>
-      <c r="AX491" s="5"/>
     </row>
-    <row r="492" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>514</v>
       </c>
@@ -63704,12 +62647,8 @@
       <c r="AT492">
         <v>0</v>
       </c>
-      <c r="AU492" s="5"/>
-      <c r="AV492" s="5"/>
-      <c r="AW492" s="5"/>
-      <c r="AX492" s="5"/>
     </row>
-    <row r="493" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>515</v>
       </c>
@@ -63848,12 +62787,8 @@
       <c r="AT493">
         <v>0</v>
       </c>
-      <c r="AU493" s="5"/>
-      <c r="AV493" s="5"/>
-      <c r="AW493" s="5"/>
-      <c r="AX493" s="5"/>
     </row>
-    <row r="494" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>516</v>
       </c>
@@ -63992,12 +62927,8 @@
       <c r="AT494">
         <v>0</v>
       </c>
-      <c r="AU494" s="5"/>
-      <c r="AV494" s="5"/>
-      <c r="AW494" s="5"/>
-      <c r="AX494" s="5"/>
     </row>
-    <row r="495" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>517</v>
       </c>
@@ -64136,12 +63067,8 @@
       <c r="AT495" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="AU495" s="5"/>
-      <c r="AV495" s="5"/>
-      <c r="AW495" s="5"/>
-      <c r="AX495" s="5"/>
     </row>
-    <row r="496" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>518</v>
       </c>
@@ -64280,12 +63207,8 @@
       <c r="AT496">
         <v>0</v>
       </c>
-      <c r="AU496" s="5"/>
-      <c r="AV496" s="5"/>
-      <c r="AW496" s="5"/>
-      <c r="AX496" s="5"/>
     </row>
-    <row r="497" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>519</v>
       </c>
@@ -64424,12 +63347,8 @@
       <c r="AT497">
         <v>0</v>
       </c>
-      <c r="AU497" s="5"/>
-      <c r="AV497" s="5"/>
-      <c r="AW497" s="5"/>
-      <c r="AX497" s="5"/>
     </row>
-    <row r="498" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>520</v>
       </c>
@@ -64568,12 +63487,8 @@
       <c r="AT498">
         <v>0</v>
       </c>
-      <c r="AU498" s="5"/>
-      <c r="AV498" s="5"/>
-      <c r="AW498" s="5"/>
-      <c r="AX498" s="5"/>
     </row>
-    <row r="499" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>521</v>
       </c>
@@ -64712,12 +63627,8 @@
       <c r="AT499">
         <v>0</v>
       </c>
-      <c r="AU499" s="5"/>
-      <c r="AV499" s="5"/>
-      <c r="AW499" s="5"/>
-      <c r="AX499" s="5"/>
     </row>
-    <row r="500" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>522</v>
       </c>
@@ -64856,12 +63767,8 @@
       <c r="AT500">
         <v>0</v>
       </c>
-      <c r="AU500" s="5"/>
-      <c r="AV500" s="5"/>
-      <c r="AW500" s="5"/>
-      <c r="AX500" s="5"/>
     </row>
-    <row r="501" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>523</v>
       </c>
@@ -65000,12 +63907,8 @@
       <c r="AT501">
         <v>0</v>
       </c>
-      <c r="AU501" s="5"/>
-      <c r="AV501" s="5"/>
-      <c r="AW501" s="5"/>
-      <c r="AX501" s="5"/>
     </row>
-    <row r="502" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>524</v>
       </c>
@@ -65144,12 +64047,8 @@
       <c r="AT502">
         <v>0</v>
       </c>
-      <c r="AU502" s="5"/>
-      <c r="AV502" s="5"/>
-      <c r="AW502" s="5"/>
-      <c r="AX502" s="5"/>
     </row>
-    <row r="503" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>525</v>
       </c>
@@ -65288,12 +64187,8 @@
       <c r="AT503">
         <v>0</v>
       </c>
-      <c r="AU503" s="5"/>
-      <c r="AV503" s="5"/>
-      <c r="AW503" s="5"/>
-      <c r="AX503" s="5"/>
     </row>
-    <row r="504" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>526</v>
       </c>
@@ -65432,12 +64327,8 @@
       <c r="AT504">
         <v>0</v>
       </c>
-      <c r="AU504" s="5"/>
-      <c r="AV504" s="5"/>
-      <c r="AW504" s="5"/>
-      <c r="AX504" s="5"/>
     </row>
-    <row r="505" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>527</v>
       </c>
@@ -65576,12 +64467,8 @@
       <c r="AT505">
         <v>0</v>
       </c>
-      <c r="AU505" s="5"/>
-      <c r="AV505" s="5"/>
-      <c r="AW505" s="5"/>
-      <c r="AX505" s="5"/>
     </row>
-    <row r="506" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>528</v>
       </c>
@@ -65720,12 +64607,8 @@
       <c r="AT506">
         <v>0</v>
       </c>
-      <c r="AU506" s="5"/>
-      <c r="AV506" s="5"/>
-      <c r="AW506" s="5"/>
-      <c r="AX506" s="5"/>
     </row>
-    <row r="507" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>529</v>
       </c>
@@ -65864,12 +64747,8 @@
       <c r="AT507">
         <v>0</v>
       </c>
-      <c r="AU507" s="5"/>
-      <c r="AV507" s="5"/>
-      <c r="AW507" s="5"/>
-      <c r="AX507" s="5"/>
     </row>
-    <row r="508" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>530</v>
       </c>
@@ -66008,12 +64887,8 @@
       <c r="AT508">
         <v>0</v>
       </c>
-      <c r="AU508" s="5"/>
-      <c r="AV508" s="5"/>
-      <c r="AW508" s="5"/>
-      <c r="AX508" s="5"/>
     </row>
-    <row r="509" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>531</v>
       </c>
@@ -66152,12 +65027,8 @@
       <c r="AT509">
         <v>0</v>
       </c>
-      <c r="AU509" s="5"/>
-      <c r="AV509" s="5"/>
-      <c r="AW509" s="5"/>
-      <c r="AX509" s="5"/>
     </row>
-    <row r="510" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>532</v>
       </c>
@@ -66296,12 +65167,8 @@
       <c r="AT510">
         <v>0</v>
       </c>
-      <c r="AU510" s="5"/>
-      <c r="AV510" s="5"/>
-      <c r="AW510" s="5"/>
-      <c r="AX510" s="5"/>
     </row>
-    <row r="511" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>533</v>
       </c>
@@ -66440,12 +65307,8 @@
       <c r="AT511">
         <v>0</v>
       </c>
-      <c r="AU511" s="5"/>
-      <c r="AV511" s="5"/>
-      <c r="AW511" s="5"/>
-      <c r="AX511" s="5"/>
     </row>
-    <row r="512" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>534</v>
       </c>
@@ -66584,10 +65447,6 @@
       <c r="AT512">
         <v>0</v>
       </c>
-      <c r="AU512" s="5"/>
-      <c r="AV512" s="5"/>
-      <c r="AW512" s="5"/>
-      <c r="AX512" s="5"/>
     </row>
     <row r="513" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
@@ -66728,10 +65587,6 @@
       <c r="AT513">
         <v>0</v>
       </c>
-      <c r="AU513" s="5"/>
-      <c r="AV513" s="5"/>
-      <c r="AW513" s="5"/>
-      <c r="AX513" s="5"/>
     </row>
     <row r="514" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
@@ -66872,10 +65727,6 @@
       <c r="AT514">
         <v>0</v>
       </c>
-      <c r="AU514" s="5"/>
-      <c r="AV514" s="5"/>
-      <c r="AW514" s="5"/>
-      <c r="AX514" s="5"/>
     </row>
     <row r="515" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
@@ -67016,10 +65867,6 @@
       <c r="AT515">
         <v>0</v>
       </c>
-      <c r="AU515" s="5"/>
-      <c r="AV515" s="5"/>
-      <c r="AW515" s="5"/>
-      <c r="AX515" s="5"/>
     </row>
     <row r="516" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
@@ -67160,10 +66007,6 @@
       <c r="AT516">
         <v>0</v>
       </c>
-      <c r="AU516" s="5"/>
-      <c r="AV516" s="5"/>
-      <c r="AW516" s="5"/>
-      <c r="AX516" s="5"/>
     </row>
     <row r="517" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
@@ -67292,10 +66135,6 @@
       <c r="AT517">
         <v>0</v>
       </c>
-      <c r="AU517" s="5"/>
-      <c r="AV517" s="5"/>
-      <c r="AW517" s="5"/>
-      <c r="AX517" s="5"/>
     </row>
     <row r="518" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
@@ -67436,16 +66275,16 @@
       <c r="AT518">
         <v>10</v>
       </c>
-      <c r="AU518" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AV518" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AW518" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AX518" s="5">
+      <c r="AU518" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV518" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW518" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX518">
         <v>0</v>
       </c>
     </row>
@@ -67588,10 +66427,6 @@
       <c r="AT519">
         <v>0</v>
       </c>
-      <c r="AU519" s="5"/>
-      <c r="AV519" s="5"/>
-      <c r="AW519" s="5"/>
-      <c r="AX519" s="5"/>
     </row>
     <row r="520" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
@@ -67732,10 +66567,6 @@
       <c r="AT520">
         <v>0</v>
       </c>
-      <c r="AU520" s="5"/>
-      <c r="AV520" s="5"/>
-      <c r="AW520" s="5"/>
-      <c r="AX520" s="5"/>
     </row>
     <row r="521" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
@@ -67876,10 +66707,6 @@
       <c r="AT521">
         <v>0</v>
       </c>
-      <c r="AU521" s="5"/>
-      <c r="AV521" s="5"/>
-      <c r="AW521" s="5"/>
-      <c r="AX521" s="5"/>
     </row>
     <row r="522" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
@@ -68020,10 +66847,6 @@
       <c r="AT522">
         <v>0</v>
       </c>
-      <c r="AU522" s="5"/>
-      <c r="AV522" s="5"/>
-      <c r="AW522" s="5"/>
-      <c r="AX522" s="5"/>
     </row>
     <row r="523" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
@@ -68164,10 +66987,6 @@
       <c r="AT523">
         <v>0</v>
       </c>
-      <c r="AU523" s="5"/>
-      <c r="AV523" s="5"/>
-      <c r="AW523" s="5"/>
-      <c r="AX523" s="5"/>
     </row>
     <row r="524" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
@@ -68308,10 +67127,6 @@
       <c r="AT524">
         <v>0</v>
       </c>
-      <c r="AU524" s="5"/>
-      <c r="AV524" s="5"/>
-      <c r="AW524" s="5"/>
-      <c r="AX524" s="5"/>
     </row>
     <row r="525" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
@@ -68452,10 +67267,6 @@
       <c r="AT525">
         <v>0</v>
       </c>
-      <c r="AU525" s="5"/>
-      <c r="AV525" s="5"/>
-      <c r="AW525" s="5"/>
-      <c r="AX525" s="5"/>
     </row>
     <row r="526" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
@@ -68596,10 +67407,6 @@
       <c r="AT526">
         <v>0</v>
       </c>
-      <c r="AU526" s="5"/>
-      <c r="AV526" s="5"/>
-      <c r="AW526" s="5"/>
-      <c r="AX526" s="5"/>
     </row>
     <row r="527" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
@@ -68740,10 +67547,6 @@
       <c r="AT527">
         <v>0</v>
       </c>
-      <c r="AU527" s="5"/>
-      <c r="AV527" s="5"/>
-      <c r="AW527" s="5"/>
-      <c r="AX527" s="5"/>
     </row>
     <row r="528" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
@@ -68884,12 +67687,8 @@
       <c r="AT528">
         <v>0</v>
       </c>
-      <c r="AU528" s="5"/>
-      <c r="AV528" s="5"/>
-      <c r="AW528" s="5"/>
-      <c r="AX528" s="5"/>
     </row>
-    <row r="529" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>551</v>
       </c>
@@ -69028,12 +67827,8 @@
       <c r="AT529">
         <v>0</v>
       </c>
-      <c r="AU529" s="5"/>
-      <c r="AV529" s="5"/>
-      <c r="AW529" s="5"/>
-      <c r="AX529" s="5"/>
     </row>
-    <row r="530" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>552</v>
       </c>
@@ -69172,12 +67967,8 @@
       <c r="AT530">
         <v>0</v>
       </c>
-      <c r="AU530" s="5"/>
-      <c r="AV530" s="5"/>
-      <c r="AW530" s="5"/>
-      <c r="AX530" s="5"/>
     </row>
-    <row r="531" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>553</v>
       </c>
@@ -69316,12 +68107,8 @@
       <c r="AT531">
         <v>0</v>
       </c>
-      <c r="AU531" s="5"/>
-      <c r="AV531" s="5"/>
-      <c r="AW531" s="5"/>
-      <c r="AX531" s="5"/>
     </row>
-    <row r="532" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>554</v>
       </c>
@@ -69460,12 +68247,8 @@
       <c r="AT532">
         <v>0</v>
       </c>
-      <c r="AU532" s="5"/>
-      <c r="AV532" s="5"/>
-      <c r="AW532" s="5"/>
-      <c r="AX532" s="5"/>
     </row>
-    <row r="533" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>555</v>
       </c>
@@ -69604,12 +68387,8 @@
       <c r="AT533">
         <v>0</v>
       </c>
-      <c r="AU533" s="5"/>
-      <c r="AV533" s="5"/>
-      <c r="AW533" s="5"/>
-      <c r="AX533" s="5"/>
     </row>
-    <row r="534" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>556</v>
       </c>
@@ -69748,12 +68527,8 @@
       <c r="AT534">
         <v>0</v>
       </c>
-      <c r="AU534" s="5"/>
-      <c r="AV534" s="5"/>
-      <c r="AW534" s="5"/>
-      <c r="AX534" s="5"/>
     </row>
-    <row r="535" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>557</v>
       </c>
@@ -69892,12 +68667,8 @@
       <c r="AT535">
         <v>0</v>
       </c>
-      <c r="AU535" s="5"/>
-      <c r="AV535" s="5"/>
-      <c r="AW535" s="5"/>
-      <c r="AX535" s="5"/>
     </row>
-    <row r="536" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>558</v>
       </c>
@@ -70036,12 +68807,8 @@
       <c r="AT536">
         <v>0</v>
       </c>
-      <c r="AU536" s="5"/>
-      <c r="AV536" s="5"/>
-      <c r="AW536" s="5"/>
-      <c r="AX536" s="5"/>
     </row>
-    <row r="537" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>559</v>
       </c>
@@ -70180,12 +68947,8 @@
       <c r="AT537">
         <v>0</v>
       </c>
-      <c r="AU537" s="5"/>
-      <c r="AV537" s="5"/>
-      <c r="AW537" s="5"/>
-      <c r="AX537" s="5"/>
     </row>
-    <row r="538" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>560</v>
       </c>
@@ -70324,12 +69087,8 @@
       <c r="AT538">
         <v>0</v>
       </c>
-      <c r="AU538" s="5"/>
-      <c r="AV538" s="5"/>
-      <c r="AW538" s="5"/>
-      <c r="AX538" s="5"/>
     </row>
-    <row r="539" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>561</v>
       </c>
@@ -70468,12 +69227,8 @@
       <c r="AT539">
         <v>0</v>
       </c>
-      <c r="AU539" s="5"/>
-      <c r="AV539" s="5"/>
-      <c r="AW539" s="5"/>
-      <c r="AX539" s="5"/>
     </row>
-    <row r="540" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>562</v>
       </c>
@@ -70612,12 +69367,8 @@
       <c r="AT540">
         <v>0</v>
       </c>
-      <c r="AU540" s="5"/>
-      <c r="AV540" s="5"/>
-      <c r="AW540" s="5"/>
-      <c r="AX540" s="5"/>
     </row>
-    <row r="541" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>563</v>
       </c>
@@ -70756,12 +69507,8 @@
       <c r="AT541">
         <v>0</v>
       </c>
-      <c r="AU541" s="5"/>
-      <c r="AV541" s="5"/>
-      <c r="AW541" s="5"/>
-      <c r="AX541" s="5"/>
     </row>
-    <row r="542" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>564</v>
       </c>
@@ -70777,12 +69524,8 @@
       <c r="E542" t="s">
         <v>566</v>
       </c>
-      <c r="AU542" s="5"/>
-      <c r="AV542" s="5"/>
-      <c r="AW542" s="5"/>
-      <c r="AX542" s="5"/>
     </row>
-    <row r="543" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>567</v>
       </c>
@@ -70798,12 +69541,8 @@
       <c r="E543" t="s">
         <v>566</v>
       </c>
-      <c r="AU543" s="5"/>
-      <c r="AV543" s="5"/>
-      <c r="AW543" s="5"/>
-      <c r="AX543" s="5"/>
     </row>
-    <row r="544" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>568</v>
       </c>
@@ -70819,12 +69558,8 @@
       <c r="E544" t="s">
         <v>566</v>
       </c>
-      <c r="AU544" s="5"/>
-      <c r="AV544" s="5"/>
-      <c r="AW544" s="5"/>
-      <c r="AX544" s="5"/>
     </row>
-    <row r="545" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>569</v>
       </c>
@@ -70840,12 +69575,8 @@
       <c r="E545" t="s">
         <v>566</v>
       </c>
-      <c r="AU545" s="5"/>
-      <c r="AV545" s="5"/>
-      <c r="AW545" s="5"/>
-      <c r="AX545" s="5"/>
     </row>
-    <row r="546" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>570</v>
       </c>
@@ -70861,12 +69592,8 @@
       <c r="E546" t="s">
         <v>566</v>
       </c>
-      <c r="AU546" s="5"/>
-      <c r="AV546" s="5"/>
-      <c r="AW546" s="5"/>
-      <c r="AX546" s="5"/>
     </row>
-    <row r="547" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>571</v>
       </c>
@@ -70882,12 +69609,8 @@
       <c r="E547" t="s">
         <v>566</v>
       </c>
-      <c r="AU547" s="5"/>
-      <c r="AV547" s="5"/>
-      <c r="AW547" s="5"/>
-      <c r="AX547" s="5"/>
     </row>
-    <row r="548" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>572</v>
       </c>
@@ -70903,12 +69626,8 @@
       <c r="E548" t="s">
         <v>566</v>
       </c>
-      <c r="AU548" s="5"/>
-      <c r="AV548" s="5"/>
-      <c r="AW548" s="5"/>
-      <c r="AX548" s="5"/>
     </row>
-    <row r="549" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>573</v>
       </c>
@@ -70924,12 +69643,8 @@
       <c r="E549" t="s">
         <v>566</v>
       </c>
-      <c r="AU549" s="5"/>
-      <c r="AV549" s="5"/>
-      <c r="AW549" s="5"/>
-      <c r="AX549" s="5"/>
     </row>
-    <row r="550" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>574</v>
       </c>
@@ -70945,12 +69660,8 @@
       <c r="E550" t="s">
         <v>566</v>
       </c>
-      <c r="AU550" s="5"/>
-      <c r="AV550" s="5"/>
-      <c r="AW550" s="5"/>
-      <c r="AX550" s="5"/>
     </row>
-    <row r="551" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>575</v>
       </c>
@@ -70966,12 +69677,8 @@
       <c r="E551" t="s">
         <v>566</v>
       </c>
-      <c r="AU551" s="5"/>
-      <c r="AV551" s="5"/>
-      <c r="AW551" s="5"/>
-      <c r="AX551" s="5"/>
     </row>
-    <row r="552" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>576</v>
       </c>
@@ -70987,12 +69694,8 @@
       <c r="E552" t="s">
         <v>566</v>
       </c>
-      <c r="AU552" s="5"/>
-      <c r="AV552" s="5"/>
-      <c r="AW552" s="5"/>
-      <c r="AX552" s="5"/>
     </row>
-    <row r="553" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>577</v>
       </c>
@@ -71008,12 +69711,8 @@
       <c r="E553" t="s">
         <v>566</v>
       </c>
-      <c r="AU553" s="5"/>
-      <c r="AV553" s="5"/>
-      <c r="AW553" s="5"/>
-      <c r="AX553" s="5"/>
     </row>
-    <row r="554" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>578</v>
       </c>
@@ -71029,12 +69728,8 @@
       <c r="E554" t="s">
         <v>566</v>
       </c>
-      <c r="AU554" s="5"/>
-      <c r="AV554" s="5"/>
-      <c r="AW554" s="5"/>
-      <c r="AX554" s="5"/>
     </row>
-    <row r="555" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>579</v>
       </c>
@@ -71050,12 +69745,8 @@
       <c r="E555" t="s">
         <v>566</v>
       </c>
-      <c r="AU555" s="5"/>
-      <c r="AV555" s="5"/>
-      <c r="AW555" s="5"/>
-      <c r="AX555" s="5"/>
     </row>
-    <row r="556" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>580</v>
       </c>
@@ -71071,12 +69762,8 @@
       <c r="E556" t="s">
         <v>566</v>
       </c>
-      <c r="AU556" s="5"/>
-      <c r="AV556" s="5"/>
-      <c r="AW556" s="5"/>
-      <c r="AX556" s="5"/>
     </row>
-    <row r="557" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>581</v>
       </c>
@@ -71092,12 +69779,8 @@
       <c r="E557" t="s">
         <v>566</v>
       </c>
-      <c r="AU557" s="5"/>
-      <c r="AV557" s="5"/>
-      <c r="AW557" s="5"/>
-      <c r="AX557" s="5"/>
     </row>
-    <row r="558" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>582</v>
       </c>
@@ -71113,12 +69796,8 @@
       <c r="E558" t="s">
         <v>566</v>
       </c>
-      <c r="AU558" s="5"/>
-      <c r="AV558" s="5"/>
-      <c r="AW558" s="5"/>
-      <c r="AX558" s="5"/>
     </row>
-    <row r="559" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>583</v>
       </c>
@@ -71134,12 +69813,8 @@
       <c r="E559" t="s">
         <v>566</v>
       </c>
-      <c r="AU559" s="5"/>
-      <c r="AV559" s="5"/>
-      <c r="AW559" s="5"/>
-      <c r="AX559" s="5"/>
     </row>
-    <row r="560" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>584</v>
       </c>
@@ -71155,12 +69830,8 @@
       <c r="E560" t="s">
         <v>566</v>
       </c>
-      <c r="AU560" s="5"/>
-      <c r="AV560" s="5"/>
-      <c r="AW560" s="5"/>
-      <c r="AX560" s="5"/>
     </row>
-    <row r="561" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>585</v>
       </c>
@@ -71176,12 +69847,8 @@
       <c r="E561" t="s">
         <v>566</v>
       </c>
-      <c r="AU561" s="5"/>
-      <c r="AV561" s="5"/>
-      <c r="AW561" s="5"/>
-      <c r="AX561" s="5"/>
     </row>
-    <row r="562" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>586</v>
       </c>
@@ -71197,12 +69864,8 @@
       <c r="E562" t="s">
         <v>566</v>
       </c>
-      <c r="AU562" s="5"/>
-      <c r="AV562" s="5"/>
-      <c r="AW562" s="5"/>
-      <c r="AX562" s="5"/>
     </row>
-    <row r="563" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>587</v>
       </c>
@@ -71218,12 +69881,8 @@
       <c r="E563" t="s">
         <v>566</v>
       </c>
-      <c r="AU563" s="5"/>
-      <c r="AV563" s="5"/>
-      <c r="AW563" s="5"/>
-      <c r="AX563" s="5"/>
     </row>
-    <row r="564" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>588</v>
       </c>
@@ -71239,12 +69898,8 @@
       <c r="E564" t="s">
         <v>566</v>
       </c>
-      <c r="AU564" s="5"/>
-      <c r="AV564" s="5"/>
-      <c r="AW564" s="5"/>
-      <c r="AX564" s="5"/>
     </row>
-    <row r="565" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>589</v>
       </c>
@@ -71260,12 +69915,8 @@
       <c r="E565" t="s">
         <v>566</v>
       </c>
-      <c r="AU565" s="5"/>
-      <c r="AV565" s="5"/>
-      <c r="AW565" s="5"/>
-      <c r="AX565" s="5"/>
     </row>
-    <row r="566" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>590</v>
       </c>
@@ -71281,12 +69932,8 @@
       <c r="E566" t="s">
         <v>566</v>
       </c>
-      <c r="AU566" s="5"/>
-      <c r="AV566" s="5"/>
-      <c r="AW566" s="5"/>
-      <c r="AX566" s="5"/>
     </row>
-    <row r="567" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>591</v>
       </c>
@@ -71302,12 +69949,8 @@
       <c r="E567" t="s">
         <v>566</v>
       </c>
-      <c r="AU567" s="5"/>
-      <c r="AV567" s="5"/>
-      <c r="AW567" s="5"/>
-      <c r="AX567" s="5"/>
     </row>
-    <row r="568" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>592</v>
       </c>
@@ -71323,12 +69966,8 @@
       <c r="E568" t="s">
         <v>566</v>
       </c>
-      <c r="AU568" s="5"/>
-      <c r="AV568" s="5"/>
-      <c r="AW568" s="5"/>
-      <c r="AX568" s="5"/>
     </row>
-    <row r="569" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>593</v>
       </c>
@@ -71344,12 +69983,8 @@
       <c r="E569" t="s">
         <v>566</v>
       </c>
-      <c r="AU569" s="5"/>
-      <c r="AV569" s="5"/>
-      <c r="AW569" s="5"/>
-      <c r="AX569" s="5"/>
     </row>
-    <row r="570" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>594</v>
       </c>
@@ -71365,12 +70000,8 @@
       <c r="E570" t="s">
         <v>566</v>
       </c>
-      <c r="AU570" s="5"/>
-      <c r="AV570" s="5"/>
-      <c r="AW570" s="5"/>
-      <c r="AX570" s="5"/>
     </row>
-    <row r="571" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>595</v>
       </c>
@@ -71386,12 +70017,8 @@
       <c r="E571" t="s">
         <v>566</v>
       </c>
-      <c r="AU571" s="5"/>
-      <c r="AV571" s="5"/>
-      <c r="AW571" s="5"/>
-      <c r="AX571" s="5"/>
     </row>
-    <row r="572" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>596</v>
       </c>
@@ -71407,12 +70034,8 @@
       <c r="E572" t="s">
         <v>566</v>
       </c>
-      <c r="AU572" s="5"/>
-      <c r="AV572" s="5"/>
-      <c r="AW572" s="5"/>
-      <c r="AX572" s="5"/>
     </row>
-    <row r="573" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>597</v>
       </c>
@@ -71428,12 +70051,8 @@
       <c r="E573" t="s">
         <v>566</v>
       </c>
-      <c r="AU573" s="5"/>
-      <c r="AV573" s="5"/>
-      <c r="AW573" s="5"/>
-      <c r="AX573" s="5"/>
     </row>
-    <row r="574" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>598</v>
       </c>
@@ -71449,12 +70068,8 @@
       <c r="E574" t="s">
         <v>566</v>
       </c>
-      <c r="AU574" s="5"/>
-      <c r="AV574" s="5"/>
-      <c r="AW574" s="5"/>
-      <c r="AX574" s="5"/>
     </row>
-    <row r="575" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>599</v>
       </c>
@@ -71470,12 +70085,8 @@
       <c r="E575" t="s">
         <v>566</v>
       </c>
-      <c r="AU575" s="5"/>
-      <c r="AV575" s="5"/>
-      <c r="AW575" s="5"/>
-      <c r="AX575" s="5"/>
     </row>
-    <row r="576" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>600</v>
       </c>
@@ -71491,12 +70102,8 @@
       <c r="E576" t="s">
         <v>566</v>
       </c>
-      <c r="AU576" s="5"/>
-      <c r="AV576" s="5"/>
-      <c r="AW576" s="5"/>
-      <c r="AX576" s="5"/>
     </row>
-    <row r="577" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>601</v>
       </c>
@@ -71512,12 +70119,8 @@
       <c r="E577" t="s">
         <v>566</v>
       </c>
-      <c r="AU577" s="5"/>
-      <c r="AV577" s="5"/>
-      <c r="AW577" s="5"/>
-      <c r="AX577" s="5"/>
     </row>
-    <row r="578" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>602</v>
       </c>
@@ -71533,12 +70136,8 @@
       <c r="E578" t="s">
         <v>566</v>
       </c>
-      <c r="AU578" s="5"/>
-      <c r="AV578" s="5"/>
-      <c r="AW578" s="5"/>
-      <c r="AX578" s="5"/>
     </row>
-    <row r="579" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>603</v>
       </c>
@@ -71554,12 +70153,8 @@
       <c r="E579" t="s">
         <v>566</v>
       </c>
-      <c r="AU579" s="5"/>
-      <c r="AV579" s="5"/>
-      <c r="AW579" s="5"/>
-      <c r="AX579" s="5"/>
     </row>
-    <row r="580" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>604</v>
       </c>
@@ -71575,12 +70170,8 @@
       <c r="E580" t="s">
         <v>566</v>
       </c>
-      <c r="AU580" s="5"/>
-      <c r="AV580" s="5"/>
-      <c r="AW580" s="5"/>
-      <c r="AX580" s="5"/>
     </row>
-    <row r="581" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>605</v>
       </c>
@@ -71596,12 +70187,8 @@
       <c r="E581" t="s">
         <v>566</v>
       </c>
-      <c r="AU581" s="5"/>
-      <c r="AV581" s="5"/>
-      <c r="AW581" s="5"/>
-      <c r="AX581" s="5"/>
     </row>
-    <row r="582" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>606</v>
       </c>
@@ -71617,12 +70204,8 @@
       <c r="E582" t="s">
         <v>566</v>
       </c>
-      <c r="AU582" s="5"/>
-      <c r="AV582" s="5"/>
-      <c r="AW582" s="5"/>
-      <c r="AX582" s="5"/>
     </row>
-    <row r="583" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>607</v>
       </c>
@@ -71638,12 +70221,8 @@
       <c r="E583" t="s">
         <v>566</v>
       </c>
-      <c r="AU583" s="5"/>
-      <c r="AV583" s="5"/>
-      <c r="AW583" s="5"/>
-      <c r="AX583" s="5"/>
     </row>
-    <row r="584" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>608</v>
       </c>
@@ -71659,12 +70238,8 @@
       <c r="E584" t="s">
         <v>566</v>
       </c>
-      <c r="AU584" s="5"/>
-      <c r="AV584" s="5"/>
-      <c r="AW584" s="5"/>
-      <c r="AX584" s="5"/>
     </row>
-    <row r="585" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>609</v>
       </c>
@@ -71680,12 +70255,8 @@
       <c r="E585" t="s">
         <v>566</v>
       </c>
-      <c r="AU585" s="5"/>
-      <c r="AV585" s="5"/>
-      <c r="AW585" s="5"/>
-      <c r="AX585" s="5"/>
     </row>
-    <row r="586" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>610</v>
       </c>
@@ -71701,12 +70272,8 @@
       <c r="E586" t="s">
         <v>566</v>
       </c>
-      <c r="AU586" s="5"/>
-      <c r="AV586" s="5"/>
-      <c r="AW586" s="5"/>
-      <c r="AX586" s="5"/>
     </row>
-    <row r="587" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>611</v>
       </c>
@@ -71722,12 +70289,8 @@
       <c r="E587" t="s">
         <v>566</v>
       </c>
-      <c r="AU587" s="5"/>
-      <c r="AV587" s="5"/>
-      <c r="AW587" s="5"/>
-      <c r="AX587" s="5"/>
     </row>
-    <row r="588" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>612</v>
       </c>
@@ -71743,12 +70306,8 @@
       <c r="E588" t="s">
         <v>566</v>
       </c>
-      <c r="AU588" s="5"/>
-      <c r="AV588" s="5"/>
-      <c r="AW588" s="5"/>
-      <c r="AX588" s="5"/>
     </row>
-    <row r="589" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>613</v>
       </c>
@@ -71764,12 +70323,8 @@
       <c r="E589" t="s">
         <v>566</v>
       </c>
-      <c r="AU589" s="5"/>
-      <c r="AV589" s="5"/>
-      <c r="AW589" s="5"/>
-      <c r="AX589" s="5"/>
     </row>
-    <row r="590" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>614</v>
       </c>
@@ -71785,12 +70340,8 @@
       <c r="E590" t="s">
         <v>566</v>
       </c>
-      <c r="AU590" s="5"/>
-      <c r="AV590" s="5"/>
-      <c r="AW590" s="5"/>
-      <c r="AX590" s="5"/>
     </row>
-    <row r="591" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>615</v>
       </c>
@@ -71806,12 +70357,8 @@
       <c r="E591" t="s">
         <v>566</v>
       </c>
-      <c r="AU591" s="5"/>
-      <c r="AV591" s="5"/>
-      <c r="AW591" s="5"/>
-      <c r="AX591" s="5"/>
     </row>
-    <row r="592" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>616</v>
       </c>
@@ -71827,12 +70374,8 @@
       <c r="E592" t="s">
         <v>566</v>
       </c>
-      <c r="AU592" s="5"/>
-      <c r="AV592" s="5"/>
-      <c r="AW592" s="5"/>
-      <c r="AX592" s="5"/>
     </row>
-    <row r="593" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>617</v>
       </c>
@@ -71848,12 +70391,8 @@
       <c r="E593" t="s">
         <v>566</v>
       </c>
-      <c r="AU593" s="5"/>
-      <c r="AV593" s="5"/>
-      <c r="AW593" s="5"/>
-      <c r="AX593" s="5"/>
     </row>
-    <row r="594" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>618</v>
       </c>
@@ -71869,12 +70408,8 @@
       <c r="E594" t="s">
         <v>566</v>
       </c>
-      <c r="AU594" s="5"/>
-      <c r="AV594" s="5"/>
-      <c r="AW594" s="5"/>
-      <c r="AX594" s="5"/>
     </row>
-    <row r="595" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>619</v>
       </c>
@@ -71890,12 +70425,8 @@
       <c r="E595" t="s">
         <v>566</v>
       </c>
-      <c r="AU595" s="5"/>
-      <c r="AV595" s="5"/>
-      <c r="AW595" s="5"/>
-      <c r="AX595" s="5"/>
     </row>
-    <row r="596" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>620</v>
       </c>
@@ -71911,12 +70442,8 @@
       <c r="E596" t="s">
         <v>566</v>
       </c>
-      <c r="AU596" s="5"/>
-      <c r="AV596" s="5"/>
-      <c r="AW596" s="5"/>
-      <c r="AX596" s="5"/>
     </row>
-    <row r="597" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>621</v>
       </c>
@@ -71932,12 +70459,8 @@
       <c r="E597" t="s">
         <v>566</v>
       </c>
-      <c r="AU597" s="5"/>
-      <c r="AV597" s="5"/>
-      <c r="AW597" s="5"/>
-      <c r="AX597" s="5"/>
     </row>
-    <row r="598" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>622</v>
       </c>
@@ -71953,12 +70476,8 @@
       <c r="E598" t="s">
         <v>566</v>
       </c>
-      <c r="AU598" s="5"/>
-      <c r="AV598" s="5"/>
-      <c r="AW598" s="5"/>
-      <c r="AX598" s="5"/>
     </row>
-    <row r="599" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>623</v>
       </c>
@@ -71974,12 +70493,8 @@
       <c r="E599" t="s">
         <v>566</v>
       </c>
-      <c r="AU599" s="5"/>
-      <c r="AV599" s="5"/>
-      <c r="AW599" s="5"/>
-      <c r="AX599" s="5"/>
     </row>
-    <row r="600" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>624</v>
       </c>
@@ -71995,12 +70510,8 @@
       <c r="E600" t="s">
         <v>566</v>
       </c>
-      <c r="AU600" s="5"/>
-      <c r="AV600" s="5"/>
-      <c r="AW600" s="5"/>
-      <c r="AX600" s="5"/>
     </row>
-    <row r="601" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>625</v>
       </c>
@@ -72016,12 +70527,8 @@
       <c r="E601" t="s">
         <v>566</v>
       </c>
-      <c r="AU601" s="5"/>
-      <c r="AV601" s="5"/>
-      <c r="AW601" s="5"/>
-      <c r="AX601" s="5"/>
     </row>
-    <row r="602" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>626</v>
       </c>
@@ -72037,12 +70544,8 @@
       <c r="E602" t="s">
         <v>566</v>
       </c>
-      <c r="AU602" s="5"/>
-      <c r="AV602" s="5"/>
-      <c r="AW602" s="5"/>
-      <c r="AX602" s="5"/>
     </row>
-    <row r="603" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>627</v>
       </c>
@@ -72058,12 +70561,8 @@
       <c r="E603" t="s">
         <v>566</v>
       </c>
-      <c r="AU603" s="5"/>
-      <c r="AV603" s="5"/>
-      <c r="AW603" s="5"/>
-      <c r="AX603" s="5"/>
     </row>
-    <row r="604" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>628</v>
       </c>
@@ -72079,12 +70578,8 @@
       <c r="E604" t="s">
         <v>566</v>
       </c>
-      <c r="AU604" s="5"/>
-      <c r="AV604" s="5"/>
-      <c r="AW604" s="5"/>
-      <c r="AX604" s="5"/>
     </row>
-    <row r="605" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>629</v>
       </c>
@@ -72100,12 +70595,8 @@
       <c r="E605" t="s">
         <v>566</v>
       </c>
-      <c r="AU605" s="5"/>
-      <c r="AV605" s="5"/>
-      <c r="AW605" s="5"/>
-      <c r="AX605" s="5"/>
     </row>
-    <row r="606" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>630</v>
       </c>
@@ -72121,12 +70612,8 @@
       <c r="E606" t="s">
         <v>566</v>
       </c>
-      <c r="AU606" s="5"/>
-      <c r="AV606" s="5"/>
-      <c r="AW606" s="5"/>
-      <c r="AX606" s="5"/>
     </row>
-    <row r="607" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>631</v>
       </c>
@@ -72142,12 +70629,8 @@
       <c r="E607" t="s">
         <v>566</v>
       </c>
-      <c r="AU607" s="5"/>
-      <c r="AV607" s="5"/>
-      <c r="AW607" s="5"/>
-      <c r="AX607" s="5"/>
     </row>
-    <row r="608" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>632</v>
       </c>
@@ -72163,12 +70646,8 @@
       <c r="E608" t="s">
         <v>566</v>
       </c>
-      <c r="AU608" s="5"/>
-      <c r="AV608" s="5"/>
-      <c r="AW608" s="5"/>
-      <c r="AX608" s="5"/>
     </row>
-    <row r="609" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>633</v>
       </c>
@@ -72184,12 +70663,8 @@
       <c r="E609" t="s">
         <v>566</v>
       </c>
-      <c r="AU609" s="5"/>
-      <c r="AV609" s="5"/>
-      <c r="AW609" s="5"/>
-      <c r="AX609" s="5"/>
     </row>
-    <row r="610" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>634</v>
       </c>
@@ -72205,12 +70680,8 @@
       <c r="E610" t="s">
         <v>566</v>
       </c>
-      <c r="AU610" s="5"/>
-      <c r="AV610" s="5"/>
-      <c r="AW610" s="5"/>
-      <c r="AX610" s="5"/>
     </row>
-    <row r="611" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>635</v>
       </c>
@@ -72226,12 +70697,8 @@
       <c r="E611" t="s">
         <v>566</v>
       </c>
-      <c r="AU611" s="5"/>
-      <c r="AV611" s="5"/>
-      <c r="AW611" s="5"/>
-      <c r="AX611" s="5"/>
     </row>
-    <row r="612" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>636</v>
       </c>
@@ -72247,12 +70714,8 @@
       <c r="E612" t="s">
         <v>566</v>
       </c>
-      <c r="AU612" s="5"/>
-      <c r="AV612" s="5"/>
-      <c r="AW612" s="5"/>
-      <c r="AX612" s="5"/>
     </row>
-    <row r="613" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>637</v>
       </c>
@@ -72268,12 +70731,8 @@
       <c r="E613" t="s">
         <v>566</v>
       </c>
-      <c r="AU613" s="5"/>
-      <c r="AV613" s="5"/>
-      <c r="AW613" s="5"/>
-      <c r="AX613" s="5"/>
     </row>
-    <row r="614" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>638</v>
       </c>
@@ -72289,12 +70748,8 @@
       <c r="E614" t="s">
         <v>566</v>
       </c>
-      <c r="AU614" s="5"/>
-      <c r="AV614" s="5"/>
-      <c r="AW614" s="5"/>
-      <c r="AX614" s="5"/>
     </row>
-    <row r="615" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>639</v>
       </c>
@@ -72310,12 +70765,8 @@
       <c r="E615" t="s">
         <v>566</v>
       </c>
-      <c r="AU615" s="5"/>
-      <c r="AV615" s="5"/>
-      <c r="AW615" s="5"/>
-      <c r="AX615" s="5"/>
     </row>
-    <row r="616" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>640</v>
       </c>
@@ -72331,12 +70782,8 @@
       <c r="E616" t="s">
         <v>566</v>
       </c>
-      <c r="AU616" s="5"/>
-      <c r="AV616" s="5"/>
-      <c r="AW616" s="5"/>
-      <c r="AX616" s="5"/>
     </row>
-    <row r="617" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>641</v>
       </c>
@@ -72352,12 +70799,8 @@
       <c r="E617" t="s">
         <v>566</v>
       </c>
-      <c r="AU617" s="5"/>
-      <c r="AV617" s="5"/>
-      <c r="AW617" s="5"/>
-      <c r="AX617" s="5"/>
     </row>
-    <row r="618" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>642</v>
       </c>
@@ -72373,12 +70816,8 @@
       <c r="E618" t="s">
         <v>566</v>
       </c>
-      <c r="AU618" s="5"/>
-      <c r="AV618" s="5"/>
-      <c r="AW618" s="5"/>
-      <c r="AX618" s="5"/>
     </row>
-    <row r="619" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>643</v>
       </c>
@@ -72394,12 +70833,8 @@
       <c r="E619" t="s">
         <v>566</v>
       </c>
-      <c r="AU619" s="5"/>
-      <c r="AV619" s="5"/>
-      <c r="AW619" s="5"/>
-      <c r="AX619" s="5"/>
     </row>
-    <row r="620" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>644</v>
       </c>
@@ -72415,12 +70850,8 @@
       <c r="E620" t="s">
         <v>566</v>
       </c>
-      <c r="AU620" s="5"/>
-      <c r="AV620" s="5"/>
-      <c r="AW620" s="5"/>
-      <c r="AX620" s="5"/>
     </row>
-    <row r="621" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>645</v>
       </c>
@@ -72436,12 +70867,8 @@
       <c r="E621" t="s">
         <v>566</v>
       </c>
-      <c r="AU621" s="5"/>
-      <c r="AV621" s="5"/>
-      <c r="AW621" s="5"/>
-      <c r="AX621" s="5"/>
     </row>
-    <row r="622" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>646</v>
       </c>
@@ -72457,12 +70884,8 @@
       <c r="E622" t="s">
         <v>566</v>
       </c>
-      <c r="AU622" s="5"/>
-      <c r="AV622" s="5"/>
-      <c r="AW622" s="5"/>
-      <c r="AX622" s="5"/>
     </row>
-    <row r="623" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>647</v>
       </c>
@@ -72478,12 +70901,8 @@
       <c r="E623" t="s">
         <v>566</v>
       </c>
-      <c r="AU623" s="5"/>
-      <c r="AV623" s="5"/>
-      <c r="AW623" s="5"/>
-      <c r="AX623" s="5"/>
     </row>
-    <row r="624" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>648</v>
       </c>
@@ -72499,12 +70918,8 @@
       <c r="E624" t="s">
         <v>566</v>
       </c>
-      <c r="AU624" s="5"/>
-      <c r="AV624" s="5"/>
-      <c r="AW624" s="5"/>
-      <c r="AX624" s="5"/>
     </row>
-    <row r="625" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>649</v>
       </c>
@@ -72520,12 +70935,8 @@
       <c r="E625" t="s">
         <v>566</v>
       </c>
-      <c r="AU625" s="5"/>
-      <c r="AV625" s="5"/>
-      <c r="AW625" s="5"/>
-      <c r="AX625" s="5"/>
     </row>
-    <row r="626" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>650</v>
       </c>
@@ -72541,12 +70952,8 @@
       <c r="E626" t="s">
         <v>566</v>
       </c>
-      <c r="AU626" s="5"/>
-      <c r="AV626" s="5"/>
-      <c r="AW626" s="5"/>
-      <c r="AX626" s="5"/>
     </row>
-    <row r="627" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>651</v>
       </c>
@@ -72562,12 +70969,8 @@
       <c r="E627" t="s">
         <v>566</v>
       </c>
-      <c r="AU627" s="5"/>
-      <c r="AV627" s="5"/>
-      <c r="AW627" s="5"/>
-      <c r="AX627" s="5"/>
     </row>
-    <row r="628" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>652</v>
       </c>
@@ -72583,12 +70986,8 @@
       <c r="E628" t="s">
         <v>566</v>
       </c>
-      <c r="AU628" s="5"/>
-      <c r="AV628" s="5"/>
-      <c r="AW628" s="5"/>
-      <c r="AX628" s="5"/>
     </row>
-    <row r="629" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>653</v>
       </c>
@@ -72604,12 +71003,8 @@
       <c r="E629" t="s">
         <v>566</v>
       </c>
-      <c r="AU629" s="5"/>
-      <c r="AV629" s="5"/>
-      <c r="AW629" s="5"/>
-      <c r="AX629" s="5"/>
     </row>
-    <row r="630" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>654</v>
       </c>
@@ -72625,12 +71020,8 @@
       <c r="E630" t="s">
         <v>566</v>
       </c>
-      <c r="AU630" s="5"/>
-      <c r="AV630" s="5"/>
-      <c r="AW630" s="5"/>
-      <c r="AX630" s="5"/>
     </row>
-    <row r="631" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>655</v>
       </c>
@@ -72646,10 +71037,6 @@
       <c r="E631" t="s">
         <v>566</v>
       </c>
-      <c r="AU631" s="5"/>
-      <c r="AV631" s="5"/>
-      <c r="AW631" s="5"/>
-      <c r="AX631" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
